--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-06.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2458"/>
+  <dimension ref="A1:H2436"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70877,10 +70877,8 @@
       </c>
       <c r="F2206" t="inlineStr"/>
       <c r="G2206" t="inlineStr"/>
-      <c r="H2206" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2206" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2207">
@@ -70915,10 +70913,8 @@
           <t>7.0K</t>
         </is>
       </c>
-      <c r="H2207" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2207" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2208">
@@ -70949,10 +70945,8 @@
           <t>2.876M</t>
         </is>
       </c>
-      <c r="H2208" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2208" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2209">
@@ -70987,10 +70981,8 @@
           <t>6.2%</t>
         </is>
       </c>
-      <c r="H2209" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2209" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2210">
@@ -71013,10 +71005,8 @@
       <c r="E2210" t="inlineStr"/>
       <c r="F2210" t="inlineStr"/>
       <c r="G2210" t="inlineStr"/>
-      <c r="H2210" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2210" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2211">
@@ -71043,10 +71033,8 @@
       </c>
       <c r="F2211" t="inlineStr"/>
       <c r="G2211" t="inlineStr"/>
-      <c r="H2211" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2211" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2212">
@@ -71073,10 +71061,8 @@
       </c>
       <c r="F2212" t="inlineStr"/>
       <c r="G2212" t="inlineStr"/>
-      <c r="H2212" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2212" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2213">
@@ -71103,10 +71089,8 @@
       </c>
       <c r="F2213" t="inlineStr"/>
       <c r="G2213" t="inlineStr"/>
-      <c r="H2213" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2213" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2214">
@@ -71133,10 +71117,8 @@
       </c>
       <c r="F2214" t="inlineStr"/>
       <c r="G2214" t="inlineStr"/>
-      <c r="H2214" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2214" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2215">
@@ -71163,10 +71145,8 @@
       </c>
       <c r="F2215" t="inlineStr"/>
       <c r="G2215" t="inlineStr"/>
-      <c r="H2215" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2215" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2216">
@@ -71193,10 +71173,8 @@
       </c>
       <c r="F2216" t="inlineStr"/>
       <c r="G2216" t="inlineStr"/>
-      <c r="H2216" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2216" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2217">
@@ -71223,10 +71201,8 @@
       </c>
       <c r="F2217" t="inlineStr"/>
       <c r="G2217" t="inlineStr"/>
-      <c r="H2217" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2217" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2218">
@@ -71253,10 +71229,8 @@
       </c>
       <c r="F2218" t="inlineStr"/>
       <c r="G2218" t="inlineStr"/>
-      <c r="H2218" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2218" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2219">
@@ -71283,10 +71257,8 @@
       </c>
       <c r="F2219" t="inlineStr"/>
       <c r="G2219" t="inlineStr"/>
-      <c r="H2219" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2219" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2220">
@@ -71313,10 +71285,8 @@
       </c>
       <c r="F2220" t="inlineStr"/>
       <c r="G2220" t="inlineStr"/>
-      <c r="H2220" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2220" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2221">
@@ -71343,10 +71313,8 @@
       </c>
       <c r="F2221" t="inlineStr"/>
       <c r="G2221" t="inlineStr"/>
-      <c r="H2221" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2221" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2222">
@@ -71373,10 +71341,8 @@
       </c>
       <c r="F2222" t="inlineStr"/>
       <c r="G2222" t="inlineStr"/>
-      <c r="H2222" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2222" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2223">
@@ -71407,10 +71373,8 @@
           <t>€5.0B</t>
         </is>
       </c>
-      <c r="H2223" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2223" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2224">
@@ -71441,10 +71405,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2224" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2224" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2225">
@@ -71475,10 +71437,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2225" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2225" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2226">
@@ -71509,10 +71469,8 @@
           <t>INR-9700.0B</t>
         </is>
       </c>
-      <c r="H2226" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2226" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2227">
@@ -71543,10 +71501,8 @@
           <t>77.9%</t>
         </is>
       </c>
-      <c r="H2227" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2227" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2228">
@@ -71577,10 +71533,8 @@
           <t>BRL-103.0B</t>
         </is>
       </c>
-      <c r="H2228" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2228" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2229">
@@ -71607,10 +71561,8 @@
       </c>
       <c r="F2229" t="inlineStr"/>
       <c r="G2229" t="inlineStr"/>
-      <c r="H2229" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2229" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2230">
@@ -71637,10 +71589,8 @@
       </c>
       <c r="F2230" t="inlineStr"/>
       <c r="G2230" t="inlineStr"/>
-      <c r="H2230" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2230" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2231">
@@ -71667,10 +71617,8 @@
       </c>
       <c r="F2231" t="inlineStr"/>
       <c r="G2231" t="inlineStr"/>
-      <c r="H2231" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2231" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2232">
@@ -71701,10 +71649,8 @@
           <t>4.8%</t>
         </is>
       </c>
-      <c r="H2232" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2232" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2233">
@@ -71735,10 +71681,8 @@
           <t>6.1%</t>
         </is>
       </c>
-      <c r="H2233" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2233" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2234">
@@ -71769,10 +71713,8 @@
           <t>ZAR 27.0B</t>
         </is>
       </c>
-      <c r="H2234" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2234" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2235">
@@ -71807,10 +71749,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2235" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2235" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2236">
@@ -71845,10 +71785,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2236" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2236" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2237">
@@ -71879,10 +71817,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2237" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2237" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2238">
@@ -71917,10 +71853,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H2238" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2238" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2239">
@@ -71955,10 +71889,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2239" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2239" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2240">
@@ -71989,10 +71921,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2240" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2240" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2241">
@@ -72027,10 +71957,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2241" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2241" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2242">
@@ -72065,10 +71993,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2242" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2242" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2243">
@@ -72103,10 +72029,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2243" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2243" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2244">
@@ -72137,10 +72061,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2244" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2244" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2245">
@@ -72171,10 +72093,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2245" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2245" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2246">
@@ -72209,10 +72129,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2246" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2246" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2247">
@@ -72235,10 +72153,8 @@
       <c r="E2247" t="inlineStr"/>
       <c r="F2247" t="inlineStr"/>
       <c r="G2247" t="inlineStr"/>
-      <c r="H2247" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2247" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2248">
@@ -72269,10 +72185,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2248" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2248" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2249">
@@ -72303,10 +72217,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2249" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2249" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2250">
@@ -72337,10 +72249,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H2250" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2250" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2251">
@@ -72375,10 +72285,8 @@
           <t>37.2</t>
         </is>
       </c>
-      <c r="H2251" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2251" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2252">
@@ -72409,10 +72317,8 @@
           <t>C$-1.9B</t>
         </is>
       </c>
-      <c r="H2252" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2252" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2253">
@@ -72439,10 +72345,8 @@
       </c>
       <c r="F2253" t="inlineStr"/>
       <c r="G2253" t="inlineStr"/>
-      <c r="H2253" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2253" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2254">
@@ -72469,10 +72373,8 @@
       </c>
       <c r="F2254" t="inlineStr"/>
       <c r="G2254" t="inlineStr"/>
-      <c r="H2254" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2254" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2255">
@@ -72503,10 +72405,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2255" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2255" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2256">
@@ -72537,10 +72437,8 @@
           <t>$0.9B</t>
         </is>
       </c>
-      <c r="H2256" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2256" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2257">
@@ -72571,10 +72469,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H2257" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2257" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2258">
@@ -72601,10 +72497,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2258" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2258" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2259">
@@ -72631,10 +72525,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2259" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2259" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2260">
@@ -72661,10 +72553,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H2260" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2260" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2261">
@@ -72691,10 +72581,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H2261" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2261" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2262">
@@ -72721,10 +72609,8 @@
           <t>20.7%</t>
         </is>
       </c>
-      <c r="H2262" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2262" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2263">
@@ -72765,10 +72651,8 @@
       </c>
       <c r="F2264" t="inlineStr"/>
       <c r="G2264" t="inlineStr"/>
-      <c r="H2264" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2264" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2265">
@@ -72799,10 +72683,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2265" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2265" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2266">
@@ -72833,10 +72715,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H2266" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2266" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2267">
@@ -72867,10 +72747,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2267" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2267" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2268">
@@ -72893,10 +72771,8 @@
       <c r="E2268" t="inlineStr"/>
       <c r="F2268" t="inlineStr"/>
       <c r="G2268" t="inlineStr"/>
-      <c r="H2268" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2268" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2269">
@@ -72927,10 +72803,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H2269" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2269" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2270">
@@ -72961,10 +72835,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2270" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2270" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2271">
@@ -72991,10 +72863,8 @@
       </c>
       <c r="F2271" t="inlineStr"/>
       <c r="G2271" t="inlineStr"/>
-      <c r="H2271" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2271" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2272">
@@ -73021,10 +72891,8 @@
       </c>
       <c r="F2272" t="inlineStr"/>
       <c r="G2272" t="inlineStr"/>
-      <c r="H2272" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2272" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2273">
@@ -73055,10 +72923,8 @@
           <t>51.6</t>
         </is>
       </c>
-      <c r="H2273" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2273" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2274">
@@ -73093,10 +72959,8 @@
           <t>48.8</t>
         </is>
       </c>
-      <c r="H2274" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2274" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2275">
@@ -73127,10 +72991,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H2275" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2275" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2276">
@@ -73165,10 +73027,8 @@
           <t>50.5</t>
         </is>
       </c>
-      <c r="H2276" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2276" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2277">
@@ -73199,10 +73059,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H2277" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2277" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2278">
@@ -73233,10 +73091,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H2278" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2278" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2279">
@@ -73267,10 +73123,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2279" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2279" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2280">
@@ -73301,114 +73155,120 @@
           <t>18.0%</t>
         </is>
       </c>
-      <c r="H2280" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2280" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2281">
       <c r="A2281" t="inlineStr">
         <is>
-          <t>Monday February 03 2025</t>
-        </is>
-      </c>
-      <c r="B2281" t="inlineStr"/>
-      <c r="C2281" t="inlineStr"/>
+          <t>05:00 AM</t>
+        </is>
+      </c>
+      <c r="B2281" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C2281" t="inlineStr">
+        <is>
+          <t>CPI FlashJAN</t>
+        </is>
+      </c>
       <c r="D2281" t="inlineStr"/>
-      <c r="E2281" t="inlineStr"/>
+      <c r="E2281" t="inlineStr">
+        <is>
+          <t>127.07</t>
+        </is>
+      </c>
       <c r="F2281" t="inlineStr"/>
       <c r="G2281" t="inlineStr"/>
-      <c r="H2281" t="inlineStr"/>
+      <c r="H2281" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2282">
       <c r="A2282" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2282" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2282" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2282" t="inlineStr"/>
       <c r="E2282" t="inlineStr">
         <is>
-          <t>56.4</t>
-        </is>
-      </c>
-      <c r="F2282" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="G2282" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="F2282" t="inlineStr"/>
+      <c r="G2282" t="inlineStr"/>
       <c r="H2282" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2283">
       <c r="A2283" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2283" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2283" t="inlineStr">
         <is>
-          <t>2-Year KTB Auction</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2283" t="inlineStr"/>
       <c r="E2283" t="inlineStr">
         <is>
-          <t>2.670%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2283" t="inlineStr"/>
       <c r="G2283" t="inlineStr"/>
       <c r="H2283" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2284">
       <c r="A2284" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2284" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2284" t="inlineStr">
         <is>
-          <t>Commodity Prices YoYJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2284" t="inlineStr"/>
       <c r="E2284" t="inlineStr">
         <is>
-          <t>-10.7%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2284" t="inlineStr"/>
@@ -73422,117 +73282,129 @@
     <row r="2285">
       <c r="A2285" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2285" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2285" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2285" t="inlineStr"/>
       <c r="E2285" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F2285" t="inlineStr"/>
       <c r="G2285" t="inlineStr"/>
       <c r="H2285" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2286">
       <c r="A2286" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2286" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2286" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D2286" t="inlineStr"/>
       <c r="E2286" t="inlineStr">
         <is>
-          <t>1.03%</t>
+          <t>$232.2B</t>
         </is>
       </c>
       <c r="F2286" t="inlineStr"/>
-      <c r="G2286" t="inlineStr"/>
+      <c r="G2286" t="inlineStr">
+        <is>
+          <t>$ 230B</t>
+        </is>
+      </c>
       <c r="H2286" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2287">
       <c r="A2287" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2287" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2287" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2287" t="inlineStr"/>
       <c r="E2287" t="inlineStr">
         <is>
-          <t>44.38%</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F2287" t="inlineStr"/>
-      <c r="G2287" t="inlineStr"/>
+      <c r="G2287" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="H2287" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2288">
       <c r="A2288" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2288" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2288" t="inlineStr">
         <is>
-          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
+          <t>SIPMM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2288" t="inlineStr"/>
       <c r="E2288" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F2288" t="inlineStr"/>
-      <c r="G2288" t="inlineStr"/>
+      <c r="G2288" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="H2288" t="inlineStr">
         <is>
           <t>3</t>
@@ -73542,55 +73414,47 @@
     <row r="2289">
       <c r="A2289" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2289" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2289" t="inlineStr">
         <is>
-          <t>PPI MoMJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2289" t="inlineStr"/>
-      <c r="E2289" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="E2289" t="inlineStr"/>
       <c r="F2289" t="inlineStr"/>
       <c r="G2289" t="inlineStr"/>
       <c r="H2289" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2290">
       <c r="A2290" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2290" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2290" t="inlineStr">
         <is>
-          <t>PPI YoYJAN</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2290" t="inlineStr"/>
-      <c r="E2290" t="inlineStr">
-        <is>
-          <t>28.52%</t>
-        </is>
-      </c>
+      <c r="E2290" t="inlineStr"/>
       <c r="F2290" t="inlineStr"/>
       <c r="G2290" t="inlineStr"/>
       <c r="H2290" t="inlineStr">
@@ -73602,47 +73466,43 @@
     <row r="2291">
       <c r="A2291" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2291" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2291" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2291" t="inlineStr"/>
-      <c r="E2291" t="inlineStr">
-        <is>
-          <t>-25.3K</t>
-        </is>
-      </c>
+      <c r="E2291" t="inlineStr"/>
       <c r="F2291" t="inlineStr"/>
       <c r="G2291" t="inlineStr"/>
       <c r="H2291" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2292">
       <c r="A2292" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2292" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2292" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2292" t="inlineStr"/>
@@ -73658,23 +73518,23 @@
     <row r="2293">
       <c r="A2293" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2293" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2293" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2293" t="inlineStr"/>
       <c r="E2293" t="inlineStr">
         <is>
-          <t>53.3</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="F2293" t="inlineStr"/>
@@ -73688,27 +73548,35 @@
     <row r="2294">
       <c r="A2294" t="inlineStr">
         <is>
-          <t>03:45 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B2294" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2294" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2294" t="inlineStr"/>
       <c r="E2294" t="inlineStr">
         <is>
-          <t>46.2</t>
-        </is>
-      </c>
-      <c r="F2294" t="inlineStr"/>
-      <c r="G2294" t="inlineStr"/>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="F2294" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
+      <c r="G2294" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
       <c r="H2294" t="inlineStr">
         <is>
           <t>2</t>
@@ -73718,73 +73586,57 @@
     <row r="2295">
       <c r="A2295" t="inlineStr">
         <is>
-          <t>03:50 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2295" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2295" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2295" t="inlineStr"/>
       <c r="E2295" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F2295" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
-      <c r="G2295" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F2295" t="inlineStr"/>
+      <c r="G2295" t="inlineStr"/>
       <c r="H2295" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2296">
       <c r="A2296" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2296" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2296" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing EmploymentJAN</t>
         </is>
       </c>
       <c r="D2296" t="inlineStr"/>
       <c r="E2296" t="inlineStr">
         <is>
-          <t>42.5</t>
-        </is>
-      </c>
-      <c r="F2296" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
-      <c r="G2296" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="F2296" t="inlineStr"/>
+      <c r="G2296" t="inlineStr"/>
       <c r="H2296" t="inlineStr">
         <is>
           <t>2</t>
@@ -73794,69 +73646,57 @@
     <row r="2297">
       <c r="A2297" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2297" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2297" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>Construction Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2297" t="inlineStr"/>
       <c r="E2297" t="inlineStr">
         <is>
-          <t>45.1</t>
-        </is>
-      </c>
-      <c r="F2297" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F2297" t="inlineStr"/>
       <c r="G2297" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2297" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2298">
       <c r="A2298" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2298" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2298" t="inlineStr">
         <is>
-          <t>ABSA Manufacturing PMIJAN</t>
+          <t>ISM Manufacturing New OrdersJAN</t>
         </is>
       </c>
       <c r="D2298" t="inlineStr"/>
-      <c r="E2298" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="E2298" t="inlineStr"/>
       <c r="F2298" t="inlineStr"/>
-      <c r="G2298" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
+      <c r="G2298" t="inlineStr"/>
       <c r="H2298" t="inlineStr">
         <is>
           <t>3</t>
@@ -73866,55 +73706,43 @@
     <row r="2299">
       <c r="A2299" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2299" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2299" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PricesJAN</t>
         </is>
       </c>
       <c r="D2299" t="inlineStr"/>
-      <c r="E2299" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F2299" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
-      <c r="G2299" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
+      <c r="E2299" t="inlineStr"/>
+      <c r="F2299" t="inlineStr"/>
+      <c r="G2299" t="inlineStr"/>
       <c r="H2299" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2300">
       <c r="A2300" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2300" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2300" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FlashJAN</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2300" t="inlineStr"/>
@@ -73923,54 +73751,50 @@
       <c r="G2300" t="inlineStr"/>
       <c r="H2300" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2301">
       <c r="A2301" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2301" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2301" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FlashJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2301" t="inlineStr"/>
-      <c r="E2301" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E2301" t="inlineStr"/>
       <c r="F2301" t="inlineStr"/>
       <c r="G2301" t="inlineStr"/>
       <c r="H2301" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2302">
       <c r="A2302" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2302" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2302" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FlashJAN</t>
+          <t>Treasury Refunding Financing Estimates</t>
         </is>
       </c>
       <c r="D2302" t="inlineStr"/>
@@ -73979,30 +73803,30 @@
       <c r="G2302" t="inlineStr"/>
       <c r="H2302" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2303">
       <c r="A2303" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2303" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2303" t="inlineStr">
         <is>
-          <t>CPI FlashJAN</t>
+          <t>Tax RevenueJAN</t>
         </is>
       </c>
       <c r="D2303" t="inlineStr"/>
       <c r="E2303" t="inlineStr">
         <is>
-          <t>127.07</t>
+          <t>ARS13015B</t>
         </is>
       </c>
       <c r="F2303" t="inlineStr"/>
@@ -74016,87 +73840,87 @@
     <row r="2304">
       <c r="A2304" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B2304" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2304" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>10-Year JGB Auction</t>
         </is>
       </c>
       <c r="D2304" t="inlineStr"/>
       <c r="E2304" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>1.140%</t>
         </is>
       </c>
       <c r="F2304" t="inlineStr"/>
       <c r="G2304" t="inlineStr"/>
       <c r="H2304" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2305">
       <c r="A2305" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:15 PM</t>
         </is>
       </c>
       <c r="B2305" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C2305" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Riyad Bank PMIJAN</t>
         </is>
       </c>
       <c r="D2305" t="inlineStr"/>
       <c r="E2305" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="F2305" t="inlineStr"/>
       <c r="G2305" t="inlineStr"/>
       <c r="H2305" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2306">
-      <c r="A2306" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
+      <c r="A2306" t="inlineStr"/>
       <c r="B2306" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2306" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>Total New Vehicle SalesJAN</t>
         </is>
       </c>
       <c r="D2306" t="inlineStr"/>
       <c r="E2306" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>41.27K</t>
         </is>
       </c>
       <c r="F2306" t="inlineStr"/>
-      <c r="G2306" t="inlineStr"/>
+      <c r="G2306" t="inlineStr">
+        <is>
+          <t>43.0K</t>
+        </is>
+      </c>
       <c r="H2306" t="inlineStr">
         <is>
           <t>3</t>
@@ -74106,61 +73930,41 @@
     <row r="2307">
       <c r="A2307" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B2307" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C2307" t="inlineStr">
-        <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
-        </is>
-      </c>
+          <t>Tuesday February 04 2025</t>
+        </is>
+      </c>
+      <c r="B2307" t="inlineStr"/>
+      <c r="C2307" t="inlineStr"/>
       <c r="D2307" t="inlineStr"/>
-      <c r="E2307" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
+      <c r="E2307" t="inlineStr"/>
       <c r="F2307" t="inlineStr"/>
       <c r="G2307" t="inlineStr"/>
-      <c r="H2307" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2307" t="inlineStr"/>
     </row>
     <row r="2308">
       <c r="A2308" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2308" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2308" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2308" t="inlineStr"/>
       <c r="E2308" t="inlineStr">
         <is>
-          <t>$232.2B</t>
+          <t>3.08%</t>
         </is>
       </c>
       <c r="F2308" t="inlineStr"/>
-      <c r="G2308" t="inlineStr">
-        <is>
-          <t>$ 230B</t>
-        </is>
-      </c>
+      <c r="G2308" t="inlineStr"/>
       <c r="H2308" t="inlineStr">
         <is>
           <t>3</t>
@@ -74170,31 +73974,27 @@
     <row r="2309">
       <c r="A2309" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2309" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2309" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2309" t="inlineStr"/>
       <c r="E2309" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F2309" t="inlineStr"/>
-      <c r="G2309" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
+      <c r="G2309" t="inlineStr"/>
       <c r="H2309" t="inlineStr">
         <is>
           <t>3</t>
@@ -74204,31 +74004,27 @@
     <row r="2310">
       <c r="A2310" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2310" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2310" t="inlineStr">
         <is>
-          <t>SIPMM Manufacturing PMIJAN</t>
+          <t>30-Year KTB Auction</t>
         </is>
       </c>
       <c r="D2310" t="inlineStr"/>
       <c r="E2310" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>2.705%</t>
         </is>
       </c>
       <c r="F2310" t="inlineStr"/>
-      <c r="G2310" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+      <c r="G2310" t="inlineStr"/>
       <c r="H2310" t="inlineStr">
         <is>
           <t>3</t>
@@ -74238,47 +74034,55 @@
     <row r="2311">
       <c r="A2311" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B2311" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2311" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D2311" t="inlineStr"/>
-      <c r="E2311" t="inlineStr"/>
+      <c r="E2311" t="inlineStr">
+        <is>
+          <t>€-172.5B</t>
+        </is>
+      </c>
       <c r="F2311" t="inlineStr"/>
       <c r="G2311" t="inlineStr"/>
       <c r="H2311" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2312">
       <c r="A2312" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B2312" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2312" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>IPC-Fipe Inflation MoMJAN</t>
         </is>
       </c>
       <c r="D2312" t="inlineStr"/>
-      <c r="E2312" t="inlineStr"/>
+      <c r="E2312" t="inlineStr">
+        <is>
+          <t>0.34%</t>
+        </is>
+      </c>
       <c r="F2312" t="inlineStr"/>
       <c r="G2312" t="inlineStr"/>
       <c r="H2312" t="inlineStr">
@@ -74290,17 +74094,17 @@
     <row r="2313">
       <c r="A2313" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2313" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2313" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>5-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D2313" t="inlineStr"/>
@@ -74316,17 +74120,17 @@
     <row r="2314">
       <c r="A2314" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2314" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2314" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BCB Copom Meeting Minutes</t>
         </is>
       </c>
       <c r="D2314" t="inlineStr"/>
@@ -74335,112 +74139,112 @@
       <c r="G2314" t="inlineStr"/>
       <c r="H2314" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2315">
       <c r="A2315" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2315" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2315" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2315" t="inlineStr"/>
       <c r="E2315" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>1.23%</t>
         </is>
       </c>
       <c r="F2315" t="inlineStr"/>
-      <c r="G2315" t="inlineStr"/>
+      <c r="G2315" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2315" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2316">
       <c r="A2316" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2316" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2316" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2316" t="inlineStr"/>
       <c r="E2316" t="inlineStr">
         <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="F2316" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
+          <t>7.59%</t>
+        </is>
+      </c>
+      <c r="F2316" t="inlineStr"/>
       <c r="G2316" t="inlineStr">
         <is>
-          <t>50.1</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="H2316" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2317">
       <c r="A2317" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2317" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2317" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PMIJAN</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2317" t="inlineStr"/>
       <c r="E2317" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F2317" t="inlineStr"/>
       <c r="G2317" t="inlineStr"/>
       <c r="H2317" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2318">
       <c r="A2318" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B2318" t="inlineStr">
@@ -74450,20 +74254,16 @@
       </c>
       <c r="C2318" t="inlineStr">
         <is>
-          <t>ISM Manufacturing EmploymentJAN</t>
+          <t>Redbook YoYFEB/01</t>
         </is>
       </c>
       <c r="D2318" t="inlineStr"/>
-      <c r="E2318" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+      <c r="E2318" t="inlineStr"/>
       <c r="F2318" t="inlineStr"/>
       <c r="G2318" t="inlineStr"/>
       <c r="H2318" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -74475,26 +74275,22 @@
       </c>
       <c r="B2319" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2319" t="inlineStr">
         <is>
-          <t>Construction Spending MoMDEC</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2319" t="inlineStr"/>
       <c r="E2319" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>49.8</t>
         </is>
       </c>
       <c r="F2319" t="inlineStr"/>
-      <c r="G2319" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2319" t="inlineStr"/>
       <c r="H2319" t="inlineStr">
         <is>
           <t>3</t>
@@ -74514,16 +74310,20 @@
       </c>
       <c r="C2320" t="inlineStr">
         <is>
-          <t>ISM Manufacturing New OrdersJAN</t>
+          <t>JOLTs Job OpeningsDEC</t>
         </is>
       </c>
       <c r="D2320" t="inlineStr"/>
       <c r="E2320" t="inlineStr"/>
       <c r="F2320" t="inlineStr"/>
-      <c r="G2320" t="inlineStr"/>
+      <c r="G2320" t="inlineStr">
+        <is>
+          <t>7.6M</t>
+        </is>
+      </c>
       <c r="H2320" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -74540,23 +74340,31 @@
       </c>
       <c r="C2321" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PricesJAN</t>
+          <t>Factory Orders MoMDEC</t>
         </is>
       </c>
       <c r="D2321" t="inlineStr"/>
-      <c r="E2321" t="inlineStr"/>
+      <c r="E2321" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
       <c r="F2321" t="inlineStr"/>
-      <c r="G2321" t="inlineStr"/>
+      <c r="G2321" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="H2321" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2322">
       <c r="A2322" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2322" t="inlineStr">
@@ -74566,13 +74374,21 @@
       </c>
       <c r="C2322" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Factory Orders ex TransportationDEC</t>
         </is>
       </c>
       <c r="D2322" t="inlineStr"/>
-      <c r="E2322" t="inlineStr"/>
+      <c r="E2322" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F2322" t="inlineStr"/>
-      <c r="G2322" t="inlineStr"/>
+      <c r="G2322" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H2322" t="inlineStr">
         <is>
           <t>3</t>
@@ -74582,7 +74398,7 @@
     <row r="2323">
       <c r="A2323" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2323" t="inlineStr">
@@ -74592,7 +74408,7 @@
       </c>
       <c r="C2323" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>JOLTs Job QuitsDEC</t>
         </is>
       </c>
       <c r="D2323" t="inlineStr"/>
@@ -74608,7 +74424,7 @@
     <row r="2324">
       <c r="A2324" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>10:10 AM</t>
         </is>
       </c>
       <c r="B2324" t="inlineStr">
@@ -74618,11 +74434,15 @@
       </c>
       <c r="C2324" t="inlineStr">
         <is>
-          <t>Treasury Refunding Financing Estimates</t>
+          <t>RCM/TIPP Economic Optimism IndexFEB</t>
         </is>
       </c>
       <c r="D2324" t="inlineStr"/>
-      <c r="E2324" t="inlineStr"/>
+      <c r="E2324" t="inlineStr">
+        <is>
+          <t>51.9</t>
+        </is>
+      </c>
       <c r="F2324" t="inlineStr"/>
       <c r="G2324" t="inlineStr"/>
       <c r="H2324" t="inlineStr">
@@ -74634,55 +74454,47 @@
     <row r="2325">
       <c r="A2325" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B2325" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2325" t="inlineStr">
         <is>
-          <t>Tax RevenueJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2325" t="inlineStr"/>
-      <c r="E2325" t="inlineStr">
-        <is>
-          <t>ARS13015B</t>
-        </is>
-      </c>
+      <c r="E2325" t="inlineStr"/>
       <c r="F2325" t="inlineStr"/>
       <c r="G2325" t="inlineStr"/>
       <c r="H2325" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2326">
       <c r="A2326" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B2326" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2326" t="inlineStr">
         <is>
-          <t>10-Year JGB Auction</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2326" t="inlineStr"/>
-      <c r="E2326" t="inlineStr">
-        <is>
-          <t>1.140%</t>
-        </is>
-      </c>
+      <c r="E2326" t="inlineStr"/>
       <c r="F2326" t="inlineStr"/>
       <c r="G2326" t="inlineStr"/>
       <c r="H2326" t="inlineStr">
@@ -74694,127 +74506,131 @@
     <row r="2327">
       <c r="A2327" t="inlineStr">
         <is>
-          <t>11:15 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B2327" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2327" t="inlineStr">
         <is>
-          <t>Riyad Bank PMIJAN</t>
+          <t>API Crude Oil Stock ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2327" t="inlineStr"/>
-      <c r="E2327" t="inlineStr">
-        <is>
-          <t>58.4</t>
-        </is>
-      </c>
+      <c r="E2327" t="inlineStr"/>
       <c r="F2327" t="inlineStr"/>
       <c r="G2327" t="inlineStr"/>
       <c r="H2327" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2328">
-      <c r="A2328" t="inlineStr"/>
+      <c r="A2328" t="inlineStr">
+        <is>
+          <t>05:00 PM</t>
+        </is>
+      </c>
       <c r="B2328" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2328" t="inlineStr">
         <is>
-          <t>Total New Vehicle SalesJAN</t>
+          <t>Judo Bank Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2328" t="inlineStr"/>
-      <c r="E2328" t="inlineStr">
-        <is>
-          <t>41.27K</t>
-        </is>
-      </c>
+      <c r="E2328" t="inlineStr"/>
       <c r="F2328" t="inlineStr"/>
-      <c r="G2328" t="inlineStr">
-        <is>
-          <t>43.0K</t>
-        </is>
-      </c>
+      <c r="G2328" t="inlineStr"/>
       <c r="H2328" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2329">
       <c r="A2329" t="inlineStr">
         <is>
-          <t>Tuesday February 04 2025</t>
-        </is>
-      </c>
-      <c r="B2329" t="inlineStr"/>
-      <c r="C2329" t="inlineStr"/>
+          <t>05:00 PM</t>
+        </is>
+      </c>
+      <c r="B2329" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="C2329" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Australia Composite PMI FinalJAN</t>
+        </is>
+      </c>
       <c r="D2329" t="inlineStr"/>
       <c r="E2329" t="inlineStr"/>
       <c r="F2329" t="inlineStr"/>
       <c r="G2329" t="inlineStr"/>
-      <c r="H2329" t="inlineStr"/>
+      <c r="H2329" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2330">
       <c r="A2330" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2330" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2330" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2330" t="inlineStr"/>
       <c r="E2330" t="inlineStr">
         <is>
-          <t>3.08%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F2330" t="inlineStr"/>
       <c r="G2330" t="inlineStr"/>
       <c r="H2330" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2331">
       <c r="A2331" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2331" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2331" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2331" t="inlineStr"/>
       <c r="E2331" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2331" t="inlineStr"/>
@@ -74828,27 +74644,27 @@
     <row r="2332">
       <c r="A2332" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2332" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2332" t="inlineStr">
         <is>
-          <t>30-Year KTB Auction</t>
+          <t>Average Cash Earnings YoYDEC</t>
         </is>
       </c>
       <c r="D2332" t="inlineStr"/>
-      <c r="E2332" t="inlineStr">
-        <is>
-          <t>2.705%</t>
-        </is>
-      </c>
+      <c r="E2332" t="inlineStr"/>
       <c r="F2332" t="inlineStr"/>
-      <c r="G2332" t="inlineStr"/>
+      <c r="G2332" t="inlineStr">
+        <is>
+          <t>2.1%</t>
+        </is>
+      </c>
       <c r="H2332" t="inlineStr">
         <is>
           <t>3</t>
@@ -74858,23 +74674,23 @@
     <row r="2333">
       <c r="A2333" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2333" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2333" t="inlineStr">
         <is>
-          <t>Budget BalanceDEC</t>
+          <t>TD-MI Inflation Gauge MoMJAN</t>
         </is>
       </c>
       <c r="D2333" t="inlineStr"/>
       <c r="E2333" t="inlineStr">
         <is>
-          <t>€-172.5B</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="F2333" t="inlineStr"/>
@@ -74888,53 +74704,69 @@
     <row r="2334">
       <c r="A2334" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2334" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2334" t="inlineStr">
         <is>
-          <t>IPC-Fipe Inflation MoMJAN</t>
+          <t>Jibun Bank Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2334" t="inlineStr"/>
       <c r="E2334" t="inlineStr">
         <is>
-          <t>0.34%</t>
-        </is>
-      </c>
-      <c r="F2334" t="inlineStr"/>
-      <c r="G2334" t="inlineStr"/>
+          <t>50.9</t>
+        </is>
+      </c>
+      <c r="F2334" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
+      <c r="G2334" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
       <c r="H2334" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2335">
       <c r="A2335" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2335" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2335" t="inlineStr">
         <is>
-          <t>5-Year Treasury Gilt Auction</t>
+          <t>Jibun Bank Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2335" t="inlineStr"/>
-      <c r="E2335" t="inlineStr"/>
+      <c r="E2335" t="inlineStr">
+        <is>
+          <t>50.5</t>
+        </is>
+      </c>
       <c r="F2335" t="inlineStr"/>
-      <c r="G2335" t="inlineStr"/>
+      <c r="G2335" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
       <c r="H2335" t="inlineStr">
         <is>
           <t>3</t>
@@ -74944,89 +74776,93 @@
     <row r="2336">
       <c r="A2336" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2336" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2336" t="inlineStr">
         <is>
-          <t>BCB Copom Meeting Minutes</t>
+          <t>S&amp;P Global PMIJAN</t>
         </is>
       </c>
       <c r="D2336" t="inlineStr"/>
-      <c r="E2336" t="inlineStr"/>
+      <c r="E2336" t="inlineStr">
+        <is>
+          <t>51.5</t>
+        </is>
+      </c>
       <c r="F2336" t="inlineStr"/>
       <c r="G2336" t="inlineStr"/>
       <c r="H2336" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2337">
       <c r="A2337" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>08:45 PM</t>
         </is>
       </c>
       <c r="B2337" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2337" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Caixin Services PMIJAN</t>
         </is>
       </c>
       <c r="D2337" t="inlineStr"/>
       <c r="E2337" t="inlineStr">
         <is>
-          <t>1.23%</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="F2337" t="inlineStr"/>
       <c r="G2337" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>51.8</t>
         </is>
       </c>
       <c r="H2337" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2338">
       <c r="A2338" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>08:45 PM</t>
         </is>
       </c>
       <c r="B2338" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2338" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Caixin Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2338" t="inlineStr"/>
       <c r="E2338" t="inlineStr">
         <is>
-          <t>7.59%</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="F2338" t="inlineStr"/>
       <c r="G2338" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="H2338" t="inlineStr">
@@ -75038,27 +74874,27 @@
     <row r="2339">
       <c r="A2339" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>11:00 PM</t>
         </is>
       </c>
       <c r="B2339" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2339" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>GDP Growth Rate YoYQ4</t>
         </is>
       </c>
       <c r="D2339" t="inlineStr"/>
-      <c r="E2339" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
+      <c r="E2339" t="inlineStr"/>
       <c r="F2339" t="inlineStr"/>
-      <c r="G2339" t="inlineStr"/>
+      <c r="G2339" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="H2339" t="inlineStr">
         <is>
           <t>2</t>
@@ -75068,23 +74904,27 @@
     <row r="2340">
       <c r="A2340" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>11:00 PM</t>
         </is>
       </c>
       <c r="B2340" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2340" t="inlineStr">
         <is>
-          <t>Redbook YoYFEB/01</t>
+          <t>Full Year GDP Growth2025</t>
         </is>
       </c>
       <c r="D2340" t="inlineStr"/>
       <c r="E2340" t="inlineStr"/>
       <c r="F2340" t="inlineStr"/>
-      <c r="G2340" t="inlineStr"/>
+      <c r="G2340" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="H2340" t="inlineStr">
         <is>
           <t>3</t>
@@ -75094,27 +74934,27 @@
     <row r="2341">
       <c r="A2341" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>11:00 PM</t>
         </is>
       </c>
       <c r="B2341" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2341" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>GDP Growth Rate QoQQ4</t>
         </is>
       </c>
       <c r="D2341" t="inlineStr"/>
-      <c r="E2341" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
+      <c r="E2341" t="inlineStr"/>
       <c r="F2341" t="inlineStr"/>
-      <c r="G2341" t="inlineStr"/>
+      <c r="G2341" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2341" t="inlineStr">
         <is>
           <t>3</t>
@@ -75122,97 +74962,65 @@
       </c>
     </row>
     <row r="2342">
-      <c r="A2342" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A2342" t="inlineStr"/>
       <c r="B2342" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2342" t="inlineStr">
         <is>
-          <t>JOLTs Job OpeningsDEC</t>
+          <t>Balance of Trade PrelJAN</t>
         </is>
       </c>
       <c r="D2342" t="inlineStr"/>
       <c r="E2342" t="inlineStr"/>
       <c r="F2342" t="inlineStr"/>
-      <c r="G2342" t="inlineStr">
-        <is>
-          <t>7.6M</t>
-        </is>
-      </c>
+      <c r="G2342" t="inlineStr"/>
       <c r="H2342" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2343">
-      <c r="A2343" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A2343" t="inlineStr"/>
       <c r="B2343" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2343" t="inlineStr">
         <is>
-          <t>Factory Orders MoMDEC</t>
+          <t>Exports PrelJAN</t>
         </is>
       </c>
       <c r="D2343" t="inlineStr"/>
-      <c r="E2343" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
+      <c r="E2343" t="inlineStr"/>
       <c r="F2343" t="inlineStr"/>
-      <c r="G2343" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="G2343" t="inlineStr"/>
       <c r="H2343" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2344">
-      <c r="A2344" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A2344" t="inlineStr"/>
       <c r="B2344" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2344" t="inlineStr">
         <is>
-          <t>Factory Orders ex TransportationDEC</t>
+          <t>Imports PrelJAN</t>
         </is>
       </c>
       <c r="D2344" t="inlineStr"/>
-      <c r="E2344" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E2344" t="inlineStr"/>
       <c r="F2344" t="inlineStr"/>
-      <c r="G2344" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G2344" t="inlineStr"/>
       <c r="H2344" t="inlineStr">
         <is>
           <t>3</t>
@@ -75220,11 +75028,7 @@
       </c>
     </row>
     <row r="2345">
-      <c r="A2345" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A2345" t="inlineStr"/>
       <c r="B2345" t="inlineStr">
         <is>
           <t>US</t>
@@ -75232,11 +75036,15 @@
       </c>
       <c r="C2345" t="inlineStr">
         <is>
-          <t>JOLTs Job QuitsDEC</t>
+          <t>LMI Logistics Managers IndexJAN</t>
         </is>
       </c>
       <c r="D2345" t="inlineStr"/>
-      <c r="E2345" t="inlineStr"/>
+      <c r="E2345" t="inlineStr">
+        <is>
+          <t>57.3</t>
+        </is>
+      </c>
       <c r="F2345" t="inlineStr"/>
       <c r="G2345" t="inlineStr"/>
       <c r="H2345" t="inlineStr">
@@ -75248,79 +75056,87 @@
     <row r="2346">
       <c r="A2346" t="inlineStr">
         <is>
-          <t>10:10 AM</t>
-        </is>
-      </c>
-      <c r="B2346" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2346" t="inlineStr">
-        <is>
-          <t>RCM/TIPP Economic Optimism IndexFEB</t>
-        </is>
-      </c>
+          <t>Wednesday February 05 2025</t>
+        </is>
+      </c>
+      <c r="B2346" t="inlineStr"/>
+      <c r="C2346" t="inlineStr"/>
       <c r="D2346" t="inlineStr"/>
-      <c r="E2346" t="inlineStr">
-        <is>
-          <t>51.9</t>
-        </is>
-      </c>
+      <c r="E2346" t="inlineStr"/>
       <c r="F2346" t="inlineStr"/>
       <c r="G2346" t="inlineStr"/>
-      <c r="H2346" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2346" t="inlineStr"/>
     </row>
     <row r="2347">
       <c r="A2347" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2347" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2347" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>HSBC Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2347" t="inlineStr"/>
-      <c r="E2347" t="inlineStr"/>
-      <c r="F2347" t="inlineStr"/>
-      <c r="G2347" t="inlineStr"/>
+      <c r="E2347" t="inlineStr">
+        <is>
+          <t>59.2</t>
+        </is>
+      </c>
+      <c r="F2347" t="inlineStr">
+        <is>
+          <t>57.9</t>
+        </is>
+      </c>
+      <c r="G2347" t="inlineStr">
+        <is>
+          <t>57.9</t>
+        </is>
+      </c>
       <c r="H2347" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2348">
       <c r="A2348" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2348" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2348" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>HSBC Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2348" t="inlineStr"/>
-      <c r="E2348" t="inlineStr"/>
-      <c r="F2348" t="inlineStr"/>
-      <c r="G2348" t="inlineStr"/>
+      <c r="E2348" t="inlineStr">
+        <is>
+          <t>59.3</t>
+        </is>
+      </c>
+      <c r="F2348" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
+      <c r="G2348" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
       <c r="H2348" t="inlineStr">
         <is>
           <t>3</t>
@@ -75330,73 +75146,93 @@
     <row r="2349">
       <c r="A2349" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2349" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2349" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/31</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2349" t="inlineStr"/>
-      <c r="E2349" t="inlineStr"/>
+      <c r="E2349" t="inlineStr">
+        <is>
+          <t>-2.8%</t>
+        </is>
+      </c>
       <c r="F2349" t="inlineStr"/>
-      <c r="G2349" t="inlineStr"/>
+      <c r="G2349" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2349" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2350">
       <c r="A2350" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2350" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2350" t="inlineStr">
         <is>
-          <t>Judo Bank Services PMI FinalJAN</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2350" t="inlineStr"/>
-      <c r="E2350" t="inlineStr"/>
+      <c r="E2350" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="F2350" t="inlineStr"/>
-      <c r="G2350" t="inlineStr"/>
+      <c r="G2350" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H2350" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2351">
       <c r="A2351" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B2351" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2351" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Composite PMI FinalJAN</t>
+          <t>S&amp;P Global Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2351" t="inlineStr"/>
-      <c r="E2351" t="inlineStr"/>
+      <c r="E2351" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
       <c r="F2351" t="inlineStr"/>
       <c r="G2351" t="inlineStr"/>
       <c r="H2351" t="inlineStr">
@@ -75408,53 +75244,53 @@
     <row r="2352">
       <c r="A2352" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B2352" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2352" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>S&amp;P Global Services PMIJAN</t>
         </is>
       </c>
       <c r="D2352" t="inlineStr"/>
       <c r="E2352" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F2352" t="inlineStr"/>
       <c r="G2352" t="inlineStr"/>
       <c r="H2352" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2353">
       <c r="A2353" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:15 AM</t>
         </is>
       </c>
       <c r="B2353" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2353" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>S&amp;P Global PMIJAN</t>
         </is>
       </c>
       <c r="D2353" t="inlineStr"/>
       <c r="E2353" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>49.9</t>
         </is>
       </c>
       <c r="F2353" t="inlineStr"/>
@@ -75468,191 +75304,187 @@
     <row r="2354">
       <c r="A2354" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B2354" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2354" t="inlineStr">
         <is>
-          <t>Average Cash Earnings YoYDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D2354" t="inlineStr"/>
-      <c r="E2354" t="inlineStr"/>
+      <c r="E2354" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F2354" t="inlineStr"/>
       <c r="G2354" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H2354" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2355">
       <c r="A2355" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:15 AM</t>
         </is>
       </c>
       <c r="B2355" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2355" t="inlineStr">
         <is>
-          <t>TD-MI Inflation Gauge MoMJAN</t>
+          <t>HCOB Services PMIJAN</t>
         </is>
       </c>
       <c r="D2355" t="inlineStr"/>
       <c r="E2355" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>57.3</t>
         </is>
       </c>
       <c r="F2355" t="inlineStr"/>
       <c r="G2355" t="inlineStr"/>
       <c r="H2355" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2356">
       <c r="A2356" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:15 AM</t>
         </is>
       </c>
       <c r="B2356" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2356" t="inlineStr">
         <is>
-          <t>Jibun Bank Services PMI FinalJAN</t>
+          <t>HCOB Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2356" t="inlineStr"/>
       <c r="E2356" t="inlineStr">
         <is>
-          <t>50.9</t>
-        </is>
-      </c>
-      <c r="F2356" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="G2356" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
+          <t>56.8</t>
+        </is>
+      </c>
+      <c r="F2356" t="inlineStr"/>
+      <c r="G2356" t="inlineStr"/>
       <c r="H2356" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2357">
       <c r="A2357" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:45 AM</t>
         </is>
       </c>
       <c r="B2357" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2357" t="inlineStr">
         <is>
-          <t>Jibun Bank Composite PMI FinalJAN</t>
+          <t>HCOB Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2357" t="inlineStr"/>
       <c r="E2357" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>49.7</t>
         </is>
       </c>
       <c r="F2357" t="inlineStr"/>
-      <c r="G2357" t="inlineStr">
-        <is>
-          <t>51.1</t>
-        </is>
-      </c>
+      <c r="G2357" t="inlineStr"/>
       <c r="H2357" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2358">
       <c r="A2358" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:45 AM</t>
         </is>
       </c>
       <c r="B2358" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2358" t="inlineStr">
         <is>
-          <t>S&amp;P Global PMIJAN</t>
+          <t>HCOB Services PMIJAN</t>
         </is>
       </c>
       <c r="D2358" t="inlineStr"/>
       <c r="E2358" t="inlineStr">
         <is>
-          <t>51.5</t>
+          <t>50.7</t>
         </is>
       </c>
       <c r="F2358" t="inlineStr"/>
       <c r="G2358" t="inlineStr"/>
       <c r="H2358" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2359">
       <c r="A2359" t="inlineStr">
         <is>
-          <t>08:45 PM</t>
+          <t>03:50 AM</t>
         </is>
       </c>
       <c r="B2359" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2359" t="inlineStr">
         <is>
-          <t>Caixin Services PMIJAN</t>
+          <t>HCOB Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2359" t="inlineStr"/>
       <c r="E2359" t="inlineStr">
         <is>
-          <t>52.2</t>
-        </is>
-      </c>
-      <c r="F2359" t="inlineStr"/>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F2359" t="inlineStr">
+        <is>
+          <t>48.9</t>
+        </is>
+      </c>
       <c r="G2359" t="inlineStr">
         <is>
-          <t>51.8</t>
+          <t>48.9</t>
         </is>
       </c>
       <c r="H2359" t="inlineStr">
@@ -75664,29 +75496,33 @@
     <row r="2360">
       <c r="A2360" t="inlineStr">
         <is>
-          <t>08:45 PM</t>
+          <t>03:50 AM</t>
         </is>
       </c>
       <c r="B2360" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2360" t="inlineStr">
         <is>
-          <t>Caixin Composite PMIJAN</t>
+          <t>HCOB Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2360" t="inlineStr"/>
       <c r="E2360" t="inlineStr">
         <is>
-          <t>51.4</t>
-        </is>
-      </c>
-      <c r="F2360" t="inlineStr"/>
+          <t>47.5</t>
+        </is>
+      </c>
+      <c r="F2360" t="inlineStr">
+        <is>
+          <t>48.3</t>
+        </is>
+      </c>
       <c r="G2360" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>48.3</t>
         </is>
       </c>
       <c r="H2360" t="inlineStr">
@@ -75698,25 +75534,33 @@
     <row r="2361">
       <c r="A2361" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>03:55 AM</t>
         </is>
       </c>
       <c r="B2361" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2361" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoYQ4</t>
+          <t>HCOB Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2361" t="inlineStr"/>
-      <c r="E2361" t="inlineStr"/>
-      <c r="F2361" t="inlineStr"/>
+      <c r="E2361" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="F2361" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
       <c r="G2361" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="H2361" t="inlineStr">
@@ -75728,149 +75572,213 @@
     <row r="2362">
       <c r="A2362" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>03:55 AM</t>
         </is>
       </c>
       <c r="B2362" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2362" t="inlineStr">
         <is>
-          <t>Full Year GDP Growth2025</t>
+          <t>HCOB Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2362" t="inlineStr"/>
-      <c r="E2362" t="inlineStr"/>
-      <c r="F2362" t="inlineStr"/>
+      <c r="E2362" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="F2362" t="inlineStr">
+        <is>
+          <t>52.5</t>
+        </is>
+      </c>
       <c r="G2362" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>52.5</t>
         </is>
       </c>
       <c r="H2362" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2363">
       <c r="A2363" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2363" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2363" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQQ4</t>
+          <t>HCOB Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2363" t="inlineStr"/>
-      <c r="E2363" t="inlineStr"/>
-      <c r="F2363" t="inlineStr"/>
+      <c r="E2363" t="inlineStr">
+        <is>
+          <t>49.6</t>
+        </is>
+      </c>
+      <c r="F2363" t="inlineStr">
+        <is>
+          <t>50.2</t>
+        </is>
+      </c>
       <c r="G2363" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>50.2</t>
         </is>
       </c>
       <c r="H2363" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2364">
+      <c r="A2364" t="inlineStr">
+        <is>
+          <t>04:00 AM</t>
+        </is>
+      </c>
+      <c r="B2364" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C2364" t="inlineStr">
+        <is>
+          <t>HCOB Services PMI FinalJAN</t>
+        </is>
+      </c>
+      <c r="D2364" t="inlineStr"/>
+      <c r="E2364" t="inlineStr">
+        <is>
+          <t>51.6</t>
+        </is>
+      </c>
+      <c r="F2364" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
+      <c r="G2364" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
+      <c r="H2364" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2365">
+      <c r="A2365" t="inlineStr">
+        <is>
+          <t>04:00 AM</t>
+        </is>
+      </c>
+      <c r="B2365" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="C2365" t="inlineStr">
+        <is>
+          <t>Retail Sales MoMDEC</t>
+        </is>
+      </c>
+      <c r="D2365" t="inlineStr"/>
+      <c r="E2365" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
+      <c r="F2365" t="inlineStr"/>
+      <c r="G2365" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H2365" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2366">
+      <c r="A2366" t="inlineStr">
+        <is>
+          <t>04:00 AM</t>
+        </is>
+      </c>
+      <c r="B2366" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="C2366" t="inlineStr">
+        <is>
+          <t>Retail Sales YoYDEC</t>
+        </is>
+      </c>
+      <c r="D2366" t="inlineStr"/>
+      <c r="E2366" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
+      <c r="F2366" t="inlineStr"/>
+      <c r="G2366" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="H2366" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="2364">
-      <c r="A2364" t="inlineStr"/>
-      <c r="B2364" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2364" t="inlineStr">
-        <is>
-          <t>Balance of Trade PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2364" t="inlineStr"/>
-      <c r="E2364" t="inlineStr"/>
-      <c r="F2364" t="inlineStr"/>
-      <c r="G2364" t="inlineStr"/>
-      <c r="H2364" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2365">
-      <c r="A2365" t="inlineStr"/>
-      <c r="B2365" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2365" t="inlineStr">
-        <is>
-          <t>Exports PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2365" t="inlineStr"/>
-      <c r="E2365" t="inlineStr"/>
-      <c r="F2365" t="inlineStr"/>
-      <c r="G2365" t="inlineStr"/>
-      <c r="H2365" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2366">
-      <c r="A2366" t="inlineStr"/>
-      <c r="B2366" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2366" t="inlineStr">
-        <is>
-          <t>Imports PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2366" t="inlineStr"/>
-      <c r="E2366" t="inlineStr"/>
-      <c r="F2366" t="inlineStr"/>
-      <c r="G2366" t="inlineStr"/>
-      <c r="H2366" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
     <row r="2367">
-      <c r="A2367" t="inlineStr"/>
+      <c r="A2367" t="inlineStr">
+        <is>
+          <t>04:00 AM</t>
+        </is>
+      </c>
       <c r="B2367" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2367" t="inlineStr">
         <is>
-          <t>LMI Logistics Managers IndexJAN</t>
+          <t>New Car Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2367" t="inlineStr"/>
       <c r="E2367" t="inlineStr">
         <is>
-          <t>57.3</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F2367" t="inlineStr"/>
-      <c r="G2367" t="inlineStr"/>
+      <c r="G2367" t="inlineStr">
+        <is>
+          <t>4.0%</t>
+        </is>
+      </c>
       <c r="H2367" t="inlineStr">
         <is>
           <t>3</t>
@@ -75880,47 +75788,67 @@
     <row r="2368">
       <c r="A2368" t="inlineStr">
         <is>
-          <t>Wednesday February 05 2025</t>
-        </is>
-      </c>
-      <c r="B2368" t="inlineStr"/>
-      <c r="C2368" t="inlineStr"/>
+          <t>04:30 AM</t>
+        </is>
+      </c>
+      <c r="B2368" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C2368" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Services PMI FinalJAN</t>
+        </is>
+      </c>
       <c r="D2368" t="inlineStr"/>
-      <c r="E2368" t="inlineStr"/>
-      <c r="F2368" t="inlineStr"/>
-      <c r="G2368" t="inlineStr"/>
-      <c r="H2368" t="inlineStr"/>
+      <c r="E2368" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
+      <c r="F2368" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="G2368" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="H2368" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2369">
       <c r="A2369" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2369" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2369" t="inlineStr">
         <is>
-          <t>HSBC Composite PMI FinalJAN</t>
+          <t>S&amp;P Global Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2369" t="inlineStr"/>
       <c r="E2369" t="inlineStr">
         <is>
-          <t>59.2</t>
-        </is>
-      </c>
-      <c r="F2369" t="inlineStr">
-        <is>
-          <t>57.9</t>
-        </is>
-      </c>
+          <t>50.4</t>
+        </is>
+      </c>
+      <c r="F2369" t="inlineStr"/>
       <c r="G2369" t="inlineStr">
         <is>
-          <t>57.9</t>
+          <t>50.9</t>
         </is>
       </c>
       <c r="H2369" t="inlineStr">
@@ -75932,33 +75860,29 @@
     <row r="2370">
       <c r="A2370" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2370" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2370" t="inlineStr">
         <is>
-          <t>HSBC Services PMI FinalJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2370" t="inlineStr"/>
       <c r="E2370" t="inlineStr">
         <is>
-          <t>59.3</t>
-        </is>
-      </c>
-      <c r="F2370" t="inlineStr">
-        <is>
-          <t>56.8</t>
-        </is>
-      </c>
+          <t>1.6%</t>
+        </is>
+      </c>
+      <c r="F2370" t="inlineStr"/>
       <c r="G2370" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2370" t="inlineStr">
@@ -75970,29 +75894,29 @@
     <row r="2371">
       <c r="A2371" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2371" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2371" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2371" t="inlineStr"/>
       <c r="E2371" t="inlineStr">
         <is>
-          <t>-2.8%</t>
+          <t>-1.2%</t>
         </is>
       </c>
       <c r="F2371" t="inlineStr"/>
       <c r="G2371" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="H2371" t="inlineStr">
@@ -76004,31 +75928,27 @@
     <row r="2372">
       <c r="A2372" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2372" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2372" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>30-Year Green Gilt Auction</t>
         </is>
       </c>
       <c r="D2372" t="inlineStr"/>
       <c r="E2372" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>4.831%</t>
         </is>
       </c>
       <c r="F2372" t="inlineStr"/>
-      <c r="G2372" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
+      <c r="G2372" t="inlineStr"/>
       <c r="H2372" t="inlineStr">
         <is>
           <t>3</t>
@@ -76038,23 +75958,23 @@
     <row r="2373">
       <c r="A2373" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>06:10 AM</t>
         </is>
       </c>
       <c r="B2373" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C2373" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMIJAN</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2373" t="inlineStr"/>
       <c r="E2373" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>2.615%</t>
         </is>
       </c>
       <c r="F2373" t="inlineStr"/>
@@ -76068,23 +75988,23 @@
     <row r="2374">
       <c r="A2374" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>06:10 AM</t>
         </is>
       </c>
       <c r="B2374" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C2374" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMIJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2374" t="inlineStr"/>
       <c r="E2374" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>2.505%</t>
         </is>
       </c>
       <c r="F2374" t="inlineStr"/>
@@ -76098,23 +76018,23 @@
     <row r="2375">
       <c r="A2375" t="inlineStr">
         <is>
-          <t>02:15 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B2375" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2375" t="inlineStr">
         <is>
-          <t>S&amp;P Global PMIJAN</t>
+          <t>M3 Money Supply YoYJAN/24</t>
         </is>
       </c>
       <c r="D2375" t="inlineStr"/>
       <c r="E2375" t="inlineStr">
         <is>
-          <t>49.9</t>
+          <t>10.1%</t>
         </is>
       </c>
       <c r="F2375" t="inlineStr"/>
@@ -76128,12 +76048,12 @@
     <row r="2376">
       <c r="A2376" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2376" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2376" t="inlineStr">
@@ -76144,13 +76064,13 @@
       <c r="D2376" t="inlineStr"/>
       <c r="E2376" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F2376" t="inlineStr"/>
       <c r="G2376" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2376" t="inlineStr">
@@ -76162,53 +76082,57 @@
     <row r="2377">
       <c r="A2377" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2377" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2377" t="inlineStr">
         <is>
-          <t>HCOB Services PMIJAN</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2377" t="inlineStr"/>
       <c r="E2377" t="inlineStr">
         <is>
-          <t>57.3</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="F2377" t="inlineStr"/>
-      <c r="G2377" t="inlineStr"/>
+      <c r="G2377" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="H2377" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2378">
       <c r="A2378" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2378" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2378" t="inlineStr">
         <is>
-          <t>HCOB Composite PMIJAN</t>
+          <t>Gross Fixed Investment MoMNOV</t>
         </is>
       </c>
       <c r="D2378" t="inlineStr"/>
       <c r="E2378" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2378" t="inlineStr"/>
@@ -76222,55 +76146,51 @@
     <row r="2379">
       <c r="A2379" t="inlineStr">
         <is>
-          <t>03:45 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2379" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2379" t="inlineStr">
         <is>
-          <t>HCOB Composite PMIJAN</t>
+          <t>Gross Fixed Investment YoYNOV</t>
         </is>
       </c>
       <c r="D2379" t="inlineStr"/>
       <c r="E2379" t="inlineStr">
         <is>
-          <t>49.7</t>
+          <t>-2.6%</t>
         </is>
       </c>
       <c r="F2379" t="inlineStr"/>
       <c r="G2379" t="inlineStr"/>
       <c r="H2379" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2380">
       <c r="A2380" t="inlineStr">
         <is>
-          <t>03:45 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2380" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2380" t="inlineStr">
         <is>
-          <t>HCOB Services PMIJAN</t>
+          <t>MBA 30-Year Mortgage RateJAN/31</t>
         </is>
       </c>
       <c r="D2380" t="inlineStr"/>
-      <c r="E2380" t="inlineStr">
-        <is>
-          <t>50.7</t>
-        </is>
-      </c>
+      <c r="E2380" t="inlineStr"/>
       <c r="F2380" t="inlineStr"/>
       <c r="G2380" t="inlineStr"/>
       <c r="H2380" t="inlineStr">
@@ -76282,73 +76202,49 @@
     <row r="2381">
       <c r="A2381" t="inlineStr">
         <is>
-          <t>03:50 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2381" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2381" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FinalJAN</t>
+          <t>MBA Mortgage ApplicationsJAN/31</t>
         </is>
       </c>
       <c r="D2381" t="inlineStr"/>
-      <c r="E2381" t="inlineStr">
-        <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F2381" t="inlineStr">
-        <is>
-          <t>48.9</t>
-        </is>
-      </c>
-      <c r="G2381" t="inlineStr">
-        <is>
-          <t>48.9</t>
-        </is>
-      </c>
+      <c r="E2381" t="inlineStr"/>
+      <c r="F2381" t="inlineStr"/>
+      <c r="G2381" t="inlineStr"/>
       <c r="H2381" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2382">
       <c r="A2382" t="inlineStr">
         <is>
-          <t>03:50 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2382" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2382" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FinalJAN</t>
+          <t>MBA Mortgage Market IndexJAN/31</t>
         </is>
       </c>
       <c r="D2382" t="inlineStr"/>
-      <c r="E2382" t="inlineStr">
-        <is>
-          <t>47.5</t>
-        </is>
-      </c>
-      <c r="F2382" t="inlineStr">
-        <is>
-          <t>48.3</t>
-        </is>
-      </c>
-      <c r="G2382" t="inlineStr">
-        <is>
-          <t>48.3</t>
-        </is>
-      </c>
+      <c r="E2382" t="inlineStr"/>
+      <c r="F2382" t="inlineStr"/>
+      <c r="G2382" t="inlineStr"/>
       <c r="H2382" t="inlineStr">
         <is>
           <t>3</t>
@@ -76358,106 +76254,78 @@
     <row r="2383">
       <c r="A2383" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2383" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2383" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FinalJAN</t>
+          <t>MBA Mortgage Refinance IndexJAN/31</t>
         </is>
       </c>
       <c r="D2383" t="inlineStr"/>
-      <c r="E2383" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="F2383" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
-      <c r="G2383" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
+      <c r="E2383" t="inlineStr"/>
+      <c r="F2383" t="inlineStr"/>
+      <c r="G2383" t="inlineStr"/>
       <c r="H2383" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2384">
       <c r="A2384" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2384" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2384" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FinalJAN</t>
+          <t>MBA Purchase IndexJAN/31</t>
         </is>
       </c>
       <c r="D2384" t="inlineStr"/>
-      <c r="E2384" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2384" t="inlineStr">
-        <is>
-          <t>52.5</t>
-        </is>
-      </c>
-      <c r="G2384" t="inlineStr">
-        <is>
-          <t>52.5</t>
-        </is>
-      </c>
+      <c r="E2384" t="inlineStr"/>
+      <c r="F2384" t="inlineStr"/>
+      <c r="G2384" t="inlineStr"/>
       <c r="H2384" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2385">
       <c r="A2385" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2385" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2385" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FinalJAN</t>
+          <t>S&amp;P Global Services PMIJAN</t>
         </is>
       </c>
       <c r="D2385" t="inlineStr"/>
       <c r="E2385" t="inlineStr">
         <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F2385" t="inlineStr">
-        <is>
-          <t>50.2</t>
-        </is>
-      </c>
+          <t>51.6</t>
+        </is>
+      </c>
+      <c r="F2385" t="inlineStr"/>
       <c r="G2385" t="inlineStr">
         <is>
           <t>50.2</t>
@@ -76472,69 +76340,61 @@
     <row r="2386">
       <c r="A2386" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2386" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2386" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FinalJAN</t>
+          <t>S&amp;P Global Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2386" t="inlineStr"/>
       <c r="E2386" t="inlineStr">
         <is>
-          <t>51.6</t>
-        </is>
-      </c>
-      <c r="F2386" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+          <t>51.5</t>
+        </is>
+      </c>
+      <c r="F2386" t="inlineStr"/>
       <c r="G2386" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H2386" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2387">
       <c r="A2387" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B2387" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2387" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>ADP Employment ChangeJAN</t>
         </is>
       </c>
       <c r="D2387" t="inlineStr"/>
       <c r="E2387" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>122K</t>
         </is>
       </c>
       <c r="F2387" t="inlineStr"/>
-      <c r="G2387" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G2387" t="inlineStr"/>
       <c r="H2387" t="inlineStr">
         <is>
           <t>2</t>
@@ -76544,63 +76404,63 @@
     <row r="2388">
       <c r="A2388" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2388" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2388" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2388" t="inlineStr"/>
       <c r="E2388" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>C$-0.32B</t>
         </is>
       </c>
       <c r="F2388" t="inlineStr"/>
       <c r="G2388" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>C$ -1.6B</t>
         </is>
       </c>
       <c r="H2388" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2389">
       <c r="A2389" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2389" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2389" t="inlineStr">
         <is>
-          <t>New Car Sales YoYJAN</t>
+          <t>ExportsDEC</t>
         </is>
       </c>
       <c r="D2389" t="inlineStr"/>
       <c r="E2389" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>C$66.11B</t>
         </is>
       </c>
       <c r="F2389" t="inlineStr"/>
       <c r="G2389" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>C$ 65.8B</t>
         </is>
       </c>
       <c r="H2389" t="inlineStr">
@@ -76612,165 +76472,157 @@
     <row r="2390">
       <c r="A2390" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2390" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2390" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FinalJAN</t>
+          <t>ImportsDEC</t>
         </is>
       </c>
       <c r="D2390" t="inlineStr"/>
       <c r="E2390" t="inlineStr">
         <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="F2390" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
+          <t>C$66.43B</t>
+        </is>
+      </c>
+      <c r="F2390" t="inlineStr"/>
       <c r="G2390" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>C$ 64.5B</t>
         </is>
       </c>
       <c r="H2390" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2391">
       <c r="A2391" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2391" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2391" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FinalJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2391" t="inlineStr"/>
       <c r="E2391" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>$-78.2B</t>
         </is>
       </c>
       <c r="F2391" t="inlineStr"/>
       <c r="G2391" t="inlineStr">
         <is>
-          <t>50.9</t>
+          <t>$ -68B</t>
         </is>
       </c>
       <c r="H2391" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2392">
       <c r="A2392" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2392" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2392" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>ExportsDEC</t>
         </is>
       </c>
       <c r="D2392" t="inlineStr"/>
       <c r="E2392" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>$273.4B</t>
         </is>
       </c>
       <c r="F2392" t="inlineStr"/>
       <c r="G2392" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>$ 275.0B</t>
         </is>
       </c>
       <c r="H2392" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2393">
       <c r="A2393" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2393" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2393" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>ImportsDEC</t>
         </is>
       </c>
       <c r="D2393" t="inlineStr"/>
       <c r="E2393" t="inlineStr">
         <is>
-          <t>-1.2%</t>
+          <t>$351.6B</t>
         </is>
       </c>
       <c r="F2393" t="inlineStr"/>
       <c r="G2393" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>$ 338B</t>
         </is>
       </c>
       <c r="H2393" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2394">
       <c r="A2394" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2394" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2394" t="inlineStr">
         <is>
-          <t>30-Year Green Gilt Auction</t>
+          <t>Treasury Refunding Announcement</t>
         </is>
       </c>
       <c r="D2394" t="inlineStr"/>
-      <c r="E2394" t="inlineStr">
-        <is>
-          <t>4.831%</t>
-        </is>
-      </c>
+      <c r="E2394" t="inlineStr"/>
       <c r="F2394" t="inlineStr"/>
       <c r="G2394" t="inlineStr"/>
       <c r="H2394" t="inlineStr">
@@ -76782,27 +76634,31 @@
     <row r="2395">
       <c r="A2395" t="inlineStr">
         <is>
-          <t>06:10 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2395" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2395" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>S&amp;P Global Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2395" t="inlineStr"/>
       <c r="E2395" t="inlineStr">
         <is>
-          <t>2.615%</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="F2395" t="inlineStr"/>
-      <c r="G2395" t="inlineStr"/>
+      <c r="G2395" t="inlineStr">
+        <is>
+          <t>48.5</t>
+        </is>
+      </c>
       <c r="H2395" t="inlineStr">
         <is>
           <t>3</t>
@@ -76812,27 +76668,31 @@
     <row r="2396">
       <c r="A2396" t="inlineStr">
         <is>
-          <t>06:10 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2396" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2396" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>S&amp;P Global Services PMIJAN</t>
         </is>
       </c>
       <c r="D2396" t="inlineStr"/>
       <c r="E2396" t="inlineStr">
         <is>
-          <t>2.505%</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="F2396" t="inlineStr"/>
-      <c r="G2396" t="inlineStr"/>
+      <c r="G2396" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
       <c r="H2396" t="inlineStr">
         <is>
           <t>3</t>
@@ -76842,59 +76702,71 @@
     <row r="2397">
       <c r="A2397" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B2397" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2397" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYJAN/24</t>
+          <t>S&amp;P Global Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2397" t="inlineStr"/>
       <c r="E2397" t="inlineStr">
         <is>
-          <t>10.1%</t>
-        </is>
-      </c>
-      <c r="F2397" t="inlineStr"/>
-      <c r="G2397" t="inlineStr"/>
+          <t>55.4</t>
+        </is>
+      </c>
+      <c r="F2397" t="inlineStr">
+        <is>
+          <t>52.4</t>
+        </is>
+      </c>
+      <c r="G2397" t="inlineStr">
+        <is>
+          <t>52.4</t>
+        </is>
+      </c>
       <c r="H2397" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2398">
       <c r="A2398" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B2398" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2398" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>S&amp;P Global Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2398" t="inlineStr"/>
       <c r="E2398" t="inlineStr">
         <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
-      <c r="F2398" t="inlineStr"/>
+          <t>56.8</t>
+        </is>
+      </c>
+      <c r="F2398" t="inlineStr">
+        <is>
+          <t>52.8</t>
+        </is>
+      </c>
       <c r="G2398" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>52.8</t>
         </is>
       </c>
       <c r="H2398" t="inlineStr">
@@ -76906,57 +76778,49 @@
     <row r="2399">
       <c r="A2399" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2399" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2399" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>ISM Services PMIJAN</t>
         </is>
       </c>
       <c r="D2399" t="inlineStr"/>
-      <c r="E2399" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="E2399" t="inlineStr"/>
       <c r="F2399" t="inlineStr"/>
-      <c r="G2399" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
+      <c r="G2399" t="inlineStr"/>
       <c r="H2399" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2400">
       <c r="A2400" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2400" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2400" t="inlineStr">
         <is>
-          <t>Gross Fixed Investment MoMNOV</t>
+          <t>ISM Services Business ActivityJAN</t>
         </is>
       </c>
       <c r="D2400" t="inlineStr"/>
       <c r="E2400" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>58.2</t>
         </is>
       </c>
       <c r="F2400" t="inlineStr"/>
@@ -76970,23 +76834,23 @@
     <row r="2401">
       <c r="A2401" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2401" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2401" t="inlineStr">
         <is>
-          <t>Gross Fixed Investment YoYNOV</t>
+          <t>ISM Services EmploymentJAN</t>
         </is>
       </c>
       <c r="D2401" t="inlineStr"/>
       <c r="E2401" t="inlineStr">
         <is>
-          <t>-2.6%</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="F2401" t="inlineStr"/>
@@ -77000,7 +76864,7 @@
     <row r="2402">
       <c r="A2402" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2402" t="inlineStr">
@@ -77010,23 +76874,27 @@
       </c>
       <c r="C2402" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/31</t>
+          <t>ISM Services New OrdersJAN</t>
         </is>
       </c>
       <c r="D2402" t="inlineStr"/>
-      <c r="E2402" t="inlineStr"/>
+      <c r="E2402" t="inlineStr">
+        <is>
+          <t>54.2</t>
+        </is>
+      </c>
       <c r="F2402" t="inlineStr"/>
       <c r="G2402" t="inlineStr"/>
       <c r="H2402" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2403">
       <c r="A2403" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2403" t="inlineStr">
@@ -77036,11 +76904,15 @@
       </c>
       <c r="C2403" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/31</t>
+          <t>ISM Services PricesJAN</t>
         </is>
       </c>
       <c r="D2403" t="inlineStr"/>
-      <c r="E2403" t="inlineStr"/>
+      <c r="E2403" t="inlineStr">
+        <is>
+          <t>64.4</t>
+        </is>
+      </c>
       <c r="F2403" t="inlineStr"/>
       <c r="G2403" t="inlineStr"/>
       <c r="H2403" t="inlineStr">
@@ -77052,7 +76924,7 @@
     <row r="2404">
       <c r="A2404" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2404" t="inlineStr">
@@ -77062,7 +76934,7 @@
       </c>
       <c r="C2404" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/31</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2404" t="inlineStr"/>
@@ -77071,14 +76943,14 @@
       <c r="G2404" t="inlineStr"/>
       <c r="H2404" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2405">
       <c r="A2405" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2405" t="inlineStr">
@@ -77088,7 +76960,7 @@
       </c>
       <c r="C2405" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/31</t>
+          <t>EIA Gasoline Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2405" t="inlineStr"/>
@@ -77097,14 +76969,14 @@
       <c r="G2405" t="inlineStr"/>
       <c r="H2405" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2406">
       <c r="A2406" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2406" t="inlineStr">
@@ -77114,7 +76986,7 @@
       </c>
       <c r="C2406" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/31</t>
+          <t>EIA Crude Oil Imports ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2406" t="inlineStr"/>
@@ -77130,65 +77002,49 @@
     <row r="2407">
       <c r="A2407" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2407" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2407" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMIJAN</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2407" t="inlineStr"/>
-      <c r="E2407" t="inlineStr">
-        <is>
-          <t>51.6</t>
-        </is>
-      </c>
+      <c r="E2407" t="inlineStr"/>
       <c r="F2407" t="inlineStr"/>
-      <c r="G2407" t="inlineStr">
-        <is>
-          <t>50.2</t>
-        </is>
-      </c>
+      <c r="G2407" t="inlineStr"/>
       <c r="H2407" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2408">
       <c r="A2408" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2408" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2408" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMIJAN</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2408" t="inlineStr"/>
-      <c r="E2408" t="inlineStr">
-        <is>
-          <t>51.5</t>
-        </is>
-      </c>
+      <c r="E2408" t="inlineStr"/>
       <c r="F2408" t="inlineStr"/>
-      <c r="G2408" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
+      <c r="G2408" t="inlineStr"/>
       <c r="H2408" t="inlineStr">
         <is>
           <t>3</t>
@@ -77198,7 +77054,7 @@
     <row r="2409">
       <c r="A2409" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2409" t="inlineStr">
@@ -77208,85 +77064,65 @@
       </c>
       <c r="C2409" t="inlineStr">
         <is>
-          <t>ADP Employment ChangeJAN</t>
+          <t>EIA Distillate Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2409" t="inlineStr"/>
-      <c r="E2409" t="inlineStr">
-        <is>
-          <t>122K</t>
-        </is>
-      </c>
+      <c r="E2409" t="inlineStr"/>
       <c r="F2409" t="inlineStr"/>
       <c r="G2409" t="inlineStr"/>
       <c r="H2409" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2410">
       <c r="A2410" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2410" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2410" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>EIA Gasoline Production ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2410" t="inlineStr"/>
-      <c r="E2410" t="inlineStr">
-        <is>
-          <t>C$-0.32B</t>
-        </is>
-      </c>
+      <c r="E2410" t="inlineStr"/>
       <c r="F2410" t="inlineStr"/>
-      <c r="G2410" t="inlineStr">
-        <is>
-          <t>C$ -1.6B</t>
-        </is>
-      </c>
+      <c r="G2410" t="inlineStr"/>
       <c r="H2410" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2411">
       <c r="A2411" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2411" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2411" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2411" t="inlineStr"/>
-      <c r="E2411" t="inlineStr">
-        <is>
-          <t>C$66.11B</t>
-        </is>
-      </c>
+      <c r="E2411" t="inlineStr"/>
       <c r="F2411" t="inlineStr"/>
-      <c r="G2411" t="inlineStr">
-        <is>
-          <t>C$ 65.8B</t>
-        </is>
-      </c>
+      <c r="G2411" t="inlineStr"/>
       <c r="H2411" t="inlineStr">
         <is>
           <t>3</t>
@@ -77296,31 +77132,23 @@
     <row r="2412">
       <c r="A2412" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2412" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2412" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2412" t="inlineStr"/>
-      <c r="E2412" t="inlineStr">
-        <is>
-          <t>C$66.43B</t>
-        </is>
-      </c>
+      <c r="E2412" t="inlineStr"/>
       <c r="F2412" t="inlineStr"/>
-      <c r="G2412" t="inlineStr">
-        <is>
-          <t>C$ 64.5B</t>
-        </is>
-      </c>
+      <c r="G2412" t="inlineStr"/>
       <c r="H2412" t="inlineStr">
         <is>
           <t>3</t>
@@ -77330,29 +77158,25 @@
     <row r="2413">
       <c r="A2413" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2413" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2413" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D2413" t="inlineStr"/>
-      <c r="E2413" t="inlineStr">
-        <is>
-          <t>$-78.2B</t>
-        </is>
-      </c>
+      <c r="E2413" t="inlineStr"/>
       <c r="F2413" t="inlineStr"/>
       <c r="G2413" t="inlineStr">
         <is>
-          <t>$ -68B</t>
+          <t>2.40%</t>
         </is>
       </c>
       <c r="H2413" t="inlineStr">
@@ -77364,91 +77188,83 @@
     <row r="2414">
       <c r="A2414" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2414" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2414" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2414" t="inlineStr"/>
-      <c r="E2414" t="inlineStr">
-        <is>
-          <t>$273.4B</t>
-        </is>
-      </c>
+      <c r="E2414" t="inlineStr"/>
       <c r="F2414" t="inlineStr"/>
-      <c r="G2414" t="inlineStr">
-        <is>
-          <t>$ 275.0B</t>
-        </is>
-      </c>
+      <c r="G2414" t="inlineStr"/>
       <c r="H2414" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2415">
       <c r="A2415" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2415" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2415" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>Corporate ProfitsNOV</t>
         </is>
       </c>
       <c r="D2415" t="inlineStr"/>
-      <c r="E2415" t="inlineStr">
-        <is>
-          <t>$351.6B</t>
-        </is>
-      </c>
+      <c r="E2415" t="inlineStr"/>
       <c r="F2415" t="inlineStr"/>
-      <c r="G2415" t="inlineStr">
-        <is>
-          <t>$ 338B</t>
-        </is>
-      </c>
+      <c r="G2415" t="inlineStr"/>
       <c r="H2415" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2416">
       <c r="A2416" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2416" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2416" t="inlineStr">
         <is>
-          <t>Treasury Refunding Announcement</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2416" t="inlineStr"/>
-      <c r="E2416" t="inlineStr"/>
+      <c r="E2416" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="F2416" t="inlineStr"/>
-      <c r="G2416" t="inlineStr"/>
+      <c r="G2416" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
       <c r="H2416" t="inlineStr">
         <is>
           <t>3</t>
@@ -77458,31 +77274,23 @@
     <row r="2417">
       <c r="A2417" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2417" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2417" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMIJAN</t>
+          <t>Real Wage Growth YoYNOV</t>
         </is>
       </c>
       <c r="D2417" t="inlineStr"/>
-      <c r="E2417" t="inlineStr">
-        <is>
-          <t>49.0</t>
-        </is>
-      </c>
+      <c r="E2417" t="inlineStr"/>
       <c r="F2417" t="inlineStr"/>
-      <c r="G2417" t="inlineStr">
-        <is>
-          <t>48.5</t>
-        </is>
-      </c>
+      <c r="G2417" t="inlineStr"/>
       <c r="H2417" t="inlineStr">
         <is>
           <t>3</t>
@@ -77492,29 +77300,25 @@
     <row r="2418">
       <c r="A2418" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2418" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2418" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMIJAN</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2418" t="inlineStr"/>
-      <c r="E2418" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
+      <c r="E2418" t="inlineStr"/>
       <c r="F2418" t="inlineStr"/>
       <c r="G2418" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="H2418" t="inlineStr">
@@ -77526,7 +77330,7 @@
     <row r="2419">
       <c r="A2419" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2419" t="inlineStr">
@@ -77536,73 +77340,49 @@
       </c>
       <c r="C2419" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FinalJAN</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2419" t="inlineStr"/>
-      <c r="E2419" t="inlineStr">
-        <is>
-          <t>55.4</t>
-        </is>
-      </c>
-      <c r="F2419" t="inlineStr">
-        <is>
-          <t>52.4</t>
-        </is>
-      </c>
-      <c r="G2419" t="inlineStr">
-        <is>
-          <t>52.4</t>
-        </is>
-      </c>
+      <c r="E2419" t="inlineStr"/>
+      <c r="F2419" t="inlineStr"/>
+      <c r="G2419" t="inlineStr"/>
       <c r="H2419" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2420">
       <c r="A2420" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B2420" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2420" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FinalJAN</t>
+          <t>2-Year Bond Auction</t>
         </is>
       </c>
       <c r="D2420" t="inlineStr"/>
-      <c r="E2420" t="inlineStr">
-        <is>
-          <t>56.8</t>
-        </is>
-      </c>
-      <c r="F2420" t="inlineStr">
-        <is>
-          <t>52.8</t>
-        </is>
-      </c>
-      <c r="G2420" t="inlineStr">
-        <is>
-          <t>52.8</t>
-        </is>
-      </c>
+      <c r="E2420" t="inlineStr"/>
+      <c r="F2420" t="inlineStr"/>
+      <c r="G2420" t="inlineStr"/>
       <c r="H2420" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2421">
       <c r="A2421" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2421" t="inlineStr">
@@ -77612,7 +77392,7 @@
       </c>
       <c r="C2421" t="inlineStr">
         <is>
-          <t>ISM Services PMIJAN</t>
+          <t>Fed Goolsbee Speech</t>
         </is>
       </c>
       <c r="D2421" t="inlineStr"/>
@@ -77621,64 +77401,72 @@
       <c r="G2421" t="inlineStr"/>
       <c r="H2421" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2422">
       <c r="A2422" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2422" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2422" t="inlineStr">
         <is>
-          <t>ISM Services Business ActivityJAN</t>
+          <t>Ai Group Industry IndexJAN</t>
         </is>
       </c>
       <c r="D2422" t="inlineStr"/>
       <c r="E2422" t="inlineStr">
         <is>
-          <t>58.2</t>
+          <t>-10.8</t>
         </is>
       </c>
       <c r="F2422" t="inlineStr"/>
-      <c r="G2422" t="inlineStr"/>
+      <c r="G2422" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
       <c r="H2422" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2423">
       <c r="A2423" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2423" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2423" t="inlineStr">
         <is>
-          <t>ISM Services EmploymentJAN</t>
+          <t>Ai Group Construction IndexJAN</t>
         </is>
       </c>
       <c r="D2423" t="inlineStr"/>
       <c r="E2423" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>-19.0</t>
         </is>
       </c>
       <c r="F2423" t="inlineStr"/>
-      <c r="G2423" t="inlineStr"/>
+      <c r="G2423" t="inlineStr">
+        <is>
+          <t>-25</t>
+        </is>
+      </c>
       <c r="H2423" t="inlineStr">
         <is>
           <t>3</t>
@@ -77688,27 +77476,31 @@
     <row r="2424">
       <c r="A2424" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2424" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2424" t="inlineStr">
         <is>
-          <t>ISM Services New OrdersJAN</t>
+          <t>Ai Group Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D2424" t="inlineStr"/>
       <c r="E2424" t="inlineStr">
         <is>
-          <t>54.2</t>
+          <t>-17.9</t>
         </is>
       </c>
       <c r="F2424" t="inlineStr"/>
-      <c r="G2424" t="inlineStr"/>
+      <c r="G2424" t="inlineStr">
+        <is>
+          <t>-13</t>
+        </is>
+      </c>
       <c r="H2424" t="inlineStr">
         <is>
           <t>3</t>
@@ -77718,27 +77510,27 @@
     <row r="2425">
       <c r="A2425" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2425" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2425" t="inlineStr">
         <is>
-          <t>ISM Services PricesJAN</t>
+          <t>Current AccountDEC</t>
         </is>
       </c>
       <c r="D2425" t="inlineStr"/>
-      <c r="E2425" t="inlineStr">
-        <is>
-          <t>64.4</t>
-        </is>
-      </c>
+      <c r="E2425" t="inlineStr"/>
       <c r="F2425" t="inlineStr"/>
-      <c r="G2425" t="inlineStr"/>
+      <c r="G2425" t="inlineStr">
+        <is>
+          <t>$ 8.1B</t>
+        </is>
+      </c>
       <c r="H2425" t="inlineStr">
         <is>
           <t>3</t>
@@ -77748,17 +77540,17 @@
     <row r="2426">
       <c r="A2426" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2426" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2426" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/31</t>
+          <t>Overtime Pay YoYDEC</t>
         </is>
       </c>
       <c r="D2426" t="inlineStr"/>
@@ -77767,24 +77559,24 @@
       <c r="G2426" t="inlineStr"/>
       <c r="H2426" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2427">
       <c r="A2427" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B2427" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2427" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJAN/31</t>
+          <t>Foreign Bond InvestmentFEB/01</t>
         </is>
       </c>
       <c r="D2427" t="inlineStr"/>
@@ -77793,24 +77585,24 @@
       <c r="G2427" t="inlineStr"/>
       <c r="H2427" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2428">
       <c r="A2428" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B2428" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2428" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJAN/31</t>
+          <t>Stock Investment by ForeignersFEB/01</t>
         </is>
       </c>
       <c r="D2428" t="inlineStr"/>
@@ -77826,47 +77618,59 @@
     <row r="2429">
       <c r="A2429" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2429" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2429" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/31</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2429" t="inlineStr"/>
-      <c r="E2429" t="inlineStr"/>
+      <c r="E2429" t="inlineStr">
+        <is>
+          <t>A$7.079B</t>
+        </is>
+      </c>
       <c r="F2429" t="inlineStr"/>
-      <c r="G2429" t="inlineStr"/>
+      <c r="G2429" t="inlineStr">
+        <is>
+          <t>A$ 3.2B</t>
+        </is>
+      </c>
       <c r="H2429" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2430">
       <c r="A2430" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2430" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2430" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/31</t>
+          <t>Exports MoMDEC</t>
         </is>
       </c>
       <c r="D2430" t="inlineStr"/>
-      <c r="E2430" t="inlineStr"/>
+      <c r="E2430" t="inlineStr">
+        <is>
+          <t>4.8%</t>
+        </is>
+      </c>
       <c r="F2430" t="inlineStr"/>
       <c r="G2430" t="inlineStr"/>
       <c r="H2430" t="inlineStr">
@@ -77878,21 +77682,25 @@
     <row r="2431">
       <c r="A2431" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2431" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2431" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJAN/31</t>
+          <t>Imports MoMDEC</t>
         </is>
       </c>
       <c r="D2431" t="inlineStr"/>
-      <c r="E2431" t="inlineStr"/>
+      <c r="E2431" t="inlineStr">
+        <is>
+          <t>1.7%</t>
+        </is>
+      </c>
       <c r="F2431" t="inlineStr"/>
       <c r="G2431" t="inlineStr"/>
       <c r="H2431" t="inlineStr">
@@ -77904,21 +77712,25 @@
     <row r="2432">
       <c r="A2432" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B2432" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2432" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJAN/31</t>
+          <t>30-Year JGB Auction</t>
         </is>
       </c>
       <c r="D2432" t="inlineStr"/>
-      <c r="E2432" t="inlineStr"/>
+      <c r="E2432" t="inlineStr">
+        <is>
+          <t>2.304%</t>
+        </is>
+      </c>
       <c r="F2432" t="inlineStr"/>
       <c r="G2432" t="inlineStr"/>
       <c r="H2432" t="inlineStr">
@@ -77930,21 +77742,25 @@
     <row r="2433">
       <c r="A2433" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B2433" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2433" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/31</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2433" t="inlineStr"/>
-      <c r="E2433" t="inlineStr"/>
+      <c r="E2433" t="inlineStr">
+        <is>
+          <t>0.3535%</t>
+        </is>
+      </c>
       <c r="F2433" t="inlineStr"/>
       <c r="G2433" t="inlineStr"/>
       <c r="H2433" t="inlineStr">
@@ -77954,11 +77770,7 @@
       </c>
     </row>
     <row r="2434">
-      <c r="A2434" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
+      <c r="A2434" t="inlineStr"/>
       <c r="B2434" t="inlineStr">
         <is>
           <t>US</t>
@@ -77966,11 +77778,15 @@
       </c>
       <c r="C2434" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/31</t>
+          <t>Total Vehicle SalesJAN</t>
         </is>
       </c>
       <c r="D2434" t="inlineStr"/>
-      <c r="E2434" t="inlineStr"/>
+      <c r="E2434" t="inlineStr">
+        <is>
+          <t>16.8M</t>
+        </is>
+      </c>
       <c r="F2434" t="inlineStr"/>
       <c r="G2434" t="inlineStr"/>
       <c r="H2434" t="inlineStr">
@@ -77982,686 +77798,46 @@
     <row r="2435">
       <c r="A2435" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2435" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2435" t="inlineStr">
-        <is>
-          <t>Unemployment RateDEC</t>
-        </is>
-      </c>
+          <t>Thursday February 06 2025</t>
+        </is>
+      </c>
+      <c r="B2435" t="inlineStr"/>
+      <c r="C2435" t="inlineStr"/>
       <c r="D2435" t="inlineStr"/>
       <c r="E2435" t="inlineStr"/>
       <c r="F2435" t="inlineStr"/>
-      <c r="G2435" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
-      <c r="H2435" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G2435" t="inlineStr"/>
+      <c r="H2435" t="inlineStr"/>
     </row>
     <row r="2436">
       <c r="A2436" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2436" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2436" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>Factory Orders MoMDEC</t>
         </is>
       </c>
       <c r="D2436" t="inlineStr"/>
-      <c r="E2436" t="inlineStr"/>
+      <c r="E2436" t="inlineStr">
+        <is>
+          <t>-5.4%</t>
+        </is>
+      </c>
       <c r="F2436" t="inlineStr"/>
-      <c r="G2436" t="inlineStr"/>
+      <c r="G2436" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2436" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2437">
-      <c r="A2437" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2437" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2437" t="inlineStr">
-        <is>
-          <t>Corporate ProfitsNOV</t>
-        </is>
-      </c>
-      <c r="D2437" t="inlineStr"/>
-      <c r="E2437" t="inlineStr"/>
-      <c r="F2437" t="inlineStr"/>
-      <c r="G2437" t="inlineStr"/>
-      <c r="H2437" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2438">
-      <c r="A2438" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2438" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2438" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2438" t="inlineStr"/>
-      <c r="E2438" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="F2438" t="inlineStr"/>
-      <c r="G2438" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="H2438" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2439">
-      <c r="A2439" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2439" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2439" t="inlineStr">
-        <is>
-          <t>Real Wage Growth YoYNOV</t>
-        </is>
-      </c>
-      <c r="D2439" t="inlineStr"/>
-      <c r="E2439" t="inlineStr"/>
-      <c r="F2439" t="inlineStr"/>
-      <c r="G2439" t="inlineStr"/>
-      <c r="H2439" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2440">
-      <c r="A2440" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2440" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2440" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2440" t="inlineStr"/>
-      <c r="E2440" t="inlineStr"/>
-      <c r="F2440" t="inlineStr"/>
-      <c r="G2440" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="H2440" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2441">
-      <c r="A2441" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B2441" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2441" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2441" t="inlineStr"/>
-      <c r="E2441" t="inlineStr"/>
-      <c r="F2441" t="inlineStr"/>
-      <c r="G2441" t="inlineStr"/>
-      <c r="H2441" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2442">
-      <c r="A2442" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B2442" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C2442" t="inlineStr">
-        <is>
-          <t>2-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="D2442" t="inlineStr"/>
-      <c r="E2442" t="inlineStr"/>
-      <c r="F2442" t="inlineStr"/>
-      <c r="G2442" t="inlineStr"/>
-      <c r="H2442" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2443">
-      <c r="A2443" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B2443" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2443" t="inlineStr">
-        <is>
-          <t>Fed Goolsbee Speech</t>
-        </is>
-      </c>
-      <c r="D2443" t="inlineStr"/>
-      <c r="E2443" t="inlineStr"/>
-      <c r="F2443" t="inlineStr"/>
-      <c r="G2443" t="inlineStr"/>
-      <c r="H2443" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2444">
-      <c r="A2444" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B2444" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2444" t="inlineStr">
-        <is>
-          <t>Ai Group Industry IndexJAN</t>
-        </is>
-      </c>
-      <c r="D2444" t="inlineStr"/>
-      <c r="E2444" t="inlineStr">
-        <is>
-          <t>-10.8</t>
-        </is>
-      </c>
-      <c r="F2444" t="inlineStr"/>
-      <c r="G2444" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="H2444" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2445">
-      <c r="A2445" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B2445" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2445" t="inlineStr">
-        <is>
-          <t>Ai Group Construction IndexJAN</t>
-        </is>
-      </c>
-      <c r="D2445" t="inlineStr"/>
-      <c r="E2445" t="inlineStr">
-        <is>
-          <t>-19.0</t>
-        </is>
-      </c>
-      <c r="F2445" t="inlineStr"/>
-      <c r="G2445" t="inlineStr">
-        <is>
-          <t>-25</t>
-        </is>
-      </c>
-      <c r="H2445" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2446">
-      <c r="A2446" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B2446" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2446" t="inlineStr">
-        <is>
-          <t>Ai Group Manufacturing IndexJAN</t>
-        </is>
-      </c>
-      <c r="D2446" t="inlineStr"/>
-      <c r="E2446" t="inlineStr">
-        <is>
-          <t>-17.9</t>
-        </is>
-      </c>
-      <c r="F2446" t="inlineStr"/>
-      <c r="G2446" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="H2446" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2447">
-      <c r="A2447" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2447" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2447" t="inlineStr">
-        <is>
-          <t>Current AccountDEC</t>
-        </is>
-      </c>
-      <c r="D2447" t="inlineStr"/>
-      <c r="E2447" t="inlineStr"/>
-      <c r="F2447" t="inlineStr"/>
-      <c r="G2447" t="inlineStr">
-        <is>
-          <t>$ 8.1B</t>
-        </is>
-      </c>
-      <c r="H2447" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2448">
-      <c r="A2448" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
-      <c r="B2448" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2448" t="inlineStr">
-        <is>
-          <t>Overtime Pay YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2448" t="inlineStr"/>
-      <c r="E2448" t="inlineStr"/>
-      <c r="F2448" t="inlineStr"/>
-      <c r="G2448" t="inlineStr"/>
-      <c r="H2448" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2449">
-      <c r="A2449" t="inlineStr">
-        <is>
-          <t>06:50 PM</t>
-        </is>
-      </c>
-      <c r="B2449" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2449" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentFEB/01</t>
-        </is>
-      </c>
-      <c r="D2449" t="inlineStr"/>
-      <c r="E2449" t="inlineStr"/>
-      <c r="F2449" t="inlineStr"/>
-      <c r="G2449" t="inlineStr"/>
-      <c r="H2449" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2450">
-      <c r="A2450" t="inlineStr">
-        <is>
-          <t>06:50 PM</t>
-        </is>
-      </c>
-      <c r="B2450" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2450" t="inlineStr">
-        <is>
-          <t>Stock Investment by ForeignersFEB/01</t>
-        </is>
-      </c>
-      <c r="D2450" t="inlineStr"/>
-      <c r="E2450" t="inlineStr"/>
-      <c r="F2450" t="inlineStr"/>
-      <c r="G2450" t="inlineStr"/>
-      <c r="H2450" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2451">
-      <c r="A2451" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2451" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2451" t="inlineStr">
-        <is>
-          <t>Balance of TradeDEC</t>
-        </is>
-      </c>
-      <c r="D2451" t="inlineStr"/>
-      <c r="E2451" t="inlineStr">
-        <is>
-          <t>A$7.079B</t>
-        </is>
-      </c>
-      <c r="F2451" t="inlineStr"/>
-      <c r="G2451" t="inlineStr">
-        <is>
-          <t>A$ 3.2B</t>
-        </is>
-      </c>
-      <c r="H2451" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2452">
-      <c r="A2452" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2452" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2452" t="inlineStr">
-        <is>
-          <t>Exports MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2452" t="inlineStr"/>
-      <c r="E2452" t="inlineStr">
-        <is>
-          <t>4.8%</t>
-        </is>
-      </c>
-      <c r="F2452" t="inlineStr"/>
-      <c r="G2452" t="inlineStr"/>
-      <c r="H2452" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2453">
-      <c r="A2453" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2453" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2453" t="inlineStr">
-        <is>
-          <t>Imports MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2453" t="inlineStr"/>
-      <c r="E2453" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="F2453" t="inlineStr"/>
-      <c r="G2453" t="inlineStr"/>
-      <c r="H2453" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2454">
-      <c r="A2454" t="inlineStr">
-        <is>
-          <t>10:35 PM</t>
-        </is>
-      </c>
-      <c r="B2454" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2454" t="inlineStr">
-        <is>
-          <t>30-Year JGB Auction</t>
-        </is>
-      </c>
-      <c r="D2454" t="inlineStr"/>
-      <c r="E2454" t="inlineStr">
-        <is>
-          <t>2.304%</t>
-        </is>
-      </c>
-      <c r="F2454" t="inlineStr"/>
-      <c r="G2454" t="inlineStr"/>
-      <c r="H2454" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2455">
-      <c r="A2455" t="inlineStr">
-        <is>
-          <t>10:35 PM</t>
-        </is>
-      </c>
-      <c r="B2455" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2455" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2455" t="inlineStr"/>
-      <c r="E2455" t="inlineStr">
-        <is>
-          <t>0.3535%</t>
-        </is>
-      </c>
-      <c r="F2455" t="inlineStr"/>
-      <c r="G2455" t="inlineStr"/>
-      <c r="H2455" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2456">
-      <c r="A2456" t="inlineStr"/>
-      <c r="B2456" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2456" t="inlineStr">
-        <is>
-          <t>Total Vehicle SalesJAN</t>
-        </is>
-      </c>
-      <c r="D2456" t="inlineStr"/>
-      <c r="E2456" t="inlineStr">
-        <is>
-          <t>16.8M</t>
-        </is>
-      </c>
-      <c r="F2456" t="inlineStr"/>
-      <c r="G2456" t="inlineStr"/>
-      <c r="H2456" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2457">
-      <c r="A2457" t="inlineStr">
-        <is>
-          <t>Thursday February 06 2025</t>
-        </is>
-      </c>
-      <c r="B2457" t="inlineStr"/>
-      <c r="C2457" t="inlineStr"/>
-      <c r="D2457" t="inlineStr"/>
-      <c r="E2457" t="inlineStr"/>
-      <c r="F2457" t="inlineStr"/>
-      <c r="G2457" t="inlineStr"/>
-      <c r="H2457" t="inlineStr"/>
-    </row>
-    <row r="2458">
-      <c r="A2458" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B2458" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C2458" t="inlineStr">
-        <is>
-          <t>Factory Orders MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2458" t="inlineStr"/>
-      <c r="E2458" t="inlineStr">
-        <is>
-          <t>-5.4%</t>
-        </is>
-      </c>
-      <c r="F2458" t="inlineStr"/>
-      <c r="G2458" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H2458" t="inlineStr">
         <is>
           <t>2</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-06.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2467"/>
+  <dimension ref="A1:H2446"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70951,10 +70951,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2205" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2205" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2206">
@@ -70981,10 +70979,8 @@
       </c>
       <c r="F2206" t="inlineStr"/>
       <c r="G2206" t="inlineStr"/>
-      <c r="H2206" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2206" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2207">
@@ -71019,10 +71015,8 @@
           <t>7.0K</t>
         </is>
       </c>
-      <c r="H2207" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2207" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2208">
@@ -71053,10 +71047,8 @@
           <t>2.876M</t>
         </is>
       </c>
-      <c r="H2208" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2208" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2209">
@@ -71091,10 +71083,8 @@
           <t>6.2%</t>
         </is>
       </c>
-      <c r="H2209" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2209" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2210">
@@ -71117,10 +71107,8 @@
       <c r="E2210" t="inlineStr"/>
       <c r="F2210" t="inlineStr"/>
       <c r="G2210" t="inlineStr"/>
-      <c r="H2210" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2210" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2211">
@@ -71147,10 +71135,8 @@
       </c>
       <c r="F2211" t="inlineStr"/>
       <c r="G2211" t="inlineStr"/>
-      <c r="H2211" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2211" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2212">
@@ -71177,10 +71163,8 @@
       </c>
       <c r="F2212" t="inlineStr"/>
       <c r="G2212" t="inlineStr"/>
-      <c r="H2212" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2212" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2213">
@@ -71207,10 +71191,8 @@
       </c>
       <c r="F2213" t="inlineStr"/>
       <c r="G2213" t="inlineStr"/>
-      <c r="H2213" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2213" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2214">
@@ -71237,10 +71219,8 @@
       </c>
       <c r="F2214" t="inlineStr"/>
       <c r="G2214" t="inlineStr"/>
-      <c r="H2214" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2214" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2215">
@@ -71267,10 +71247,8 @@
       </c>
       <c r="F2215" t="inlineStr"/>
       <c r="G2215" t="inlineStr"/>
-      <c r="H2215" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2215" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2216">
@@ -71297,10 +71275,8 @@
       </c>
       <c r="F2216" t="inlineStr"/>
       <c r="G2216" t="inlineStr"/>
-      <c r="H2216" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2216" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2217">
@@ -71327,10 +71303,8 @@
       </c>
       <c r="F2217" t="inlineStr"/>
       <c r="G2217" t="inlineStr"/>
-      <c r="H2217" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2217" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2218">
@@ -71357,10 +71331,8 @@
       </c>
       <c r="F2218" t="inlineStr"/>
       <c r="G2218" t="inlineStr"/>
-      <c r="H2218" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2218" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2219">
@@ -71387,10 +71359,8 @@
       </c>
       <c r="F2219" t="inlineStr"/>
       <c r="G2219" t="inlineStr"/>
-      <c r="H2219" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2219" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2220">
@@ -71417,10 +71387,8 @@
       </c>
       <c r="F2220" t="inlineStr"/>
       <c r="G2220" t="inlineStr"/>
-      <c r="H2220" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2220" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2221">
@@ -71447,10 +71415,8 @@
       </c>
       <c r="F2221" t="inlineStr"/>
       <c r="G2221" t="inlineStr"/>
-      <c r="H2221" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2221" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2222">
@@ -71477,10 +71443,8 @@
       </c>
       <c r="F2222" t="inlineStr"/>
       <c r="G2222" t="inlineStr"/>
-      <c r="H2222" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2222" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2223">
@@ -71511,10 +71475,8 @@
           <t>€5.0B</t>
         </is>
       </c>
-      <c r="H2223" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2223" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2224">
@@ -71545,10 +71507,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2224" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2224" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2225">
@@ -71579,10 +71539,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2225" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2225" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2226">
@@ -71613,10 +71571,8 @@
           <t>INR-9700.0B</t>
         </is>
       </c>
-      <c r="H2226" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2226" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2227">
@@ -71647,10 +71603,8 @@
           <t>77.9%</t>
         </is>
       </c>
-      <c r="H2227" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2227" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2228">
@@ -71685,10 +71639,8 @@
           <t>BRL-75.0B</t>
         </is>
       </c>
-      <c r="H2228" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2228" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2229">
@@ -71715,10 +71667,8 @@
       </c>
       <c r="F2229" t="inlineStr"/>
       <c r="G2229" t="inlineStr"/>
-      <c r="H2229" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2229" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2230">
@@ -71745,10 +71695,8 @@
       </c>
       <c r="F2230" t="inlineStr"/>
       <c r="G2230" t="inlineStr"/>
-      <c r="H2230" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2230" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2231">
@@ -71775,10 +71723,8 @@
       </c>
       <c r="F2231" t="inlineStr"/>
       <c r="G2231" t="inlineStr"/>
-      <c r="H2231" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2231" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2232">
@@ -71809,10 +71755,8 @@
           <t>4.8%</t>
         </is>
       </c>
-      <c r="H2232" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2232" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2233">
@@ -71847,10 +71791,8 @@
           <t>6.1%</t>
         </is>
       </c>
-      <c r="H2233" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2233" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2234">
@@ -71881,10 +71823,8 @@
           <t>ZAR 27.0B</t>
         </is>
       </c>
-      <c r="H2234" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2234" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2235">
@@ -71919,10 +71859,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2235" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2235" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2236">
@@ -71957,10 +71895,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2236" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2236" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2237">
@@ -71995,10 +71931,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2237" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2237" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2238">
@@ -72033,10 +71967,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2238" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2238" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2239">
@@ -72071,10 +72003,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2239" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2239" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2240">
@@ -72105,10 +72035,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2240" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2240" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2241">
@@ -72143,10 +72071,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2241" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2241" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2242">
@@ -72181,10 +72107,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2242" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2242" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2243">
@@ -72219,10 +72143,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2243" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2243" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2244">
@@ -72253,10 +72175,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2244" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2244" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2245">
@@ -72287,10 +72207,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2245" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2245" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2246">
@@ -72325,10 +72243,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2246" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2246" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2247">
@@ -72351,10 +72267,8 @@
       <c r="E2247" t="inlineStr"/>
       <c r="F2247" t="inlineStr"/>
       <c r="G2247" t="inlineStr"/>
-      <c r="H2247" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2247" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2248">
@@ -72389,10 +72303,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2248" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2248" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2249">
@@ -72427,10 +72339,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2249" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2249" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2250">
@@ -72465,10 +72375,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H2250" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2250" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2251">
@@ -72503,10 +72411,8 @@
           <t>37.2</t>
         </is>
       </c>
-      <c r="H2251" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2251" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2252">
@@ -72537,10 +72443,8 @@
           <t>C$-1.9B</t>
         </is>
       </c>
-      <c r="H2252" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2252" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2253">
@@ -72567,10 +72471,8 @@
       </c>
       <c r="F2253" t="inlineStr"/>
       <c r="G2253" t="inlineStr"/>
-      <c r="H2253" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2253" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2254">
@@ -72597,10 +72499,8 @@
       </c>
       <c r="F2254" t="inlineStr"/>
       <c r="G2254" t="inlineStr"/>
-      <c r="H2254" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2254" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2255">
@@ -72631,10 +72531,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2255" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2255" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2256">
@@ -72665,10 +72563,8 @@
           <t>$0.9B</t>
         </is>
       </c>
-      <c r="H2256" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2256" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2257">
@@ -72699,10 +72595,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H2257" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2257" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2258">
@@ -72729,10 +72623,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2258" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2258" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2259">
@@ -72759,10 +72651,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2259" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2259" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2260">
@@ -72789,10 +72679,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H2260" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2260" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2261">
@@ -72819,10 +72707,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H2261" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2261" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2262">
@@ -72849,10 +72735,8 @@
           <t>20.7%</t>
         </is>
       </c>
-      <c r="H2262" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2262" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2263">
@@ -72893,10 +72777,8 @@
       </c>
       <c r="F2264" t="inlineStr"/>
       <c r="G2264" t="inlineStr"/>
-      <c r="H2264" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2264" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2265">
@@ -72927,10 +72809,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2265" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2265" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2266">
@@ -72961,10 +72841,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H2266" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2266" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2267">
@@ -72995,10 +72873,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2267" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2267" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2268">
@@ -73021,10 +72897,8 @@
       <c r="E2268" t="inlineStr"/>
       <c r="F2268" t="inlineStr"/>
       <c r="G2268" t="inlineStr"/>
-      <c r="H2268" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2268" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2269">
@@ -73055,10 +72929,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H2269" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2269" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2270">
@@ -73089,10 +72961,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2270" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2270" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2271">
@@ -73119,10 +72989,8 @@
       </c>
       <c r="F2271" t="inlineStr"/>
       <c r="G2271" t="inlineStr"/>
-      <c r="H2271" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2271" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2272">
@@ -73149,10 +73017,8 @@
       </c>
       <c r="F2272" t="inlineStr"/>
       <c r="G2272" t="inlineStr"/>
-      <c r="H2272" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2272" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2273">
@@ -73183,10 +73049,8 @@
           <t>51.6</t>
         </is>
       </c>
-      <c r="H2273" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2273" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2274">
@@ -73221,10 +73085,8 @@
           <t>48.8</t>
         </is>
       </c>
-      <c r="H2274" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2274" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2275">
@@ -73255,10 +73117,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H2275" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2275" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2276">
@@ -73293,10 +73153,8 @@
           <t>50.5</t>
         </is>
       </c>
-      <c r="H2276" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2276" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2277">
@@ -73327,10 +73185,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H2277" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2277" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2278">
@@ -73361,10 +73217,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H2278" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2278" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2279">
@@ -73395,10 +73249,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2279" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2279" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2280">
@@ -73429,114 +73281,120 @@
           <t>18.0%</t>
         </is>
       </c>
-      <c r="H2280" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2280" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2281">
       <c r="A2281" t="inlineStr">
         <is>
-          <t>Monday February 03 2025</t>
-        </is>
-      </c>
-      <c r="B2281" t="inlineStr"/>
-      <c r="C2281" t="inlineStr"/>
+          <t>05:00 AM</t>
+        </is>
+      </c>
+      <c r="B2281" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C2281" t="inlineStr">
+        <is>
+          <t>CPI FlashJAN</t>
+        </is>
+      </c>
       <c r="D2281" t="inlineStr"/>
-      <c r="E2281" t="inlineStr"/>
+      <c r="E2281" t="inlineStr">
+        <is>
+          <t>127.07</t>
+        </is>
+      </c>
       <c r="F2281" t="inlineStr"/>
       <c r="G2281" t="inlineStr"/>
-      <c r="H2281" t="inlineStr"/>
+      <c r="H2281" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2282">
       <c r="A2282" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2282" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2282" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2282" t="inlineStr"/>
       <c r="E2282" t="inlineStr">
         <is>
-          <t>56.4</t>
-        </is>
-      </c>
-      <c r="F2282" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="G2282" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="F2282" t="inlineStr"/>
+      <c r="G2282" t="inlineStr"/>
       <c r="H2282" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2283">
       <c r="A2283" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2283" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2283" t="inlineStr">
         <is>
-          <t>2-Year KTB Auction</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2283" t="inlineStr"/>
       <c r="E2283" t="inlineStr">
         <is>
-          <t>2.670%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2283" t="inlineStr"/>
       <c r="G2283" t="inlineStr"/>
       <c r="H2283" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2284">
       <c r="A2284" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2284" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2284" t="inlineStr">
         <is>
-          <t>Commodity Prices YoYJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2284" t="inlineStr"/>
       <c r="E2284" t="inlineStr">
         <is>
-          <t>-10.7%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2284" t="inlineStr"/>
@@ -73550,117 +73408,129 @@
     <row r="2285">
       <c r="A2285" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2285" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2285" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2285" t="inlineStr"/>
       <c r="E2285" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F2285" t="inlineStr"/>
       <c r="G2285" t="inlineStr"/>
       <c r="H2285" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2286">
       <c r="A2286" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2286" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2286" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D2286" t="inlineStr"/>
       <c r="E2286" t="inlineStr">
         <is>
-          <t>1.03%</t>
+          <t>$232.2B</t>
         </is>
       </c>
       <c r="F2286" t="inlineStr"/>
-      <c r="G2286" t="inlineStr"/>
+      <c r="G2286" t="inlineStr">
+        <is>
+          <t>$ 230B</t>
+        </is>
+      </c>
       <c r="H2286" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2287">
       <c r="A2287" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2287" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2287" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2287" t="inlineStr"/>
       <c r="E2287" t="inlineStr">
         <is>
-          <t>44.38%</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F2287" t="inlineStr"/>
-      <c r="G2287" t="inlineStr"/>
+      <c r="G2287" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="H2287" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2288">
       <c r="A2288" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2288" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2288" t="inlineStr">
         <is>
-          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
+          <t>SIPMM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2288" t="inlineStr"/>
       <c r="E2288" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F2288" t="inlineStr"/>
-      <c r="G2288" t="inlineStr"/>
+      <c r="G2288" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="H2288" t="inlineStr">
         <is>
           <t>3</t>
@@ -73670,55 +73540,47 @@
     <row r="2289">
       <c r="A2289" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2289" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2289" t="inlineStr">
         <is>
-          <t>PPI MoMJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2289" t="inlineStr"/>
-      <c r="E2289" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="E2289" t="inlineStr"/>
       <c r="F2289" t="inlineStr"/>
       <c r="G2289" t="inlineStr"/>
       <c r="H2289" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2290">
       <c r="A2290" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2290" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2290" t="inlineStr">
         <is>
-          <t>PPI YoYJAN</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2290" t="inlineStr"/>
-      <c r="E2290" t="inlineStr">
-        <is>
-          <t>28.52%</t>
-        </is>
-      </c>
+      <c r="E2290" t="inlineStr"/>
       <c r="F2290" t="inlineStr"/>
       <c r="G2290" t="inlineStr"/>
       <c r="H2290" t="inlineStr">
@@ -73730,47 +73592,43 @@
     <row r="2291">
       <c r="A2291" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2291" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2291" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2291" t="inlineStr"/>
-      <c r="E2291" t="inlineStr">
-        <is>
-          <t>-25.3K</t>
-        </is>
-      </c>
+      <c r="E2291" t="inlineStr"/>
       <c r="F2291" t="inlineStr"/>
       <c r="G2291" t="inlineStr"/>
       <c r="H2291" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2292">
       <c r="A2292" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2292" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2292" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2292" t="inlineStr"/>
@@ -73786,23 +73644,23 @@
     <row r="2293">
       <c r="A2293" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2293" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2293" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2293" t="inlineStr"/>
       <c r="E2293" t="inlineStr">
         <is>
-          <t>53.3</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="F2293" t="inlineStr"/>
@@ -73816,27 +73674,35 @@
     <row r="2294">
       <c r="A2294" t="inlineStr">
         <is>
-          <t>03:45 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B2294" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2294" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2294" t="inlineStr"/>
       <c r="E2294" t="inlineStr">
         <is>
-          <t>46.2</t>
-        </is>
-      </c>
-      <c r="F2294" t="inlineStr"/>
-      <c r="G2294" t="inlineStr"/>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="F2294" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
+      <c r="G2294" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
       <c r="H2294" t="inlineStr">
         <is>
           <t>2</t>
@@ -73846,73 +73712,57 @@
     <row r="2295">
       <c r="A2295" t="inlineStr">
         <is>
-          <t>03:50 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2295" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2295" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2295" t="inlineStr"/>
       <c r="E2295" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F2295" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
-      <c r="G2295" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F2295" t="inlineStr"/>
+      <c r="G2295" t="inlineStr"/>
       <c r="H2295" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2296">
       <c r="A2296" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2296" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2296" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing EmploymentJAN</t>
         </is>
       </c>
       <c r="D2296" t="inlineStr"/>
       <c r="E2296" t="inlineStr">
         <is>
-          <t>42.5</t>
-        </is>
-      </c>
-      <c r="F2296" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
-      <c r="G2296" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="F2296" t="inlineStr"/>
+      <c r="G2296" t="inlineStr"/>
       <c r="H2296" t="inlineStr">
         <is>
           <t>2</t>
@@ -73922,69 +73772,57 @@
     <row r="2297">
       <c r="A2297" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2297" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2297" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>Construction Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2297" t="inlineStr"/>
       <c r="E2297" t="inlineStr">
         <is>
-          <t>45.1</t>
-        </is>
-      </c>
-      <c r="F2297" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F2297" t="inlineStr"/>
       <c r="G2297" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2297" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2298">
       <c r="A2298" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2298" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2298" t="inlineStr">
         <is>
-          <t>ABSA Manufacturing PMIJAN</t>
+          <t>ISM Manufacturing New OrdersJAN</t>
         </is>
       </c>
       <c r="D2298" t="inlineStr"/>
-      <c r="E2298" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="E2298" t="inlineStr"/>
       <c r="F2298" t="inlineStr"/>
-      <c r="G2298" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
+      <c r="G2298" t="inlineStr"/>
       <c r="H2298" t="inlineStr">
         <is>
           <t>3</t>
@@ -73994,55 +73832,43 @@
     <row r="2299">
       <c r="A2299" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2299" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2299" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PricesJAN</t>
         </is>
       </c>
       <c r="D2299" t="inlineStr"/>
-      <c r="E2299" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F2299" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
-      <c r="G2299" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
+      <c r="E2299" t="inlineStr"/>
+      <c r="F2299" t="inlineStr"/>
+      <c r="G2299" t="inlineStr"/>
       <c r="H2299" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2300">
       <c r="A2300" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2300" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2300" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FlashJAN</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2300" t="inlineStr"/>
@@ -74051,54 +73877,50 @@
       <c r="G2300" t="inlineStr"/>
       <c r="H2300" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2301">
       <c r="A2301" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2301" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2301" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FlashJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2301" t="inlineStr"/>
-      <c r="E2301" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E2301" t="inlineStr"/>
       <c r="F2301" t="inlineStr"/>
       <c r="G2301" t="inlineStr"/>
       <c r="H2301" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2302">
       <c r="A2302" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2302" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2302" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FlashJAN</t>
+          <t>Treasury Refunding Financing Estimates</t>
         </is>
       </c>
       <c r="D2302" t="inlineStr"/>
@@ -74107,30 +73929,30 @@
       <c r="G2302" t="inlineStr"/>
       <c r="H2302" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2303">
       <c r="A2303" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2303" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2303" t="inlineStr">
         <is>
-          <t>CPI FlashJAN</t>
+          <t>Tax RevenueJAN</t>
         </is>
       </c>
       <c r="D2303" t="inlineStr"/>
       <c r="E2303" t="inlineStr">
         <is>
-          <t>127.07</t>
+          <t>ARS13015B</t>
         </is>
       </c>
       <c r="F2303" t="inlineStr"/>
@@ -74144,87 +73966,87 @@
     <row r="2304">
       <c r="A2304" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B2304" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2304" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>10-Year JGB Auction</t>
         </is>
       </c>
       <c r="D2304" t="inlineStr"/>
       <c r="E2304" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>1.140%</t>
         </is>
       </c>
       <c r="F2304" t="inlineStr"/>
       <c r="G2304" t="inlineStr"/>
       <c r="H2304" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2305">
       <c r="A2305" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:15 PM</t>
         </is>
       </c>
       <c r="B2305" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C2305" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Riyad Bank PMIJAN</t>
         </is>
       </c>
       <c r="D2305" t="inlineStr"/>
       <c r="E2305" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="F2305" t="inlineStr"/>
       <c r="G2305" t="inlineStr"/>
       <c r="H2305" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2306">
-      <c r="A2306" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
+      <c r="A2306" t="inlineStr"/>
       <c r="B2306" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2306" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>Total New Vehicle SalesJAN</t>
         </is>
       </c>
       <c r="D2306" t="inlineStr"/>
       <c r="E2306" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>41.27K</t>
         </is>
       </c>
       <c r="F2306" t="inlineStr"/>
-      <c r="G2306" t="inlineStr"/>
+      <c r="G2306" t="inlineStr">
+        <is>
+          <t>43.0K</t>
+        </is>
+      </c>
       <c r="H2306" t="inlineStr">
         <is>
           <t>3</t>
@@ -74234,61 +74056,41 @@
     <row r="2307">
       <c r="A2307" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B2307" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C2307" t="inlineStr">
-        <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
-        </is>
-      </c>
+          <t>Tuesday February 04 2025</t>
+        </is>
+      </c>
+      <c r="B2307" t="inlineStr"/>
+      <c r="C2307" t="inlineStr"/>
       <c r="D2307" t="inlineStr"/>
-      <c r="E2307" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
+      <c r="E2307" t="inlineStr"/>
       <c r="F2307" t="inlineStr"/>
       <c r="G2307" t="inlineStr"/>
-      <c r="H2307" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2307" t="inlineStr"/>
     </row>
     <row r="2308">
       <c r="A2308" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2308" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2308" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2308" t="inlineStr"/>
       <c r="E2308" t="inlineStr">
         <is>
-          <t>$232.2B</t>
+          <t>3.08%</t>
         </is>
       </c>
       <c r="F2308" t="inlineStr"/>
-      <c r="G2308" t="inlineStr">
-        <is>
-          <t>$ 230B</t>
-        </is>
-      </c>
+      <c r="G2308" t="inlineStr"/>
       <c r="H2308" t="inlineStr">
         <is>
           <t>3</t>
@@ -74298,31 +74100,27 @@
     <row r="2309">
       <c r="A2309" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2309" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2309" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2309" t="inlineStr"/>
       <c r="E2309" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F2309" t="inlineStr"/>
-      <c r="G2309" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
+      <c r="G2309" t="inlineStr"/>
       <c r="H2309" t="inlineStr">
         <is>
           <t>3</t>
@@ -74332,31 +74130,27 @@
     <row r="2310">
       <c r="A2310" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2310" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2310" t="inlineStr">
         <is>
-          <t>SIPMM Manufacturing PMIJAN</t>
+          <t>30-Year KTB Auction</t>
         </is>
       </c>
       <c r="D2310" t="inlineStr"/>
       <c r="E2310" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>2.705%</t>
         </is>
       </c>
       <c r="F2310" t="inlineStr"/>
-      <c r="G2310" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+      <c r="G2310" t="inlineStr"/>
       <c r="H2310" t="inlineStr">
         <is>
           <t>3</t>
@@ -74366,47 +74160,55 @@
     <row r="2311">
       <c r="A2311" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B2311" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2311" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D2311" t="inlineStr"/>
-      <c r="E2311" t="inlineStr"/>
+      <c r="E2311" t="inlineStr">
+        <is>
+          <t>€-172.5B</t>
+        </is>
+      </c>
       <c r="F2311" t="inlineStr"/>
       <c r="G2311" t="inlineStr"/>
       <c r="H2311" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2312">
       <c r="A2312" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B2312" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2312" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>IPC-Fipe Inflation MoMJAN</t>
         </is>
       </c>
       <c r="D2312" t="inlineStr"/>
-      <c r="E2312" t="inlineStr"/>
+      <c r="E2312" t="inlineStr">
+        <is>
+          <t>0.34%</t>
+        </is>
+      </c>
       <c r="F2312" t="inlineStr"/>
       <c r="G2312" t="inlineStr"/>
       <c r="H2312" t="inlineStr">
@@ -74418,17 +74220,17 @@
     <row r="2313">
       <c r="A2313" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2313" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2313" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>5-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D2313" t="inlineStr"/>
@@ -74444,17 +74246,17 @@
     <row r="2314">
       <c r="A2314" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2314" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2314" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BCB Copom Meeting Minutes</t>
         </is>
       </c>
       <c r="D2314" t="inlineStr"/>
@@ -74463,112 +74265,112 @@
       <c r="G2314" t="inlineStr"/>
       <c r="H2314" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2315">
       <c r="A2315" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2315" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2315" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2315" t="inlineStr"/>
       <c r="E2315" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>1.23%</t>
         </is>
       </c>
       <c r="F2315" t="inlineStr"/>
-      <c r="G2315" t="inlineStr"/>
+      <c r="G2315" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2315" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2316">
       <c r="A2316" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2316" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2316" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2316" t="inlineStr"/>
       <c r="E2316" t="inlineStr">
         <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="F2316" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
+          <t>7.59%</t>
+        </is>
+      </c>
+      <c r="F2316" t="inlineStr"/>
       <c r="G2316" t="inlineStr">
         <is>
-          <t>50.1</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="H2316" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2317">
       <c r="A2317" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2317" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2317" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PMIJAN</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2317" t="inlineStr"/>
       <c r="E2317" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F2317" t="inlineStr"/>
       <c r="G2317" t="inlineStr"/>
       <c r="H2317" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2318">
       <c r="A2318" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B2318" t="inlineStr">
@@ -74578,20 +74380,16 @@
       </c>
       <c r="C2318" t="inlineStr">
         <is>
-          <t>ISM Manufacturing EmploymentJAN</t>
+          <t>Redbook YoYFEB/01</t>
         </is>
       </c>
       <c r="D2318" t="inlineStr"/>
-      <c r="E2318" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+      <c r="E2318" t="inlineStr"/>
       <c r="F2318" t="inlineStr"/>
       <c r="G2318" t="inlineStr"/>
       <c r="H2318" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -74603,26 +74401,22 @@
       </c>
       <c r="B2319" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2319" t="inlineStr">
         <is>
-          <t>Construction Spending MoMDEC</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2319" t="inlineStr"/>
       <c r="E2319" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>49.8</t>
         </is>
       </c>
       <c r="F2319" t="inlineStr"/>
-      <c r="G2319" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2319" t="inlineStr"/>
       <c r="H2319" t="inlineStr">
         <is>
           <t>3</t>
@@ -74642,16 +74436,20 @@
       </c>
       <c r="C2320" t="inlineStr">
         <is>
-          <t>ISM Manufacturing New OrdersJAN</t>
+          <t>JOLTs Job OpeningsDEC</t>
         </is>
       </c>
       <c r="D2320" t="inlineStr"/>
       <c r="E2320" t="inlineStr"/>
       <c r="F2320" t="inlineStr"/>
-      <c r="G2320" t="inlineStr"/>
+      <c r="G2320" t="inlineStr">
+        <is>
+          <t>7.6M</t>
+        </is>
+      </c>
       <c r="H2320" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -74668,23 +74466,31 @@
       </c>
       <c r="C2321" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PricesJAN</t>
+          <t>Factory Orders MoMDEC</t>
         </is>
       </c>
       <c r="D2321" t="inlineStr"/>
-      <c r="E2321" t="inlineStr"/>
+      <c r="E2321" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
       <c r="F2321" t="inlineStr"/>
-      <c r="G2321" t="inlineStr"/>
+      <c r="G2321" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="H2321" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2322">
       <c r="A2322" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2322" t="inlineStr">
@@ -74694,13 +74500,21 @@
       </c>
       <c r="C2322" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Factory Orders ex TransportationDEC</t>
         </is>
       </c>
       <c r="D2322" t="inlineStr"/>
-      <c r="E2322" t="inlineStr"/>
+      <c r="E2322" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F2322" t="inlineStr"/>
-      <c r="G2322" t="inlineStr"/>
+      <c r="G2322" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H2322" t="inlineStr">
         <is>
           <t>3</t>
@@ -74710,7 +74524,7 @@
     <row r="2323">
       <c r="A2323" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2323" t="inlineStr">
@@ -74720,7 +74534,7 @@
       </c>
       <c r="C2323" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>JOLTs Job QuitsDEC</t>
         </is>
       </c>
       <c r="D2323" t="inlineStr"/>
@@ -74736,7 +74550,7 @@
     <row r="2324">
       <c r="A2324" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>10:10 AM</t>
         </is>
       </c>
       <c r="B2324" t="inlineStr">
@@ -74746,11 +74560,15 @@
       </c>
       <c r="C2324" t="inlineStr">
         <is>
-          <t>Treasury Refunding Financing Estimates</t>
+          <t>RCM/TIPP Economic Optimism IndexFEB</t>
         </is>
       </c>
       <c r="D2324" t="inlineStr"/>
-      <c r="E2324" t="inlineStr"/>
+      <c r="E2324" t="inlineStr">
+        <is>
+          <t>51.9</t>
+        </is>
+      </c>
       <c r="F2324" t="inlineStr"/>
       <c r="G2324" t="inlineStr"/>
       <c r="H2324" t="inlineStr">
@@ -74762,55 +74580,47 @@
     <row r="2325">
       <c r="A2325" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B2325" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2325" t="inlineStr">
         <is>
-          <t>Tax RevenueJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2325" t="inlineStr"/>
-      <c r="E2325" t="inlineStr">
-        <is>
-          <t>ARS13015B</t>
-        </is>
-      </c>
+      <c r="E2325" t="inlineStr"/>
       <c r="F2325" t="inlineStr"/>
       <c r="G2325" t="inlineStr"/>
       <c r="H2325" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2326">
       <c r="A2326" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B2326" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2326" t="inlineStr">
         <is>
-          <t>10-Year JGB Auction</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2326" t="inlineStr"/>
-      <c r="E2326" t="inlineStr">
-        <is>
-          <t>1.140%</t>
-        </is>
-      </c>
+      <c r="E2326" t="inlineStr"/>
       <c r="F2326" t="inlineStr"/>
       <c r="G2326" t="inlineStr"/>
       <c r="H2326" t="inlineStr">
@@ -74822,127 +74632,131 @@
     <row r="2327">
       <c r="A2327" t="inlineStr">
         <is>
-          <t>11:15 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B2327" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2327" t="inlineStr">
         <is>
-          <t>Riyad Bank PMIJAN</t>
+          <t>API Crude Oil Stock ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2327" t="inlineStr"/>
-      <c r="E2327" t="inlineStr">
-        <is>
-          <t>58.4</t>
-        </is>
-      </c>
+      <c r="E2327" t="inlineStr"/>
       <c r="F2327" t="inlineStr"/>
       <c r="G2327" t="inlineStr"/>
       <c r="H2327" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2328">
-      <c r="A2328" t="inlineStr"/>
+      <c r="A2328" t="inlineStr">
+        <is>
+          <t>05:00 PM</t>
+        </is>
+      </c>
       <c r="B2328" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2328" t="inlineStr">
         <is>
-          <t>Total New Vehicle SalesJAN</t>
+          <t>Judo Bank Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2328" t="inlineStr"/>
-      <c r="E2328" t="inlineStr">
-        <is>
-          <t>41.27K</t>
-        </is>
-      </c>
+      <c r="E2328" t="inlineStr"/>
       <c r="F2328" t="inlineStr"/>
-      <c r="G2328" t="inlineStr">
-        <is>
-          <t>43.0K</t>
-        </is>
-      </c>
+      <c r="G2328" t="inlineStr"/>
       <c r="H2328" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2329">
       <c r="A2329" t="inlineStr">
         <is>
-          <t>Tuesday February 04 2025</t>
-        </is>
-      </c>
-      <c r="B2329" t="inlineStr"/>
-      <c r="C2329" t="inlineStr"/>
+          <t>05:00 PM</t>
+        </is>
+      </c>
+      <c r="B2329" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="C2329" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Australia Composite PMI FinalJAN</t>
+        </is>
+      </c>
       <c r="D2329" t="inlineStr"/>
       <c r="E2329" t="inlineStr"/>
       <c r="F2329" t="inlineStr"/>
       <c r="G2329" t="inlineStr"/>
-      <c r="H2329" t="inlineStr"/>
+      <c r="H2329" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2330">
       <c r="A2330" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2330" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2330" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2330" t="inlineStr"/>
       <c r="E2330" t="inlineStr">
         <is>
-          <t>3.08%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F2330" t="inlineStr"/>
       <c r="G2330" t="inlineStr"/>
       <c r="H2330" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2331">
       <c r="A2331" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2331" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2331" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2331" t="inlineStr"/>
       <c r="E2331" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2331" t="inlineStr"/>
@@ -74956,27 +74770,27 @@
     <row r="2332">
       <c r="A2332" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2332" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2332" t="inlineStr">
         <is>
-          <t>30-Year KTB Auction</t>
+          <t>Average Cash Earnings YoYDEC</t>
         </is>
       </c>
       <c r="D2332" t="inlineStr"/>
-      <c r="E2332" t="inlineStr">
-        <is>
-          <t>2.705%</t>
-        </is>
-      </c>
+      <c r="E2332" t="inlineStr"/>
       <c r="F2332" t="inlineStr"/>
-      <c r="G2332" t="inlineStr"/>
+      <c r="G2332" t="inlineStr">
+        <is>
+          <t>2.1%</t>
+        </is>
+      </c>
       <c r="H2332" t="inlineStr">
         <is>
           <t>3</t>
@@ -74986,23 +74800,23 @@
     <row r="2333">
       <c r="A2333" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2333" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2333" t="inlineStr">
         <is>
-          <t>Budget BalanceDEC</t>
+          <t>TD-MI Inflation Gauge MoMJAN</t>
         </is>
       </c>
       <c r="D2333" t="inlineStr"/>
       <c r="E2333" t="inlineStr">
         <is>
-          <t>€-172.5B</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="F2333" t="inlineStr"/>
@@ -75016,53 +74830,69 @@
     <row r="2334">
       <c r="A2334" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2334" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2334" t="inlineStr">
         <is>
-          <t>IPC-Fipe Inflation MoMJAN</t>
+          <t>Jibun Bank Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2334" t="inlineStr"/>
       <c r="E2334" t="inlineStr">
         <is>
-          <t>0.34%</t>
-        </is>
-      </c>
-      <c r="F2334" t="inlineStr"/>
-      <c r="G2334" t="inlineStr"/>
+          <t>50.9</t>
+        </is>
+      </c>
+      <c r="F2334" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
+      <c r="G2334" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
       <c r="H2334" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2335">
       <c r="A2335" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2335" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2335" t="inlineStr">
         <is>
-          <t>5-Year Treasury Gilt Auction</t>
+          <t>Jibun Bank Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2335" t="inlineStr"/>
-      <c r="E2335" t="inlineStr"/>
+      <c r="E2335" t="inlineStr">
+        <is>
+          <t>50.5</t>
+        </is>
+      </c>
       <c r="F2335" t="inlineStr"/>
-      <c r="G2335" t="inlineStr"/>
+      <c r="G2335" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
       <c r="H2335" t="inlineStr">
         <is>
           <t>3</t>
@@ -75072,89 +74902,93 @@
     <row r="2336">
       <c r="A2336" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2336" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2336" t="inlineStr">
         <is>
-          <t>BCB Copom Meeting Minutes</t>
+          <t>S&amp;P Global PMIJAN</t>
         </is>
       </c>
       <c r="D2336" t="inlineStr"/>
-      <c r="E2336" t="inlineStr"/>
+      <c r="E2336" t="inlineStr">
+        <is>
+          <t>51.5</t>
+        </is>
+      </c>
       <c r="F2336" t="inlineStr"/>
       <c r="G2336" t="inlineStr"/>
       <c r="H2336" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2337">
       <c r="A2337" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>08:45 PM</t>
         </is>
       </c>
       <c r="B2337" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2337" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Caixin Services PMIJAN</t>
         </is>
       </c>
       <c r="D2337" t="inlineStr"/>
       <c r="E2337" t="inlineStr">
         <is>
-          <t>1.23%</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="F2337" t="inlineStr"/>
       <c r="G2337" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>51.8</t>
         </is>
       </c>
       <c r="H2337" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2338">
       <c r="A2338" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>08:45 PM</t>
         </is>
       </c>
       <c r="B2338" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2338" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Caixin Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2338" t="inlineStr"/>
       <c r="E2338" t="inlineStr">
         <is>
-          <t>7.59%</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="F2338" t="inlineStr"/>
       <c r="G2338" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="H2338" t="inlineStr">
@@ -75166,27 +75000,27 @@
     <row r="2339">
       <c r="A2339" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>11:00 PM</t>
         </is>
       </c>
       <c r="B2339" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2339" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>GDP Growth Rate YoYQ4</t>
         </is>
       </c>
       <c r="D2339" t="inlineStr"/>
-      <c r="E2339" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
+      <c r="E2339" t="inlineStr"/>
       <c r="F2339" t="inlineStr"/>
-      <c r="G2339" t="inlineStr"/>
+      <c r="G2339" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="H2339" t="inlineStr">
         <is>
           <t>2</t>
@@ -75196,23 +75030,27 @@
     <row r="2340">
       <c r="A2340" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>11:00 PM</t>
         </is>
       </c>
       <c r="B2340" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2340" t="inlineStr">
         <is>
-          <t>Redbook YoYFEB/01</t>
+          <t>Full Year GDP Growth2025</t>
         </is>
       </c>
       <c r="D2340" t="inlineStr"/>
       <c r="E2340" t="inlineStr"/>
       <c r="F2340" t="inlineStr"/>
-      <c r="G2340" t="inlineStr"/>
+      <c r="G2340" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="H2340" t="inlineStr">
         <is>
           <t>3</t>
@@ -75222,27 +75060,27 @@
     <row r="2341">
       <c r="A2341" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>11:00 PM</t>
         </is>
       </c>
       <c r="B2341" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2341" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>GDP Growth Rate QoQQ4</t>
         </is>
       </c>
       <c r="D2341" t="inlineStr"/>
-      <c r="E2341" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
+      <c r="E2341" t="inlineStr"/>
       <c r="F2341" t="inlineStr"/>
-      <c r="G2341" t="inlineStr"/>
+      <c r="G2341" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2341" t="inlineStr">
         <is>
           <t>3</t>
@@ -75250,97 +75088,65 @@
       </c>
     </row>
     <row r="2342">
-      <c r="A2342" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A2342" t="inlineStr"/>
       <c r="B2342" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2342" t="inlineStr">
         <is>
-          <t>JOLTs Job OpeningsDEC</t>
+          <t>Balance of Trade PrelJAN</t>
         </is>
       </c>
       <c r="D2342" t="inlineStr"/>
       <c r="E2342" t="inlineStr"/>
       <c r="F2342" t="inlineStr"/>
-      <c r="G2342" t="inlineStr">
-        <is>
-          <t>7.6M</t>
-        </is>
-      </c>
+      <c r="G2342" t="inlineStr"/>
       <c r="H2342" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2343">
-      <c r="A2343" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A2343" t="inlineStr"/>
       <c r="B2343" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2343" t="inlineStr">
         <is>
-          <t>Factory Orders MoMDEC</t>
+          <t>Exports PrelJAN</t>
         </is>
       </c>
       <c r="D2343" t="inlineStr"/>
-      <c r="E2343" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
+      <c r="E2343" t="inlineStr"/>
       <c r="F2343" t="inlineStr"/>
-      <c r="G2343" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="G2343" t="inlineStr"/>
       <c r="H2343" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2344">
-      <c r="A2344" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A2344" t="inlineStr"/>
       <c r="B2344" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2344" t="inlineStr">
         <is>
-          <t>Factory Orders ex TransportationDEC</t>
+          <t>Imports PrelJAN</t>
         </is>
       </c>
       <c r="D2344" t="inlineStr"/>
-      <c r="E2344" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E2344" t="inlineStr"/>
       <c r="F2344" t="inlineStr"/>
-      <c r="G2344" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G2344" t="inlineStr"/>
       <c r="H2344" t="inlineStr">
         <is>
           <t>3</t>
@@ -75348,11 +75154,7 @@
       </c>
     </row>
     <row r="2345">
-      <c r="A2345" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A2345" t="inlineStr"/>
       <c r="B2345" t="inlineStr">
         <is>
           <t>US</t>
@@ -75360,11 +75162,15 @@
       </c>
       <c r="C2345" t="inlineStr">
         <is>
-          <t>JOLTs Job QuitsDEC</t>
+          <t>LMI Logistics Managers IndexJAN</t>
         </is>
       </c>
       <c r="D2345" t="inlineStr"/>
-      <c r="E2345" t="inlineStr"/>
+      <c r="E2345" t="inlineStr">
+        <is>
+          <t>57.3</t>
+        </is>
+      </c>
       <c r="F2345" t="inlineStr"/>
       <c r="G2345" t="inlineStr"/>
       <c r="H2345" t="inlineStr">
@@ -75376,79 +75182,87 @@
     <row r="2346">
       <c r="A2346" t="inlineStr">
         <is>
-          <t>10:10 AM</t>
-        </is>
-      </c>
-      <c r="B2346" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2346" t="inlineStr">
-        <is>
-          <t>RCM/TIPP Economic Optimism IndexFEB</t>
-        </is>
-      </c>
+          <t>Wednesday February 05 2025</t>
+        </is>
+      </c>
+      <c r="B2346" t="inlineStr"/>
+      <c r="C2346" t="inlineStr"/>
       <c r="D2346" t="inlineStr"/>
-      <c r="E2346" t="inlineStr">
-        <is>
-          <t>51.9</t>
-        </is>
-      </c>
+      <c r="E2346" t="inlineStr"/>
       <c r="F2346" t="inlineStr"/>
       <c r="G2346" t="inlineStr"/>
-      <c r="H2346" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2346" t="inlineStr"/>
     </row>
     <row r="2347">
       <c r="A2347" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2347" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2347" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>HSBC Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2347" t="inlineStr"/>
-      <c r="E2347" t="inlineStr"/>
-      <c r="F2347" t="inlineStr"/>
-      <c r="G2347" t="inlineStr"/>
+      <c r="E2347" t="inlineStr">
+        <is>
+          <t>59.2</t>
+        </is>
+      </c>
+      <c r="F2347" t="inlineStr">
+        <is>
+          <t>57.9</t>
+        </is>
+      </c>
+      <c r="G2347" t="inlineStr">
+        <is>
+          <t>57.9</t>
+        </is>
+      </c>
       <c r="H2347" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2348">
       <c r="A2348" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2348" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2348" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>HSBC Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2348" t="inlineStr"/>
-      <c r="E2348" t="inlineStr"/>
-      <c r="F2348" t="inlineStr"/>
-      <c r="G2348" t="inlineStr"/>
+      <c r="E2348" t="inlineStr">
+        <is>
+          <t>59.3</t>
+        </is>
+      </c>
+      <c r="F2348" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
+      <c r="G2348" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
       <c r="H2348" t="inlineStr">
         <is>
           <t>3</t>
@@ -75458,73 +75272,93 @@
     <row r="2349">
       <c r="A2349" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2349" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2349" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/31</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2349" t="inlineStr"/>
-      <c r="E2349" t="inlineStr"/>
+      <c r="E2349" t="inlineStr">
+        <is>
+          <t>-2.8%</t>
+        </is>
+      </c>
       <c r="F2349" t="inlineStr"/>
-      <c r="G2349" t="inlineStr"/>
+      <c r="G2349" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2349" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2350">
       <c r="A2350" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2350" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2350" t="inlineStr">
         <is>
-          <t>Judo Bank Services PMI FinalJAN</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2350" t="inlineStr"/>
-      <c r="E2350" t="inlineStr"/>
+      <c r="E2350" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="F2350" t="inlineStr"/>
-      <c r="G2350" t="inlineStr"/>
+      <c r="G2350" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H2350" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2351">
       <c r="A2351" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B2351" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2351" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Composite PMI FinalJAN</t>
+          <t>S&amp;P Global Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2351" t="inlineStr"/>
-      <c r="E2351" t="inlineStr"/>
+      <c r="E2351" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
       <c r="F2351" t="inlineStr"/>
       <c r="G2351" t="inlineStr"/>
       <c r="H2351" t="inlineStr">
@@ -75536,53 +75370,53 @@
     <row r="2352">
       <c r="A2352" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B2352" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2352" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>S&amp;P Global Services PMIJAN</t>
         </is>
       </c>
       <c r="D2352" t="inlineStr"/>
       <c r="E2352" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F2352" t="inlineStr"/>
       <c r="G2352" t="inlineStr"/>
       <c r="H2352" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2353">
       <c r="A2353" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:15 AM</t>
         </is>
       </c>
       <c r="B2353" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2353" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>S&amp;P Global PMIJAN</t>
         </is>
       </c>
       <c r="D2353" t="inlineStr"/>
       <c r="E2353" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>49.9</t>
         </is>
       </c>
       <c r="F2353" t="inlineStr"/>
@@ -75596,191 +75430,187 @@
     <row r="2354">
       <c r="A2354" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B2354" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2354" t="inlineStr">
         <is>
-          <t>Average Cash Earnings YoYDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D2354" t="inlineStr"/>
-      <c r="E2354" t="inlineStr"/>
+      <c r="E2354" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F2354" t="inlineStr"/>
       <c r="G2354" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H2354" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2355">
       <c r="A2355" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:15 AM</t>
         </is>
       </c>
       <c r="B2355" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2355" t="inlineStr">
         <is>
-          <t>TD-MI Inflation Gauge MoMJAN</t>
+          <t>HCOB Services PMIJAN</t>
         </is>
       </c>
       <c r="D2355" t="inlineStr"/>
       <c r="E2355" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>57.3</t>
         </is>
       </c>
       <c r="F2355" t="inlineStr"/>
       <c r="G2355" t="inlineStr"/>
       <c r="H2355" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2356">
       <c r="A2356" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:15 AM</t>
         </is>
       </c>
       <c r="B2356" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2356" t="inlineStr">
         <is>
-          <t>Jibun Bank Services PMI FinalJAN</t>
+          <t>HCOB Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2356" t="inlineStr"/>
       <c r="E2356" t="inlineStr">
         <is>
-          <t>50.9</t>
-        </is>
-      </c>
-      <c r="F2356" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="G2356" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
+          <t>56.8</t>
+        </is>
+      </c>
+      <c r="F2356" t="inlineStr"/>
+      <c r="G2356" t="inlineStr"/>
       <c r="H2356" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2357">
       <c r="A2357" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:45 AM</t>
         </is>
       </c>
       <c r="B2357" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2357" t="inlineStr">
         <is>
-          <t>Jibun Bank Composite PMI FinalJAN</t>
+          <t>HCOB Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2357" t="inlineStr"/>
       <c r="E2357" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>49.7</t>
         </is>
       </c>
       <c r="F2357" t="inlineStr"/>
-      <c r="G2357" t="inlineStr">
-        <is>
-          <t>51.1</t>
-        </is>
-      </c>
+      <c r="G2357" t="inlineStr"/>
       <c r="H2357" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2358">
       <c r="A2358" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:45 AM</t>
         </is>
       </c>
       <c r="B2358" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2358" t="inlineStr">
         <is>
-          <t>S&amp;P Global PMIJAN</t>
+          <t>HCOB Services PMIJAN</t>
         </is>
       </c>
       <c r="D2358" t="inlineStr"/>
       <c r="E2358" t="inlineStr">
         <is>
-          <t>51.5</t>
+          <t>50.7</t>
         </is>
       </c>
       <c r="F2358" t="inlineStr"/>
       <c r="G2358" t="inlineStr"/>
       <c r="H2358" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2359">
       <c r="A2359" t="inlineStr">
         <is>
-          <t>08:45 PM</t>
+          <t>03:50 AM</t>
         </is>
       </c>
       <c r="B2359" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2359" t="inlineStr">
         <is>
-          <t>Caixin Services PMIJAN</t>
+          <t>HCOB Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2359" t="inlineStr"/>
       <c r="E2359" t="inlineStr">
         <is>
-          <t>52.2</t>
-        </is>
-      </c>
-      <c r="F2359" t="inlineStr"/>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F2359" t="inlineStr">
+        <is>
+          <t>48.9</t>
+        </is>
+      </c>
       <c r="G2359" t="inlineStr">
         <is>
-          <t>51.8</t>
+          <t>48.9</t>
         </is>
       </c>
       <c r="H2359" t="inlineStr">
@@ -75792,29 +75622,33 @@
     <row r="2360">
       <c r="A2360" t="inlineStr">
         <is>
-          <t>08:45 PM</t>
+          <t>03:50 AM</t>
         </is>
       </c>
       <c r="B2360" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2360" t="inlineStr">
         <is>
-          <t>Caixin Composite PMIJAN</t>
+          <t>HCOB Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2360" t="inlineStr"/>
       <c r="E2360" t="inlineStr">
         <is>
-          <t>51.4</t>
-        </is>
-      </c>
-      <c r="F2360" t="inlineStr"/>
+          <t>47.5</t>
+        </is>
+      </c>
+      <c r="F2360" t="inlineStr">
+        <is>
+          <t>48.3</t>
+        </is>
+      </c>
       <c r="G2360" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>48.3</t>
         </is>
       </c>
       <c r="H2360" t="inlineStr">
@@ -75826,25 +75660,33 @@
     <row r="2361">
       <c r="A2361" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>03:55 AM</t>
         </is>
       </c>
       <c r="B2361" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2361" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoYQ4</t>
+          <t>HCOB Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2361" t="inlineStr"/>
-      <c r="E2361" t="inlineStr"/>
-      <c r="F2361" t="inlineStr"/>
+      <c r="E2361" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="F2361" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
       <c r="G2361" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="H2361" t="inlineStr">
@@ -75856,149 +75698,213 @@
     <row r="2362">
       <c r="A2362" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>03:55 AM</t>
         </is>
       </c>
       <c r="B2362" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2362" t="inlineStr">
         <is>
-          <t>Full Year GDP Growth2025</t>
+          <t>HCOB Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2362" t="inlineStr"/>
-      <c r="E2362" t="inlineStr"/>
-      <c r="F2362" t="inlineStr"/>
+      <c r="E2362" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="F2362" t="inlineStr">
+        <is>
+          <t>52.5</t>
+        </is>
+      </c>
       <c r="G2362" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>52.5</t>
         </is>
       </c>
       <c r="H2362" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2363">
       <c r="A2363" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2363" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2363" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQQ4</t>
+          <t>HCOB Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2363" t="inlineStr"/>
-      <c r="E2363" t="inlineStr"/>
-      <c r="F2363" t="inlineStr"/>
+      <c r="E2363" t="inlineStr">
+        <is>
+          <t>49.6</t>
+        </is>
+      </c>
+      <c r="F2363" t="inlineStr">
+        <is>
+          <t>50.2</t>
+        </is>
+      </c>
       <c r="G2363" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>50.2</t>
         </is>
       </c>
       <c r="H2363" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2364">
+      <c r="A2364" t="inlineStr">
+        <is>
+          <t>04:00 AM</t>
+        </is>
+      </c>
+      <c r="B2364" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C2364" t="inlineStr">
+        <is>
+          <t>HCOB Services PMI FinalJAN</t>
+        </is>
+      </c>
+      <c r="D2364" t="inlineStr"/>
+      <c r="E2364" t="inlineStr">
+        <is>
+          <t>51.6</t>
+        </is>
+      </c>
+      <c r="F2364" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
+      <c r="G2364" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
+      <c r="H2364" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2365">
+      <c r="A2365" t="inlineStr">
+        <is>
+          <t>04:00 AM</t>
+        </is>
+      </c>
+      <c r="B2365" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="C2365" t="inlineStr">
+        <is>
+          <t>Retail Sales MoMDEC</t>
+        </is>
+      </c>
+      <c r="D2365" t="inlineStr"/>
+      <c r="E2365" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
+      <c r="F2365" t="inlineStr"/>
+      <c r="G2365" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H2365" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2366">
+      <c r="A2366" t="inlineStr">
+        <is>
+          <t>04:00 AM</t>
+        </is>
+      </c>
+      <c r="B2366" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="C2366" t="inlineStr">
+        <is>
+          <t>Retail Sales YoYDEC</t>
+        </is>
+      </c>
+      <c r="D2366" t="inlineStr"/>
+      <c r="E2366" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
+      <c r="F2366" t="inlineStr"/>
+      <c r="G2366" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="H2366" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="2364">
-      <c r="A2364" t="inlineStr"/>
-      <c r="B2364" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2364" t="inlineStr">
-        <is>
-          <t>Balance of Trade PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2364" t="inlineStr"/>
-      <c r="E2364" t="inlineStr"/>
-      <c r="F2364" t="inlineStr"/>
-      <c r="G2364" t="inlineStr"/>
-      <c r="H2364" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2365">
-      <c r="A2365" t="inlineStr"/>
-      <c r="B2365" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2365" t="inlineStr">
-        <is>
-          <t>Exports PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2365" t="inlineStr"/>
-      <c r="E2365" t="inlineStr"/>
-      <c r="F2365" t="inlineStr"/>
-      <c r="G2365" t="inlineStr"/>
-      <c r="H2365" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2366">
-      <c r="A2366" t="inlineStr"/>
-      <c r="B2366" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2366" t="inlineStr">
-        <is>
-          <t>Imports PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2366" t="inlineStr"/>
-      <c r="E2366" t="inlineStr"/>
-      <c r="F2366" t="inlineStr"/>
-      <c r="G2366" t="inlineStr"/>
-      <c r="H2366" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
     <row r="2367">
-      <c r="A2367" t="inlineStr"/>
+      <c r="A2367" t="inlineStr">
+        <is>
+          <t>04:00 AM</t>
+        </is>
+      </c>
       <c r="B2367" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2367" t="inlineStr">
         <is>
-          <t>LMI Logistics Managers IndexJAN</t>
+          <t>New Car Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2367" t="inlineStr"/>
       <c r="E2367" t="inlineStr">
         <is>
-          <t>57.3</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F2367" t="inlineStr"/>
-      <c r="G2367" t="inlineStr"/>
+      <c r="G2367" t="inlineStr">
+        <is>
+          <t>4.0%</t>
+        </is>
+      </c>
       <c r="H2367" t="inlineStr">
         <is>
           <t>3</t>
@@ -76008,47 +75914,67 @@
     <row r="2368">
       <c r="A2368" t="inlineStr">
         <is>
-          <t>Wednesday February 05 2025</t>
-        </is>
-      </c>
-      <c r="B2368" t="inlineStr"/>
-      <c r="C2368" t="inlineStr"/>
+          <t>04:30 AM</t>
+        </is>
+      </c>
+      <c r="B2368" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C2368" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Services PMI FinalJAN</t>
+        </is>
+      </c>
       <c r="D2368" t="inlineStr"/>
-      <c r="E2368" t="inlineStr"/>
-      <c r="F2368" t="inlineStr"/>
-      <c r="G2368" t="inlineStr"/>
-      <c r="H2368" t="inlineStr"/>
+      <c r="E2368" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
+      <c r="F2368" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="G2368" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="H2368" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2369">
       <c r="A2369" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2369" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2369" t="inlineStr">
         <is>
-          <t>HSBC Composite PMI FinalJAN</t>
+          <t>S&amp;P Global Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2369" t="inlineStr"/>
       <c r="E2369" t="inlineStr">
         <is>
-          <t>59.2</t>
-        </is>
-      </c>
-      <c r="F2369" t="inlineStr">
-        <is>
-          <t>57.9</t>
-        </is>
-      </c>
+          <t>50.4</t>
+        </is>
+      </c>
+      <c r="F2369" t="inlineStr"/>
       <c r="G2369" t="inlineStr">
         <is>
-          <t>57.9</t>
+          <t>50.9</t>
         </is>
       </c>
       <c r="H2369" t="inlineStr">
@@ -76060,33 +75986,29 @@
     <row r="2370">
       <c r="A2370" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2370" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2370" t="inlineStr">
         <is>
-          <t>HSBC Services PMI FinalJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2370" t="inlineStr"/>
       <c r="E2370" t="inlineStr">
         <is>
-          <t>59.3</t>
-        </is>
-      </c>
-      <c r="F2370" t="inlineStr">
-        <is>
-          <t>56.8</t>
-        </is>
-      </c>
+          <t>1.6%</t>
+        </is>
+      </c>
+      <c r="F2370" t="inlineStr"/>
       <c r="G2370" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2370" t="inlineStr">
@@ -76098,29 +76020,29 @@
     <row r="2371">
       <c r="A2371" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2371" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2371" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2371" t="inlineStr"/>
       <c r="E2371" t="inlineStr">
         <is>
-          <t>-2.8%</t>
+          <t>-1.2%</t>
         </is>
       </c>
       <c r="F2371" t="inlineStr"/>
       <c r="G2371" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="H2371" t="inlineStr">
@@ -76132,31 +76054,27 @@
     <row r="2372">
       <c r="A2372" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2372" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2372" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>30-Year Green Gilt Auction</t>
         </is>
       </c>
       <c r="D2372" t="inlineStr"/>
       <c r="E2372" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>4.831%</t>
         </is>
       </c>
       <c r="F2372" t="inlineStr"/>
-      <c r="G2372" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
+      <c r="G2372" t="inlineStr"/>
       <c r="H2372" t="inlineStr">
         <is>
           <t>3</t>
@@ -76166,23 +76084,23 @@
     <row r="2373">
       <c r="A2373" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>06:10 AM</t>
         </is>
       </c>
       <c r="B2373" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C2373" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMIJAN</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2373" t="inlineStr"/>
       <c r="E2373" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>2.615%</t>
         </is>
       </c>
       <c r="F2373" t="inlineStr"/>
@@ -76196,23 +76114,23 @@
     <row r="2374">
       <c r="A2374" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>06:10 AM</t>
         </is>
       </c>
       <c r="B2374" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C2374" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMIJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2374" t="inlineStr"/>
       <c r="E2374" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>2.505%</t>
         </is>
       </c>
       <c r="F2374" t="inlineStr"/>
@@ -76226,23 +76144,23 @@
     <row r="2375">
       <c r="A2375" t="inlineStr">
         <is>
-          <t>02:15 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B2375" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2375" t="inlineStr">
         <is>
-          <t>S&amp;P Global PMIJAN</t>
+          <t>M3 Money Supply YoYJAN/24</t>
         </is>
       </c>
       <c r="D2375" t="inlineStr"/>
       <c r="E2375" t="inlineStr">
         <is>
-          <t>49.9</t>
+          <t>10.1%</t>
         </is>
       </c>
       <c r="F2375" t="inlineStr"/>
@@ -76256,12 +76174,12 @@
     <row r="2376">
       <c r="A2376" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2376" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2376" t="inlineStr">
@@ -76272,13 +76190,13 @@
       <c r="D2376" t="inlineStr"/>
       <c r="E2376" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F2376" t="inlineStr"/>
       <c r="G2376" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2376" t="inlineStr">
@@ -76290,53 +76208,57 @@
     <row r="2377">
       <c r="A2377" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2377" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2377" t="inlineStr">
         <is>
-          <t>HCOB Services PMIJAN</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2377" t="inlineStr"/>
       <c r="E2377" t="inlineStr">
         <is>
-          <t>57.3</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="F2377" t="inlineStr"/>
-      <c r="G2377" t="inlineStr"/>
+      <c r="G2377" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="H2377" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2378">
       <c r="A2378" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2378" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2378" t="inlineStr">
         <is>
-          <t>HCOB Composite PMIJAN</t>
+          <t>Gross Fixed Investment MoMNOV</t>
         </is>
       </c>
       <c r="D2378" t="inlineStr"/>
       <c r="E2378" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2378" t="inlineStr"/>
@@ -76350,55 +76272,51 @@
     <row r="2379">
       <c r="A2379" t="inlineStr">
         <is>
-          <t>03:45 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2379" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2379" t="inlineStr">
         <is>
-          <t>HCOB Composite PMIJAN</t>
+          <t>Gross Fixed Investment YoYNOV</t>
         </is>
       </c>
       <c r="D2379" t="inlineStr"/>
       <c r="E2379" t="inlineStr">
         <is>
-          <t>49.7</t>
+          <t>-2.6%</t>
         </is>
       </c>
       <c r="F2379" t="inlineStr"/>
       <c r="G2379" t="inlineStr"/>
       <c r="H2379" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2380">
       <c r="A2380" t="inlineStr">
         <is>
-          <t>03:45 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2380" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2380" t="inlineStr">
         <is>
-          <t>HCOB Services PMIJAN</t>
+          <t>MBA 30-Year Mortgage RateJAN/31</t>
         </is>
       </c>
       <c r="D2380" t="inlineStr"/>
-      <c r="E2380" t="inlineStr">
-        <is>
-          <t>50.7</t>
-        </is>
-      </c>
+      <c r="E2380" t="inlineStr"/>
       <c r="F2380" t="inlineStr"/>
       <c r="G2380" t="inlineStr"/>
       <c r="H2380" t="inlineStr">
@@ -76410,73 +76328,49 @@
     <row r="2381">
       <c r="A2381" t="inlineStr">
         <is>
-          <t>03:50 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2381" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2381" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FinalJAN</t>
+          <t>MBA Mortgage ApplicationsJAN/31</t>
         </is>
       </c>
       <c r="D2381" t="inlineStr"/>
-      <c r="E2381" t="inlineStr">
-        <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F2381" t="inlineStr">
-        <is>
-          <t>48.9</t>
-        </is>
-      </c>
-      <c r="G2381" t="inlineStr">
-        <is>
-          <t>48.9</t>
-        </is>
-      </c>
+      <c r="E2381" t="inlineStr"/>
+      <c r="F2381" t="inlineStr"/>
+      <c r="G2381" t="inlineStr"/>
       <c r="H2381" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2382">
       <c r="A2382" t="inlineStr">
         <is>
-          <t>03:50 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2382" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2382" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FinalJAN</t>
+          <t>MBA Mortgage Market IndexJAN/31</t>
         </is>
       </c>
       <c r="D2382" t="inlineStr"/>
-      <c r="E2382" t="inlineStr">
-        <is>
-          <t>47.5</t>
-        </is>
-      </c>
-      <c r="F2382" t="inlineStr">
-        <is>
-          <t>48.3</t>
-        </is>
-      </c>
-      <c r="G2382" t="inlineStr">
-        <is>
-          <t>48.3</t>
-        </is>
-      </c>
+      <c r="E2382" t="inlineStr"/>
+      <c r="F2382" t="inlineStr"/>
+      <c r="G2382" t="inlineStr"/>
       <c r="H2382" t="inlineStr">
         <is>
           <t>3</t>
@@ -76486,106 +76380,78 @@
     <row r="2383">
       <c r="A2383" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2383" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2383" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FinalJAN</t>
+          <t>MBA Mortgage Refinance IndexJAN/31</t>
         </is>
       </c>
       <c r="D2383" t="inlineStr"/>
-      <c r="E2383" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="F2383" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
-      <c r="G2383" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
+      <c r="E2383" t="inlineStr"/>
+      <c r="F2383" t="inlineStr"/>
+      <c r="G2383" t="inlineStr"/>
       <c r="H2383" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2384">
       <c r="A2384" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2384" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2384" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FinalJAN</t>
+          <t>MBA Purchase IndexJAN/31</t>
         </is>
       </c>
       <c r="D2384" t="inlineStr"/>
-      <c r="E2384" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2384" t="inlineStr">
-        <is>
-          <t>52.5</t>
-        </is>
-      </c>
-      <c r="G2384" t="inlineStr">
-        <is>
-          <t>52.5</t>
-        </is>
-      </c>
+      <c r="E2384" t="inlineStr"/>
+      <c r="F2384" t="inlineStr"/>
+      <c r="G2384" t="inlineStr"/>
       <c r="H2384" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2385">
       <c r="A2385" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2385" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2385" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FinalJAN</t>
+          <t>S&amp;P Global Services PMIJAN</t>
         </is>
       </c>
       <c r="D2385" t="inlineStr"/>
       <c r="E2385" t="inlineStr">
         <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F2385" t="inlineStr">
-        <is>
-          <t>50.2</t>
-        </is>
-      </c>
+          <t>51.6</t>
+        </is>
+      </c>
+      <c r="F2385" t="inlineStr"/>
       <c r="G2385" t="inlineStr">
         <is>
           <t>50.2</t>
@@ -76600,69 +76466,61 @@
     <row r="2386">
       <c r="A2386" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2386" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2386" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FinalJAN</t>
+          <t>S&amp;P Global Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2386" t="inlineStr"/>
       <c r="E2386" t="inlineStr">
         <is>
-          <t>51.6</t>
-        </is>
-      </c>
-      <c r="F2386" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+          <t>51.5</t>
+        </is>
+      </c>
+      <c r="F2386" t="inlineStr"/>
       <c r="G2386" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H2386" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2387">
       <c r="A2387" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B2387" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2387" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>ADP Employment ChangeJAN</t>
         </is>
       </c>
       <c r="D2387" t="inlineStr"/>
       <c r="E2387" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>122K</t>
         </is>
       </c>
       <c r="F2387" t="inlineStr"/>
-      <c r="G2387" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G2387" t="inlineStr"/>
       <c r="H2387" t="inlineStr">
         <is>
           <t>2</t>
@@ -76672,63 +76530,63 @@
     <row r="2388">
       <c r="A2388" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2388" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2388" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2388" t="inlineStr"/>
       <c r="E2388" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>C$-0.32B</t>
         </is>
       </c>
       <c r="F2388" t="inlineStr"/>
       <c r="G2388" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>C$ -1.6B</t>
         </is>
       </c>
       <c r="H2388" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2389">
       <c r="A2389" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2389" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2389" t="inlineStr">
         <is>
-          <t>New Car Sales YoYJAN</t>
+          <t>ExportsDEC</t>
         </is>
       </c>
       <c r="D2389" t="inlineStr"/>
       <c r="E2389" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>C$66.11B</t>
         </is>
       </c>
       <c r="F2389" t="inlineStr"/>
       <c r="G2389" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>C$ 65.8B</t>
         </is>
       </c>
       <c r="H2389" t="inlineStr">
@@ -76740,165 +76598,157 @@
     <row r="2390">
       <c r="A2390" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2390" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2390" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FinalJAN</t>
+          <t>ImportsDEC</t>
         </is>
       </c>
       <c r="D2390" t="inlineStr"/>
       <c r="E2390" t="inlineStr">
         <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="F2390" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
+          <t>C$66.43B</t>
+        </is>
+      </c>
+      <c r="F2390" t="inlineStr"/>
       <c r="G2390" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>C$ 64.5B</t>
         </is>
       </c>
       <c r="H2390" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2391">
       <c r="A2391" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2391" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2391" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FinalJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2391" t="inlineStr"/>
       <c r="E2391" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>$-78.2B</t>
         </is>
       </c>
       <c r="F2391" t="inlineStr"/>
       <c r="G2391" t="inlineStr">
         <is>
-          <t>50.9</t>
+          <t>$ -68B</t>
         </is>
       </c>
       <c r="H2391" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2392">
       <c r="A2392" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2392" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2392" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>ExportsDEC</t>
         </is>
       </c>
       <c r="D2392" t="inlineStr"/>
       <c r="E2392" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>$273.4B</t>
         </is>
       </c>
       <c r="F2392" t="inlineStr"/>
       <c r="G2392" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>$ 275.0B</t>
         </is>
       </c>
       <c r="H2392" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2393">
       <c r="A2393" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2393" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2393" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>ImportsDEC</t>
         </is>
       </c>
       <c r="D2393" t="inlineStr"/>
       <c r="E2393" t="inlineStr">
         <is>
-          <t>-1.2%</t>
+          <t>$351.6B</t>
         </is>
       </c>
       <c r="F2393" t="inlineStr"/>
       <c r="G2393" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>$ 338B</t>
         </is>
       </c>
       <c r="H2393" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2394">
       <c r="A2394" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2394" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2394" t="inlineStr">
         <is>
-          <t>30-Year Green Gilt Auction</t>
+          <t>Treasury Refunding Announcement</t>
         </is>
       </c>
       <c r="D2394" t="inlineStr"/>
-      <c r="E2394" t="inlineStr">
-        <is>
-          <t>4.831%</t>
-        </is>
-      </c>
+      <c r="E2394" t="inlineStr"/>
       <c r="F2394" t="inlineStr"/>
       <c r="G2394" t="inlineStr"/>
       <c r="H2394" t="inlineStr">
@@ -76910,27 +76760,31 @@
     <row r="2395">
       <c r="A2395" t="inlineStr">
         <is>
-          <t>06:10 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2395" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2395" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>S&amp;P Global Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2395" t="inlineStr"/>
       <c r="E2395" t="inlineStr">
         <is>
-          <t>2.615%</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="F2395" t="inlineStr"/>
-      <c r="G2395" t="inlineStr"/>
+      <c r="G2395" t="inlineStr">
+        <is>
+          <t>48.5</t>
+        </is>
+      </c>
       <c r="H2395" t="inlineStr">
         <is>
           <t>3</t>
@@ -76940,27 +76794,31 @@
     <row r="2396">
       <c r="A2396" t="inlineStr">
         <is>
-          <t>06:10 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2396" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2396" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>S&amp;P Global Services PMIJAN</t>
         </is>
       </c>
       <c r="D2396" t="inlineStr"/>
       <c r="E2396" t="inlineStr">
         <is>
-          <t>2.505%</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="F2396" t="inlineStr"/>
-      <c r="G2396" t="inlineStr"/>
+      <c r="G2396" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
       <c r="H2396" t="inlineStr">
         <is>
           <t>3</t>
@@ -76970,59 +76828,71 @@
     <row r="2397">
       <c r="A2397" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B2397" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2397" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYJAN/24</t>
+          <t>S&amp;P Global Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2397" t="inlineStr"/>
       <c r="E2397" t="inlineStr">
         <is>
-          <t>10.1%</t>
-        </is>
-      </c>
-      <c r="F2397" t="inlineStr"/>
-      <c r="G2397" t="inlineStr"/>
+          <t>55.4</t>
+        </is>
+      </c>
+      <c r="F2397" t="inlineStr">
+        <is>
+          <t>52.4</t>
+        </is>
+      </c>
+      <c r="G2397" t="inlineStr">
+        <is>
+          <t>52.4</t>
+        </is>
+      </c>
       <c r="H2397" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2398">
       <c r="A2398" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B2398" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2398" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>S&amp;P Global Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2398" t="inlineStr"/>
       <c r="E2398" t="inlineStr">
         <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
-      <c r="F2398" t="inlineStr"/>
+          <t>56.8</t>
+        </is>
+      </c>
+      <c r="F2398" t="inlineStr">
+        <is>
+          <t>52.8</t>
+        </is>
+      </c>
       <c r="G2398" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>52.8</t>
         </is>
       </c>
       <c r="H2398" t="inlineStr">
@@ -77034,57 +76904,49 @@
     <row r="2399">
       <c r="A2399" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2399" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2399" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>ISM Services PMIJAN</t>
         </is>
       </c>
       <c r="D2399" t="inlineStr"/>
-      <c r="E2399" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="E2399" t="inlineStr"/>
       <c r="F2399" t="inlineStr"/>
-      <c r="G2399" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
+      <c r="G2399" t="inlineStr"/>
       <c r="H2399" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2400">
       <c r="A2400" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2400" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2400" t="inlineStr">
         <is>
-          <t>Gross Fixed Investment MoMNOV</t>
+          <t>ISM Services Business ActivityJAN</t>
         </is>
       </c>
       <c r="D2400" t="inlineStr"/>
       <c r="E2400" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>58.2</t>
         </is>
       </c>
       <c r="F2400" t="inlineStr"/>
@@ -77098,23 +76960,23 @@
     <row r="2401">
       <c r="A2401" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2401" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2401" t="inlineStr">
         <is>
-          <t>Gross Fixed Investment YoYNOV</t>
+          <t>ISM Services EmploymentJAN</t>
         </is>
       </c>
       <c r="D2401" t="inlineStr"/>
       <c r="E2401" t="inlineStr">
         <is>
-          <t>-2.6%</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="F2401" t="inlineStr"/>
@@ -77128,7 +76990,7 @@
     <row r="2402">
       <c r="A2402" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2402" t="inlineStr">
@@ -77138,23 +77000,27 @@
       </c>
       <c r="C2402" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/31</t>
+          <t>ISM Services New OrdersJAN</t>
         </is>
       </c>
       <c r="D2402" t="inlineStr"/>
-      <c r="E2402" t="inlineStr"/>
+      <c r="E2402" t="inlineStr">
+        <is>
+          <t>54.2</t>
+        </is>
+      </c>
       <c r="F2402" t="inlineStr"/>
       <c r="G2402" t="inlineStr"/>
       <c r="H2402" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2403">
       <c r="A2403" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2403" t="inlineStr">
@@ -77164,11 +77030,15 @@
       </c>
       <c r="C2403" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/31</t>
+          <t>ISM Services PricesJAN</t>
         </is>
       </c>
       <c r="D2403" t="inlineStr"/>
-      <c r="E2403" t="inlineStr"/>
+      <c r="E2403" t="inlineStr">
+        <is>
+          <t>64.4</t>
+        </is>
+      </c>
       <c r="F2403" t="inlineStr"/>
       <c r="G2403" t="inlineStr"/>
       <c r="H2403" t="inlineStr">
@@ -77180,7 +77050,7 @@
     <row r="2404">
       <c r="A2404" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2404" t="inlineStr">
@@ -77190,7 +77060,7 @@
       </c>
       <c r="C2404" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/31</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2404" t="inlineStr"/>
@@ -77199,14 +77069,14 @@
       <c r="G2404" t="inlineStr"/>
       <c r="H2404" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2405">
       <c r="A2405" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2405" t="inlineStr">
@@ -77216,7 +77086,7 @@
       </c>
       <c r="C2405" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/31</t>
+          <t>EIA Gasoline Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2405" t="inlineStr"/>
@@ -77225,14 +77095,14 @@
       <c r="G2405" t="inlineStr"/>
       <c r="H2405" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2406">
       <c r="A2406" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2406" t="inlineStr">
@@ -77242,7 +77112,7 @@
       </c>
       <c r="C2406" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/31</t>
+          <t>EIA Crude Oil Imports ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2406" t="inlineStr"/>
@@ -77258,65 +77128,49 @@
     <row r="2407">
       <c r="A2407" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2407" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2407" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMIJAN</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2407" t="inlineStr"/>
-      <c r="E2407" t="inlineStr">
-        <is>
-          <t>51.6</t>
-        </is>
-      </c>
+      <c r="E2407" t="inlineStr"/>
       <c r="F2407" t="inlineStr"/>
-      <c r="G2407" t="inlineStr">
-        <is>
-          <t>50.2</t>
-        </is>
-      </c>
+      <c r="G2407" t="inlineStr"/>
       <c r="H2407" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2408">
       <c r="A2408" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2408" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2408" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMIJAN</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2408" t="inlineStr"/>
-      <c r="E2408" t="inlineStr">
-        <is>
-          <t>51.5</t>
-        </is>
-      </c>
+      <c r="E2408" t="inlineStr"/>
       <c r="F2408" t="inlineStr"/>
-      <c r="G2408" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
+      <c r="G2408" t="inlineStr"/>
       <c r="H2408" t="inlineStr">
         <is>
           <t>3</t>
@@ -77326,7 +77180,7 @@
     <row r="2409">
       <c r="A2409" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2409" t="inlineStr">
@@ -77336,85 +77190,65 @@
       </c>
       <c r="C2409" t="inlineStr">
         <is>
-          <t>ADP Employment ChangeJAN</t>
+          <t>EIA Distillate Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2409" t="inlineStr"/>
-      <c r="E2409" t="inlineStr">
-        <is>
-          <t>122K</t>
-        </is>
-      </c>
+      <c r="E2409" t="inlineStr"/>
       <c r="F2409" t="inlineStr"/>
       <c r="G2409" t="inlineStr"/>
       <c r="H2409" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2410">
       <c r="A2410" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2410" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2410" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>EIA Gasoline Production ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2410" t="inlineStr"/>
-      <c r="E2410" t="inlineStr">
-        <is>
-          <t>C$-0.32B</t>
-        </is>
-      </c>
+      <c r="E2410" t="inlineStr"/>
       <c r="F2410" t="inlineStr"/>
-      <c r="G2410" t="inlineStr">
-        <is>
-          <t>C$ -1.6B</t>
-        </is>
-      </c>
+      <c r="G2410" t="inlineStr"/>
       <c r="H2410" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2411">
       <c r="A2411" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2411" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2411" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2411" t="inlineStr"/>
-      <c r="E2411" t="inlineStr">
-        <is>
-          <t>C$66.11B</t>
-        </is>
-      </c>
+      <c r="E2411" t="inlineStr"/>
       <c r="F2411" t="inlineStr"/>
-      <c r="G2411" t="inlineStr">
-        <is>
-          <t>C$ 65.8B</t>
-        </is>
-      </c>
+      <c r="G2411" t="inlineStr"/>
       <c r="H2411" t="inlineStr">
         <is>
           <t>3</t>
@@ -77424,31 +77258,23 @@
     <row r="2412">
       <c r="A2412" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2412" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2412" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2412" t="inlineStr"/>
-      <c r="E2412" t="inlineStr">
-        <is>
-          <t>C$66.43B</t>
-        </is>
-      </c>
+      <c r="E2412" t="inlineStr"/>
       <c r="F2412" t="inlineStr"/>
-      <c r="G2412" t="inlineStr">
-        <is>
-          <t>C$ 64.5B</t>
-        </is>
-      </c>
+      <c r="G2412" t="inlineStr"/>
       <c r="H2412" t="inlineStr">
         <is>
           <t>3</t>
@@ -77458,29 +77284,25 @@
     <row r="2413">
       <c r="A2413" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2413" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2413" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D2413" t="inlineStr"/>
-      <c r="E2413" t="inlineStr">
-        <is>
-          <t>$-78.2B</t>
-        </is>
-      </c>
+      <c r="E2413" t="inlineStr"/>
       <c r="F2413" t="inlineStr"/>
       <c r="G2413" t="inlineStr">
         <is>
-          <t>$ -68B</t>
+          <t>2.40%</t>
         </is>
       </c>
       <c r="H2413" t="inlineStr">
@@ -77492,91 +77314,83 @@
     <row r="2414">
       <c r="A2414" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2414" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2414" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2414" t="inlineStr"/>
-      <c r="E2414" t="inlineStr">
-        <is>
-          <t>$273.4B</t>
-        </is>
-      </c>
+      <c r="E2414" t="inlineStr"/>
       <c r="F2414" t="inlineStr"/>
-      <c r="G2414" t="inlineStr">
-        <is>
-          <t>$ 275.0B</t>
-        </is>
-      </c>
+      <c r="G2414" t="inlineStr"/>
       <c r="H2414" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2415">
       <c r="A2415" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2415" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2415" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>Corporate ProfitsNOV</t>
         </is>
       </c>
       <c r="D2415" t="inlineStr"/>
-      <c r="E2415" t="inlineStr">
-        <is>
-          <t>$351.6B</t>
-        </is>
-      </c>
+      <c r="E2415" t="inlineStr"/>
       <c r="F2415" t="inlineStr"/>
-      <c r="G2415" t="inlineStr">
-        <is>
-          <t>$ 338B</t>
-        </is>
-      </c>
+      <c r="G2415" t="inlineStr"/>
       <c r="H2415" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2416">
       <c r="A2416" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2416" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2416" t="inlineStr">
         <is>
-          <t>Treasury Refunding Announcement</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2416" t="inlineStr"/>
-      <c r="E2416" t="inlineStr"/>
+      <c r="E2416" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="F2416" t="inlineStr"/>
-      <c r="G2416" t="inlineStr"/>
+      <c r="G2416" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
       <c r="H2416" t="inlineStr">
         <is>
           <t>3</t>
@@ -77586,31 +77400,23 @@
     <row r="2417">
       <c r="A2417" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2417" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2417" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMIJAN</t>
+          <t>Real Wage Growth YoYNOV</t>
         </is>
       </c>
       <c r="D2417" t="inlineStr"/>
-      <c r="E2417" t="inlineStr">
-        <is>
-          <t>49.0</t>
-        </is>
-      </c>
+      <c r="E2417" t="inlineStr"/>
       <c r="F2417" t="inlineStr"/>
-      <c r="G2417" t="inlineStr">
-        <is>
-          <t>48.5</t>
-        </is>
-      </c>
+      <c r="G2417" t="inlineStr"/>
       <c r="H2417" t="inlineStr">
         <is>
           <t>3</t>
@@ -77620,29 +77426,25 @@
     <row r="2418">
       <c r="A2418" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2418" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2418" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMIJAN</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2418" t="inlineStr"/>
-      <c r="E2418" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
+      <c r="E2418" t="inlineStr"/>
       <c r="F2418" t="inlineStr"/>
       <c r="G2418" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="H2418" t="inlineStr">
@@ -77654,7 +77456,7 @@
     <row r="2419">
       <c r="A2419" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2419" t="inlineStr">
@@ -77664,73 +77466,49 @@
       </c>
       <c r="C2419" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FinalJAN</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2419" t="inlineStr"/>
-      <c r="E2419" t="inlineStr">
-        <is>
-          <t>55.4</t>
-        </is>
-      </c>
-      <c r="F2419" t="inlineStr">
-        <is>
-          <t>52.4</t>
-        </is>
-      </c>
-      <c r="G2419" t="inlineStr">
-        <is>
-          <t>52.4</t>
-        </is>
-      </c>
+      <c r="E2419" t="inlineStr"/>
+      <c r="F2419" t="inlineStr"/>
+      <c r="G2419" t="inlineStr"/>
       <c r="H2419" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2420">
       <c r="A2420" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B2420" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2420" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FinalJAN</t>
+          <t>2-Year Bond Auction</t>
         </is>
       </c>
       <c r="D2420" t="inlineStr"/>
-      <c r="E2420" t="inlineStr">
-        <is>
-          <t>56.8</t>
-        </is>
-      </c>
-      <c r="F2420" t="inlineStr">
-        <is>
-          <t>52.8</t>
-        </is>
-      </c>
-      <c r="G2420" t="inlineStr">
-        <is>
-          <t>52.8</t>
-        </is>
-      </c>
+      <c r="E2420" t="inlineStr"/>
+      <c r="F2420" t="inlineStr"/>
+      <c r="G2420" t="inlineStr"/>
       <c r="H2420" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2421">
       <c r="A2421" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2421" t="inlineStr">
@@ -77740,7 +77518,7 @@
       </c>
       <c r="C2421" t="inlineStr">
         <is>
-          <t>ISM Services PMIJAN</t>
+          <t>Fed Goolsbee Speech</t>
         </is>
       </c>
       <c r="D2421" t="inlineStr"/>
@@ -77749,64 +77527,72 @@
       <c r="G2421" t="inlineStr"/>
       <c r="H2421" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2422">
       <c r="A2422" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2422" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2422" t="inlineStr">
         <is>
-          <t>ISM Services Business ActivityJAN</t>
+          <t>Ai Group Industry IndexJAN</t>
         </is>
       </c>
       <c r="D2422" t="inlineStr"/>
       <c r="E2422" t="inlineStr">
         <is>
-          <t>58.2</t>
+          <t>-10.8</t>
         </is>
       </c>
       <c r="F2422" t="inlineStr"/>
-      <c r="G2422" t="inlineStr"/>
+      <c r="G2422" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
       <c r="H2422" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2423">
       <c r="A2423" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2423" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2423" t="inlineStr">
         <is>
-          <t>ISM Services EmploymentJAN</t>
+          <t>Ai Group Construction IndexJAN</t>
         </is>
       </c>
       <c r="D2423" t="inlineStr"/>
       <c r="E2423" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>-19.0</t>
         </is>
       </c>
       <c r="F2423" t="inlineStr"/>
-      <c r="G2423" t="inlineStr"/>
+      <c r="G2423" t="inlineStr">
+        <is>
+          <t>-25</t>
+        </is>
+      </c>
       <c r="H2423" t="inlineStr">
         <is>
           <t>3</t>
@@ -77816,27 +77602,31 @@
     <row r="2424">
       <c r="A2424" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2424" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2424" t="inlineStr">
         <is>
-          <t>ISM Services New OrdersJAN</t>
+          <t>Ai Group Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D2424" t="inlineStr"/>
       <c r="E2424" t="inlineStr">
         <is>
-          <t>54.2</t>
+          <t>-17.9</t>
         </is>
       </c>
       <c r="F2424" t="inlineStr"/>
-      <c r="G2424" t="inlineStr"/>
+      <c r="G2424" t="inlineStr">
+        <is>
+          <t>-13</t>
+        </is>
+      </c>
       <c r="H2424" t="inlineStr">
         <is>
           <t>3</t>
@@ -77846,27 +77636,27 @@
     <row r="2425">
       <c r="A2425" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2425" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2425" t="inlineStr">
         <is>
-          <t>ISM Services PricesJAN</t>
+          <t>Current AccountDEC</t>
         </is>
       </c>
       <c r="D2425" t="inlineStr"/>
-      <c r="E2425" t="inlineStr">
-        <is>
-          <t>64.4</t>
-        </is>
-      </c>
+      <c r="E2425" t="inlineStr"/>
       <c r="F2425" t="inlineStr"/>
-      <c r="G2425" t="inlineStr"/>
+      <c r="G2425" t="inlineStr">
+        <is>
+          <t>$ 8.1B</t>
+        </is>
+      </c>
       <c r="H2425" t="inlineStr">
         <is>
           <t>3</t>
@@ -77876,17 +77666,17 @@
     <row r="2426">
       <c r="A2426" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2426" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2426" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/31</t>
+          <t>Overtime Pay YoYDEC</t>
         </is>
       </c>
       <c r="D2426" t="inlineStr"/>
@@ -77895,24 +77685,24 @@
       <c r="G2426" t="inlineStr"/>
       <c r="H2426" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2427">
       <c r="A2427" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B2427" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2427" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJAN/31</t>
+          <t>Foreign Bond InvestmentFEB/01</t>
         </is>
       </c>
       <c r="D2427" t="inlineStr"/>
@@ -77921,24 +77711,24 @@
       <c r="G2427" t="inlineStr"/>
       <c r="H2427" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2428">
       <c r="A2428" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B2428" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2428" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJAN/31</t>
+          <t>Stock Investment by ForeignersFEB/01</t>
         </is>
       </c>
       <c r="D2428" t="inlineStr"/>
@@ -77954,47 +77744,59 @@
     <row r="2429">
       <c r="A2429" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2429" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2429" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/31</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2429" t="inlineStr"/>
-      <c r="E2429" t="inlineStr"/>
+      <c r="E2429" t="inlineStr">
+        <is>
+          <t>A$7.079B</t>
+        </is>
+      </c>
       <c r="F2429" t="inlineStr"/>
-      <c r="G2429" t="inlineStr"/>
+      <c r="G2429" t="inlineStr">
+        <is>
+          <t>A$ 3.2B</t>
+        </is>
+      </c>
       <c r="H2429" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2430">
       <c r="A2430" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2430" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2430" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/31</t>
+          <t>Exports MoMDEC</t>
         </is>
       </c>
       <c r="D2430" t="inlineStr"/>
-      <c r="E2430" t="inlineStr"/>
+      <c r="E2430" t="inlineStr">
+        <is>
+          <t>4.8%</t>
+        </is>
+      </c>
       <c r="F2430" t="inlineStr"/>
       <c r="G2430" t="inlineStr"/>
       <c r="H2430" t="inlineStr">
@@ -78006,21 +77808,25 @@
     <row r="2431">
       <c r="A2431" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2431" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2431" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJAN/31</t>
+          <t>Imports MoMDEC</t>
         </is>
       </c>
       <c r="D2431" t="inlineStr"/>
-      <c r="E2431" t="inlineStr"/>
+      <c r="E2431" t="inlineStr">
+        <is>
+          <t>1.7%</t>
+        </is>
+      </c>
       <c r="F2431" t="inlineStr"/>
       <c r="G2431" t="inlineStr"/>
       <c r="H2431" t="inlineStr">
@@ -78032,21 +77838,25 @@
     <row r="2432">
       <c r="A2432" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B2432" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2432" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJAN/31</t>
+          <t>30-Year JGB Auction</t>
         </is>
       </c>
       <c r="D2432" t="inlineStr"/>
-      <c r="E2432" t="inlineStr"/>
+      <c r="E2432" t="inlineStr">
+        <is>
+          <t>2.304%</t>
+        </is>
+      </c>
       <c r="F2432" t="inlineStr"/>
       <c r="G2432" t="inlineStr"/>
       <c r="H2432" t="inlineStr">
@@ -78058,21 +77868,25 @@
     <row r="2433">
       <c r="A2433" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B2433" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2433" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/31</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2433" t="inlineStr"/>
-      <c r="E2433" t="inlineStr"/>
+      <c r="E2433" t="inlineStr">
+        <is>
+          <t>0.3535%</t>
+        </is>
+      </c>
       <c r="F2433" t="inlineStr"/>
       <c r="G2433" t="inlineStr"/>
       <c r="H2433" t="inlineStr">
@@ -78082,11 +77896,7 @@
       </c>
     </row>
     <row r="2434">
-      <c r="A2434" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
+      <c r="A2434" t="inlineStr"/>
       <c r="B2434" t="inlineStr">
         <is>
           <t>US</t>
@@ -78094,11 +77904,15 @@
       </c>
       <c r="C2434" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/31</t>
+          <t>Total Vehicle SalesJAN</t>
         </is>
       </c>
       <c r="D2434" t="inlineStr"/>
-      <c r="E2434" t="inlineStr"/>
+      <c r="E2434" t="inlineStr">
+        <is>
+          <t>16.8M</t>
+        </is>
+      </c>
       <c r="F2434" t="inlineStr"/>
       <c r="G2434" t="inlineStr"/>
       <c r="H2434" t="inlineStr">
@@ -78110,77 +77924,73 @@
     <row r="2435">
       <c r="A2435" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2435" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2435" t="inlineStr">
-        <is>
-          <t>Unemployment RateDEC</t>
-        </is>
-      </c>
+          <t>Thursday February 06 2025</t>
+        </is>
+      </c>
+      <c r="B2435" t="inlineStr"/>
+      <c r="C2435" t="inlineStr"/>
       <c r="D2435" t="inlineStr"/>
       <c r="E2435" t="inlineStr"/>
       <c r="F2435" t="inlineStr"/>
-      <c r="G2435" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
-      <c r="H2435" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G2435" t="inlineStr"/>
+      <c r="H2435" t="inlineStr"/>
     </row>
     <row r="2436">
       <c r="A2436" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2436" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2436" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>Factory Orders MoMDEC</t>
         </is>
       </c>
       <c r="D2436" t="inlineStr"/>
-      <c r="E2436" t="inlineStr"/>
+      <c r="E2436" t="inlineStr">
+        <is>
+          <t>-5.4%</t>
+        </is>
+      </c>
       <c r="F2436" t="inlineStr"/>
-      <c r="G2436" t="inlineStr"/>
+      <c r="G2436" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2436" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2437">
       <c r="A2437" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2437" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2437" t="inlineStr">
         <is>
-          <t>Corporate ProfitsNOV</t>
+          <t>HCOB Construction PMIJAN</t>
         </is>
       </c>
       <c r="D2437" t="inlineStr"/>
-      <c r="E2437" t="inlineStr"/>
+      <c r="E2437" t="inlineStr">
+        <is>
+          <t>42.9</t>
+        </is>
+      </c>
       <c r="F2437" t="inlineStr"/>
       <c r="G2437" t="inlineStr"/>
       <c r="H2437" t="inlineStr">
@@ -78192,31 +78002,27 @@
     <row r="2438">
       <c r="A2438" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2438" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2438" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>HCOB Construction PMIJAN</t>
         </is>
       </c>
       <c r="D2438" t="inlineStr"/>
       <c r="E2438" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>42.6</t>
         </is>
       </c>
       <c r="F2438" t="inlineStr"/>
-      <c r="G2438" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
+      <c r="G2438" t="inlineStr"/>
       <c r="H2438" t="inlineStr">
         <is>
           <t>3</t>
@@ -78226,53 +78032,57 @@
     <row r="2439">
       <c r="A2439" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2439" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2439" t="inlineStr">
         <is>
-          <t>Real Wage Growth YoYNOV</t>
+          <t>HCOB Construction PMIJAN</t>
         </is>
       </c>
       <c r="D2439" t="inlineStr"/>
-      <c r="E2439" t="inlineStr"/>
+      <c r="E2439" t="inlineStr">
+        <is>
+          <t>37.8</t>
+        </is>
+      </c>
       <c r="F2439" t="inlineStr"/>
       <c r="G2439" t="inlineStr"/>
       <c r="H2439" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2440">
       <c r="A2440" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2440" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2440" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>HCOB Construction PMIJAN</t>
         </is>
       </c>
       <c r="D2440" t="inlineStr"/>
-      <c r="E2440" t="inlineStr"/>
+      <c r="E2440" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
       <c r="F2440" t="inlineStr"/>
-      <c r="G2440" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
+      <c r="G2440" t="inlineStr"/>
       <c r="H2440" t="inlineStr">
         <is>
           <t>3</t>
@@ -78282,75 +78092,99 @@
     <row r="2441">
       <c r="A2441" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2441" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2441" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>S&amp;P Global Construction PMIJAN</t>
         </is>
       </c>
       <c r="D2441" t="inlineStr"/>
-      <c r="E2441" t="inlineStr"/>
+      <c r="E2441" t="inlineStr">
+        <is>
+          <t>53.3</t>
+        </is>
+      </c>
       <c r="F2441" t="inlineStr"/>
-      <c r="G2441" t="inlineStr"/>
+      <c r="G2441" t="inlineStr">
+        <is>
+          <t>53.5</t>
+        </is>
+      </c>
       <c r="H2441" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2442">
       <c r="A2442" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2442" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2442" t="inlineStr">
         <is>
-          <t>2-Year Bond Auction</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2442" t="inlineStr"/>
-      <c r="E2442" t="inlineStr"/>
+      <c r="E2442" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="F2442" t="inlineStr"/>
-      <c r="G2442" t="inlineStr"/>
+      <c r="G2442" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2442" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2443">
       <c r="A2443" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2443" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2443" t="inlineStr">
         <is>
-          <t>Fed Goolsbee Speech</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2443" t="inlineStr"/>
-      <c r="E2443" t="inlineStr"/>
+      <c r="E2443" t="inlineStr">
+        <is>
+          <t>1.2%</t>
+        </is>
+      </c>
       <c r="F2443" t="inlineStr"/>
-      <c r="G2443" t="inlineStr"/>
+      <c r="G2443" t="inlineStr">
+        <is>
+          <t>1.7%</t>
+        </is>
+      </c>
       <c r="H2443" t="inlineStr">
         <is>
           <t>2</t>
@@ -78360,65 +78194,49 @@
     <row r="2444">
       <c r="A2444" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2444" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2444" t="inlineStr">
         <is>
-          <t>Ai Group Industry IndexJAN</t>
+          <t>OAT Auction</t>
         </is>
       </c>
       <c r="D2444" t="inlineStr"/>
-      <c r="E2444" t="inlineStr">
-        <is>
-          <t>-10.8</t>
-        </is>
-      </c>
+      <c r="E2444" t="inlineStr"/>
       <c r="F2444" t="inlineStr"/>
-      <c r="G2444" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
+      <c r="G2444" t="inlineStr"/>
       <c r="H2444" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2445">
-      <c r="A2445" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
+      <c r="A2445" t="inlineStr"/>
       <c r="B2445" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2445" t="inlineStr">
         <is>
-          <t>Ai Group Construction IndexJAN</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D2445" t="inlineStr"/>
       <c r="E2445" t="inlineStr">
         <is>
-          <t>-19.0</t>
+          <t>-7.1%</t>
         </is>
       </c>
       <c r="F2445" t="inlineStr"/>
-      <c r="G2445" t="inlineStr">
-        <is>
-          <t>-25</t>
-        </is>
-      </c>
+      <c r="G2445" t="inlineStr"/>
       <c r="H2445" t="inlineStr">
         <is>
           <t>3</t>
@@ -78426,644 +78244,22 @@
       </c>
     </row>
     <row r="2446">
-      <c r="A2446" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
+      <c r="A2446" t="inlineStr"/>
       <c r="B2446" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2446" t="inlineStr">
         <is>
-          <t>Ai Group Manufacturing IndexJAN</t>
+          <t>Vehicle Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2446" t="inlineStr"/>
-      <c r="E2446" t="inlineStr">
-        <is>
-          <t>-17.9</t>
-        </is>
-      </c>
+      <c r="E2446" t="inlineStr"/>
       <c r="F2446" t="inlineStr"/>
-      <c r="G2446" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
+      <c r="G2446" t="inlineStr"/>
       <c r="H2446" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2447">
-      <c r="A2447" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2447" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2447" t="inlineStr">
-        <is>
-          <t>Current AccountDEC</t>
-        </is>
-      </c>
-      <c r="D2447" t="inlineStr"/>
-      <c r="E2447" t="inlineStr"/>
-      <c r="F2447" t="inlineStr"/>
-      <c r="G2447" t="inlineStr">
-        <is>
-          <t>$ 8.1B</t>
-        </is>
-      </c>
-      <c r="H2447" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2448">
-      <c r="A2448" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
-      <c r="B2448" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2448" t="inlineStr">
-        <is>
-          <t>Overtime Pay YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2448" t="inlineStr"/>
-      <c r="E2448" t="inlineStr"/>
-      <c r="F2448" t="inlineStr"/>
-      <c r="G2448" t="inlineStr"/>
-      <c r="H2448" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2449">
-      <c r="A2449" t="inlineStr">
-        <is>
-          <t>06:50 PM</t>
-        </is>
-      </c>
-      <c r="B2449" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2449" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentFEB/01</t>
-        </is>
-      </c>
-      <c r="D2449" t="inlineStr"/>
-      <c r="E2449" t="inlineStr"/>
-      <c r="F2449" t="inlineStr"/>
-      <c r="G2449" t="inlineStr"/>
-      <c r="H2449" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2450">
-      <c r="A2450" t="inlineStr">
-        <is>
-          <t>06:50 PM</t>
-        </is>
-      </c>
-      <c r="B2450" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2450" t="inlineStr">
-        <is>
-          <t>Stock Investment by ForeignersFEB/01</t>
-        </is>
-      </c>
-      <c r="D2450" t="inlineStr"/>
-      <c r="E2450" t="inlineStr"/>
-      <c r="F2450" t="inlineStr"/>
-      <c r="G2450" t="inlineStr"/>
-      <c r="H2450" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2451">
-      <c r="A2451" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2451" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2451" t="inlineStr">
-        <is>
-          <t>Balance of TradeDEC</t>
-        </is>
-      </c>
-      <c r="D2451" t="inlineStr"/>
-      <c r="E2451" t="inlineStr">
-        <is>
-          <t>A$7.079B</t>
-        </is>
-      </c>
-      <c r="F2451" t="inlineStr"/>
-      <c r="G2451" t="inlineStr">
-        <is>
-          <t>A$ 3.2B</t>
-        </is>
-      </c>
-      <c r="H2451" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2452">
-      <c r="A2452" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2452" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2452" t="inlineStr">
-        <is>
-          <t>Exports MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2452" t="inlineStr"/>
-      <c r="E2452" t="inlineStr">
-        <is>
-          <t>4.8%</t>
-        </is>
-      </c>
-      <c r="F2452" t="inlineStr"/>
-      <c r="G2452" t="inlineStr"/>
-      <c r="H2452" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2453">
-      <c r="A2453" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2453" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2453" t="inlineStr">
-        <is>
-          <t>Imports MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2453" t="inlineStr"/>
-      <c r="E2453" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="F2453" t="inlineStr"/>
-      <c r="G2453" t="inlineStr"/>
-      <c r="H2453" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2454">
-      <c r="A2454" t="inlineStr">
-        <is>
-          <t>10:35 PM</t>
-        </is>
-      </c>
-      <c r="B2454" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2454" t="inlineStr">
-        <is>
-          <t>30-Year JGB Auction</t>
-        </is>
-      </c>
-      <c r="D2454" t="inlineStr"/>
-      <c r="E2454" t="inlineStr">
-        <is>
-          <t>2.304%</t>
-        </is>
-      </c>
-      <c r="F2454" t="inlineStr"/>
-      <c r="G2454" t="inlineStr"/>
-      <c r="H2454" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2455">
-      <c r="A2455" t="inlineStr">
-        <is>
-          <t>10:35 PM</t>
-        </is>
-      </c>
-      <c r="B2455" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2455" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2455" t="inlineStr"/>
-      <c r="E2455" t="inlineStr">
-        <is>
-          <t>0.3535%</t>
-        </is>
-      </c>
-      <c r="F2455" t="inlineStr"/>
-      <c r="G2455" t="inlineStr"/>
-      <c r="H2455" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2456">
-      <c r="A2456" t="inlineStr"/>
-      <c r="B2456" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2456" t="inlineStr">
-        <is>
-          <t>Total Vehicle SalesJAN</t>
-        </is>
-      </c>
-      <c r="D2456" t="inlineStr"/>
-      <c r="E2456" t="inlineStr">
-        <is>
-          <t>16.8M</t>
-        </is>
-      </c>
-      <c r="F2456" t="inlineStr"/>
-      <c r="G2456" t="inlineStr"/>
-      <c r="H2456" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2457">
-      <c r="A2457" t="inlineStr">
-        <is>
-          <t>Thursday February 06 2025</t>
-        </is>
-      </c>
-      <c r="B2457" t="inlineStr"/>
-      <c r="C2457" t="inlineStr"/>
-      <c r="D2457" t="inlineStr"/>
-      <c r="E2457" t="inlineStr"/>
-      <c r="F2457" t="inlineStr"/>
-      <c r="G2457" t="inlineStr"/>
-      <c r="H2457" t="inlineStr"/>
-    </row>
-    <row r="2458">
-      <c r="A2458" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B2458" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C2458" t="inlineStr">
-        <is>
-          <t>Factory Orders MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2458" t="inlineStr"/>
-      <c r="E2458" t="inlineStr">
-        <is>
-          <t>-5.4%</t>
-        </is>
-      </c>
-      <c r="F2458" t="inlineStr"/>
-      <c r="G2458" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H2458" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2459">
-      <c r="A2459" t="inlineStr">
-        <is>
-          <t>03:30 AM</t>
-        </is>
-      </c>
-      <c r="B2459" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C2459" t="inlineStr">
-        <is>
-          <t>HCOB Construction PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2459" t="inlineStr"/>
-      <c r="E2459" t="inlineStr">
-        <is>
-          <t>42.9</t>
-        </is>
-      </c>
-      <c r="F2459" t="inlineStr"/>
-      <c r="G2459" t="inlineStr"/>
-      <c r="H2459" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2460">
-      <c r="A2460" t="inlineStr">
-        <is>
-          <t>03:30 AM</t>
-        </is>
-      </c>
-      <c r="B2460" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2460" t="inlineStr">
-        <is>
-          <t>HCOB Construction PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2460" t="inlineStr"/>
-      <c r="E2460" t="inlineStr">
-        <is>
-          <t>42.6</t>
-        </is>
-      </c>
-      <c r="F2460" t="inlineStr"/>
-      <c r="G2460" t="inlineStr"/>
-      <c r="H2460" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2461">
-      <c r="A2461" t="inlineStr">
-        <is>
-          <t>03:30 AM</t>
-        </is>
-      </c>
-      <c r="B2461" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C2461" t="inlineStr">
-        <is>
-          <t>HCOB Construction PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2461" t="inlineStr"/>
-      <c r="E2461" t="inlineStr">
-        <is>
-          <t>37.8</t>
-        </is>
-      </c>
-      <c r="F2461" t="inlineStr"/>
-      <c r="G2461" t="inlineStr"/>
-      <c r="H2461" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2462">
-      <c r="A2462" t="inlineStr">
-        <is>
-          <t>03:30 AM</t>
-        </is>
-      </c>
-      <c r="B2462" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C2462" t="inlineStr">
-        <is>
-          <t>HCOB Construction PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2462" t="inlineStr"/>
-      <c r="E2462" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2462" t="inlineStr"/>
-      <c r="G2462" t="inlineStr"/>
-      <c r="H2462" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2463">
-      <c r="A2463" t="inlineStr">
-        <is>
-          <t>04:30 AM</t>
-        </is>
-      </c>
-      <c r="B2463" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C2463" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Construction PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2463" t="inlineStr"/>
-      <c r="E2463" t="inlineStr">
-        <is>
-          <t>53.3</t>
-        </is>
-      </c>
-      <c r="F2463" t="inlineStr"/>
-      <c r="G2463" t="inlineStr">
-        <is>
-          <t>53.5</t>
-        </is>
-      </c>
-      <c r="H2463" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2464">
-      <c r="A2464" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B2464" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C2464" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2464" t="inlineStr"/>
-      <c r="E2464" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2464" t="inlineStr"/>
-      <c r="G2464" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2464" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2465">
-      <c r="A2465" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B2465" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C2465" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2465" t="inlineStr"/>
-      <c r="E2465" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="F2465" t="inlineStr"/>
-      <c r="G2465" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="H2465" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2466">
-      <c r="A2466" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B2466" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2466" t="inlineStr">
-        <is>
-          <t>OAT Auction</t>
-        </is>
-      </c>
-      <c r="D2466" t="inlineStr"/>
-      <c r="E2466" t="inlineStr"/>
-      <c r="F2466" t="inlineStr"/>
-      <c r="G2466" t="inlineStr"/>
-      <c r="H2466" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2467">
-      <c r="A2467" t="inlineStr"/>
-      <c r="B2467" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C2467" t="inlineStr">
-        <is>
-          <t>New Car Registrations YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2467" t="inlineStr"/>
-      <c r="E2467" t="inlineStr">
-        <is>
-          <t>-7.1%</t>
-        </is>
-      </c>
-      <c r="F2467" t="inlineStr"/>
-      <c r="G2467" t="inlineStr"/>
-      <c r="H2467" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-06.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2446"/>
+  <dimension ref="A1:H2455"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72742,547 +72742,569 @@
     <row r="2263">
       <c r="A2263" t="inlineStr">
         <is>
-          <t>Sunday February 02 2025</t>
-        </is>
-      </c>
-      <c r="B2263" t="inlineStr"/>
-      <c r="C2263" t="inlineStr"/>
+          <t>12:30 AM</t>
+        </is>
+      </c>
+      <c r="B2263" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="C2263" t="inlineStr">
+        <is>
+          <t>Commodity Prices YoYJAN</t>
+        </is>
+      </c>
       <c r="D2263" t="inlineStr"/>
-      <c r="E2263" t="inlineStr"/>
+      <c r="E2263" t="inlineStr">
+        <is>
+          <t>-10.7%</t>
+        </is>
+      </c>
       <c r="F2263" t="inlineStr"/>
       <c r="G2263" t="inlineStr"/>
-      <c r="H2263" t="inlineStr"/>
+      <c r="H2263" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2264">
       <c r="A2264" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B2264" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2264" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2264" t="inlineStr"/>
       <c r="E2264" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="F2264" t="inlineStr"/>
       <c r="G2264" t="inlineStr"/>
-      <c r="H2264" t="n">
-        <v>2</v>
+      <c r="H2264" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2265">
       <c r="A2265" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2265" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2265" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2265" t="inlineStr"/>
       <c r="E2265" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>1.03%</t>
         </is>
       </c>
       <c r="F2265" t="inlineStr"/>
-      <c r="G2265" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="H2265" t="n">
-        <v>3</v>
+      <c r="G2265" t="inlineStr"/>
+      <c r="H2265" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2266">
       <c r="A2266" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2266" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2266" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2266" t="inlineStr"/>
       <c r="E2266" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>44.38%</t>
         </is>
       </c>
       <c r="F2266" t="inlineStr"/>
-      <c r="G2266" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="H2266" t="n">
-        <v>3</v>
+      <c r="G2266" t="inlineStr"/>
+      <c r="H2266" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2267">
       <c r="A2267" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2267" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2267" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2267" t="inlineStr"/>
       <c r="E2267" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="F2267" t="inlineStr"/>
-      <c r="G2267" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H2267" t="n">
-        <v>3</v>
+      <c r="G2267" t="inlineStr"/>
+      <c r="H2267" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2268">
       <c r="A2268" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2268" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2268" t="inlineStr">
         <is>
-          <t>BoJ Summary of Opinions</t>
+          <t>PPI MoMJAN</t>
         </is>
       </c>
       <c r="D2268" t="inlineStr"/>
-      <c r="E2268" t="inlineStr"/>
+      <c r="E2268" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F2268" t="inlineStr"/>
       <c r="G2268" t="inlineStr"/>
-      <c r="H2268" t="n">
-        <v>2</v>
+      <c r="H2268" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2269">
       <c r="A2269" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2269" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2269" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D2269" t="inlineStr"/>
       <c r="E2269" t="inlineStr">
         <is>
-          <t>-3.6%</t>
+          <t>28.52%</t>
         </is>
       </c>
       <c r="F2269" t="inlineStr"/>
-      <c r="G2269" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="H2269" t="n">
-        <v>2</v>
+      <c r="G2269" t="inlineStr"/>
+      <c r="H2269" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2270">
       <c r="A2270" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B2270" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2270" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D2270" t="inlineStr"/>
       <c r="E2270" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>-25.3K</t>
         </is>
       </c>
       <c r="F2270" t="inlineStr"/>
-      <c r="G2270" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H2270" t="n">
-        <v>2</v>
+      <c r="G2270" t="inlineStr"/>
+      <c r="H2270" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2271">
       <c r="A2271" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B2271" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2271" t="inlineStr">
         <is>
-          <t>ANZ-Indeed Job Ads MoMJAN</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2271" t="inlineStr"/>
-      <c r="E2271" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="E2271" t="inlineStr"/>
       <c r="F2271" t="inlineStr"/>
       <c r="G2271" t="inlineStr"/>
-      <c r="H2271" t="n">
-        <v>3</v>
+      <c r="H2271" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2272">
       <c r="A2272" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:15 AM</t>
         </is>
       </c>
       <c r="B2272" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2272" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM PrelDEC</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2272" t="inlineStr"/>
       <c r="E2272" t="inlineStr">
         <is>
-          <t>-1.7%</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="F2272" t="inlineStr"/>
       <c r="G2272" t="inlineStr"/>
-      <c r="H2272" t="n">
-        <v>3</v>
+      <c r="H2272" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2273">
       <c r="A2273" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:45 AM</t>
         </is>
       </c>
       <c r="B2273" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2273" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2273" t="inlineStr"/>
       <c r="E2273" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F2273" t="inlineStr"/>
-      <c r="G2273" t="inlineStr">
-        <is>
-          <t>51.6</t>
-        </is>
-      </c>
-      <c r="H2273" t="n">
-        <v>3</v>
+      <c r="G2273" t="inlineStr"/>
+      <c r="H2273" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2274">
       <c r="A2274" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:50 AM</t>
         </is>
       </c>
       <c r="B2274" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2274" t="inlineStr">
         <is>
-          <t>Jibun Bank Manufacturing PMI FinalJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2274" t="inlineStr"/>
       <c r="E2274" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>41.9</t>
         </is>
       </c>
       <c r="F2274" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="G2274" t="inlineStr">
         <is>
-          <t>48.8</t>
-        </is>
-      </c>
-      <c r="H2274" t="n">
-        <v>2</v>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="H2274" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2275">
       <c r="A2275" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:55 AM</t>
         </is>
       </c>
       <c r="B2275" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2275" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2275" t="inlineStr"/>
       <c r="E2275" t="inlineStr">
         <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="F2275" t="inlineStr"/>
+          <t>42.5</t>
+        </is>
+      </c>
+      <c r="F2275" t="inlineStr">
+        <is>
+          <t>44.1</t>
+        </is>
+      </c>
       <c r="G2275" t="inlineStr">
         <is>
-          <t>49.5</t>
-        </is>
-      </c>
-      <c r="H2275" t="n">
-        <v>2</v>
+          <t>44.1</t>
+        </is>
+      </c>
+      <c r="H2275" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2276">
       <c r="A2276" t="inlineStr">
         <is>
-          <t>08:45 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2276" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2276" t="inlineStr">
         <is>
-          <t>Caixin Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2276" t="inlineStr"/>
       <c r="E2276" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="F2276" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="G2276" t="inlineStr">
         <is>
-          <t>50.5</t>
-        </is>
-      </c>
-      <c r="H2276" t="n">
-        <v>1</v>
+          <t>46.1</t>
+        </is>
+      </c>
+      <c r="H2276" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2277">
       <c r="A2277" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2277" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2277" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>ABSA Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2277" t="inlineStr"/>
       <c r="E2277" t="inlineStr">
         <is>
-          <t>1.57%</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F2277" t="inlineStr"/>
       <c r="G2277" t="inlineStr">
         <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="H2277" t="n">
-        <v>2</v>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="H2277" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2278">
       <c r="A2278" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2278" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2278" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2278" t="inlineStr"/>
       <c r="E2278" t="inlineStr">
         <is>
-          <t>2.26%</t>
-        </is>
-      </c>
-      <c r="F2278" t="inlineStr"/>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F2278" t="inlineStr">
+        <is>
+          <t>48.2</t>
+        </is>
+      </c>
       <c r="G2278" t="inlineStr">
         <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="H2278" t="n">
-        <v>3</v>
+          <t>48.2</t>
+        </is>
+      </c>
+      <c r="H2278" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2279">
       <c r="A2279" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2279" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2279" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2279" t="inlineStr"/>
-      <c r="E2279" t="inlineStr">
-        <is>
-          <t>0.44%</t>
-        </is>
-      </c>
+      <c r="E2279" t="inlineStr"/>
       <c r="F2279" t="inlineStr"/>
-      <c r="G2279" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2279" t="n">
-        <v>3</v>
+      <c r="G2279" t="inlineStr"/>
+      <c r="H2279" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2280">
       <c r="A2280" t="inlineStr">
         <is>
-          <t>11:45 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2280" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2280" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>Core Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2280" t="inlineStr"/>
       <c r="E2280" t="inlineStr">
         <is>
-          <t>17.27%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="F2280" t="inlineStr"/>
-      <c r="G2280" t="inlineStr">
-        <is>
-          <t>18.0%</t>
-        </is>
-      </c>
-      <c r="H2280" t="n">
-        <v>3</v>
+      <c r="G2280" t="inlineStr"/>
+      <c r="H2280" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2281">
@@ -73298,20 +73320,16 @@
       </c>
       <c r="C2281" t="inlineStr">
         <is>
-          <t>CPI FlashJAN</t>
+          <t>Inflation Rate MoM FlashJAN</t>
         </is>
       </c>
       <c r="D2281" t="inlineStr"/>
-      <c r="E2281" t="inlineStr">
-        <is>
-          <t>127.07</t>
-        </is>
-      </c>
+      <c r="E2281" t="inlineStr"/>
       <c r="F2281" t="inlineStr"/>
       <c r="G2281" t="inlineStr"/>
       <c r="H2281" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -73323,25 +73341,25 @@
       </c>
       <c r="B2282" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2282" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>CPI FlashJAN</t>
         </is>
       </c>
       <c r="D2282" t="inlineStr"/>
       <c r="E2282" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>127.07</t>
         </is>
       </c>
       <c r="F2282" t="inlineStr"/>
       <c r="G2282" t="inlineStr"/>
       <c r="H2282" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -73358,20 +73376,20 @@
       </c>
       <c r="C2283" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2283" t="inlineStr"/>
       <c r="E2283" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F2283" t="inlineStr"/>
       <c r="G2283" t="inlineStr"/>
       <c r="H2283" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -73388,7 +73406,7 @@
       </c>
       <c r="C2284" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2284" t="inlineStr"/>
@@ -73401,7 +73419,7 @@
       <c r="G2284" t="inlineStr"/>
       <c r="H2284" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -73418,13 +73436,13 @@
       </c>
       <c r="C2285" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2285" t="inlineStr"/>
       <c r="E2285" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2285" t="inlineStr"/>
@@ -73443,26 +73461,22 @@
       </c>
       <c r="B2286" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2286" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2286" t="inlineStr"/>
       <c r="E2286" t="inlineStr">
         <is>
-          <t>$232.2B</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F2286" t="inlineStr"/>
-      <c r="G2286" t="inlineStr">
-        <is>
-          <t>$ 230B</t>
-        </is>
-      </c>
+      <c r="G2286" t="inlineStr"/>
       <c r="H2286" t="inlineStr">
         <is>
           <t>3</t>
@@ -73472,29 +73486,29 @@
     <row r="2287">
       <c r="A2287" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2287" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2287" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D2287" t="inlineStr"/>
       <c r="E2287" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>$232.2B</t>
         </is>
       </c>
       <c r="F2287" t="inlineStr"/>
       <c r="G2287" t="inlineStr">
         <is>
-          <t>49.8</t>
+          <t>$ 230B</t>
         </is>
       </c>
       <c r="H2287" t="inlineStr">
@@ -73511,24 +73525,24 @@
       </c>
       <c r="B2288" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2288" t="inlineStr">
         <is>
-          <t>SIPMM Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2288" t="inlineStr"/>
       <c r="E2288" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F2288" t="inlineStr"/>
       <c r="G2288" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>49.8</t>
         </is>
       </c>
       <c r="H2288" t="inlineStr">
@@ -73540,43 +73554,51 @@
     <row r="2289">
       <c r="A2289" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2289" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2289" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>SIPMM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2289" t="inlineStr"/>
-      <c r="E2289" t="inlineStr"/>
+      <c r="E2289" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
       <c r="F2289" t="inlineStr"/>
-      <c r="G2289" t="inlineStr"/>
+      <c r="G2289" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="H2289" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2290">
       <c r="A2290" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2290" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2290" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2290" t="inlineStr"/>
@@ -73585,7 +73607,7 @@
       <c r="G2290" t="inlineStr"/>
       <c r="H2290" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -73602,7 +73624,7 @@
       </c>
       <c r="C2291" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2291" t="inlineStr"/>
@@ -73628,7 +73650,7 @@
       </c>
       <c r="C2292" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2292" t="inlineStr"/>
@@ -73644,65 +73666,53 @@
     <row r="2293">
       <c r="A2293" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2293" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2293" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2293" t="inlineStr"/>
-      <c r="E2293" t="inlineStr">
-        <is>
-          <t>52.2</t>
-        </is>
-      </c>
+      <c r="E2293" t="inlineStr"/>
       <c r="F2293" t="inlineStr"/>
       <c r="G2293" t="inlineStr"/>
       <c r="H2293" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2294">
       <c r="A2294" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2294" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2294" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2294" t="inlineStr"/>
       <c r="E2294" t="inlineStr">
         <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="F2294" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
-      <c r="G2294" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
+          <t>52.2</t>
+        </is>
+      </c>
+      <c r="F2294" t="inlineStr"/>
+      <c r="G2294" t="inlineStr"/>
       <c r="H2294" t="inlineStr">
         <is>
           <t>2</t>
@@ -73712,7 +73722,7 @@
     <row r="2295">
       <c r="A2295" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B2295" t="inlineStr">
@@ -73722,20 +73732,28 @@
       </c>
       <c r="C2295" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2295" t="inlineStr"/>
       <c r="E2295" t="inlineStr">
         <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F2295" t="inlineStr"/>
-      <c r="G2295" t="inlineStr"/>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="F2295" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
+      <c r="G2295" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
       <c r="H2295" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -73752,20 +73770,20 @@
       </c>
       <c r="C2296" t="inlineStr">
         <is>
-          <t>ISM Manufacturing EmploymentJAN</t>
+          <t>ISM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2296" t="inlineStr"/>
       <c r="E2296" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>49.3</t>
         </is>
       </c>
       <c r="F2296" t="inlineStr"/>
       <c r="G2296" t="inlineStr"/>
       <c r="H2296" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -73782,24 +73800,20 @@
       </c>
       <c r="C2297" t="inlineStr">
         <is>
-          <t>Construction Spending MoMDEC</t>
+          <t>ISM Manufacturing EmploymentJAN</t>
         </is>
       </c>
       <c r="D2297" t="inlineStr"/>
       <c r="E2297" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="F2297" t="inlineStr"/>
-      <c r="G2297" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2297" t="inlineStr"/>
       <c r="H2297" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -73816,13 +73830,21 @@
       </c>
       <c r="C2298" t="inlineStr">
         <is>
-          <t>ISM Manufacturing New OrdersJAN</t>
+          <t>Construction Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2298" t="inlineStr"/>
-      <c r="E2298" t="inlineStr"/>
+      <c r="E2298" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="F2298" t="inlineStr"/>
-      <c r="G2298" t="inlineStr"/>
+      <c r="G2298" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2298" t="inlineStr">
         <is>
           <t>3</t>
@@ -73842,7 +73864,7 @@
       </c>
       <c r="C2299" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PricesJAN</t>
+          <t>ISM Manufacturing New OrdersJAN</t>
         </is>
       </c>
       <c r="D2299" t="inlineStr"/>
@@ -73858,7 +73880,7 @@
     <row r="2300">
       <c r="A2300" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2300" t="inlineStr">
@@ -73868,7 +73890,7 @@
       </c>
       <c r="C2300" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>ISM Manufacturing PricesJAN</t>
         </is>
       </c>
       <c r="D2300" t="inlineStr"/>
@@ -73894,7 +73916,7 @@
       </c>
       <c r="C2301" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2301" t="inlineStr"/>
@@ -73910,7 +73932,7 @@
     <row r="2302">
       <c r="A2302" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2302" t="inlineStr">
@@ -73920,7 +73942,7 @@
       </c>
       <c r="C2302" t="inlineStr">
         <is>
-          <t>Treasury Refunding Financing Estimates</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2302" t="inlineStr"/>
@@ -73936,25 +73958,21 @@
     <row r="2303">
       <c r="A2303" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2303" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2303" t="inlineStr">
         <is>
-          <t>Tax RevenueJAN</t>
+          <t>Treasury Refunding Financing Estimates</t>
         </is>
       </c>
       <c r="D2303" t="inlineStr"/>
-      <c r="E2303" t="inlineStr">
-        <is>
-          <t>ARS13015B</t>
-        </is>
-      </c>
+      <c r="E2303" t="inlineStr"/>
       <c r="F2303" t="inlineStr"/>
       <c r="G2303" t="inlineStr"/>
       <c r="H2303" t="inlineStr">
@@ -73966,23 +73984,23 @@
     <row r="2304">
       <c r="A2304" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2304" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2304" t="inlineStr">
         <is>
-          <t>10-Year JGB Auction</t>
+          <t>Tax RevenueJAN</t>
         </is>
       </c>
       <c r="D2304" t="inlineStr"/>
       <c r="E2304" t="inlineStr">
         <is>
-          <t>1.140%</t>
+          <t>ARS13015B</t>
         </is>
       </c>
       <c r="F2304" t="inlineStr"/>
@@ -73996,23 +74014,23 @@
     <row r="2305">
       <c r="A2305" t="inlineStr">
         <is>
-          <t>11:15 PM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B2305" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2305" t="inlineStr">
         <is>
-          <t>Riyad Bank PMIJAN</t>
+          <t>10-Year JGB Auction</t>
         </is>
       </c>
       <c r="D2305" t="inlineStr"/>
       <c r="E2305" t="inlineStr">
         <is>
-          <t>58.4</t>
+          <t>1.140%</t>
         </is>
       </c>
       <c r="F2305" t="inlineStr"/>
@@ -74024,78 +74042,78 @@
       </c>
     </row>
     <row r="2306">
-      <c r="A2306" t="inlineStr"/>
+      <c r="A2306" t="inlineStr">
+        <is>
+          <t>11:15 PM</t>
+        </is>
+      </c>
       <c r="B2306" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C2306" t="inlineStr">
         <is>
-          <t>Total New Vehicle SalesJAN</t>
+          <t>Riyad Bank PMIJAN</t>
         </is>
       </c>
       <c r="D2306" t="inlineStr"/>
       <c r="E2306" t="inlineStr">
         <is>
+          <t>58.4</t>
+        </is>
+      </c>
+      <c r="F2306" t="inlineStr"/>
+      <c r="G2306" t="inlineStr"/>
+      <c r="H2306" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2307">
+      <c r="A2307" t="inlineStr"/>
+      <c r="B2307" t="inlineStr">
+        <is>
+          <t>ZA</t>
+        </is>
+      </c>
+      <c r="C2307" t="inlineStr">
+        <is>
+          <t>Total New Vehicle SalesJAN</t>
+        </is>
+      </c>
+      <c r="D2307" t="inlineStr"/>
+      <c r="E2307" t="inlineStr">
+        <is>
           <t>41.27K</t>
         </is>
       </c>
-      <c r="F2306" t="inlineStr"/>
-      <c r="G2306" t="inlineStr">
+      <c r="F2307" t="inlineStr"/>
+      <c r="G2307" t="inlineStr">
         <is>
           <t>43.0K</t>
         </is>
       </c>
-      <c r="H2306" t="inlineStr">
+      <c r="H2307" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-    </row>
-    <row r="2307">
-      <c r="A2307" t="inlineStr">
-        <is>
-          <t>Tuesday February 04 2025</t>
-        </is>
-      </c>
-      <c r="B2307" t="inlineStr"/>
-      <c r="C2307" t="inlineStr"/>
-      <c r="D2307" t="inlineStr"/>
-      <c r="E2307" t="inlineStr"/>
-      <c r="F2307" t="inlineStr"/>
-      <c r="G2307" t="inlineStr"/>
-      <c r="H2307" t="inlineStr"/>
     </row>
     <row r="2308">
       <c r="A2308" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B2308" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C2308" t="inlineStr">
-        <is>
-          <t>MAS 12-Week Bill Auction</t>
-        </is>
-      </c>
+          <t>Tuesday February 04 2025</t>
+        </is>
+      </c>
+      <c r="B2308" t="inlineStr"/>
+      <c r="C2308" t="inlineStr"/>
       <c r="D2308" t="inlineStr"/>
-      <c r="E2308" t="inlineStr">
-        <is>
-          <t>3.08%</t>
-        </is>
-      </c>
+      <c r="E2308" t="inlineStr"/>
       <c r="F2308" t="inlineStr"/>
       <c r="G2308" t="inlineStr"/>
-      <c r="H2308" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2308" t="inlineStr"/>
     </row>
     <row r="2309">
       <c r="A2309" t="inlineStr">
@@ -74110,13 +74128,13 @@
       </c>
       <c r="C2309" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2309" t="inlineStr"/>
       <c r="E2309" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>3.08%</t>
         </is>
       </c>
       <c r="F2309" t="inlineStr"/>
@@ -74135,18 +74153,18 @@
       </c>
       <c r="B2310" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2310" t="inlineStr">
         <is>
-          <t>30-Year KTB Auction</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2310" t="inlineStr"/>
       <c r="E2310" t="inlineStr">
         <is>
-          <t>2.705%</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F2310" t="inlineStr"/>
@@ -74160,23 +74178,23 @@
     <row r="2311">
       <c r="A2311" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2311" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2311" t="inlineStr">
         <is>
-          <t>Budget BalanceDEC</t>
+          <t>30-Year KTB Auction</t>
         </is>
       </c>
       <c r="D2311" t="inlineStr"/>
       <c r="E2311" t="inlineStr">
         <is>
-          <t>€-172.5B</t>
+          <t>2.705%</t>
         </is>
       </c>
       <c r="F2311" t="inlineStr"/>
@@ -74190,23 +74208,23 @@
     <row r="2312">
       <c r="A2312" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B2312" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2312" t="inlineStr">
         <is>
-          <t>IPC-Fipe Inflation MoMJAN</t>
+          <t>Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D2312" t="inlineStr"/>
       <c r="E2312" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>€-172.5B</t>
         </is>
       </c>
       <c r="F2312" t="inlineStr"/>
@@ -74220,21 +74238,25 @@
     <row r="2313">
       <c r="A2313" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B2313" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2313" t="inlineStr">
         <is>
-          <t>5-Year Treasury Gilt Auction</t>
+          <t>IPC-Fipe Inflation MoMJAN</t>
         </is>
       </c>
       <c r="D2313" t="inlineStr"/>
-      <c r="E2313" t="inlineStr"/>
+      <c r="E2313" t="inlineStr">
+        <is>
+          <t>0.34%</t>
+        </is>
+      </c>
       <c r="F2313" t="inlineStr"/>
       <c r="G2313" t="inlineStr"/>
       <c r="H2313" t="inlineStr">
@@ -74246,17 +74268,17 @@
     <row r="2314">
       <c r="A2314" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2314" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2314" t="inlineStr">
         <is>
-          <t>BCB Copom Meeting Minutes</t>
+          <t>5-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D2314" t="inlineStr"/>
@@ -74265,14 +74287,14 @@
       <c r="G2314" t="inlineStr"/>
       <c r="H2314" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2315">
       <c r="A2315" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2315" t="inlineStr">
@@ -74282,24 +74304,16 @@
       </c>
       <c r="C2315" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>BCB Copom Meeting Minutes</t>
         </is>
       </c>
       <c r="D2315" t="inlineStr"/>
-      <c r="E2315" t="inlineStr">
-        <is>
-          <t>1.23%</t>
-        </is>
-      </c>
+      <c r="E2315" t="inlineStr"/>
       <c r="F2315" t="inlineStr"/>
-      <c r="G2315" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2315" t="inlineStr"/>
       <c r="H2315" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -74316,19 +74330,19 @@
       </c>
       <c r="C2316" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2316" t="inlineStr"/>
       <c r="E2316" t="inlineStr">
         <is>
-          <t>7.59%</t>
+          <t>1.23%</t>
         </is>
       </c>
       <c r="F2316" t="inlineStr"/>
       <c r="G2316" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2316" t="inlineStr">
@@ -74345,76 +74359,80 @@
       </c>
       <c r="B2317" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2317" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2317" t="inlineStr"/>
       <c r="E2317" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>7.59%</t>
         </is>
       </c>
       <c r="F2317" t="inlineStr"/>
-      <c r="G2317" t="inlineStr"/>
+      <c r="G2317" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="H2317" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2318">
       <c r="A2318" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2318" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2318" t="inlineStr">
         <is>
-          <t>Redbook YoYFEB/01</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2318" t="inlineStr"/>
-      <c r="E2318" t="inlineStr"/>
+      <c r="E2318" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
       <c r="F2318" t="inlineStr"/>
       <c r="G2318" t="inlineStr"/>
       <c r="H2318" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2319">
       <c r="A2319" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B2319" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2319" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Redbook YoYFEB/01</t>
         </is>
       </c>
       <c r="D2319" t="inlineStr"/>
-      <c r="E2319" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
+      <c r="E2319" t="inlineStr"/>
       <c r="F2319" t="inlineStr"/>
       <c r="G2319" t="inlineStr"/>
       <c r="H2319" t="inlineStr">
@@ -74431,25 +74449,25 @@
       </c>
       <c r="B2320" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2320" t="inlineStr">
         <is>
-          <t>JOLTs Job OpeningsDEC</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2320" t="inlineStr"/>
-      <c r="E2320" t="inlineStr"/>
+      <c r="E2320" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="F2320" t="inlineStr"/>
-      <c r="G2320" t="inlineStr">
-        <is>
-          <t>7.6M</t>
-        </is>
-      </c>
+      <c r="G2320" t="inlineStr"/>
       <c r="H2320" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -74466,24 +74484,20 @@
       </c>
       <c r="C2321" t="inlineStr">
         <is>
-          <t>Factory Orders MoMDEC</t>
+          <t>JOLTs Job OpeningsDEC</t>
         </is>
       </c>
       <c r="D2321" t="inlineStr"/>
-      <c r="E2321" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
+      <c r="E2321" t="inlineStr"/>
       <c r="F2321" t="inlineStr"/>
       <c r="G2321" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>7.6M</t>
         </is>
       </c>
       <c r="H2321" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -74500,24 +74514,24 @@
       </c>
       <c r="C2322" t="inlineStr">
         <is>
-          <t>Factory Orders ex TransportationDEC</t>
+          <t>Factory Orders MoMDEC</t>
         </is>
       </c>
       <c r="D2322" t="inlineStr"/>
       <c r="E2322" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="F2322" t="inlineStr"/>
       <c r="G2322" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H2322" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -74534,13 +74548,21 @@
       </c>
       <c r="C2323" t="inlineStr">
         <is>
-          <t>JOLTs Job QuitsDEC</t>
+          <t>Factory Orders ex TransportationDEC</t>
         </is>
       </c>
       <c r="D2323" t="inlineStr"/>
-      <c r="E2323" t="inlineStr"/>
+      <c r="E2323" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F2323" t="inlineStr"/>
-      <c r="G2323" t="inlineStr"/>
+      <c r="G2323" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H2323" t="inlineStr">
         <is>
           <t>3</t>
@@ -74550,7 +74572,7 @@
     <row r="2324">
       <c r="A2324" t="inlineStr">
         <is>
-          <t>10:10 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2324" t="inlineStr">
@@ -74560,15 +74582,11 @@
       </c>
       <c r="C2324" t="inlineStr">
         <is>
-          <t>RCM/TIPP Economic Optimism IndexFEB</t>
+          <t>JOLTs Job QuitsDEC</t>
         </is>
       </c>
       <c r="D2324" t="inlineStr"/>
-      <c r="E2324" t="inlineStr">
-        <is>
-          <t>51.9</t>
-        </is>
-      </c>
+      <c r="E2324" t="inlineStr"/>
       <c r="F2324" t="inlineStr"/>
       <c r="G2324" t="inlineStr"/>
       <c r="H2324" t="inlineStr">
@@ -74580,7 +74598,7 @@
     <row r="2325">
       <c r="A2325" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>10:10 AM</t>
         </is>
       </c>
       <c r="B2325" t="inlineStr">
@@ -74590,33 +74608,37 @@
       </c>
       <c r="C2325" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>RCM/TIPP Economic Optimism IndexFEB</t>
         </is>
       </c>
       <c r="D2325" t="inlineStr"/>
-      <c r="E2325" t="inlineStr"/>
+      <c r="E2325" t="inlineStr">
+        <is>
+          <t>51.9</t>
+        </is>
+      </c>
       <c r="F2325" t="inlineStr"/>
       <c r="G2325" t="inlineStr"/>
       <c r="H2325" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2326">
       <c r="A2326" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B2326" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2326" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2326" t="inlineStr"/>
@@ -74625,24 +74647,24 @@
       <c r="G2326" t="inlineStr"/>
       <c r="H2326" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2327">
       <c r="A2327" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B2327" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2327" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/31</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2327" t="inlineStr"/>
@@ -74651,24 +74673,24 @@
       <c r="G2327" t="inlineStr"/>
       <c r="H2327" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2328">
       <c r="A2328" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B2328" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2328" t="inlineStr">
         <is>
-          <t>Judo Bank Services PMI FinalJAN</t>
+          <t>API Crude Oil Stock ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2328" t="inlineStr"/>
@@ -74694,7 +74716,7 @@
       </c>
       <c r="C2329" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Composite PMI FinalJAN</t>
+          <t>Judo Bank Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2329" t="inlineStr"/>
@@ -74703,37 +74725,33 @@
       <c r="G2329" t="inlineStr"/>
       <c r="H2329" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2330">
       <c r="A2330" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2330" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2330" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>S&amp;P Global Australia Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2330" t="inlineStr"/>
-      <c r="E2330" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="E2330" t="inlineStr"/>
       <c r="F2330" t="inlineStr"/>
       <c r="G2330" t="inlineStr"/>
       <c r="H2330" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -74750,47 +74768,47 @@
       </c>
       <c r="C2331" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2331" t="inlineStr"/>
       <c r="E2331" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F2331" t="inlineStr"/>
       <c r="G2331" t="inlineStr"/>
       <c r="H2331" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2332">
       <c r="A2332" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2332" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2332" t="inlineStr">
         <is>
-          <t>Average Cash Earnings YoYDEC</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2332" t="inlineStr"/>
-      <c r="E2332" t="inlineStr"/>
+      <c r="E2332" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F2332" t="inlineStr"/>
-      <c r="G2332" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
+      <c r="G2332" t="inlineStr"/>
       <c r="H2332" t="inlineStr">
         <is>
           <t>3</t>
@@ -74800,27 +74818,27 @@
     <row r="2333">
       <c r="A2333" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2333" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2333" t="inlineStr">
         <is>
-          <t>TD-MI Inflation Gauge MoMJAN</t>
+          <t>Average Cash Earnings YoYDEC</t>
         </is>
       </c>
       <c r="D2333" t="inlineStr"/>
-      <c r="E2333" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="E2333" t="inlineStr"/>
       <c r="F2333" t="inlineStr"/>
-      <c r="G2333" t="inlineStr"/>
+      <c r="G2333" t="inlineStr">
+        <is>
+          <t>2.1%</t>
+        </is>
+      </c>
       <c r="H2333" t="inlineStr">
         <is>
           <t>3</t>
@@ -74835,33 +74853,25 @@
       </c>
       <c r="B2334" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2334" t="inlineStr">
         <is>
-          <t>Jibun Bank Services PMI FinalJAN</t>
+          <t>TD-MI Inflation Gauge MoMJAN</t>
         </is>
       </c>
       <c r="D2334" t="inlineStr"/>
       <c r="E2334" t="inlineStr">
         <is>
-          <t>50.9</t>
-        </is>
-      </c>
-      <c r="F2334" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="G2334" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
+          <t>0.6%</t>
+        </is>
+      </c>
+      <c r="F2334" t="inlineStr"/>
+      <c r="G2334" t="inlineStr"/>
       <c r="H2334" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -74878,24 +74888,28 @@
       </c>
       <c r="C2335" t="inlineStr">
         <is>
-          <t>Jibun Bank Composite PMI FinalJAN</t>
+          <t>Jibun Bank Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2335" t="inlineStr"/>
       <c r="E2335" t="inlineStr">
         <is>
-          <t>50.5</t>
-        </is>
-      </c>
-      <c r="F2335" t="inlineStr"/>
+          <t>50.9</t>
+        </is>
+      </c>
+      <c r="F2335" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
       <c r="G2335" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>52.7</t>
         </is>
       </c>
       <c r="H2335" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -74907,22 +74921,26 @@
       </c>
       <c r="B2336" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2336" t="inlineStr">
         <is>
-          <t>S&amp;P Global PMIJAN</t>
+          <t>Jibun Bank Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2336" t="inlineStr"/>
       <c r="E2336" t="inlineStr">
         <is>
-          <t>51.5</t>
+          <t>50.5</t>
         </is>
       </c>
       <c r="F2336" t="inlineStr"/>
-      <c r="G2336" t="inlineStr"/>
+      <c r="G2336" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
       <c r="H2336" t="inlineStr">
         <is>
           <t>3</t>
@@ -74932,34 +74950,30 @@
     <row r="2337">
       <c r="A2337" t="inlineStr">
         <is>
-          <t>08:45 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2337" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2337" t="inlineStr">
         <is>
-          <t>Caixin Services PMIJAN</t>
+          <t>S&amp;P Global PMIJAN</t>
         </is>
       </c>
       <c r="D2337" t="inlineStr"/>
       <c r="E2337" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>51.5</t>
         </is>
       </c>
       <c r="F2337" t="inlineStr"/>
-      <c r="G2337" t="inlineStr">
-        <is>
-          <t>51.8</t>
-        </is>
-      </c>
+      <c r="G2337" t="inlineStr"/>
       <c r="H2337" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -74976,54 +74990,58 @@
       </c>
       <c r="C2338" t="inlineStr">
         <is>
-          <t>Caixin Composite PMIJAN</t>
+          <t>Caixin Services PMIJAN</t>
         </is>
       </c>
       <c r="D2338" t="inlineStr"/>
       <c r="E2338" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="F2338" t="inlineStr"/>
       <c r="G2338" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>51.8</t>
         </is>
       </c>
       <c r="H2338" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2339">
       <c r="A2339" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>08:45 PM</t>
         </is>
       </c>
       <c r="B2339" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2339" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoYQ4</t>
+          <t>Caixin Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2339" t="inlineStr"/>
-      <c r="E2339" t="inlineStr"/>
+      <c r="E2339" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="F2339" t="inlineStr"/>
       <c r="G2339" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="H2339" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -75040,7 +75058,7 @@
       </c>
       <c r="C2340" t="inlineStr">
         <is>
-          <t>Full Year GDP Growth2025</t>
+          <t>GDP Growth Rate YoYQ4</t>
         </is>
       </c>
       <c r="D2340" t="inlineStr"/>
@@ -75053,7 +75071,7 @@
       </c>
       <c r="H2340" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -75070,7 +75088,7 @@
       </c>
       <c r="C2341" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQQ4</t>
+          <t>Full Year GDP Growth2025</t>
         </is>
       </c>
       <c r="D2341" t="inlineStr"/>
@@ -75078,7 +75096,7 @@
       <c r="F2341" t="inlineStr"/>
       <c r="G2341" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="H2341" t="inlineStr">
@@ -75088,21 +75106,29 @@
       </c>
     </row>
     <row r="2342">
-      <c r="A2342" t="inlineStr"/>
+      <c r="A2342" t="inlineStr">
+        <is>
+          <t>11:00 PM</t>
+        </is>
+      </c>
       <c r="B2342" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2342" t="inlineStr">
         <is>
-          <t>Balance of Trade PrelJAN</t>
+          <t>GDP Growth Rate QoQQ4</t>
         </is>
       </c>
       <c r="D2342" t="inlineStr"/>
       <c r="E2342" t="inlineStr"/>
       <c r="F2342" t="inlineStr"/>
-      <c r="G2342" t="inlineStr"/>
+      <c r="G2342" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2342" t="inlineStr">
         <is>
           <t>3</t>
@@ -75118,7 +75144,7 @@
       </c>
       <c r="C2343" t="inlineStr">
         <is>
-          <t>Exports PrelJAN</t>
+          <t>Balance of Trade PrelJAN</t>
         </is>
       </c>
       <c r="D2343" t="inlineStr"/>
@@ -75140,7 +75166,7 @@
       </c>
       <c r="C2344" t="inlineStr">
         <is>
-          <t>Imports PrelJAN</t>
+          <t>Exports PrelJAN</t>
         </is>
       </c>
       <c r="D2344" t="inlineStr"/>
@@ -75157,20 +75183,16 @@
       <c r="A2345" t="inlineStr"/>
       <c r="B2345" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2345" t="inlineStr">
         <is>
-          <t>LMI Logistics Managers IndexJAN</t>
+          <t>Imports PrelJAN</t>
         </is>
       </c>
       <c r="D2345" t="inlineStr"/>
-      <c r="E2345" t="inlineStr">
-        <is>
-          <t>57.3</t>
-        </is>
-      </c>
+      <c r="E2345" t="inlineStr"/>
       <c r="F2345" t="inlineStr"/>
       <c r="G2345" t="inlineStr"/>
       <c r="H2345" t="inlineStr">
@@ -75180,56 +75202,44 @@
       </c>
     </row>
     <row r="2346">
-      <c r="A2346" t="inlineStr">
-        <is>
-          <t>Wednesday February 05 2025</t>
-        </is>
-      </c>
-      <c r="B2346" t="inlineStr"/>
-      <c r="C2346" t="inlineStr"/>
+      <c r="A2346" t="inlineStr"/>
+      <c r="B2346" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2346" t="inlineStr">
+        <is>
+          <t>LMI Logistics Managers IndexJAN</t>
+        </is>
+      </c>
       <c r="D2346" t="inlineStr"/>
-      <c r="E2346" t="inlineStr"/>
+      <c r="E2346" t="inlineStr">
+        <is>
+          <t>57.3</t>
+        </is>
+      </c>
       <c r="F2346" t="inlineStr"/>
       <c r="G2346" t="inlineStr"/>
-      <c r="H2346" t="inlineStr"/>
+      <c r="H2346" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2347">
       <c r="A2347" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B2347" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C2347" t="inlineStr">
-        <is>
-          <t>HSBC Composite PMI FinalJAN</t>
-        </is>
-      </c>
+          <t>Wednesday February 05 2025</t>
+        </is>
+      </c>
+      <c r="B2347" t="inlineStr"/>
+      <c r="C2347" t="inlineStr"/>
       <c r="D2347" t="inlineStr"/>
-      <c r="E2347" t="inlineStr">
-        <is>
-          <t>59.2</t>
-        </is>
-      </c>
-      <c r="F2347" t="inlineStr">
-        <is>
-          <t>57.9</t>
-        </is>
-      </c>
-      <c r="G2347" t="inlineStr">
-        <is>
-          <t>57.9</t>
-        </is>
-      </c>
-      <c r="H2347" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="E2347" t="inlineStr"/>
+      <c r="F2347" t="inlineStr"/>
+      <c r="G2347" t="inlineStr"/>
+      <c r="H2347" t="inlineStr"/>
     </row>
     <row r="2348">
       <c r="A2348" t="inlineStr">
@@ -75244,23 +75254,23 @@
       </c>
       <c r="C2348" t="inlineStr">
         <is>
-          <t>HSBC Services PMI FinalJAN</t>
+          <t>HSBC Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2348" t="inlineStr"/>
       <c r="E2348" t="inlineStr">
         <is>
-          <t>59.3</t>
+          <t>59.2</t>
         </is>
       </c>
       <c r="F2348" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>57.9</t>
         </is>
       </c>
       <c r="G2348" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>57.9</t>
         </is>
       </c>
       <c r="H2348" t="inlineStr">
@@ -75277,24 +75287,28 @@
       </c>
       <c r="B2349" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2349" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>HSBC Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2349" t="inlineStr"/>
       <c r="E2349" t="inlineStr">
         <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
-      <c r="F2349" t="inlineStr"/>
+          <t>59.3</t>
+        </is>
+      </c>
+      <c r="F2349" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
       <c r="G2349" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>56.8</t>
         </is>
       </c>
       <c r="H2349" t="inlineStr">
@@ -75316,19 +75330,19 @@
       </c>
       <c r="C2350" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2350" t="inlineStr"/>
       <c r="E2350" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="F2350" t="inlineStr"/>
       <c r="G2350" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H2350" t="inlineStr">
@@ -75340,27 +75354,31 @@
     <row r="2351">
       <c r="A2351" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2351" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2351" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMIJAN</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2351" t="inlineStr"/>
       <c r="E2351" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F2351" t="inlineStr"/>
-      <c r="G2351" t="inlineStr"/>
+      <c r="G2351" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H2351" t="inlineStr">
         <is>
           <t>3</t>
@@ -75380,13 +75398,13 @@
       </c>
       <c r="C2352" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMIJAN</t>
+          <t>S&amp;P Global Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2352" t="inlineStr"/>
       <c r="E2352" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F2352" t="inlineStr"/>
@@ -75400,23 +75418,23 @@
     <row r="2353">
       <c r="A2353" t="inlineStr">
         <is>
-          <t>02:15 AM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B2353" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2353" t="inlineStr">
         <is>
-          <t>S&amp;P Global PMIJAN</t>
+          <t>S&amp;P Global Services PMIJAN</t>
         </is>
       </c>
       <c r="D2353" t="inlineStr"/>
       <c r="E2353" t="inlineStr">
         <is>
-          <t>49.9</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F2353" t="inlineStr"/>
@@ -75430,61 +75448,61 @@
     <row r="2354">
       <c r="A2354" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>02:15 AM</t>
         </is>
       </c>
       <c r="B2354" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2354" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>S&amp;P Global PMIJAN</t>
         </is>
       </c>
       <c r="D2354" t="inlineStr"/>
       <c r="E2354" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>49.9</t>
         </is>
       </c>
       <c r="F2354" t="inlineStr"/>
-      <c r="G2354" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="G2354" t="inlineStr"/>
       <c r="H2354" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2355">
       <c r="A2355" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B2355" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2355" t="inlineStr">
         <is>
-          <t>HCOB Services PMIJAN</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D2355" t="inlineStr"/>
       <c r="E2355" t="inlineStr">
         <is>
-          <t>57.3</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F2355" t="inlineStr"/>
-      <c r="G2355" t="inlineStr"/>
+      <c r="G2355" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="H2355" t="inlineStr">
         <is>
           <t>2</t>
@@ -75504,32 +75522,32 @@
       </c>
       <c r="C2356" t="inlineStr">
         <is>
-          <t>HCOB Composite PMIJAN</t>
+          <t>HCOB Services PMIJAN</t>
         </is>
       </c>
       <c r="D2356" t="inlineStr"/>
       <c r="E2356" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>57.3</t>
         </is>
       </c>
       <c r="F2356" t="inlineStr"/>
       <c r="G2356" t="inlineStr"/>
       <c r="H2356" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2357">
       <c r="A2357" t="inlineStr">
         <is>
-          <t>03:45 AM</t>
+          <t>03:15 AM</t>
         </is>
       </c>
       <c r="B2357" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2357" t="inlineStr">
@@ -75540,14 +75558,14 @@
       <c r="D2357" t="inlineStr"/>
       <c r="E2357" t="inlineStr">
         <is>
-          <t>49.7</t>
+          <t>56.8</t>
         </is>
       </c>
       <c r="F2357" t="inlineStr"/>
       <c r="G2357" t="inlineStr"/>
       <c r="H2357" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -75564,13 +75582,13 @@
       </c>
       <c r="C2358" t="inlineStr">
         <is>
-          <t>HCOB Services PMIJAN</t>
+          <t>HCOB Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2358" t="inlineStr"/>
       <c r="E2358" t="inlineStr">
         <is>
-          <t>50.7</t>
+          <t>49.7</t>
         </is>
       </c>
       <c r="F2358" t="inlineStr"/>
@@ -75584,35 +75602,27 @@
     <row r="2359">
       <c r="A2359" t="inlineStr">
         <is>
-          <t>03:50 AM</t>
+          <t>03:45 AM</t>
         </is>
       </c>
       <c r="B2359" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2359" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FinalJAN</t>
+          <t>HCOB Services PMIJAN</t>
         </is>
       </c>
       <c r="D2359" t="inlineStr"/>
       <c r="E2359" t="inlineStr">
         <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F2359" t="inlineStr">
-        <is>
-          <t>48.9</t>
-        </is>
-      </c>
-      <c r="G2359" t="inlineStr">
-        <is>
-          <t>48.9</t>
-        </is>
-      </c>
+          <t>50.7</t>
+        </is>
+      </c>
+      <c r="F2359" t="inlineStr"/>
+      <c r="G2359" t="inlineStr"/>
       <c r="H2359" t="inlineStr">
         <is>
           <t>2</t>
@@ -75632,40 +75642,40 @@
       </c>
       <c r="C2360" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FinalJAN</t>
+          <t>HCOB Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2360" t="inlineStr"/>
       <c r="E2360" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>49.3</t>
         </is>
       </c>
       <c r="F2360" t="inlineStr">
         <is>
-          <t>48.3</t>
+          <t>48.9</t>
         </is>
       </c>
       <c r="G2360" t="inlineStr">
         <is>
-          <t>48.3</t>
+          <t>48.9</t>
         </is>
       </c>
       <c r="H2360" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2361">
       <c r="A2361" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>03:50 AM</t>
         </is>
       </c>
       <c r="B2361" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2361" t="inlineStr">
@@ -75676,22 +75686,22 @@
       <c r="D2361" t="inlineStr"/>
       <c r="E2361" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>47.5</t>
         </is>
       </c>
       <c r="F2361" t="inlineStr">
         <is>
-          <t>50.1</t>
+          <t>48.3</t>
         </is>
       </c>
       <c r="G2361" t="inlineStr">
         <is>
-          <t>50.1</t>
+          <t>48.3</t>
         </is>
       </c>
       <c r="H2361" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -75708,23 +75718,23 @@
       </c>
       <c r="C2362" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FinalJAN</t>
+          <t>HCOB Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2362" t="inlineStr"/>
       <c r="E2362" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F2362" t="inlineStr">
         <is>
-          <t>52.5</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="G2362" t="inlineStr">
         <is>
-          <t>52.5</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="H2362" t="inlineStr">
@@ -75736,33 +75746,33 @@
     <row r="2363">
       <c r="A2363" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>03:55 AM</t>
         </is>
       </c>
       <c r="B2363" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2363" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FinalJAN</t>
+          <t>HCOB Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2363" t="inlineStr"/>
       <c r="E2363" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F2363" t="inlineStr">
         <is>
-          <t>50.2</t>
+          <t>52.5</t>
         </is>
       </c>
       <c r="G2363" t="inlineStr">
         <is>
-          <t>50.2</t>
+          <t>52.5</t>
         </is>
       </c>
       <c r="H2363" t="inlineStr">
@@ -75784,23 +75794,23 @@
       </c>
       <c r="C2364" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FinalJAN</t>
+          <t>HCOB Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2364" t="inlineStr"/>
       <c r="E2364" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="F2364" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>50.2</t>
         </is>
       </c>
       <c r="G2364" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>50.2</t>
         </is>
       </c>
       <c r="H2364" t="inlineStr">
@@ -75817,24 +75827,28 @@
       </c>
       <c r="B2365" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2365" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>HCOB Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2365" t="inlineStr"/>
       <c r="E2365" t="inlineStr">
         <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="F2365" t="inlineStr"/>
+          <t>51.6</t>
+        </is>
+      </c>
+      <c r="F2365" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="G2365" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="H2365" t="inlineStr">
@@ -75856,24 +75870,24 @@
       </c>
       <c r="C2366" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2366" t="inlineStr"/>
       <c r="E2366" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="F2366" t="inlineStr"/>
       <c r="G2366" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H2366" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -75885,24 +75899,24 @@
       </c>
       <c r="B2367" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2367" t="inlineStr">
         <is>
-          <t>New Car Sales YoYJAN</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2367" t="inlineStr"/>
       <c r="E2367" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F2367" t="inlineStr"/>
       <c r="G2367" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="H2367" t="inlineStr">
@@ -75914,7 +75928,7 @@
     <row r="2368">
       <c r="A2368" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2368" t="inlineStr">
@@ -75924,28 +75938,24 @@
       </c>
       <c r="C2368" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FinalJAN</t>
+          <t>New Car Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2368" t="inlineStr"/>
       <c r="E2368" t="inlineStr">
         <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="F2368" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="F2368" t="inlineStr"/>
       <c r="G2368" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="H2368" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -75962,53 +75972,57 @@
       </c>
       <c r="C2369" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FinalJAN</t>
+          <t>S&amp;P Global Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2369" t="inlineStr"/>
       <c r="E2369" t="inlineStr">
         <is>
-          <t>50.4</t>
-        </is>
-      </c>
-      <c r="F2369" t="inlineStr"/>
+          <t>51.1</t>
+        </is>
+      </c>
+      <c r="F2369" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
       <c r="G2369" t="inlineStr">
         <is>
-          <t>50.9</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="H2369" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2370">
       <c r="A2370" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2370" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2370" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>S&amp;P Global Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2370" t="inlineStr"/>
       <c r="E2370" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F2370" t="inlineStr"/>
       <c r="G2370" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>50.9</t>
         </is>
       </c>
       <c r="H2370" t="inlineStr">
@@ -76030,19 +76044,19 @@
       </c>
       <c r="C2371" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2371" t="inlineStr"/>
       <c r="E2371" t="inlineStr">
         <is>
-          <t>-1.2%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F2371" t="inlineStr"/>
       <c r="G2371" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2371" t="inlineStr">
@@ -76059,22 +76073,26 @@
       </c>
       <c r="B2372" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2372" t="inlineStr">
         <is>
-          <t>30-Year Green Gilt Auction</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2372" t="inlineStr"/>
       <c r="E2372" t="inlineStr">
         <is>
-          <t>4.831%</t>
+          <t>-1.2%</t>
         </is>
       </c>
       <c r="F2372" t="inlineStr"/>
-      <c r="G2372" t="inlineStr"/>
+      <c r="G2372" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
       <c r="H2372" t="inlineStr">
         <is>
           <t>3</t>
@@ -76084,23 +76102,23 @@
     <row r="2373">
       <c r="A2373" t="inlineStr">
         <is>
-          <t>06:10 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2373" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2373" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>30-Year Green Gilt Auction</t>
         </is>
       </c>
       <c r="D2373" t="inlineStr"/>
       <c r="E2373" t="inlineStr">
         <is>
-          <t>2.615%</t>
+          <t>4.831%</t>
         </is>
       </c>
       <c r="F2373" t="inlineStr"/>
@@ -76124,13 +76142,13 @@
       </c>
       <c r="C2374" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2374" t="inlineStr"/>
       <c r="E2374" t="inlineStr">
         <is>
-          <t>2.505%</t>
+          <t>2.615%</t>
         </is>
       </c>
       <c r="F2374" t="inlineStr"/>
@@ -76144,23 +76162,23 @@
     <row r="2375">
       <c r="A2375" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>06:10 AM</t>
         </is>
       </c>
       <c r="B2375" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C2375" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYJAN/24</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2375" t="inlineStr"/>
       <c r="E2375" t="inlineStr">
         <is>
-          <t>10.1%</t>
+          <t>2.505%</t>
         </is>
       </c>
       <c r="F2375" t="inlineStr"/>
@@ -76174,34 +76192,30 @@
     <row r="2376">
       <c r="A2376" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B2376" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2376" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>M3 Money Supply YoYJAN/24</t>
         </is>
       </c>
       <c r="D2376" t="inlineStr"/>
       <c r="E2376" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>10.1%</t>
         </is>
       </c>
       <c r="F2376" t="inlineStr"/>
-      <c r="G2376" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2376" t="inlineStr"/>
       <c r="H2376" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -76218,24 +76232,24 @@
       </c>
       <c r="C2377" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D2377" t="inlineStr"/>
       <c r="E2377" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F2377" t="inlineStr"/>
       <c r="G2377" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2377" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -76247,22 +76261,26 @@
       </c>
       <c r="B2378" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2378" t="inlineStr">
         <is>
-          <t>Gross Fixed Investment MoMNOV</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2378" t="inlineStr"/>
       <c r="E2378" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="F2378" t="inlineStr"/>
-      <c r="G2378" t="inlineStr"/>
+      <c r="G2378" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="H2378" t="inlineStr">
         <is>
           <t>3</t>
@@ -76282,13 +76300,13 @@
       </c>
       <c r="C2379" t="inlineStr">
         <is>
-          <t>Gross Fixed Investment YoYNOV</t>
+          <t>Gross Fixed Investment MoMNOV</t>
         </is>
       </c>
       <c r="D2379" t="inlineStr"/>
       <c r="E2379" t="inlineStr">
         <is>
-          <t>-2.6%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2379" t="inlineStr"/>
@@ -76307,21 +76325,25 @@
       </c>
       <c r="B2380" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2380" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/31</t>
+          <t>Gross Fixed Investment YoYNOV</t>
         </is>
       </c>
       <c r="D2380" t="inlineStr"/>
-      <c r="E2380" t="inlineStr"/>
+      <c r="E2380" t="inlineStr">
+        <is>
+          <t>-2.6%</t>
+        </is>
+      </c>
       <c r="F2380" t="inlineStr"/>
       <c r="G2380" t="inlineStr"/>
       <c r="H2380" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -76338,7 +76360,7 @@
       </c>
       <c r="C2381" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/31</t>
+          <t>MBA 30-Year Mortgage RateJAN/31</t>
         </is>
       </c>
       <c r="D2381" t="inlineStr"/>
@@ -76347,7 +76369,7 @@
       <c r="G2381" t="inlineStr"/>
       <c r="H2381" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -76364,7 +76386,7 @@
       </c>
       <c r="C2382" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/31</t>
+          <t>MBA Mortgage ApplicationsJAN/31</t>
         </is>
       </c>
       <c r="D2382" t="inlineStr"/>
@@ -76390,7 +76412,7 @@
       </c>
       <c r="C2383" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/31</t>
+          <t>MBA Mortgage Market IndexJAN/31</t>
         </is>
       </c>
       <c r="D2383" t="inlineStr"/>
@@ -76416,7 +76438,7 @@
       </c>
       <c r="C2384" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/31</t>
+          <t>MBA Mortgage Refinance IndexJAN/31</t>
         </is>
       </c>
       <c r="D2384" t="inlineStr"/>
@@ -76432,34 +76454,26 @@
     <row r="2385">
       <c r="A2385" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2385" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2385" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMIJAN</t>
+          <t>MBA Purchase IndexJAN/31</t>
         </is>
       </c>
       <c r="D2385" t="inlineStr"/>
-      <c r="E2385" t="inlineStr">
-        <is>
-          <t>51.6</t>
-        </is>
-      </c>
+      <c r="E2385" t="inlineStr"/>
       <c r="F2385" t="inlineStr"/>
-      <c r="G2385" t="inlineStr">
-        <is>
-          <t>50.2</t>
-        </is>
-      </c>
+      <c r="G2385" t="inlineStr"/>
       <c r="H2385" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -76476,88 +76490,88 @@
       </c>
       <c r="C2386" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMIJAN</t>
+          <t>S&amp;P Global Services PMIJAN</t>
         </is>
       </c>
       <c r="D2386" t="inlineStr"/>
       <c r="E2386" t="inlineStr">
         <is>
-          <t>51.5</t>
+          <t>51.6</t>
         </is>
       </c>
       <c r="F2386" t="inlineStr"/>
       <c r="G2386" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>50.2</t>
         </is>
       </c>
       <c r="H2386" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2387">
       <c r="A2387" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2387" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2387" t="inlineStr">
         <is>
-          <t>ADP Employment ChangeJAN</t>
+          <t>S&amp;P Global Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2387" t="inlineStr"/>
       <c r="E2387" t="inlineStr">
         <is>
-          <t>122K</t>
+          <t>51.5</t>
         </is>
       </c>
       <c r="F2387" t="inlineStr"/>
-      <c r="G2387" t="inlineStr"/>
+      <c r="G2387" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
       <c r="H2387" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2388">
       <c r="A2388" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B2388" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2388" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>ADP Employment ChangeJAN</t>
         </is>
       </c>
       <c r="D2388" t="inlineStr"/>
       <c r="E2388" t="inlineStr">
         <is>
-          <t>C$-0.32B</t>
+          <t>122K</t>
         </is>
       </c>
       <c r="F2388" t="inlineStr"/>
-      <c r="G2388" t="inlineStr">
-        <is>
-          <t>C$ -1.6B</t>
-        </is>
-      </c>
+      <c r="G2388" t="inlineStr"/>
       <c r="H2388" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -76574,24 +76588,24 @@
       </c>
       <c r="C2389" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2389" t="inlineStr"/>
       <c r="E2389" t="inlineStr">
         <is>
-          <t>C$66.11B</t>
+          <t>C$-0.32B</t>
         </is>
       </c>
       <c r="F2389" t="inlineStr"/>
       <c r="G2389" t="inlineStr">
         <is>
-          <t>C$ 65.8B</t>
+          <t>C$ -1.6B</t>
         </is>
       </c>
       <c r="H2389" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -76608,19 +76622,19 @@
       </c>
       <c r="C2390" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>ExportsDEC</t>
         </is>
       </c>
       <c r="D2390" t="inlineStr"/>
       <c r="E2390" t="inlineStr">
         <is>
-          <t>C$66.43B</t>
+          <t>C$66.11B</t>
         </is>
       </c>
       <c r="F2390" t="inlineStr"/>
       <c r="G2390" t="inlineStr">
         <is>
-          <t>C$ 64.5B</t>
+          <t>C$ 65.8B</t>
         </is>
       </c>
       <c r="H2390" t="inlineStr">
@@ -76637,29 +76651,29 @@
       </c>
       <c r="B2391" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2391" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>ImportsDEC</t>
         </is>
       </c>
       <c r="D2391" t="inlineStr"/>
       <c r="E2391" t="inlineStr">
         <is>
-          <t>$-78.2B</t>
+          <t>C$66.43B</t>
         </is>
       </c>
       <c r="F2391" t="inlineStr"/>
       <c r="G2391" t="inlineStr">
         <is>
-          <t>$ -68B</t>
+          <t>C$ 64.5B</t>
         </is>
       </c>
       <c r="H2391" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -76676,19 +76690,19 @@
       </c>
       <c r="C2392" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2392" t="inlineStr"/>
       <c r="E2392" t="inlineStr">
         <is>
-          <t>$273.4B</t>
+          <t>$-78.2B</t>
         </is>
       </c>
       <c r="F2392" t="inlineStr"/>
       <c r="G2392" t="inlineStr">
         <is>
-          <t>$ 275.0B</t>
+          <t>$ -68B</t>
         </is>
       </c>
       <c r="H2392" t="inlineStr">
@@ -76710,19 +76724,19 @@
       </c>
       <c r="C2393" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>ExportsDEC</t>
         </is>
       </c>
       <c r="D2393" t="inlineStr"/>
       <c r="E2393" t="inlineStr">
         <is>
-          <t>$351.6B</t>
+          <t>$273.4B</t>
         </is>
       </c>
       <c r="F2393" t="inlineStr"/>
       <c r="G2393" t="inlineStr">
         <is>
-          <t>$ 338B</t>
+          <t>$ 275.0B</t>
         </is>
       </c>
       <c r="H2393" t="inlineStr">
@@ -76744,47 +76758,47 @@
       </c>
       <c r="C2394" t="inlineStr">
         <is>
-          <t>Treasury Refunding Announcement</t>
+          <t>ImportsDEC</t>
         </is>
       </c>
       <c r="D2394" t="inlineStr"/>
-      <c r="E2394" t="inlineStr"/>
+      <c r="E2394" t="inlineStr">
+        <is>
+          <t>$351.6B</t>
+        </is>
+      </c>
       <c r="F2394" t="inlineStr"/>
-      <c r="G2394" t="inlineStr"/>
+      <c r="G2394" t="inlineStr">
+        <is>
+          <t>$ 338B</t>
+        </is>
+      </c>
       <c r="H2394" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2395">
       <c r="A2395" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2395" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2395" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMIJAN</t>
+          <t>Treasury Refunding Announcement</t>
         </is>
       </c>
       <c r="D2395" t="inlineStr"/>
-      <c r="E2395" t="inlineStr">
-        <is>
-          <t>49.0</t>
-        </is>
-      </c>
+      <c r="E2395" t="inlineStr"/>
       <c r="F2395" t="inlineStr"/>
-      <c r="G2395" t="inlineStr">
-        <is>
-          <t>48.5</t>
-        </is>
-      </c>
+      <c r="G2395" t="inlineStr"/>
       <c r="H2395" t="inlineStr">
         <is>
           <t>3</t>
@@ -76804,19 +76818,19 @@
       </c>
       <c r="C2396" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMIJAN</t>
+          <t>S&amp;P Global Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2396" t="inlineStr"/>
       <c r="E2396" t="inlineStr">
         <is>
-          <t>48.2</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="F2396" t="inlineStr"/>
       <c r="G2396" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>48.5</t>
         </is>
       </c>
       <c r="H2396" t="inlineStr">
@@ -76828,38 +76842,34 @@
     <row r="2397">
       <c r="A2397" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2397" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2397" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FinalJAN</t>
+          <t>S&amp;P Global Services PMIJAN</t>
         </is>
       </c>
       <c r="D2397" t="inlineStr"/>
       <c r="E2397" t="inlineStr">
         <is>
-          <t>55.4</t>
-        </is>
-      </c>
-      <c r="F2397" t="inlineStr">
-        <is>
-          <t>52.4</t>
-        </is>
-      </c>
+          <t>48.2</t>
+        </is>
+      </c>
+      <c r="F2397" t="inlineStr"/>
       <c r="G2397" t="inlineStr">
         <is>
-          <t>52.4</t>
+          <t>49</t>
         </is>
       </c>
       <c r="H2397" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -76876,23 +76886,23 @@
       </c>
       <c r="C2398" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FinalJAN</t>
+          <t>S&amp;P Global Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2398" t="inlineStr"/>
       <c r="E2398" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>55.4</t>
         </is>
       </c>
       <c r="F2398" t="inlineStr">
         <is>
-          <t>52.8</t>
+          <t>52.4</t>
         </is>
       </c>
       <c r="G2398" t="inlineStr">
         <is>
-          <t>52.8</t>
+          <t>52.4</t>
         </is>
       </c>
       <c r="H2398" t="inlineStr">
@@ -76904,7 +76914,7 @@
     <row r="2399">
       <c r="A2399" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B2399" t="inlineStr">
@@ -76914,16 +76924,28 @@
       </c>
       <c r="C2399" t="inlineStr">
         <is>
-          <t>ISM Services PMIJAN</t>
+          <t>S&amp;P Global Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2399" t="inlineStr"/>
-      <c r="E2399" t="inlineStr"/>
-      <c r="F2399" t="inlineStr"/>
-      <c r="G2399" t="inlineStr"/>
+      <c r="E2399" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
+      <c r="F2399" t="inlineStr">
+        <is>
+          <t>52.8</t>
+        </is>
+      </c>
+      <c r="G2399" t="inlineStr">
+        <is>
+          <t>52.8</t>
+        </is>
+      </c>
       <c r="H2399" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -76940,20 +76962,16 @@
       </c>
       <c r="C2400" t="inlineStr">
         <is>
-          <t>ISM Services Business ActivityJAN</t>
+          <t>ISM Services PMIJAN</t>
         </is>
       </c>
       <c r="D2400" t="inlineStr"/>
-      <c r="E2400" t="inlineStr">
-        <is>
-          <t>58.2</t>
-        </is>
-      </c>
+      <c r="E2400" t="inlineStr"/>
       <c r="F2400" t="inlineStr"/>
       <c r="G2400" t="inlineStr"/>
       <c r="H2400" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -76970,13 +76988,13 @@
       </c>
       <c r="C2401" t="inlineStr">
         <is>
-          <t>ISM Services EmploymentJAN</t>
+          <t>ISM Services Business ActivityJAN</t>
         </is>
       </c>
       <c r="D2401" t="inlineStr"/>
       <c r="E2401" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>58.2</t>
         </is>
       </c>
       <c r="F2401" t="inlineStr"/>
@@ -77000,13 +77018,13 @@
       </c>
       <c r="C2402" t="inlineStr">
         <is>
-          <t>ISM Services New OrdersJAN</t>
+          <t>ISM Services EmploymentJAN</t>
         </is>
       </c>
       <c r="D2402" t="inlineStr"/>
       <c r="E2402" t="inlineStr">
         <is>
-          <t>54.2</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="F2402" t="inlineStr"/>
@@ -77030,13 +77048,13 @@
       </c>
       <c r="C2403" t="inlineStr">
         <is>
-          <t>ISM Services PricesJAN</t>
+          <t>ISM Services New OrdersJAN</t>
         </is>
       </c>
       <c r="D2403" t="inlineStr"/>
       <c r="E2403" t="inlineStr">
         <is>
-          <t>64.4</t>
+          <t>54.2</t>
         </is>
       </c>
       <c r="F2403" t="inlineStr"/>
@@ -77050,7 +77068,7 @@
     <row r="2404">
       <c r="A2404" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2404" t="inlineStr">
@@ -77060,16 +77078,20 @@
       </c>
       <c r="C2404" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/31</t>
+          <t>ISM Services PricesJAN</t>
         </is>
       </c>
       <c r="D2404" t="inlineStr"/>
-      <c r="E2404" t="inlineStr"/>
+      <c r="E2404" t="inlineStr">
+        <is>
+          <t>64.4</t>
+        </is>
+      </c>
       <c r="F2404" t="inlineStr"/>
       <c r="G2404" t="inlineStr"/>
       <c r="H2404" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -77086,7 +77108,7 @@
       </c>
       <c r="C2405" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJAN/31</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2405" t="inlineStr"/>
@@ -77112,7 +77134,7 @@
       </c>
       <c r="C2406" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJAN/31</t>
+          <t>EIA Gasoline Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2406" t="inlineStr"/>
@@ -77121,7 +77143,7 @@
       <c r="G2406" t="inlineStr"/>
       <c r="H2406" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -77138,7 +77160,7 @@
       </c>
       <c r="C2407" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/31</t>
+          <t>EIA Crude Oil Imports ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2407" t="inlineStr"/>
@@ -77164,7 +77186,7 @@
       </c>
       <c r="C2408" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/31</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2408" t="inlineStr"/>
@@ -77190,7 +77212,7 @@
       </c>
       <c r="C2409" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJAN/31</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2409" t="inlineStr"/>
@@ -77216,7 +77238,7 @@
       </c>
       <c r="C2410" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJAN/31</t>
+          <t>EIA Distillate Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2410" t="inlineStr"/>
@@ -77242,7 +77264,7 @@
       </c>
       <c r="C2411" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/31</t>
+          <t>EIA Gasoline Production ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2411" t="inlineStr"/>
@@ -77268,7 +77290,7 @@
       </c>
       <c r="C2412" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/31</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2412" t="inlineStr"/>
@@ -77284,30 +77306,26 @@
     <row r="2413">
       <c r="A2413" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2413" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2413" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2413" t="inlineStr"/>
       <c r="E2413" t="inlineStr"/>
       <c r="F2413" t="inlineStr"/>
-      <c r="G2413" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
+      <c r="G2413" t="inlineStr"/>
       <c r="H2413" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -77324,16 +77342,20 @@
       </c>
       <c r="C2414" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D2414" t="inlineStr"/>
       <c r="E2414" t="inlineStr"/>
       <c r="F2414" t="inlineStr"/>
-      <c r="G2414" t="inlineStr"/>
+      <c r="G2414" t="inlineStr">
+        <is>
+          <t>2.40%</t>
+        </is>
+      </c>
       <c r="H2414" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -77350,7 +77372,7 @@
       </c>
       <c r="C2415" t="inlineStr">
         <is>
-          <t>Corporate ProfitsNOV</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2415" t="inlineStr"/>
@@ -77376,21 +77398,13 @@
       </c>
       <c r="C2416" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Corporate ProfitsNOV</t>
         </is>
       </c>
       <c r="D2416" t="inlineStr"/>
-      <c r="E2416" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
+      <c r="E2416" t="inlineStr"/>
       <c r="F2416" t="inlineStr"/>
-      <c r="G2416" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
+      <c r="G2416" t="inlineStr"/>
       <c r="H2416" t="inlineStr">
         <is>
           <t>3</t>
@@ -77410,13 +77424,21 @@
       </c>
       <c r="C2417" t="inlineStr">
         <is>
-          <t>Real Wage Growth YoYNOV</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2417" t="inlineStr"/>
-      <c r="E2417" t="inlineStr"/>
+      <c r="E2417" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="F2417" t="inlineStr"/>
-      <c r="G2417" t="inlineStr"/>
+      <c r="G2417" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
       <c r="H2417" t="inlineStr">
         <is>
           <t>3</t>
@@ -77436,17 +77458,13 @@
       </c>
       <c r="C2418" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Real Wage Growth YoYNOV</t>
         </is>
       </c>
       <c r="D2418" t="inlineStr"/>
       <c r="E2418" t="inlineStr"/>
       <c r="F2418" t="inlineStr"/>
-      <c r="G2418" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
+      <c r="G2418" t="inlineStr"/>
       <c r="H2418" t="inlineStr">
         <is>
           <t>3</t>
@@ -77456,23 +77474,27 @@
     <row r="2419">
       <c r="A2419" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2419" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2419" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2419" t="inlineStr"/>
       <c r="E2419" t="inlineStr"/>
       <c r="F2419" t="inlineStr"/>
-      <c r="G2419" t="inlineStr"/>
+      <c r="G2419" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
       <c r="H2419" t="inlineStr">
         <is>
           <t>3</t>
@@ -77482,17 +77504,17 @@
     <row r="2420">
       <c r="A2420" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2420" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2420" t="inlineStr">
         <is>
-          <t>2-Year Bond Auction</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2420" t="inlineStr"/>
@@ -77508,17 +77530,17 @@
     <row r="2421">
       <c r="A2421" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B2421" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2421" t="inlineStr">
         <is>
-          <t>Fed Goolsbee Speech</t>
+          <t>2-Year Bond Auction</t>
         </is>
       </c>
       <c r="D2421" t="inlineStr"/>
@@ -77527,38 +77549,30 @@
       <c r="G2421" t="inlineStr"/>
       <c r="H2421" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2422">
       <c r="A2422" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2422" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2422" t="inlineStr">
         <is>
-          <t>Ai Group Industry IndexJAN</t>
+          <t>Fed Goolsbee Speech</t>
         </is>
       </c>
       <c r="D2422" t="inlineStr"/>
-      <c r="E2422" t="inlineStr">
-        <is>
-          <t>-10.8</t>
-        </is>
-      </c>
+      <c r="E2422" t="inlineStr"/>
       <c r="F2422" t="inlineStr"/>
-      <c r="G2422" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
+      <c r="G2422" t="inlineStr"/>
       <c r="H2422" t="inlineStr">
         <is>
           <t>2</t>
@@ -77578,24 +77592,24 @@
       </c>
       <c r="C2423" t="inlineStr">
         <is>
-          <t>Ai Group Construction IndexJAN</t>
+          <t>Ai Group Industry IndexJAN</t>
         </is>
       </c>
       <c r="D2423" t="inlineStr"/>
       <c r="E2423" t="inlineStr">
         <is>
-          <t>-19.0</t>
+          <t>-10.8</t>
         </is>
       </c>
       <c r="F2423" t="inlineStr"/>
       <c r="G2423" t="inlineStr">
         <is>
-          <t>-25</t>
+          <t>-15</t>
         </is>
       </c>
       <c r="H2423" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -77612,19 +77626,19 @@
       </c>
       <c r="C2424" t="inlineStr">
         <is>
-          <t>Ai Group Manufacturing IndexJAN</t>
+          <t>Ai Group Construction IndexJAN</t>
         </is>
       </c>
       <c r="D2424" t="inlineStr"/>
       <c r="E2424" t="inlineStr">
         <is>
-          <t>-17.9</t>
+          <t>-19.0</t>
         </is>
       </c>
       <c r="F2424" t="inlineStr"/>
       <c r="G2424" t="inlineStr">
         <is>
-          <t>-13</t>
+          <t>-25</t>
         </is>
       </c>
       <c r="H2424" t="inlineStr">
@@ -77636,25 +77650,29 @@
     <row r="2425">
       <c r="A2425" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2425" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2425" t="inlineStr">
         <is>
-          <t>Current AccountDEC</t>
+          <t>Ai Group Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D2425" t="inlineStr"/>
-      <c r="E2425" t="inlineStr"/>
+      <c r="E2425" t="inlineStr">
+        <is>
+          <t>-17.9</t>
+        </is>
+      </c>
       <c r="F2425" t="inlineStr"/>
       <c r="G2425" t="inlineStr">
         <is>
-          <t>$ 8.1B</t>
+          <t>-13</t>
         </is>
       </c>
       <c r="H2425" t="inlineStr">
@@ -77666,23 +77684,27 @@
     <row r="2426">
       <c r="A2426" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2426" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2426" t="inlineStr">
         <is>
-          <t>Overtime Pay YoYDEC</t>
+          <t>Current AccountDEC</t>
         </is>
       </c>
       <c r="D2426" t="inlineStr"/>
       <c r="E2426" t="inlineStr"/>
       <c r="F2426" t="inlineStr"/>
-      <c r="G2426" t="inlineStr"/>
+      <c r="G2426" t="inlineStr">
+        <is>
+          <t>$ 8.1B</t>
+        </is>
+      </c>
       <c r="H2426" t="inlineStr">
         <is>
           <t>3</t>
@@ -77692,7 +77714,7 @@
     <row r="2427">
       <c r="A2427" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2427" t="inlineStr">
@@ -77702,7 +77724,7 @@
       </c>
       <c r="C2427" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentFEB/01</t>
+          <t>Overtime Pay YoYDEC</t>
         </is>
       </c>
       <c r="D2427" t="inlineStr"/>
@@ -77728,7 +77750,7 @@
       </c>
       <c r="C2428" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersFEB/01</t>
+          <t>Foreign Bond InvestmentFEB/01</t>
         </is>
       </c>
       <c r="D2428" t="inlineStr"/>
@@ -77744,34 +77766,26 @@
     <row r="2429">
       <c r="A2429" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B2429" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2429" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Stock Investment by ForeignersFEB/01</t>
         </is>
       </c>
       <c r="D2429" t="inlineStr"/>
-      <c r="E2429" t="inlineStr">
-        <is>
-          <t>A$7.079B</t>
-        </is>
-      </c>
+      <c r="E2429" t="inlineStr"/>
       <c r="F2429" t="inlineStr"/>
-      <c r="G2429" t="inlineStr">
-        <is>
-          <t>A$ 3.2B</t>
-        </is>
-      </c>
+      <c r="G2429" t="inlineStr"/>
       <c r="H2429" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -77788,20 +77802,24 @@
       </c>
       <c r="C2430" t="inlineStr">
         <is>
-          <t>Exports MoMDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2430" t="inlineStr"/>
       <c r="E2430" t="inlineStr">
         <is>
-          <t>4.8%</t>
+          <t>A$7.079B</t>
         </is>
       </c>
       <c r="F2430" t="inlineStr"/>
-      <c r="G2430" t="inlineStr"/>
+      <c r="G2430" t="inlineStr">
+        <is>
+          <t>A$ 3.2B</t>
+        </is>
+      </c>
       <c r="H2430" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -77818,13 +77836,13 @@
       </c>
       <c r="C2431" t="inlineStr">
         <is>
-          <t>Imports MoMDEC</t>
+          <t>Exports MoMDEC</t>
         </is>
       </c>
       <c r="D2431" t="inlineStr"/>
       <c r="E2431" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="F2431" t="inlineStr"/>
@@ -77838,23 +77856,23 @@
     <row r="2432">
       <c r="A2432" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2432" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2432" t="inlineStr">
         <is>
-          <t>30-Year JGB Auction</t>
+          <t>Imports MoMDEC</t>
         </is>
       </c>
       <c r="D2432" t="inlineStr"/>
       <c r="E2432" t="inlineStr">
         <is>
-          <t>2.304%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="F2432" t="inlineStr"/>
@@ -77878,13 +77896,13 @@
       </c>
       <c r="C2433" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>30-Year JGB Auction</t>
         </is>
       </c>
       <c r="D2433" t="inlineStr"/>
       <c r="E2433" t="inlineStr">
         <is>
-          <t>0.3535%</t>
+          <t>2.304%</t>
         </is>
       </c>
       <c r="F2433" t="inlineStr"/>
@@ -77896,21 +77914,25 @@
       </c>
     </row>
     <row r="2434">
-      <c r="A2434" t="inlineStr"/>
+      <c r="A2434" t="inlineStr">
+        <is>
+          <t>10:35 PM</t>
+        </is>
+      </c>
       <c r="B2434" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2434" t="inlineStr">
         <is>
-          <t>Total Vehicle SalesJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2434" t="inlineStr"/>
       <c r="E2434" t="inlineStr">
         <is>
-          <t>16.8M</t>
+          <t>0.3535%</t>
         </is>
       </c>
       <c r="F2434" t="inlineStr"/>
@@ -77922,80 +77944,76 @@
       </c>
     </row>
     <row r="2435">
-      <c r="A2435" t="inlineStr">
-        <is>
-          <t>Thursday February 06 2025</t>
-        </is>
-      </c>
-      <c r="B2435" t="inlineStr"/>
-      <c r="C2435" t="inlineStr"/>
+      <c r="A2435" t="inlineStr"/>
+      <c r="B2435" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2435" t="inlineStr">
+        <is>
+          <t>Total Vehicle SalesJAN</t>
+        </is>
+      </c>
       <c r="D2435" t="inlineStr"/>
-      <c r="E2435" t="inlineStr"/>
+      <c r="E2435" t="inlineStr">
+        <is>
+          <t>16.8M</t>
+        </is>
+      </c>
       <c r="F2435" t="inlineStr"/>
       <c r="G2435" t="inlineStr"/>
-      <c r="H2435" t="inlineStr"/>
+      <c r="H2435" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2436">
       <c r="A2436" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B2436" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C2436" t="inlineStr">
-        <is>
-          <t>Factory Orders MoMDEC</t>
-        </is>
-      </c>
+          <t>Thursday February 06 2025</t>
+        </is>
+      </c>
+      <c r="B2436" t="inlineStr"/>
+      <c r="C2436" t="inlineStr"/>
       <c r="D2436" t="inlineStr"/>
-      <c r="E2436" t="inlineStr">
-        <is>
-          <t>-5.4%</t>
-        </is>
-      </c>
+      <c r="E2436" t="inlineStr"/>
       <c r="F2436" t="inlineStr"/>
-      <c r="G2436" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H2436" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G2436" t="inlineStr"/>
+      <c r="H2436" t="inlineStr"/>
     </row>
     <row r="2437">
       <c r="A2437" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2437" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2437" t="inlineStr">
         <is>
-          <t>HCOB Construction PMIJAN</t>
+          <t>Factory Orders MoMDEC</t>
         </is>
       </c>
       <c r="D2437" t="inlineStr"/>
       <c r="E2437" t="inlineStr">
         <is>
-          <t>42.9</t>
+          <t>-5.4%</t>
         </is>
       </c>
       <c r="F2437" t="inlineStr"/>
-      <c r="G2437" t="inlineStr"/>
+      <c r="G2437" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2437" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -78007,7 +78025,7 @@
       </c>
       <c r="B2438" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2438" t="inlineStr">
@@ -78018,7 +78036,7 @@
       <c r="D2438" t="inlineStr"/>
       <c r="E2438" t="inlineStr">
         <is>
-          <t>42.6</t>
+          <t>42.9</t>
         </is>
       </c>
       <c r="F2438" t="inlineStr"/>
@@ -78037,7 +78055,7 @@
       </c>
       <c r="B2439" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2439" t="inlineStr">
@@ -78048,14 +78066,14 @@
       <c r="D2439" t="inlineStr"/>
       <c r="E2439" t="inlineStr">
         <is>
-          <t>37.8</t>
+          <t>42.6</t>
         </is>
       </c>
       <c r="F2439" t="inlineStr"/>
       <c r="G2439" t="inlineStr"/>
       <c r="H2439" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -78067,7 +78085,7 @@
       </c>
       <c r="B2440" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2440" t="inlineStr">
@@ -78078,77 +78096,73 @@
       <c r="D2440" t="inlineStr"/>
       <c r="E2440" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>37.8</t>
         </is>
       </c>
       <c r="F2440" t="inlineStr"/>
       <c r="G2440" t="inlineStr"/>
       <c r="H2440" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2441">
       <c r="A2441" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2441" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2441" t="inlineStr">
         <is>
-          <t>S&amp;P Global Construction PMIJAN</t>
+          <t>HCOB Construction PMIJAN</t>
         </is>
       </c>
       <c r="D2441" t="inlineStr"/>
       <c r="E2441" t="inlineStr">
         <is>
-          <t>53.3</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F2441" t="inlineStr"/>
-      <c r="G2441" t="inlineStr">
-        <is>
-          <t>53.5</t>
-        </is>
-      </c>
+      <c r="G2441" t="inlineStr"/>
       <c r="H2441" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2442">
       <c r="A2442" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2442" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2442" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>S&amp;P Global Construction PMIJAN</t>
         </is>
       </c>
       <c r="D2442" t="inlineStr"/>
       <c r="E2442" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="F2442" t="inlineStr"/>
       <c r="G2442" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>53.5</t>
         </is>
       </c>
       <c r="H2442" t="inlineStr">
@@ -78170,19 +78184,19 @@
       </c>
       <c r="C2443" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2443" t="inlineStr"/>
       <c r="E2443" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2443" t="inlineStr"/>
       <c r="G2443" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2443" t="inlineStr">
@@ -78199,42 +78213,50 @@
       </c>
       <c r="B2444" t="inlineStr">
         <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C2444" t="inlineStr">
+        <is>
+          <t>Retail Sales YoYDEC</t>
+        </is>
+      </c>
+      <c r="D2444" t="inlineStr"/>
+      <c r="E2444" t="inlineStr">
+        <is>
+          <t>1.2%</t>
+        </is>
+      </c>
+      <c r="F2444" t="inlineStr"/>
+      <c r="G2444" t="inlineStr">
+        <is>
+          <t>1.7%</t>
+        </is>
+      </c>
+      <c r="H2444" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2445">
+      <c r="A2445" t="inlineStr">
+        <is>
+          <t>05:00 AM</t>
+        </is>
+      </c>
+      <c r="B2445" t="inlineStr">
+        <is>
           <t>FR</t>
         </is>
       </c>
-      <c r="C2444" t="inlineStr">
+      <c r="C2445" t="inlineStr">
         <is>
           <t>OAT Auction</t>
         </is>
       </c>
-      <c r="D2444" t="inlineStr"/>
-      <c r="E2444" t="inlineStr"/>
-      <c r="F2444" t="inlineStr"/>
-      <c r="G2444" t="inlineStr"/>
-      <c r="H2444" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2445">
-      <c r="A2445" t="inlineStr"/>
-      <c r="B2445" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C2445" t="inlineStr">
-        <is>
-          <t>New Car Registrations YoYJAN</t>
-        </is>
-      </c>
       <c r="D2445" t="inlineStr"/>
-      <c r="E2445" t="inlineStr">
-        <is>
-          <t>-7.1%</t>
-        </is>
-      </c>
+      <c r="E2445" t="inlineStr"/>
       <c r="F2445" t="inlineStr"/>
       <c r="G2445" t="inlineStr"/>
       <c r="H2445" t="inlineStr">
@@ -78244,15 +78266,19 @@
       </c>
     </row>
     <row r="2446">
-      <c r="A2446" t="inlineStr"/>
+      <c r="A2446" t="inlineStr">
+        <is>
+          <t>06:30 AM</t>
+        </is>
+      </c>
       <c r="B2446" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2446" t="inlineStr">
         <is>
-          <t>Vehicle Sales YoYJAN</t>
+          <t>Foreign Exchange ReservesJAN/31</t>
         </is>
       </c>
       <c r="D2446" t="inlineStr"/>
@@ -78265,6 +78291,252 @@
         </is>
       </c>
     </row>
+    <row r="2447">
+      <c r="A2447" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="B2447" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="C2447" t="inlineStr">
+        <is>
+          <t>Consumer ConfidenceJAN</t>
+        </is>
+      </c>
+      <c r="D2447" t="inlineStr"/>
+      <c r="E2447" t="inlineStr">
+        <is>
+          <t>47.1</t>
+        </is>
+      </c>
+      <c r="F2447" t="inlineStr"/>
+      <c r="G2447" t="inlineStr"/>
+      <c r="H2447" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2448">
+      <c r="A2448" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="B2448" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C2448" t="inlineStr">
+        <is>
+          <t>BoE Interest Rate Decision</t>
+        </is>
+      </c>
+      <c r="D2448" t="inlineStr"/>
+      <c r="E2448" t="inlineStr">
+        <is>
+          <t>4.75%</t>
+        </is>
+      </c>
+      <c r="F2448" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
+      <c r="G2448" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
+      <c r="H2448" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2449">
+      <c r="A2449" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="B2449" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C2449" t="inlineStr">
+        <is>
+          <t>BoE Monetary Policy Report</t>
+        </is>
+      </c>
+      <c r="D2449" t="inlineStr"/>
+      <c r="E2449" t="inlineStr"/>
+      <c r="F2449" t="inlineStr"/>
+      <c r="G2449" t="inlineStr"/>
+      <c r="H2449" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2450">
+      <c r="A2450" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="B2450" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C2450" t="inlineStr">
+        <is>
+          <t>BoE MPC Vote Cut</t>
+        </is>
+      </c>
+      <c r="D2450" t="inlineStr"/>
+      <c r="E2450" t="inlineStr"/>
+      <c r="F2450" t="inlineStr"/>
+      <c r="G2450" t="inlineStr"/>
+      <c r="H2450" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2451">
+      <c r="A2451" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="B2451" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C2451" t="inlineStr">
+        <is>
+          <t>BoE MPC Vote Hike</t>
+        </is>
+      </c>
+      <c r="D2451" t="inlineStr"/>
+      <c r="E2451" t="inlineStr"/>
+      <c r="F2451" t="inlineStr"/>
+      <c r="G2451" t="inlineStr"/>
+      <c r="H2451" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2452">
+      <c r="A2452" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="B2452" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C2452" t="inlineStr">
+        <is>
+          <t>BoE MPC Vote Unchanged</t>
+        </is>
+      </c>
+      <c r="D2452" t="inlineStr"/>
+      <c r="E2452" t="inlineStr"/>
+      <c r="F2452" t="inlineStr"/>
+      <c r="G2452" t="inlineStr"/>
+      <c r="H2452" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2453">
+      <c r="A2453" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="B2453" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C2453" t="inlineStr">
+        <is>
+          <t>MPC Meeting Minutes</t>
+        </is>
+      </c>
+      <c r="D2453" t="inlineStr"/>
+      <c r="E2453" t="inlineStr"/>
+      <c r="F2453" t="inlineStr"/>
+      <c r="G2453" t="inlineStr"/>
+      <c r="H2453" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2454">
+      <c r="A2454" t="inlineStr"/>
+      <c r="B2454" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C2454" t="inlineStr">
+        <is>
+          <t>New Car Registrations YoYJAN</t>
+        </is>
+      </c>
+      <c r="D2454" t="inlineStr"/>
+      <c r="E2454" t="inlineStr">
+        <is>
+          <t>-7.1%</t>
+        </is>
+      </c>
+      <c r="F2454" t="inlineStr"/>
+      <c r="G2454" t="inlineStr"/>
+      <c r="H2454" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2455">
+      <c r="A2455" t="inlineStr"/>
+      <c r="B2455" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+      <c r="C2455" t="inlineStr">
+        <is>
+          <t>Vehicle Sales YoYJAN</t>
+        </is>
+      </c>
+      <c r="D2455" t="inlineStr"/>
+      <c r="E2455" t="inlineStr"/>
+      <c r="F2455" t="inlineStr"/>
+      <c r="G2455" t="inlineStr"/>
+      <c r="H2455" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-06.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2467"/>
+  <dimension ref="A1:H2449"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70389,10 +70389,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2187" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2187" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2188">
@@ -70419,10 +70417,8 @@
       </c>
       <c r="F2188" t="inlineStr"/>
       <c r="G2188" t="inlineStr"/>
-      <c r="H2188" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2188" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2189">
@@ -70457,10 +70453,8 @@
           <t>7.0K</t>
         </is>
       </c>
-      <c r="H2189" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2189" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2190">
@@ -70491,10 +70485,8 @@
           <t>2.876M</t>
         </is>
       </c>
-      <c r="H2190" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2190" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2191">
@@ -70529,10 +70521,8 @@
           <t>6.2%</t>
         </is>
       </c>
-      <c r="H2191" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2191" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2192">
@@ -70555,10 +70545,8 @@
       <c r="E2192" t="inlineStr"/>
       <c r="F2192" t="inlineStr"/>
       <c r="G2192" t="inlineStr"/>
-      <c r="H2192" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2192" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2193">
@@ -70585,10 +70573,8 @@
       </c>
       <c r="F2193" t="inlineStr"/>
       <c r="G2193" t="inlineStr"/>
-      <c r="H2193" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2193" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2194">
@@ -70615,10 +70601,8 @@
       </c>
       <c r="F2194" t="inlineStr"/>
       <c r="G2194" t="inlineStr"/>
-      <c r="H2194" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2194" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2195">
@@ -70645,10 +70629,8 @@
       </c>
       <c r="F2195" t="inlineStr"/>
       <c r="G2195" t="inlineStr"/>
-      <c r="H2195" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2195" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2196">
@@ -70675,10 +70657,8 @@
       </c>
       <c r="F2196" t="inlineStr"/>
       <c r="G2196" t="inlineStr"/>
-      <c r="H2196" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2196" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2197">
@@ -70705,10 +70685,8 @@
       </c>
       <c r="F2197" t="inlineStr"/>
       <c r="G2197" t="inlineStr"/>
-      <c r="H2197" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2197" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2198">
@@ -70735,10 +70713,8 @@
       </c>
       <c r="F2198" t="inlineStr"/>
       <c r="G2198" t="inlineStr"/>
-      <c r="H2198" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2198" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2199">
@@ -70765,10 +70741,8 @@
       </c>
       <c r="F2199" t="inlineStr"/>
       <c r="G2199" t="inlineStr"/>
-      <c r="H2199" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2199" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2200">
@@ -70795,10 +70769,8 @@
       </c>
       <c r="F2200" t="inlineStr"/>
       <c r="G2200" t="inlineStr"/>
-      <c r="H2200" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2200" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2201">
@@ -70825,10 +70797,8 @@
       </c>
       <c r="F2201" t="inlineStr"/>
       <c r="G2201" t="inlineStr"/>
-      <c r="H2201" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2201" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2202">
@@ -70855,10 +70825,8 @@
       </c>
       <c r="F2202" t="inlineStr"/>
       <c r="G2202" t="inlineStr"/>
-      <c r="H2202" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2202" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2203">
@@ -70885,10 +70853,8 @@
       </c>
       <c r="F2203" t="inlineStr"/>
       <c r="G2203" t="inlineStr"/>
-      <c r="H2203" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2203" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2204">
@@ -70915,10 +70881,8 @@
       </c>
       <c r="F2204" t="inlineStr"/>
       <c r="G2204" t="inlineStr"/>
-      <c r="H2204" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2204" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2205">
@@ -70949,10 +70913,8 @@
           <t>€5.0B</t>
         </is>
       </c>
-      <c r="H2205" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2205" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2206">
@@ -70983,10 +70945,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2206" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2206" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2207">
@@ -71017,10 +70977,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2207" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2207" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2208">
@@ -71051,10 +71009,8 @@
           <t>INR-9700.0B</t>
         </is>
       </c>
-      <c r="H2208" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2208" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2209">
@@ -71085,10 +71041,8 @@
           <t>77.9%</t>
         </is>
       </c>
-      <c r="H2209" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2209" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2210">
@@ -71123,10 +71077,8 @@
           <t>BRL-75.0B</t>
         </is>
       </c>
-      <c r="H2210" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2210" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2211">
@@ -71153,10 +71105,8 @@
       </c>
       <c r="F2211" t="inlineStr"/>
       <c r="G2211" t="inlineStr"/>
-      <c r="H2211" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2211" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2212">
@@ -71183,10 +71133,8 @@
       </c>
       <c r="F2212" t="inlineStr"/>
       <c r="G2212" t="inlineStr"/>
-      <c r="H2212" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2212" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2213">
@@ -71213,10 +71161,8 @@
       </c>
       <c r="F2213" t="inlineStr"/>
       <c r="G2213" t="inlineStr"/>
-      <c r="H2213" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2213" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2214">
@@ -71247,10 +71193,8 @@
           <t>4.8%</t>
         </is>
       </c>
-      <c r="H2214" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2214" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2215">
@@ -71285,10 +71229,8 @@
           <t>6.1%</t>
         </is>
       </c>
-      <c r="H2215" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2215" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2216">
@@ -71319,10 +71261,8 @@
           <t>ZAR 27.0B</t>
         </is>
       </c>
-      <c r="H2216" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2216" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2217">
@@ -71357,10 +71297,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2217" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2217" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2218">
@@ -71395,10 +71333,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2218" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2218" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2219">
@@ -71433,10 +71369,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2219" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2219" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2220">
@@ -71471,10 +71405,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2220" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2220" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2221">
@@ -71509,10 +71441,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2221" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2221" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2222">
@@ -71543,10 +71473,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2222" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2222" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2223">
@@ -71581,10 +71509,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2223" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2223" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2224">
@@ -71619,10 +71545,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2224" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2224" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2225">
@@ -71657,10 +71581,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2225" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2225" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2226">
@@ -71691,10 +71613,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2226" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2226" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2227">
@@ -71725,10 +71645,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2227" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2227" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2228">
@@ -71763,10 +71681,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2228" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2228" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2229">
@@ -71789,10 +71705,8 @@
       <c r="E2229" t="inlineStr"/>
       <c r="F2229" t="inlineStr"/>
       <c r="G2229" t="inlineStr"/>
-      <c r="H2229" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2229" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2230">
@@ -71827,10 +71741,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2230" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2230" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2231">
@@ -71865,10 +71777,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2231" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2231" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2232">
@@ -71903,10 +71813,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H2232" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2232" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2233">
@@ -71941,10 +71849,8 @@
           <t>37.2</t>
         </is>
       </c>
-      <c r="H2233" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2233" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2234">
@@ -71975,10 +71881,8 @@
           <t>C$-1.9B</t>
         </is>
       </c>
-      <c r="H2234" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2234" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2235">
@@ -72005,10 +71909,8 @@
       </c>
       <c r="F2235" t="inlineStr"/>
       <c r="G2235" t="inlineStr"/>
-      <c r="H2235" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2235" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2236">
@@ -72035,10 +71937,8 @@
       </c>
       <c r="F2236" t="inlineStr"/>
       <c r="G2236" t="inlineStr"/>
-      <c r="H2236" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2236" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2237">
@@ -72069,10 +71969,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2237" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2237" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2238">
@@ -72103,10 +72001,8 @@
           <t>$0.9B</t>
         </is>
       </c>
-      <c r="H2238" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2238" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2239">
@@ -72137,10 +72033,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H2239" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2239" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2240">
@@ -72167,10 +72061,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2240" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2240" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2241">
@@ -72197,10 +72089,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2241" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2241" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2242">
@@ -72227,10 +72117,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H2242" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2242" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2243">
@@ -72257,10 +72145,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H2243" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2243" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2244">
@@ -72287,10 +72173,8 @@
           <t>20.7%</t>
         </is>
       </c>
-      <c r="H2244" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2244" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2245">
@@ -72331,10 +72215,8 @@
       </c>
       <c r="F2246" t="inlineStr"/>
       <c r="G2246" t="inlineStr"/>
-      <c r="H2246" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2246" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2247">
@@ -72365,10 +72247,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2247" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2247" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2248">
@@ -72399,10 +72279,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H2248" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2248" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2249">
@@ -72433,10 +72311,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2249" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2249" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2250">
@@ -72459,10 +72335,8 @@
       <c r="E2250" t="inlineStr"/>
       <c r="F2250" t="inlineStr"/>
       <c r="G2250" t="inlineStr"/>
-      <c r="H2250" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2250" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2251">
@@ -72493,10 +72367,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H2251" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2251" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2252">
@@ -72527,10 +72399,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2252" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2252" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2253">
@@ -72557,10 +72427,8 @@
       </c>
       <c r="F2253" t="inlineStr"/>
       <c r="G2253" t="inlineStr"/>
-      <c r="H2253" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2253" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2254">
@@ -72587,10 +72455,8 @@
       </c>
       <c r="F2254" t="inlineStr"/>
       <c r="G2254" t="inlineStr"/>
-      <c r="H2254" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2254" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2255">
@@ -72621,10 +72487,8 @@
           <t>51.6</t>
         </is>
       </c>
-      <c r="H2255" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2255" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2256">
@@ -72659,10 +72523,8 @@
           <t>48.8</t>
         </is>
       </c>
-      <c r="H2256" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2256" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2257">
@@ -72693,10 +72555,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H2257" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2257" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2258">
@@ -72731,10 +72591,8 @@
           <t>50.5</t>
         </is>
       </c>
-      <c r="H2258" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2258" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2259">
@@ -72765,10 +72623,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H2259" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2259" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2260">
@@ -72799,10 +72655,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H2260" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2260" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2261">
@@ -72833,10 +72687,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2261" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2261" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2262">
@@ -72867,114 +72719,120 @@
           <t>18.0%</t>
         </is>
       </c>
-      <c r="H2262" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2262" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2263">
       <c r="A2263" t="inlineStr">
         <is>
-          <t>Monday February 03 2025</t>
-        </is>
-      </c>
-      <c r="B2263" t="inlineStr"/>
-      <c r="C2263" t="inlineStr"/>
+          <t>05:00 AM</t>
+        </is>
+      </c>
+      <c r="B2263" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C2263" t="inlineStr">
+        <is>
+          <t>CPI FlashJAN</t>
+        </is>
+      </c>
       <c r="D2263" t="inlineStr"/>
-      <c r="E2263" t="inlineStr"/>
+      <c r="E2263" t="inlineStr">
+        <is>
+          <t>127.07</t>
+        </is>
+      </c>
       <c r="F2263" t="inlineStr"/>
       <c r="G2263" t="inlineStr"/>
-      <c r="H2263" t="inlineStr"/>
+      <c r="H2263" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2264">
       <c r="A2264" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2264" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2264" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2264" t="inlineStr"/>
       <c r="E2264" t="inlineStr">
         <is>
-          <t>56.4</t>
-        </is>
-      </c>
-      <c r="F2264" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="G2264" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="F2264" t="inlineStr"/>
+      <c r="G2264" t="inlineStr"/>
       <c r="H2264" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2265">
       <c r="A2265" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2265" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2265" t="inlineStr">
         <is>
-          <t>2-Year KTB Auction</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2265" t="inlineStr"/>
       <c r="E2265" t="inlineStr">
         <is>
-          <t>2.670%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2265" t="inlineStr"/>
       <c r="G2265" t="inlineStr"/>
       <c r="H2265" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2266">
       <c r="A2266" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2266" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2266" t="inlineStr">
         <is>
-          <t>Commodity Prices YoYJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2266" t="inlineStr"/>
       <c r="E2266" t="inlineStr">
         <is>
-          <t>-10.7%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2266" t="inlineStr"/>
@@ -72988,117 +72846,129 @@
     <row r="2267">
       <c r="A2267" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2267" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2267" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2267" t="inlineStr"/>
       <c r="E2267" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F2267" t="inlineStr"/>
       <c r="G2267" t="inlineStr"/>
       <c r="H2267" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2268">
       <c r="A2268" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2268" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2268" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D2268" t="inlineStr"/>
       <c r="E2268" t="inlineStr">
         <is>
-          <t>1.03%</t>
+          <t>$232.2B</t>
         </is>
       </c>
       <c r="F2268" t="inlineStr"/>
-      <c r="G2268" t="inlineStr"/>
+      <c r="G2268" t="inlineStr">
+        <is>
+          <t>$ 230B</t>
+        </is>
+      </c>
       <c r="H2268" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2269">
       <c r="A2269" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2269" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2269" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2269" t="inlineStr"/>
       <c r="E2269" t="inlineStr">
         <is>
-          <t>44.38%</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F2269" t="inlineStr"/>
-      <c r="G2269" t="inlineStr"/>
+      <c r="G2269" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="H2269" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2270">
       <c r="A2270" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2270" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2270" t="inlineStr">
         <is>
-          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
+          <t>SIPMM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2270" t="inlineStr"/>
       <c r="E2270" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F2270" t="inlineStr"/>
-      <c r="G2270" t="inlineStr"/>
+      <c r="G2270" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="H2270" t="inlineStr">
         <is>
           <t>3</t>
@@ -73108,25 +72978,21 @@
     <row r="2271">
       <c r="A2271" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2271" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2271" t="inlineStr">
         <is>
-          <t>PPI MoMJAN</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2271" t="inlineStr"/>
-      <c r="E2271" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="E2271" t="inlineStr"/>
       <c r="F2271" t="inlineStr"/>
       <c r="G2271" t="inlineStr"/>
       <c r="H2271" t="inlineStr">
@@ -73138,25 +73004,21 @@
     <row r="2272">
       <c r="A2272" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2272" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2272" t="inlineStr">
         <is>
-          <t>PPI YoYJAN</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2272" t="inlineStr"/>
-      <c r="E2272" t="inlineStr">
-        <is>
-          <t>28.52%</t>
-        </is>
-      </c>
+      <c r="E2272" t="inlineStr"/>
       <c r="F2272" t="inlineStr"/>
       <c r="G2272" t="inlineStr"/>
       <c r="H2272" t="inlineStr">
@@ -73168,83 +73030,91 @@
     <row r="2273">
       <c r="A2273" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2273" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2273" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2273" t="inlineStr"/>
-      <c r="E2273" t="inlineStr">
-        <is>
-          <t>-25.3K</t>
-        </is>
-      </c>
+      <c r="E2273" t="inlineStr"/>
       <c r="F2273" t="inlineStr"/>
       <c r="G2273" t="inlineStr"/>
       <c r="H2273" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2274">
       <c r="A2274" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2274" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2274" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2274" t="inlineStr"/>
-      <c r="E2274" t="inlineStr"/>
+      <c r="E2274" t="inlineStr">
+        <is>
+          <t>52.2</t>
+        </is>
+      </c>
       <c r="F2274" t="inlineStr"/>
       <c r="G2274" t="inlineStr"/>
       <c r="H2274" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2275">
       <c r="A2275" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B2275" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2275" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2275" t="inlineStr"/>
       <c r="E2275" t="inlineStr">
         <is>
-          <t>53.3</t>
-        </is>
-      </c>
-      <c r="F2275" t="inlineStr"/>
-      <c r="G2275" t="inlineStr"/>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="F2275" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
+      <c r="G2275" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
       <c r="H2275" t="inlineStr">
         <is>
           <t>2</t>
@@ -73254,65 +73124,57 @@
     <row r="2276">
       <c r="A2276" t="inlineStr">
         <is>
-          <t>03:45 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2276" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2276" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>ISM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2276" t="inlineStr"/>
       <c r="E2276" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>49.3</t>
         </is>
       </c>
       <c r="F2276" t="inlineStr"/>
       <c r="G2276" t="inlineStr"/>
       <c r="H2276" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2277">
       <c r="A2277" t="inlineStr">
         <is>
-          <t>03:50 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2277" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2277" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing EmploymentJAN</t>
         </is>
       </c>
       <c r="D2277" t="inlineStr"/>
       <c r="E2277" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F2277" t="inlineStr">
-        <is>
           <t>45.3</t>
         </is>
       </c>
-      <c r="G2277" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+      <c r="F2277" t="inlineStr"/>
+      <c r="G2277" t="inlineStr"/>
       <c r="H2277" t="inlineStr">
         <is>
           <t>2</t>
@@ -73322,107 +73184,83 @@
     <row r="2278">
       <c r="A2278" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2278" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2278" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>Construction Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2278" t="inlineStr"/>
       <c r="E2278" t="inlineStr">
         <is>
-          <t>42.5</t>
-        </is>
-      </c>
-      <c r="F2278" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F2278" t="inlineStr"/>
       <c r="G2278" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2278" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2279">
       <c r="A2279" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2279" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2279" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing New OrdersJAN</t>
         </is>
       </c>
       <c r="D2279" t="inlineStr"/>
-      <c r="E2279" t="inlineStr">
-        <is>
-          <t>45.1</t>
-        </is>
-      </c>
-      <c r="F2279" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
-      <c r="G2279" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
+      <c r="E2279" t="inlineStr"/>
+      <c r="F2279" t="inlineStr"/>
+      <c r="G2279" t="inlineStr"/>
       <c r="H2279" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2280">
       <c r="A2280" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2280" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2280" t="inlineStr">
         <is>
-          <t>ABSA Manufacturing PMIJAN</t>
+          <t>ISM Manufacturing PricesJAN</t>
         </is>
       </c>
       <c r="D2280" t="inlineStr"/>
-      <c r="E2280" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="E2280" t="inlineStr"/>
       <c r="F2280" t="inlineStr"/>
-      <c r="G2280" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
+      <c r="G2280" t="inlineStr"/>
       <c r="H2280" t="inlineStr">
         <is>
           <t>3</t>
@@ -73432,55 +73270,43 @@
     <row r="2281">
       <c r="A2281" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2281" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2281" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2281" t="inlineStr"/>
-      <c r="E2281" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F2281" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
-      <c r="G2281" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
+      <c r="E2281" t="inlineStr"/>
+      <c r="F2281" t="inlineStr"/>
+      <c r="G2281" t="inlineStr"/>
       <c r="H2281" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2282">
       <c r="A2282" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2282" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2282" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FlashJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2282" t="inlineStr"/>
@@ -73489,32 +73315,28 @@
       <c r="G2282" t="inlineStr"/>
       <c r="H2282" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2283">
       <c r="A2283" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2283" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2283" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FlashJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2283" t="inlineStr"/>
-      <c r="E2283" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E2283" t="inlineStr"/>
       <c r="F2283" t="inlineStr"/>
       <c r="G2283" t="inlineStr"/>
       <c r="H2283" t="inlineStr">
@@ -73526,17 +73348,17 @@
     <row r="2284">
       <c r="A2284" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2284" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2284" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FlashJAN</t>
+          <t>Treasury Refunding Financing Estimates</t>
         </is>
       </c>
       <c r="D2284" t="inlineStr"/>
@@ -73545,30 +73367,30 @@
       <c r="G2284" t="inlineStr"/>
       <c r="H2284" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2285">
       <c r="A2285" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2285" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2285" t="inlineStr">
         <is>
-          <t>CPI FlashJAN</t>
+          <t>Tax RevenueJAN</t>
         </is>
       </c>
       <c r="D2285" t="inlineStr"/>
       <c r="E2285" t="inlineStr">
         <is>
-          <t>127.07</t>
+          <t>ARS13015B</t>
         </is>
       </c>
       <c r="F2285" t="inlineStr"/>
@@ -73582,87 +73404,91 @@
     <row r="2286">
       <c r="A2286" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B2286" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2286" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>10-Year JGB Auction</t>
         </is>
       </c>
       <c r="D2286" t="inlineStr"/>
       <c r="E2286" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>1.140%</t>
         </is>
       </c>
       <c r="F2286" t="inlineStr"/>
       <c r="G2286" t="inlineStr"/>
       <c r="H2286" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2287">
       <c r="A2287" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:15 PM</t>
         </is>
       </c>
       <c r="B2287" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C2287" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Riyad Bank PMIJAN</t>
         </is>
       </c>
       <c r="D2287" t="inlineStr"/>
       <c r="E2287" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="F2287" t="inlineStr"/>
-      <c r="G2287" t="inlineStr"/>
+      <c r="G2287" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
       <c r="H2287" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2288">
-      <c r="A2288" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
+      <c r="A2288" t="inlineStr"/>
       <c r="B2288" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2288" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>Total New Vehicle SalesJAN</t>
         </is>
       </c>
       <c r="D2288" t="inlineStr"/>
       <c r="E2288" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>41.27K</t>
         </is>
       </c>
       <c r="F2288" t="inlineStr"/>
-      <c r="G2288" t="inlineStr"/>
+      <c r="G2288" t="inlineStr">
+        <is>
+          <t>43.0K</t>
+        </is>
+      </c>
       <c r="H2288" t="inlineStr">
         <is>
           <t>3</t>
@@ -73672,61 +73498,41 @@
     <row r="2289">
       <c r="A2289" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B2289" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C2289" t="inlineStr">
-        <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
-        </is>
-      </c>
+          <t>Tuesday February 04 2025</t>
+        </is>
+      </c>
+      <c r="B2289" t="inlineStr"/>
+      <c r="C2289" t="inlineStr"/>
       <c r="D2289" t="inlineStr"/>
-      <c r="E2289" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
+      <c r="E2289" t="inlineStr"/>
       <c r="F2289" t="inlineStr"/>
       <c r="G2289" t="inlineStr"/>
-      <c r="H2289" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2289" t="inlineStr"/>
     </row>
     <row r="2290">
       <c r="A2290" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2290" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2290" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2290" t="inlineStr"/>
       <c r="E2290" t="inlineStr">
         <is>
-          <t>$232.2B</t>
+          <t>3.08%</t>
         </is>
       </c>
       <c r="F2290" t="inlineStr"/>
-      <c r="G2290" t="inlineStr">
-        <is>
-          <t>$ 230B</t>
-        </is>
-      </c>
+      <c r="G2290" t="inlineStr"/>
       <c r="H2290" t="inlineStr">
         <is>
           <t>3</t>
@@ -73736,31 +73542,27 @@
     <row r="2291">
       <c r="A2291" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2291" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2291" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2291" t="inlineStr"/>
       <c r="E2291" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F2291" t="inlineStr"/>
-      <c r="G2291" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
+      <c r="G2291" t="inlineStr"/>
       <c r="H2291" t="inlineStr">
         <is>
           <t>3</t>
@@ -73770,31 +73572,27 @@
     <row r="2292">
       <c r="A2292" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2292" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2292" t="inlineStr">
         <is>
-          <t>SIPMM Manufacturing PMIJAN</t>
+          <t>30-Year KTB Auction</t>
         </is>
       </c>
       <c r="D2292" t="inlineStr"/>
       <c r="E2292" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>2.705%</t>
         </is>
       </c>
       <c r="F2292" t="inlineStr"/>
-      <c r="G2292" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+      <c r="G2292" t="inlineStr"/>
       <c r="H2292" t="inlineStr">
         <is>
           <t>3</t>
@@ -73804,7 +73602,7 @@
     <row r="2293">
       <c r="A2293" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B2293" t="inlineStr">
@@ -73814,11 +73612,15 @@
       </c>
       <c r="C2293" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D2293" t="inlineStr"/>
-      <c r="E2293" t="inlineStr"/>
+      <c r="E2293" t="inlineStr">
+        <is>
+          <t>€-172.5B</t>
+        </is>
+      </c>
       <c r="F2293" t="inlineStr"/>
       <c r="G2293" t="inlineStr"/>
       <c r="H2293" t="inlineStr">
@@ -73830,21 +73632,25 @@
     <row r="2294">
       <c r="A2294" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B2294" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2294" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>IPC-Fipe Inflation MoMJAN</t>
         </is>
       </c>
       <c r="D2294" t="inlineStr"/>
-      <c r="E2294" t="inlineStr"/>
+      <c r="E2294" t="inlineStr">
+        <is>
+          <t>0.34%</t>
+        </is>
+      </c>
       <c r="F2294" t="inlineStr"/>
       <c r="G2294" t="inlineStr"/>
       <c r="H2294" t="inlineStr">
@@ -73856,17 +73662,17 @@
     <row r="2295">
       <c r="A2295" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2295" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2295" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>5-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D2295" t="inlineStr"/>
@@ -73882,25 +73688,21 @@
     <row r="2296">
       <c r="A2296" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2296" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2296" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>BCB Copom Meeting Minutes</t>
         </is>
       </c>
       <c r="D2296" t="inlineStr"/>
-      <c r="E2296" t="inlineStr">
-        <is>
-          <t>52.2</t>
-        </is>
-      </c>
+      <c r="E2296" t="inlineStr"/>
       <c r="F2296" t="inlineStr"/>
       <c r="G2296" t="inlineStr"/>
       <c r="H2296" t="inlineStr">
@@ -73912,91 +73714,91 @@
     <row r="2297">
       <c r="A2297" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2297" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2297" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2297" t="inlineStr"/>
       <c r="E2297" t="inlineStr">
         <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="F2297" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
+          <t>1.23%</t>
+        </is>
+      </c>
+      <c r="F2297" t="inlineStr"/>
       <c r="G2297" t="inlineStr">
         <is>
-          <t>50.1</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2297" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2298">
       <c r="A2298" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2298" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2298" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PMIJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2298" t="inlineStr"/>
       <c r="E2298" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>7.59%</t>
         </is>
       </c>
       <c r="F2298" t="inlineStr"/>
-      <c r="G2298" t="inlineStr"/>
+      <c r="G2298" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="H2298" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2299">
       <c r="A2299" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2299" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2299" t="inlineStr">
         <is>
-          <t>ISM Manufacturing EmploymentJAN</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2299" t="inlineStr"/>
       <c r="E2299" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F2299" t="inlineStr"/>
@@ -74010,7 +73812,7 @@
     <row r="2300">
       <c r="A2300" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B2300" t="inlineStr">
@@ -74020,21 +73822,13 @@
       </c>
       <c r="C2300" t="inlineStr">
         <is>
-          <t>Construction Spending MoMDEC</t>
+          <t>Redbook YoYFEB/01</t>
         </is>
       </c>
       <c r="D2300" t="inlineStr"/>
-      <c r="E2300" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E2300" t="inlineStr"/>
       <c r="F2300" t="inlineStr"/>
-      <c r="G2300" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2300" t="inlineStr"/>
       <c r="H2300" t="inlineStr">
         <is>
           <t>3</t>
@@ -74049,16 +73843,20 @@
       </c>
       <c r="B2301" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2301" t="inlineStr">
         <is>
-          <t>ISM Manufacturing New OrdersJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2301" t="inlineStr"/>
-      <c r="E2301" t="inlineStr"/>
+      <c r="E2301" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="F2301" t="inlineStr"/>
       <c r="G2301" t="inlineStr"/>
       <c r="H2301" t="inlineStr">
@@ -74080,23 +73878,27 @@
       </c>
       <c r="C2302" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PricesJAN</t>
+          <t>JOLTs Job OpeningsDEC</t>
         </is>
       </c>
       <c r="D2302" t="inlineStr"/>
       <c r="E2302" t="inlineStr"/>
       <c r="F2302" t="inlineStr"/>
-      <c r="G2302" t="inlineStr"/>
+      <c r="G2302" t="inlineStr">
+        <is>
+          <t>7.6M</t>
+        </is>
+      </c>
       <c r="H2302" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2303">
       <c r="A2303" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2303" t="inlineStr">
@@ -74106,23 +73908,31 @@
       </c>
       <c r="C2303" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Factory Orders MoMDEC</t>
         </is>
       </c>
       <c r="D2303" t="inlineStr"/>
-      <c r="E2303" t="inlineStr"/>
+      <c r="E2303" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
       <c r="F2303" t="inlineStr"/>
-      <c r="G2303" t="inlineStr"/>
+      <c r="G2303" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="H2303" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2304">
       <c r="A2304" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2304" t="inlineStr">
@@ -74132,13 +73942,21 @@
       </c>
       <c r="C2304" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Factory Orders ex TransportationDEC</t>
         </is>
       </c>
       <c r="D2304" t="inlineStr"/>
-      <c r="E2304" t="inlineStr"/>
+      <c r="E2304" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F2304" t="inlineStr"/>
-      <c r="G2304" t="inlineStr"/>
+      <c r="G2304" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H2304" t="inlineStr">
         <is>
           <t>3</t>
@@ -74148,7 +73966,7 @@
     <row r="2305">
       <c r="A2305" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2305" t="inlineStr">
@@ -74158,7 +73976,7 @@
       </c>
       <c r="C2305" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>JOLTs Job QuitsDEC</t>
         </is>
       </c>
       <c r="D2305" t="inlineStr"/>
@@ -74167,14 +73985,14 @@
       <c r="G2305" t="inlineStr"/>
       <c r="H2305" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2306">
       <c r="A2306" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>10:10 AM</t>
         </is>
       </c>
       <c r="B2306" t="inlineStr">
@@ -74184,11 +74002,15 @@
       </c>
       <c r="C2306" t="inlineStr">
         <is>
-          <t>Treasury Refunding Financing Estimates</t>
+          <t>RCM/TIPP Economic Optimism IndexFEB</t>
         </is>
       </c>
       <c r="D2306" t="inlineStr"/>
-      <c r="E2306" t="inlineStr"/>
+      <c r="E2306" t="inlineStr">
+        <is>
+          <t>51.9</t>
+        </is>
+      </c>
       <c r="F2306" t="inlineStr"/>
       <c r="G2306" t="inlineStr"/>
       <c r="H2306" t="inlineStr">
@@ -74200,85 +74022,73 @@
     <row r="2307">
       <c r="A2307" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2307" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2307" t="inlineStr">
         <is>
-          <t>Tax RevenueJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2307" t="inlineStr"/>
-      <c r="E2307" t="inlineStr">
-        <is>
-          <t>ARS13015B</t>
-        </is>
-      </c>
+      <c r="E2307" t="inlineStr"/>
       <c r="F2307" t="inlineStr"/>
       <c r="G2307" t="inlineStr"/>
       <c r="H2307" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2308">
       <c r="A2308" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B2308" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2308" t="inlineStr">
         <is>
-          <t>10-Year JGB Auction</t>
+          <t>Fed Daly Speech</t>
         </is>
       </c>
       <c r="D2308" t="inlineStr"/>
-      <c r="E2308" t="inlineStr">
-        <is>
-          <t>1.140%</t>
-        </is>
-      </c>
+      <c r="E2308" t="inlineStr"/>
       <c r="F2308" t="inlineStr"/>
       <c r="G2308" t="inlineStr"/>
       <c r="H2308" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2309">
       <c r="A2309" t="inlineStr">
         <is>
-          <t>11:15 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B2309" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2309" t="inlineStr">
         <is>
-          <t>Riyad Bank PMIJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2309" t="inlineStr"/>
-      <c r="E2309" t="inlineStr">
-        <is>
-          <t>58.4</t>
-        </is>
-      </c>
+      <c r="E2309" t="inlineStr"/>
       <c r="F2309" t="inlineStr"/>
       <c r="G2309" t="inlineStr"/>
       <c r="H2309" t="inlineStr">
@@ -74288,71 +74098,75 @@
       </c>
     </row>
     <row r="2310">
-      <c r="A2310" t="inlineStr"/>
+      <c r="A2310" t="inlineStr">
+        <is>
+          <t>04:30 PM</t>
+        </is>
+      </c>
       <c r="B2310" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2310" t="inlineStr">
         <is>
-          <t>Total New Vehicle SalesJAN</t>
+          <t>API Crude Oil Stock ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2310" t="inlineStr"/>
-      <c r="E2310" t="inlineStr">
-        <is>
-          <t>41.27K</t>
-        </is>
-      </c>
+      <c r="E2310" t="inlineStr"/>
       <c r="F2310" t="inlineStr"/>
-      <c r="G2310" t="inlineStr">
-        <is>
-          <t>43.0K</t>
-        </is>
-      </c>
+      <c r="G2310" t="inlineStr"/>
       <c r="H2310" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2311">
       <c r="A2311" t="inlineStr">
         <is>
-          <t>Tuesday February 04 2025</t>
-        </is>
-      </c>
-      <c r="B2311" t="inlineStr"/>
-      <c r="C2311" t="inlineStr"/>
+          <t>05:00 PM</t>
+        </is>
+      </c>
+      <c r="B2311" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="C2311" t="inlineStr">
+        <is>
+          <t>Judo Bank Services PMI FinalJAN</t>
+        </is>
+      </c>
       <c r="D2311" t="inlineStr"/>
       <c r="E2311" t="inlineStr"/>
       <c r="F2311" t="inlineStr"/>
       <c r="G2311" t="inlineStr"/>
-      <c r="H2311" t="inlineStr"/>
+      <c r="H2311" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2312">
       <c r="A2312" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2312" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2312" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>S&amp;P Global Australia Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2312" t="inlineStr"/>
-      <c r="E2312" t="inlineStr">
-        <is>
-          <t>3.08%</t>
-        </is>
-      </c>
+      <c r="E2312" t="inlineStr"/>
       <c r="F2312" t="inlineStr"/>
       <c r="G2312" t="inlineStr"/>
       <c r="H2312" t="inlineStr">
@@ -74364,37 +74178,37 @@
     <row r="2313">
       <c r="A2313" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2313" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2313" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2313" t="inlineStr"/>
       <c r="E2313" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F2313" t="inlineStr"/>
       <c r="G2313" t="inlineStr"/>
       <c r="H2313" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2314">
       <c r="A2314" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2314" t="inlineStr">
@@ -74404,13 +74218,13 @@
       </c>
       <c r="C2314" t="inlineStr">
         <is>
-          <t>30-Year KTB Auction</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2314" t="inlineStr"/>
       <c r="E2314" t="inlineStr">
         <is>
-          <t>2.705%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2314" t="inlineStr"/>
@@ -74424,27 +74238,27 @@
     <row r="2315">
       <c r="A2315" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2315" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2315" t="inlineStr">
         <is>
-          <t>Budget BalanceDEC</t>
+          <t>Average Cash Earnings YoYDEC</t>
         </is>
       </c>
       <c r="D2315" t="inlineStr"/>
-      <c r="E2315" t="inlineStr">
-        <is>
-          <t>€-172.5B</t>
-        </is>
-      </c>
+      <c r="E2315" t="inlineStr"/>
       <c r="F2315" t="inlineStr"/>
-      <c r="G2315" t="inlineStr"/>
+      <c r="G2315" t="inlineStr">
+        <is>
+          <t>2.1%</t>
+        </is>
+      </c>
       <c r="H2315" t="inlineStr">
         <is>
           <t>3</t>
@@ -74454,23 +74268,23 @@
     <row r="2316">
       <c r="A2316" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2316" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2316" t="inlineStr">
         <is>
-          <t>IPC-Fipe Inflation MoMJAN</t>
+          <t>TD-MI Inflation Gauge MoMJAN</t>
         </is>
       </c>
       <c r="D2316" t="inlineStr"/>
       <c r="E2316" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="F2316" t="inlineStr"/>
@@ -74484,83 +74298,99 @@
     <row r="2317">
       <c r="A2317" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2317" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2317" t="inlineStr">
         <is>
-          <t>5-Year Treasury Gilt Auction</t>
+          <t>Jibun Bank Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2317" t="inlineStr"/>
-      <c r="E2317" t="inlineStr"/>
-      <c r="F2317" t="inlineStr"/>
-      <c r="G2317" t="inlineStr"/>
+      <c r="E2317" t="inlineStr">
+        <is>
+          <t>50.9</t>
+        </is>
+      </c>
+      <c r="F2317" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
+      <c r="G2317" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
       <c r="H2317" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2318">
       <c r="A2318" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2318" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2318" t="inlineStr">
         <is>
-          <t>BCB Copom Meeting Minutes</t>
+          <t>Jibun Bank Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2318" t="inlineStr"/>
-      <c r="E2318" t="inlineStr"/>
+      <c r="E2318" t="inlineStr">
+        <is>
+          <t>50.5</t>
+        </is>
+      </c>
       <c r="F2318" t="inlineStr"/>
-      <c r="G2318" t="inlineStr"/>
+      <c r="G2318" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
       <c r="H2318" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2319">
       <c r="A2319" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2319" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2319" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>S&amp;P Global PMIJAN</t>
         </is>
       </c>
       <c r="D2319" t="inlineStr"/>
       <c r="E2319" t="inlineStr">
         <is>
-          <t>1.23%</t>
+          <t>51.5</t>
         </is>
       </c>
       <c r="F2319" t="inlineStr"/>
-      <c r="G2319" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2319" t="inlineStr"/>
       <c r="H2319" t="inlineStr">
         <is>
           <t>3</t>
@@ -74570,117 +74400,125 @@
     <row r="2320">
       <c r="A2320" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>08:45 PM</t>
         </is>
       </c>
       <c r="B2320" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2320" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Caixin Services PMIJAN</t>
         </is>
       </c>
       <c r="D2320" t="inlineStr"/>
       <c r="E2320" t="inlineStr">
         <is>
-          <t>7.59%</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="F2320" t="inlineStr"/>
       <c r="G2320" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>51.8</t>
         </is>
       </c>
       <c r="H2320" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2321">
       <c r="A2321" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>08:45 PM</t>
         </is>
       </c>
       <c r="B2321" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2321" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>Caixin Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2321" t="inlineStr"/>
       <c r="E2321" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="F2321" t="inlineStr"/>
-      <c r="G2321" t="inlineStr"/>
+      <c r="G2321" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
       <c r="H2321" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2322">
       <c r="A2322" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>11:00 PM</t>
         </is>
       </c>
       <c r="B2322" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2322" t="inlineStr">
         <is>
-          <t>Redbook YoYFEB/01</t>
+          <t>GDP Growth Rate YoYQ4</t>
         </is>
       </c>
       <c r="D2322" t="inlineStr"/>
       <c r="E2322" t="inlineStr"/>
       <c r="F2322" t="inlineStr"/>
-      <c r="G2322" t="inlineStr"/>
+      <c r="G2322" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="H2322" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2323">
       <c r="A2323" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>11:00 PM</t>
         </is>
       </c>
       <c r="B2323" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2323" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Full Year GDP Growth2025</t>
         </is>
       </c>
       <c r="D2323" t="inlineStr"/>
-      <c r="E2323" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
+      <c r="E2323" t="inlineStr"/>
       <c r="F2323" t="inlineStr"/>
-      <c r="G2323" t="inlineStr"/>
+      <c r="G2323" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="H2323" t="inlineStr">
         <is>
           <t>3</t>
@@ -74690,17 +74528,17 @@
     <row r="2324">
       <c r="A2324" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>11:00 PM</t>
         </is>
       </c>
       <c r="B2324" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2324" t="inlineStr">
         <is>
-          <t>JOLTs Job OpeningsDEC</t>
+          <t>GDP Growth Rate QoQQ4</t>
         </is>
       </c>
       <c r="D2324" t="inlineStr"/>
@@ -74708,77 +74546,53 @@
       <c r="F2324" t="inlineStr"/>
       <c r="G2324" t="inlineStr">
         <is>
-          <t>7.6M</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H2324" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2325">
-      <c r="A2325" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A2325" t="inlineStr"/>
       <c r="B2325" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2325" t="inlineStr">
         <is>
-          <t>Factory Orders MoMDEC</t>
+          <t>Balance of Trade PrelJAN</t>
         </is>
       </c>
       <c r="D2325" t="inlineStr"/>
-      <c r="E2325" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
+      <c r="E2325" t="inlineStr"/>
       <c r="F2325" t="inlineStr"/>
-      <c r="G2325" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="G2325" t="inlineStr"/>
       <c r="H2325" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2326">
-      <c r="A2326" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A2326" t="inlineStr"/>
       <c r="B2326" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2326" t="inlineStr">
         <is>
-          <t>Factory Orders ex TransportationDEC</t>
+          <t>Exports PrelJAN</t>
         </is>
       </c>
       <c r="D2326" t="inlineStr"/>
-      <c r="E2326" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E2326" t="inlineStr"/>
       <c r="F2326" t="inlineStr"/>
-      <c r="G2326" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G2326" t="inlineStr"/>
       <c r="H2326" t="inlineStr">
         <is>
           <t>3</t>
@@ -74786,19 +74600,15 @@
       </c>
     </row>
     <row r="2327">
-      <c r="A2327" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A2327" t="inlineStr"/>
       <c r="B2327" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2327" t="inlineStr">
         <is>
-          <t>JOLTs Job QuitsDEC</t>
+          <t>Imports PrelJAN</t>
         </is>
       </c>
       <c r="D2327" t="inlineStr"/>
@@ -74812,11 +74622,7 @@
       </c>
     </row>
     <row r="2328">
-      <c r="A2328" t="inlineStr">
-        <is>
-          <t>10:10 AM</t>
-        </is>
-      </c>
+      <c r="A2328" t="inlineStr"/>
       <c r="B2328" t="inlineStr">
         <is>
           <t>US</t>
@@ -74824,13 +74630,13 @@
       </c>
       <c r="C2328" t="inlineStr">
         <is>
-          <t>RCM/TIPP Economic Optimism IndexFEB</t>
+          <t>LMI Logistics Managers IndexJAN</t>
         </is>
       </c>
       <c r="D2328" t="inlineStr"/>
       <c r="E2328" t="inlineStr">
         <is>
-          <t>51.9</t>
+          <t>57.3</t>
         </is>
       </c>
       <c r="F2328" t="inlineStr"/>
@@ -74844,75 +74650,87 @@
     <row r="2329">
       <c r="A2329" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2329" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2329" t="inlineStr">
-        <is>
-          <t>Fed Bostic Speech</t>
-        </is>
-      </c>
+          <t>Wednesday February 05 2025</t>
+        </is>
+      </c>
+      <c r="B2329" t="inlineStr"/>
+      <c r="C2329" t="inlineStr"/>
       <c r="D2329" t="inlineStr"/>
       <c r="E2329" t="inlineStr"/>
       <c r="F2329" t="inlineStr"/>
       <c r="G2329" t="inlineStr"/>
-      <c r="H2329" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="H2329" t="inlineStr"/>
     </row>
     <row r="2330">
       <c r="A2330" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2330" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2330" t="inlineStr">
         <is>
-          <t>Fed Daly Speech</t>
+          <t>HSBC Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2330" t="inlineStr"/>
-      <c r="E2330" t="inlineStr"/>
-      <c r="F2330" t="inlineStr"/>
-      <c r="G2330" t="inlineStr"/>
+      <c r="E2330" t="inlineStr">
+        <is>
+          <t>59.2</t>
+        </is>
+      </c>
+      <c r="F2330" t="inlineStr">
+        <is>
+          <t>57.9</t>
+        </is>
+      </c>
+      <c r="G2330" t="inlineStr">
+        <is>
+          <t>57.9</t>
+        </is>
+      </c>
       <c r="H2330" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2331">
       <c r="A2331" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2331" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2331" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>HSBC Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2331" t="inlineStr"/>
-      <c r="E2331" t="inlineStr"/>
-      <c r="F2331" t="inlineStr"/>
-      <c r="G2331" t="inlineStr"/>
+      <c r="E2331" t="inlineStr">
+        <is>
+          <t>59.3</t>
+        </is>
+      </c>
+      <c r="F2331" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
+      <c r="G2331" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
       <c r="H2331" t="inlineStr">
         <is>
           <t>3</t>
@@ -74922,73 +74740,93 @@
     <row r="2332">
       <c r="A2332" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2332" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2332" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/31</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2332" t="inlineStr"/>
-      <c r="E2332" t="inlineStr"/>
+      <c r="E2332" t="inlineStr">
+        <is>
+          <t>-2.8%</t>
+        </is>
+      </c>
       <c r="F2332" t="inlineStr"/>
-      <c r="G2332" t="inlineStr"/>
+      <c r="G2332" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2332" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2333">
       <c r="A2333" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2333" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2333" t="inlineStr">
         <is>
-          <t>Judo Bank Services PMI FinalJAN</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2333" t="inlineStr"/>
-      <c r="E2333" t="inlineStr"/>
+      <c r="E2333" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="F2333" t="inlineStr"/>
-      <c r="G2333" t="inlineStr"/>
+      <c r="G2333" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H2333" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2334">
       <c r="A2334" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B2334" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2334" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Composite PMI FinalJAN</t>
+          <t>S&amp;P Global Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2334" t="inlineStr"/>
-      <c r="E2334" t="inlineStr"/>
+      <c r="E2334" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
       <c r="F2334" t="inlineStr"/>
       <c r="G2334" t="inlineStr"/>
       <c r="H2334" t="inlineStr">
@@ -75000,53 +74838,53 @@
     <row r="2335">
       <c r="A2335" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B2335" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2335" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>S&amp;P Global Services PMIJAN</t>
         </is>
       </c>
       <c r="D2335" t="inlineStr"/>
       <c r="E2335" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F2335" t="inlineStr"/>
       <c r="G2335" t="inlineStr"/>
       <c r="H2335" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2336">
       <c r="A2336" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:15 AM</t>
         </is>
       </c>
       <c r="B2336" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2336" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>S&amp;P Global PMIJAN</t>
         </is>
       </c>
       <c r="D2336" t="inlineStr"/>
       <c r="E2336" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>49.9</t>
         </is>
       </c>
       <c r="F2336" t="inlineStr"/>
@@ -75060,191 +74898,187 @@
     <row r="2337">
       <c r="A2337" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B2337" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2337" t="inlineStr">
         <is>
-          <t>Average Cash Earnings YoYDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D2337" t="inlineStr"/>
-      <c r="E2337" t="inlineStr"/>
+      <c r="E2337" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F2337" t="inlineStr"/>
       <c r="G2337" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H2337" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2338">
       <c r="A2338" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:15 AM</t>
         </is>
       </c>
       <c r="B2338" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2338" t="inlineStr">
         <is>
-          <t>TD-MI Inflation Gauge MoMJAN</t>
+          <t>HCOB Services PMIJAN</t>
         </is>
       </c>
       <c r="D2338" t="inlineStr"/>
       <c r="E2338" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>57.3</t>
         </is>
       </c>
       <c r="F2338" t="inlineStr"/>
       <c r="G2338" t="inlineStr"/>
       <c r="H2338" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2339">
       <c r="A2339" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:15 AM</t>
         </is>
       </c>
       <c r="B2339" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2339" t="inlineStr">
         <is>
-          <t>Jibun Bank Services PMI FinalJAN</t>
+          <t>HCOB Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2339" t="inlineStr"/>
       <c r="E2339" t="inlineStr">
         <is>
-          <t>50.9</t>
-        </is>
-      </c>
-      <c r="F2339" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="G2339" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
+          <t>56.8</t>
+        </is>
+      </c>
+      <c r="F2339" t="inlineStr"/>
+      <c r="G2339" t="inlineStr"/>
       <c r="H2339" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2340">
       <c r="A2340" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:45 AM</t>
         </is>
       </c>
       <c r="B2340" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2340" t="inlineStr">
         <is>
-          <t>Jibun Bank Composite PMI FinalJAN</t>
+          <t>HCOB Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2340" t="inlineStr"/>
       <c r="E2340" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>49.7</t>
         </is>
       </c>
       <c r="F2340" t="inlineStr"/>
-      <c r="G2340" t="inlineStr">
-        <is>
-          <t>51.1</t>
-        </is>
-      </c>
+      <c r="G2340" t="inlineStr"/>
       <c r="H2340" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2341">
       <c r="A2341" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:45 AM</t>
         </is>
       </c>
       <c r="B2341" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2341" t="inlineStr">
         <is>
-          <t>S&amp;P Global PMIJAN</t>
+          <t>HCOB Services PMIJAN</t>
         </is>
       </c>
       <c r="D2341" t="inlineStr"/>
       <c r="E2341" t="inlineStr">
         <is>
-          <t>51.5</t>
+          <t>50.7</t>
         </is>
       </c>
       <c r="F2341" t="inlineStr"/>
       <c r="G2341" t="inlineStr"/>
       <c r="H2341" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2342">
       <c r="A2342" t="inlineStr">
         <is>
-          <t>08:45 PM</t>
+          <t>03:50 AM</t>
         </is>
       </c>
       <c r="B2342" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2342" t="inlineStr">
         <is>
-          <t>Caixin Services PMIJAN</t>
+          <t>HCOB Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2342" t="inlineStr"/>
       <c r="E2342" t="inlineStr">
         <is>
-          <t>52.2</t>
-        </is>
-      </c>
-      <c r="F2342" t="inlineStr"/>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F2342" t="inlineStr">
+        <is>
+          <t>48.9</t>
+        </is>
+      </c>
       <c r="G2342" t="inlineStr">
         <is>
-          <t>51.8</t>
+          <t>48.9</t>
         </is>
       </c>
       <c r="H2342" t="inlineStr">
@@ -75256,29 +75090,33 @@
     <row r="2343">
       <c r="A2343" t="inlineStr">
         <is>
-          <t>08:45 PM</t>
+          <t>03:50 AM</t>
         </is>
       </c>
       <c r="B2343" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2343" t="inlineStr">
         <is>
-          <t>Caixin Composite PMIJAN</t>
+          <t>HCOB Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2343" t="inlineStr"/>
       <c r="E2343" t="inlineStr">
         <is>
-          <t>51.4</t>
-        </is>
-      </c>
-      <c r="F2343" t="inlineStr"/>
+          <t>47.5</t>
+        </is>
+      </c>
+      <c r="F2343" t="inlineStr">
+        <is>
+          <t>48.3</t>
+        </is>
+      </c>
       <c r="G2343" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>48.3</t>
         </is>
       </c>
       <c r="H2343" t="inlineStr">
@@ -75290,25 +75128,33 @@
     <row r="2344">
       <c r="A2344" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>03:55 AM</t>
         </is>
       </c>
       <c r="B2344" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2344" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoYQ4</t>
+          <t>HCOB Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2344" t="inlineStr"/>
-      <c r="E2344" t="inlineStr"/>
-      <c r="F2344" t="inlineStr"/>
+      <c r="E2344" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="F2344" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
       <c r="G2344" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="H2344" t="inlineStr">
@@ -75320,149 +75166,213 @@
     <row r="2345">
       <c r="A2345" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>03:55 AM</t>
         </is>
       </c>
       <c r="B2345" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2345" t="inlineStr">
         <is>
-          <t>Full Year GDP Growth2025</t>
+          <t>HCOB Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2345" t="inlineStr"/>
-      <c r="E2345" t="inlineStr"/>
-      <c r="F2345" t="inlineStr"/>
+      <c r="E2345" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="F2345" t="inlineStr">
+        <is>
+          <t>52.5</t>
+        </is>
+      </c>
       <c r="G2345" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>52.5</t>
         </is>
       </c>
       <c r="H2345" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2346">
       <c r="A2346" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2346" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2346" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQQ4</t>
+          <t>HCOB Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2346" t="inlineStr"/>
-      <c r="E2346" t="inlineStr"/>
-      <c r="F2346" t="inlineStr"/>
+      <c r="E2346" t="inlineStr">
+        <is>
+          <t>49.6</t>
+        </is>
+      </c>
+      <c r="F2346" t="inlineStr">
+        <is>
+          <t>50.2</t>
+        </is>
+      </c>
       <c r="G2346" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>50.2</t>
         </is>
       </c>
       <c r="H2346" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2347">
+      <c r="A2347" t="inlineStr">
+        <is>
+          <t>04:00 AM</t>
+        </is>
+      </c>
+      <c r="B2347" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C2347" t="inlineStr">
+        <is>
+          <t>HCOB Services PMI FinalJAN</t>
+        </is>
+      </c>
+      <c r="D2347" t="inlineStr"/>
+      <c r="E2347" t="inlineStr">
+        <is>
+          <t>51.6</t>
+        </is>
+      </c>
+      <c r="F2347" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
+      <c r="G2347" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
+      <c r="H2347" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2348">
+      <c r="A2348" t="inlineStr">
+        <is>
+          <t>04:00 AM</t>
+        </is>
+      </c>
+      <c r="B2348" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="C2348" t="inlineStr">
+        <is>
+          <t>Retail Sales MoMDEC</t>
+        </is>
+      </c>
+      <c r="D2348" t="inlineStr"/>
+      <c r="E2348" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
+      <c r="F2348" t="inlineStr"/>
+      <c r="G2348" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H2348" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2349">
+      <c r="A2349" t="inlineStr">
+        <is>
+          <t>04:00 AM</t>
+        </is>
+      </c>
+      <c r="B2349" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="C2349" t="inlineStr">
+        <is>
+          <t>Retail Sales YoYDEC</t>
+        </is>
+      </c>
+      <c r="D2349" t="inlineStr"/>
+      <c r="E2349" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
+      <c r="F2349" t="inlineStr"/>
+      <c r="G2349" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="H2349" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="2347">
-      <c r="A2347" t="inlineStr"/>
-      <c r="B2347" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2347" t="inlineStr">
-        <is>
-          <t>Balance of Trade PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2347" t="inlineStr"/>
-      <c r="E2347" t="inlineStr"/>
-      <c r="F2347" t="inlineStr"/>
-      <c r="G2347" t="inlineStr"/>
-      <c r="H2347" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2348">
-      <c r="A2348" t="inlineStr"/>
-      <c r="B2348" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2348" t="inlineStr">
-        <is>
-          <t>Exports PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2348" t="inlineStr"/>
-      <c r="E2348" t="inlineStr"/>
-      <c r="F2348" t="inlineStr"/>
-      <c r="G2348" t="inlineStr"/>
-      <c r="H2348" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2349">
-      <c r="A2349" t="inlineStr"/>
-      <c r="B2349" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2349" t="inlineStr">
-        <is>
-          <t>Imports PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2349" t="inlineStr"/>
-      <c r="E2349" t="inlineStr"/>
-      <c r="F2349" t="inlineStr"/>
-      <c r="G2349" t="inlineStr"/>
-      <c r="H2349" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
     <row r="2350">
-      <c r="A2350" t="inlineStr"/>
+      <c r="A2350" t="inlineStr">
+        <is>
+          <t>04:00 AM</t>
+        </is>
+      </c>
       <c r="B2350" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2350" t="inlineStr">
         <is>
-          <t>LMI Logistics Managers IndexJAN</t>
+          <t>New Car Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2350" t="inlineStr"/>
       <c r="E2350" t="inlineStr">
         <is>
-          <t>57.3</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F2350" t="inlineStr"/>
-      <c r="G2350" t="inlineStr"/>
+      <c r="G2350" t="inlineStr">
+        <is>
+          <t>4.0%</t>
+        </is>
+      </c>
       <c r="H2350" t="inlineStr">
         <is>
           <t>3</t>
@@ -75472,47 +75382,71 @@
     <row r="2351">
       <c r="A2351" t="inlineStr">
         <is>
-          <t>Wednesday February 05 2025</t>
-        </is>
-      </c>
-      <c r="B2351" t="inlineStr"/>
-      <c r="C2351" t="inlineStr"/>
+          <t>04:30 AM</t>
+        </is>
+      </c>
+      <c r="B2351" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C2351" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Services PMI FinalJAN</t>
+        </is>
+      </c>
       <c r="D2351" t="inlineStr"/>
-      <c r="E2351" t="inlineStr"/>
-      <c r="F2351" t="inlineStr"/>
-      <c r="G2351" t="inlineStr"/>
-      <c r="H2351" t="inlineStr"/>
+      <c r="E2351" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
+      <c r="F2351" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="G2351" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="H2351" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2352">
       <c r="A2352" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2352" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2352" t="inlineStr">
         <is>
-          <t>HSBC Composite PMI FinalJAN</t>
+          <t>S&amp;P Global Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2352" t="inlineStr"/>
       <c r="E2352" t="inlineStr">
         <is>
-          <t>59.2</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F2352" t="inlineStr">
         <is>
-          <t>57.9</t>
+          <t>50.9</t>
         </is>
       </c>
       <c r="G2352" t="inlineStr">
         <is>
-          <t>57.9</t>
+          <t>50.9</t>
         </is>
       </c>
       <c r="H2352" t="inlineStr">
@@ -75524,33 +75458,29 @@
     <row r="2353">
       <c r="A2353" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2353" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2353" t="inlineStr">
         <is>
-          <t>HSBC Services PMI FinalJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2353" t="inlineStr"/>
       <c r="E2353" t="inlineStr">
         <is>
-          <t>59.3</t>
-        </is>
-      </c>
-      <c r="F2353" t="inlineStr">
-        <is>
-          <t>56.8</t>
-        </is>
-      </c>
+          <t>1.6%</t>
+        </is>
+      </c>
+      <c r="F2353" t="inlineStr"/>
       <c r="G2353" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2353" t="inlineStr">
@@ -75562,29 +75492,29 @@
     <row r="2354">
       <c r="A2354" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2354" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2354" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2354" t="inlineStr"/>
       <c r="E2354" t="inlineStr">
         <is>
-          <t>-2.8%</t>
+          <t>-1.2%</t>
         </is>
       </c>
       <c r="F2354" t="inlineStr"/>
       <c r="G2354" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="H2354" t="inlineStr">
@@ -75596,31 +75526,27 @@
     <row r="2355">
       <c r="A2355" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2355" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2355" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>30-Year Green Gilt Auction</t>
         </is>
       </c>
       <c r="D2355" t="inlineStr"/>
       <c r="E2355" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>4.831%</t>
         </is>
       </c>
       <c r="F2355" t="inlineStr"/>
-      <c r="G2355" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
+      <c r="G2355" t="inlineStr"/>
       <c r="H2355" t="inlineStr">
         <is>
           <t>3</t>
@@ -75630,23 +75556,23 @@
     <row r="2356">
       <c r="A2356" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>06:10 AM</t>
         </is>
       </c>
       <c r="B2356" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C2356" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMIJAN</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2356" t="inlineStr"/>
       <c r="E2356" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>2.615%</t>
         </is>
       </c>
       <c r="F2356" t="inlineStr"/>
@@ -75660,23 +75586,23 @@
     <row r="2357">
       <c r="A2357" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>06:10 AM</t>
         </is>
       </c>
       <c r="B2357" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C2357" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMIJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2357" t="inlineStr"/>
       <c r="E2357" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>2.505%</t>
         </is>
       </c>
       <c r="F2357" t="inlineStr"/>
@@ -75690,23 +75616,23 @@
     <row r="2358">
       <c r="A2358" t="inlineStr">
         <is>
-          <t>02:15 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B2358" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2358" t="inlineStr">
         <is>
-          <t>S&amp;P Global PMIJAN</t>
+          <t>M3 Money Supply YoYJAN/24</t>
         </is>
       </c>
       <c r="D2358" t="inlineStr"/>
       <c r="E2358" t="inlineStr">
         <is>
-          <t>49.9</t>
+          <t>10.1%</t>
         </is>
       </c>
       <c r="F2358" t="inlineStr"/>
@@ -75720,12 +75646,12 @@
     <row r="2359">
       <c r="A2359" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2359" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2359" t="inlineStr">
@@ -75736,13 +75662,13 @@
       <c r="D2359" t="inlineStr"/>
       <c r="E2359" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F2359" t="inlineStr"/>
       <c r="G2359" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2359" t="inlineStr">
@@ -75754,53 +75680,57 @@
     <row r="2360">
       <c r="A2360" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2360" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2360" t="inlineStr">
         <is>
-          <t>HCOB Services PMIJAN</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2360" t="inlineStr"/>
       <c r="E2360" t="inlineStr">
         <is>
-          <t>57.3</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="F2360" t="inlineStr"/>
-      <c r="G2360" t="inlineStr"/>
+      <c r="G2360" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="H2360" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2361">
       <c r="A2361" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2361" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2361" t="inlineStr">
         <is>
-          <t>HCOB Composite PMIJAN</t>
+          <t>Gross Fixed Investment MoMNOV</t>
         </is>
       </c>
       <c r="D2361" t="inlineStr"/>
       <c r="E2361" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2361" t="inlineStr"/>
@@ -75814,55 +75744,51 @@
     <row r="2362">
       <c r="A2362" t="inlineStr">
         <is>
-          <t>03:45 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2362" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2362" t="inlineStr">
         <is>
-          <t>HCOB Composite PMIJAN</t>
+          <t>Gross Fixed Investment YoYNOV</t>
         </is>
       </c>
       <c r="D2362" t="inlineStr"/>
       <c r="E2362" t="inlineStr">
         <is>
-          <t>49.7</t>
+          <t>-2.6%</t>
         </is>
       </c>
       <c r="F2362" t="inlineStr"/>
       <c r="G2362" t="inlineStr"/>
       <c r="H2362" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2363">
       <c r="A2363" t="inlineStr">
         <is>
-          <t>03:45 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2363" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2363" t="inlineStr">
         <is>
-          <t>HCOB Services PMIJAN</t>
+          <t>MBA 30-Year Mortgage RateJAN/31</t>
         </is>
       </c>
       <c r="D2363" t="inlineStr"/>
-      <c r="E2363" t="inlineStr">
-        <is>
-          <t>50.7</t>
-        </is>
-      </c>
+      <c r="E2363" t="inlineStr"/>
       <c r="F2363" t="inlineStr"/>
       <c r="G2363" t="inlineStr"/>
       <c r="H2363" t="inlineStr">
@@ -75874,73 +75800,49 @@
     <row r="2364">
       <c r="A2364" t="inlineStr">
         <is>
-          <t>03:50 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2364" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2364" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FinalJAN</t>
+          <t>MBA Mortgage ApplicationsJAN/31</t>
         </is>
       </c>
       <c r="D2364" t="inlineStr"/>
-      <c r="E2364" t="inlineStr">
-        <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F2364" t="inlineStr">
-        <is>
-          <t>48.9</t>
-        </is>
-      </c>
-      <c r="G2364" t="inlineStr">
-        <is>
-          <t>48.9</t>
-        </is>
-      </c>
+      <c r="E2364" t="inlineStr"/>
+      <c r="F2364" t="inlineStr"/>
+      <c r="G2364" t="inlineStr"/>
       <c r="H2364" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2365">
       <c r="A2365" t="inlineStr">
         <is>
-          <t>03:50 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2365" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2365" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FinalJAN</t>
+          <t>MBA Mortgage Market IndexJAN/31</t>
         </is>
       </c>
       <c r="D2365" t="inlineStr"/>
-      <c r="E2365" t="inlineStr">
-        <is>
-          <t>47.5</t>
-        </is>
-      </c>
-      <c r="F2365" t="inlineStr">
-        <is>
-          <t>48.3</t>
-        </is>
-      </c>
-      <c r="G2365" t="inlineStr">
-        <is>
-          <t>48.3</t>
-        </is>
-      </c>
+      <c r="E2365" t="inlineStr"/>
+      <c r="F2365" t="inlineStr"/>
+      <c r="G2365" t="inlineStr"/>
       <c r="H2365" t="inlineStr">
         <is>
           <t>3</t>
@@ -75950,106 +75852,78 @@
     <row r="2366">
       <c r="A2366" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2366" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2366" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FinalJAN</t>
+          <t>MBA Mortgage Refinance IndexJAN/31</t>
         </is>
       </c>
       <c r="D2366" t="inlineStr"/>
-      <c r="E2366" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="F2366" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
-      <c r="G2366" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
+      <c r="E2366" t="inlineStr"/>
+      <c r="F2366" t="inlineStr"/>
+      <c r="G2366" t="inlineStr"/>
       <c r="H2366" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2367">
       <c r="A2367" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2367" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2367" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FinalJAN</t>
+          <t>MBA Purchase IndexJAN/31</t>
         </is>
       </c>
       <c r="D2367" t="inlineStr"/>
-      <c r="E2367" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2367" t="inlineStr">
-        <is>
-          <t>52.5</t>
-        </is>
-      </c>
-      <c r="G2367" t="inlineStr">
-        <is>
-          <t>52.5</t>
-        </is>
-      </c>
+      <c r="E2367" t="inlineStr"/>
+      <c r="F2367" t="inlineStr"/>
+      <c r="G2367" t="inlineStr"/>
       <c r="H2367" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2368">
       <c r="A2368" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2368" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2368" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FinalJAN</t>
+          <t>S&amp;P Global Services PMIJAN</t>
         </is>
       </c>
       <c r="D2368" t="inlineStr"/>
       <c r="E2368" t="inlineStr">
         <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F2368" t="inlineStr">
-        <is>
-          <t>50.2</t>
-        </is>
-      </c>
+          <t>51.6</t>
+        </is>
+      </c>
+      <c r="F2368" t="inlineStr"/>
       <c r="G2368" t="inlineStr">
         <is>
           <t>50.2</t>
@@ -76064,69 +75938,61 @@
     <row r="2369">
       <c r="A2369" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2369" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2369" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FinalJAN</t>
+          <t>S&amp;P Global Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2369" t="inlineStr"/>
       <c r="E2369" t="inlineStr">
         <is>
-          <t>51.6</t>
-        </is>
-      </c>
-      <c r="F2369" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+          <t>51.5</t>
+        </is>
+      </c>
+      <c r="F2369" t="inlineStr"/>
       <c r="G2369" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H2369" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2370">
       <c r="A2370" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B2370" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2370" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>ADP Employment ChangeJAN</t>
         </is>
       </c>
       <c r="D2370" t="inlineStr"/>
       <c r="E2370" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>122K</t>
         </is>
       </c>
       <c r="F2370" t="inlineStr"/>
-      <c r="G2370" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G2370" t="inlineStr"/>
       <c r="H2370" t="inlineStr">
         <is>
           <t>2</t>
@@ -76136,63 +76002,63 @@
     <row r="2371">
       <c r="A2371" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2371" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2371" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2371" t="inlineStr"/>
       <c r="E2371" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>C$-0.32B</t>
         </is>
       </c>
       <c r="F2371" t="inlineStr"/>
       <c r="G2371" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>C$ -1.6B</t>
         </is>
       </c>
       <c r="H2371" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2372">
       <c r="A2372" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2372" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2372" t="inlineStr">
         <is>
-          <t>New Car Sales YoYJAN</t>
+          <t>ExportsDEC</t>
         </is>
       </c>
       <c r="D2372" t="inlineStr"/>
       <c r="E2372" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>C$66.11B</t>
         </is>
       </c>
       <c r="F2372" t="inlineStr"/>
       <c r="G2372" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>C$ 65.8B</t>
         </is>
       </c>
       <c r="H2372" t="inlineStr">
@@ -76204,165 +76070,157 @@
     <row r="2373">
       <c r="A2373" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2373" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2373" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FinalJAN</t>
+          <t>ImportsDEC</t>
         </is>
       </c>
       <c r="D2373" t="inlineStr"/>
       <c r="E2373" t="inlineStr">
         <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="F2373" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
+          <t>C$66.43B</t>
+        </is>
+      </c>
+      <c r="F2373" t="inlineStr"/>
       <c r="G2373" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>C$ 64.5B</t>
         </is>
       </c>
       <c r="H2373" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2374">
       <c r="A2374" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2374" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2374" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FinalJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2374" t="inlineStr"/>
       <c r="E2374" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>$-78.2B</t>
         </is>
       </c>
       <c r="F2374" t="inlineStr"/>
       <c r="G2374" t="inlineStr">
         <is>
-          <t>50.9</t>
+          <t>$ -68B</t>
         </is>
       </c>
       <c r="H2374" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2375">
       <c r="A2375" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2375" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2375" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>ExportsDEC</t>
         </is>
       </c>
       <c r="D2375" t="inlineStr"/>
       <c r="E2375" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>$273.4B</t>
         </is>
       </c>
       <c r="F2375" t="inlineStr"/>
       <c r="G2375" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>$ 275.0B</t>
         </is>
       </c>
       <c r="H2375" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2376">
       <c r="A2376" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2376" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2376" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>ImportsDEC</t>
         </is>
       </c>
       <c r="D2376" t="inlineStr"/>
       <c r="E2376" t="inlineStr">
         <is>
-          <t>-1.2%</t>
+          <t>$351.6B</t>
         </is>
       </c>
       <c r="F2376" t="inlineStr"/>
       <c r="G2376" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>$ 338B</t>
         </is>
       </c>
       <c r="H2376" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2377">
       <c r="A2377" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2377" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2377" t="inlineStr">
         <is>
-          <t>30-Year Green Gilt Auction</t>
+          <t>Treasury Refunding Announcement</t>
         </is>
       </c>
       <c r="D2377" t="inlineStr"/>
-      <c r="E2377" t="inlineStr">
-        <is>
-          <t>4.831%</t>
-        </is>
-      </c>
+      <c r="E2377" t="inlineStr"/>
       <c r="F2377" t="inlineStr"/>
       <c r="G2377" t="inlineStr"/>
       <c r="H2377" t="inlineStr">
@@ -76374,27 +76232,31 @@
     <row r="2378">
       <c r="A2378" t="inlineStr">
         <is>
-          <t>06:10 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2378" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2378" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>S&amp;P Global Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2378" t="inlineStr"/>
       <c r="E2378" t="inlineStr">
         <is>
-          <t>2.615%</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="F2378" t="inlineStr"/>
-      <c r="G2378" t="inlineStr"/>
+      <c r="G2378" t="inlineStr">
+        <is>
+          <t>48.5</t>
+        </is>
+      </c>
       <c r="H2378" t="inlineStr">
         <is>
           <t>3</t>
@@ -76404,27 +76266,31 @@
     <row r="2379">
       <c r="A2379" t="inlineStr">
         <is>
-          <t>06:10 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2379" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2379" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>S&amp;P Global Services PMIJAN</t>
         </is>
       </c>
       <c r="D2379" t="inlineStr"/>
       <c r="E2379" t="inlineStr">
         <is>
-          <t>2.505%</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="F2379" t="inlineStr"/>
-      <c r="G2379" t="inlineStr"/>
+      <c r="G2379" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
       <c r="H2379" t="inlineStr">
         <is>
           <t>3</t>
@@ -76434,59 +76300,71 @@
     <row r="2380">
       <c r="A2380" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B2380" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2380" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYJAN/24</t>
+          <t>S&amp;P Global Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2380" t="inlineStr"/>
       <c r="E2380" t="inlineStr">
         <is>
-          <t>10.1%</t>
-        </is>
-      </c>
-      <c r="F2380" t="inlineStr"/>
-      <c r="G2380" t="inlineStr"/>
+          <t>55.4</t>
+        </is>
+      </c>
+      <c r="F2380" t="inlineStr">
+        <is>
+          <t>52.4</t>
+        </is>
+      </c>
+      <c r="G2380" t="inlineStr">
+        <is>
+          <t>52.4</t>
+        </is>
+      </c>
       <c r="H2380" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2381">
       <c r="A2381" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B2381" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2381" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>S&amp;P Global Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2381" t="inlineStr"/>
       <c r="E2381" t="inlineStr">
         <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
-      <c r="F2381" t="inlineStr"/>
+          <t>56.8</t>
+        </is>
+      </c>
+      <c r="F2381" t="inlineStr">
+        <is>
+          <t>52.8</t>
+        </is>
+      </c>
       <c r="G2381" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>52.8</t>
         </is>
       </c>
       <c r="H2381" t="inlineStr">
@@ -76498,57 +76376,49 @@
     <row r="2382">
       <c r="A2382" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2382" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2382" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>ISM Services PMIJAN</t>
         </is>
       </c>
       <c r="D2382" t="inlineStr"/>
-      <c r="E2382" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="E2382" t="inlineStr"/>
       <c r="F2382" t="inlineStr"/>
-      <c r="G2382" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
+      <c r="G2382" t="inlineStr"/>
       <c r="H2382" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2383">
       <c r="A2383" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2383" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2383" t="inlineStr">
         <is>
-          <t>Gross Fixed Investment MoMNOV</t>
+          <t>ISM Services Business ActivityJAN</t>
         </is>
       </c>
       <c r="D2383" t="inlineStr"/>
       <c r="E2383" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>58.2</t>
         </is>
       </c>
       <c r="F2383" t="inlineStr"/>
@@ -76562,23 +76432,23 @@
     <row r="2384">
       <c r="A2384" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2384" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2384" t="inlineStr">
         <is>
-          <t>Gross Fixed Investment YoYNOV</t>
+          <t>ISM Services EmploymentJAN</t>
         </is>
       </c>
       <c r="D2384" t="inlineStr"/>
       <c r="E2384" t="inlineStr">
         <is>
-          <t>-2.6%</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="F2384" t="inlineStr"/>
@@ -76592,7 +76462,7 @@
     <row r="2385">
       <c r="A2385" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2385" t="inlineStr">
@@ -76602,23 +76472,27 @@
       </c>
       <c r="C2385" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/31</t>
+          <t>ISM Services New OrdersJAN</t>
         </is>
       </c>
       <c r="D2385" t="inlineStr"/>
-      <c r="E2385" t="inlineStr"/>
+      <c r="E2385" t="inlineStr">
+        <is>
+          <t>54.2</t>
+        </is>
+      </c>
       <c r="F2385" t="inlineStr"/>
       <c r="G2385" t="inlineStr"/>
       <c r="H2385" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2386">
       <c r="A2386" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2386" t="inlineStr">
@@ -76628,11 +76502,15 @@
       </c>
       <c r="C2386" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/31</t>
+          <t>ISM Services PricesJAN</t>
         </is>
       </c>
       <c r="D2386" t="inlineStr"/>
-      <c r="E2386" t="inlineStr"/>
+      <c r="E2386" t="inlineStr">
+        <is>
+          <t>64.4</t>
+        </is>
+      </c>
       <c r="F2386" t="inlineStr"/>
       <c r="G2386" t="inlineStr"/>
       <c r="H2386" t="inlineStr">
@@ -76644,7 +76522,7 @@
     <row r="2387">
       <c r="A2387" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2387" t="inlineStr">
@@ -76654,7 +76532,7 @@
       </c>
       <c r="C2387" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/31</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2387" t="inlineStr"/>
@@ -76663,14 +76541,14 @@
       <c r="G2387" t="inlineStr"/>
       <c r="H2387" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2388">
       <c r="A2388" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2388" t="inlineStr">
@@ -76680,7 +76558,7 @@
       </c>
       <c r="C2388" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/31</t>
+          <t>EIA Gasoline Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2388" t="inlineStr"/>
@@ -76689,14 +76567,14 @@
       <c r="G2388" t="inlineStr"/>
       <c r="H2388" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2389">
       <c r="A2389" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2389" t="inlineStr">
@@ -76706,7 +76584,7 @@
       </c>
       <c r="C2389" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/31</t>
+          <t>EIA Crude Oil Imports ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2389" t="inlineStr"/>
@@ -76722,65 +76600,49 @@
     <row r="2390">
       <c r="A2390" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2390" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2390" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMIJAN</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2390" t="inlineStr"/>
-      <c r="E2390" t="inlineStr">
-        <is>
-          <t>51.6</t>
-        </is>
-      </c>
+      <c r="E2390" t="inlineStr"/>
       <c r="F2390" t="inlineStr"/>
-      <c r="G2390" t="inlineStr">
-        <is>
-          <t>50.2</t>
-        </is>
-      </c>
+      <c r="G2390" t="inlineStr"/>
       <c r="H2390" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2391">
       <c r="A2391" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2391" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2391" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMIJAN</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2391" t="inlineStr"/>
-      <c r="E2391" t="inlineStr">
-        <is>
-          <t>51.5</t>
-        </is>
-      </c>
+      <c r="E2391" t="inlineStr"/>
       <c r="F2391" t="inlineStr"/>
-      <c r="G2391" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
+      <c r="G2391" t="inlineStr"/>
       <c r="H2391" t="inlineStr">
         <is>
           <t>3</t>
@@ -76790,7 +76652,7 @@
     <row r="2392">
       <c r="A2392" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2392" t="inlineStr">
@@ -76800,85 +76662,65 @@
       </c>
       <c r="C2392" t="inlineStr">
         <is>
-          <t>ADP Employment ChangeJAN</t>
+          <t>EIA Distillate Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2392" t="inlineStr"/>
-      <c r="E2392" t="inlineStr">
-        <is>
-          <t>122K</t>
-        </is>
-      </c>
+      <c r="E2392" t="inlineStr"/>
       <c r="F2392" t="inlineStr"/>
       <c r="G2392" t="inlineStr"/>
       <c r="H2392" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2393">
       <c r="A2393" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2393" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2393" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>EIA Gasoline Production ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2393" t="inlineStr"/>
-      <c r="E2393" t="inlineStr">
-        <is>
-          <t>C$-0.32B</t>
-        </is>
-      </c>
+      <c r="E2393" t="inlineStr"/>
       <c r="F2393" t="inlineStr"/>
-      <c r="G2393" t="inlineStr">
-        <is>
-          <t>C$ -1.6B</t>
-        </is>
-      </c>
+      <c r="G2393" t="inlineStr"/>
       <c r="H2393" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2394">
       <c r="A2394" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2394" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2394" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2394" t="inlineStr"/>
-      <c r="E2394" t="inlineStr">
-        <is>
-          <t>C$66.11B</t>
-        </is>
-      </c>
+      <c r="E2394" t="inlineStr"/>
       <c r="F2394" t="inlineStr"/>
-      <c r="G2394" t="inlineStr">
-        <is>
-          <t>C$ 65.8B</t>
-        </is>
-      </c>
+      <c r="G2394" t="inlineStr"/>
       <c r="H2394" t="inlineStr">
         <is>
           <t>3</t>
@@ -76888,31 +76730,23 @@
     <row r="2395">
       <c r="A2395" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2395" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2395" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2395" t="inlineStr"/>
-      <c r="E2395" t="inlineStr">
-        <is>
-          <t>C$66.43B</t>
-        </is>
-      </c>
+      <c r="E2395" t="inlineStr"/>
       <c r="F2395" t="inlineStr"/>
-      <c r="G2395" t="inlineStr">
-        <is>
-          <t>C$ 64.5B</t>
-        </is>
-      </c>
+      <c r="G2395" t="inlineStr"/>
       <c r="H2395" t="inlineStr">
         <is>
           <t>3</t>
@@ -76922,29 +76756,25 @@
     <row r="2396">
       <c r="A2396" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2396" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2396" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D2396" t="inlineStr"/>
-      <c r="E2396" t="inlineStr">
-        <is>
-          <t>$-78.2B</t>
-        </is>
-      </c>
+      <c r="E2396" t="inlineStr"/>
       <c r="F2396" t="inlineStr"/>
       <c r="G2396" t="inlineStr">
         <is>
-          <t>$ -68B</t>
+          <t>2.40%</t>
         </is>
       </c>
       <c r="H2396" t="inlineStr">
@@ -76956,91 +76786,83 @@
     <row r="2397">
       <c r="A2397" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2397" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2397" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2397" t="inlineStr"/>
-      <c r="E2397" t="inlineStr">
-        <is>
-          <t>$273.4B</t>
-        </is>
-      </c>
+      <c r="E2397" t="inlineStr"/>
       <c r="F2397" t="inlineStr"/>
-      <c r="G2397" t="inlineStr">
-        <is>
-          <t>$ 275.0B</t>
-        </is>
-      </c>
+      <c r="G2397" t="inlineStr"/>
       <c r="H2397" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2398">
       <c r="A2398" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2398" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2398" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>Corporate ProfitsNOV</t>
         </is>
       </c>
       <c r="D2398" t="inlineStr"/>
-      <c r="E2398" t="inlineStr">
-        <is>
-          <t>$351.6B</t>
-        </is>
-      </c>
+      <c r="E2398" t="inlineStr"/>
       <c r="F2398" t="inlineStr"/>
-      <c r="G2398" t="inlineStr">
-        <is>
-          <t>$ 338B</t>
-        </is>
-      </c>
+      <c r="G2398" t="inlineStr"/>
       <c r="H2398" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2399">
       <c r="A2399" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2399" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2399" t="inlineStr">
         <is>
-          <t>Treasury Refunding Announcement</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2399" t="inlineStr"/>
-      <c r="E2399" t="inlineStr"/>
+      <c r="E2399" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="F2399" t="inlineStr"/>
-      <c r="G2399" t="inlineStr"/>
+      <c r="G2399" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
       <c r="H2399" t="inlineStr">
         <is>
           <t>3</t>
@@ -77050,31 +76872,23 @@
     <row r="2400">
       <c r="A2400" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2400" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2400" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMIJAN</t>
+          <t>Real Wage Growth YoYNOV</t>
         </is>
       </c>
       <c r="D2400" t="inlineStr"/>
-      <c r="E2400" t="inlineStr">
-        <is>
-          <t>49.0</t>
-        </is>
-      </c>
+      <c r="E2400" t="inlineStr"/>
       <c r="F2400" t="inlineStr"/>
-      <c r="G2400" t="inlineStr">
-        <is>
-          <t>48.5</t>
-        </is>
-      </c>
+      <c r="G2400" t="inlineStr"/>
       <c r="H2400" t="inlineStr">
         <is>
           <t>3</t>
@@ -77084,29 +76898,25 @@
     <row r="2401">
       <c r="A2401" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2401" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2401" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMIJAN</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2401" t="inlineStr"/>
-      <c r="E2401" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
+      <c r="E2401" t="inlineStr"/>
       <c r="F2401" t="inlineStr"/>
       <c r="G2401" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="H2401" t="inlineStr">
@@ -77118,7 +76928,7 @@
     <row r="2402">
       <c r="A2402" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2402" t="inlineStr">
@@ -77128,73 +76938,49 @@
       </c>
       <c r="C2402" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FinalJAN</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2402" t="inlineStr"/>
-      <c r="E2402" t="inlineStr">
-        <is>
-          <t>55.4</t>
-        </is>
-      </c>
-      <c r="F2402" t="inlineStr">
-        <is>
-          <t>52.4</t>
-        </is>
-      </c>
-      <c r="G2402" t="inlineStr">
-        <is>
-          <t>52.4</t>
-        </is>
-      </c>
+      <c r="E2402" t="inlineStr"/>
+      <c r="F2402" t="inlineStr"/>
+      <c r="G2402" t="inlineStr"/>
       <c r="H2402" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2403">
       <c r="A2403" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B2403" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2403" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FinalJAN</t>
+          <t>2-Year Bond Auction</t>
         </is>
       </c>
       <c r="D2403" t="inlineStr"/>
-      <c r="E2403" t="inlineStr">
-        <is>
-          <t>56.8</t>
-        </is>
-      </c>
-      <c r="F2403" t="inlineStr">
-        <is>
-          <t>52.8</t>
-        </is>
-      </c>
-      <c r="G2403" t="inlineStr">
-        <is>
-          <t>52.8</t>
-        </is>
-      </c>
+      <c r="E2403" t="inlineStr"/>
+      <c r="F2403" t="inlineStr"/>
+      <c r="G2403" t="inlineStr"/>
       <c r="H2403" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2404">
       <c r="A2404" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2404" t="inlineStr">
@@ -77204,7 +76990,7 @@
       </c>
       <c r="C2404" t="inlineStr">
         <is>
-          <t>ISM Services PMIJAN</t>
+          <t>Fed Goolsbee Speech</t>
         </is>
       </c>
       <c r="D2404" t="inlineStr"/>
@@ -77213,64 +76999,72 @@
       <c r="G2404" t="inlineStr"/>
       <c r="H2404" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2405">
       <c r="A2405" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2405" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2405" t="inlineStr">
         <is>
-          <t>ISM Services Business ActivityJAN</t>
+          <t>Ai Group Industry IndexJAN</t>
         </is>
       </c>
       <c r="D2405" t="inlineStr"/>
       <c r="E2405" t="inlineStr">
         <is>
-          <t>58.2</t>
+          <t>-10.8</t>
         </is>
       </c>
       <c r="F2405" t="inlineStr"/>
-      <c r="G2405" t="inlineStr"/>
+      <c r="G2405" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
       <c r="H2405" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2406">
       <c r="A2406" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2406" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2406" t="inlineStr">
         <is>
-          <t>ISM Services EmploymentJAN</t>
+          <t>Ai Group Construction IndexJAN</t>
         </is>
       </c>
       <c r="D2406" t="inlineStr"/>
       <c r="E2406" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>-19.0</t>
         </is>
       </c>
       <c r="F2406" t="inlineStr"/>
-      <c r="G2406" t="inlineStr"/>
+      <c r="G2406" t="inlineStr">
+        <is>
+          <t>-25</t>
+        </is>
+      </c>
       <c r="H2406" t="inlineStr">
         <is>
           <t>3</t>
@@ -77280,27 +77074,31 @@
     <row r="2407">
       <c r="A2407" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2407" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2407" t="inlineStr">
         <is>
-          <t>ISM Services New OrdersJAN</t>
+          <t>Ai Group Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D2407" t="inlineStr"/>
       <c r="E2407" t="inlineStr">
         <is>
-          <t>54.2</t>
+          <t>-17.9</t>
         </is>
       </c>
       <c r="F2407" t="inlineStr"/>
-      <c r="G2407" t="inlineStr"/>
+      <c r="G2407" t="inlineStr">
+        <is>
+          <t>-13</t>
+        </is>
+      </c>
       <c r="H2407" t="inlineStr">
         <is>
           <t>3</t>
@@ -77310,27 +77108,27 @@
     <row r="2408">
       <c r="A2408" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2408" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2408" t="inlineStr">
         <is>
-          <t>ISM Services PricesJAN</t>
+          <t>Current AccountDEC</t>
         </is>
       </c>
       <c r="D2408" t="inlineStr"/>
-      <c r="E2408" t="inlineStr">
-        <is>
-          <t>64.4</t>
-        </is>
-      </c>
+      <c r="E2408" t="inlineStr"/>
       <c r="F2408" t="inlineStr"/>
-      <c r="G2408" t="inlineStr"/>
+      <c r="G2408" t="inlineStr">
+        <is>
+          <t>$ 8.1B</t>
+        </is>
+      </c>
       <c r="H2408" t="inlineStr">
         <is>
           <t>3</t>
@@ -77340,17 +77138,17 @@
     <row r="2409">
       <c r="A2409" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2409" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2409" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/31</t>
+          <t>Overtime Pay YoYDEC</t>
         </is>
       </c>
       <c r="D2409" t="inlineStr"/>
@@ -77359,24 +77157,24 @@
       <c r="G2409" t="inlineStr"/>
       <c r="H2409" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2410">
       <c r="A2410" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B2410" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2410" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJAN/31</t>
+          <t>Foreign Bond InvestmentFEB/01</t>
         </is>
       </c>
       <c r="D2410" t="inlineStr"/>
@@ -77385,24 +77183,24 @@
       <c r="G2410" t="inlineStr"/>
       <c r="H2410" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2411">
       <c r="A2411" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B2411" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2411" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJAN/31</t>
+          <t>Stock Investment by ForeignersFEB/01</t>
         </is>
       </c>
       <c r="D2411" t="inlineStr"/>
@@ -77418,47 +77216,59 @@
     <row r="2412">
       <c r="A2412" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2412" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2412" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/31</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2412" t="inlineStr"/>
-      <c r="E2412" t="inlineStr"/>
+      <c r="E2412" t="inlineStr">
+        <is>
+          <t>A$7.079B</t>
+        </is>
+      </c>
       <c r="F2412" t="inlineStr"/>
-      <c r="G2412" t="inlineStr"/>
+      <c r="G2412" t="inlineStr">
+        <is>
+          <t>A$ 3.2B</t>
+        </is>
+      </c>
       <c r="H2412" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2413">
       <c r="A2413" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2413" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2413" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/31</t>
+          <t>Exports MoMDEC</t>
         </is>
       </c>
       <c r="D2413" t="inlineStr"/>
-      <c r="E2413" t="inlineStr"/>
+      <c r="E2413" t="inlineStr">
+        <is>
+          <t>4.8%</t>
+        </is>
+      </c>
       <c r="F2413" t="inlineStr"/>
       <c r="G2413" t="inlineStr"/>
       <c r="H2413" t="inlineStr">
@@ -77470,21 +77280,25 @@
     <row r="2414">
       <c r="A2414" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2414" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2414" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJAN/31</t>
+          <t>Imports MoMDEC</t>
         </is>
       </c>
       <c r="D2414" t="inlineStr"/>
-      <c r="E2414" t="inlineStr"/>
+      <c r="E2414" t="inlineStr">
+        <is>
+          <t>1.7%</t>
+        </is>
+      </c>
       <c r="F2414" t="inlineStr"/>
       <c r="G2414" t="inlineStr"/>
       <c r="H2414" t="inlineStr">
@@ -77496,21 +77310,25 @@
     <row r="2415">
       <c r="A2415" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B2415" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2415" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJAN/31</t>
+          <t>30-Year JGB Auction</t>
         </is>
       </c>
       <c r="D2415" t="inlineStr"/>
-      <c r="E2415" t="inlineStr"/>
+      <c r="E2415" t="inlineStr">
+        <is>
+          <t>2.304%</t>
+        </is>
+      </c>
       <c r="F2415" t="inlineStr"/>
       <c r="G2415" t="inlineStr"/>
       <c r="H2415" t="inlineStr">
@@ -77522,21 +77340,25 @@
     <row r="2416">
       <c r="A2416" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B2416" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2416" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/31</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2416" t="inlineStr"/>
-      <c r="E2416" t="inlineStr"/>
+      <c r="E2416" t="inlineStr">
+        <is>
+          <t>0.3535%</t>
+        </is>
+      </c>
       <c r="F2416" t="inlineStr"/>
       <c r="G2416" t="inlineStr"/>
       <c r="H2416" t="inlineStr">
@@ -77546,11 +77368,7 @@
       </c>
     </row>
     <row r="2417">
-      <c r="A2417" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
+      <c r="A2417" t="inlineStr"/>
       <c r="B2417" t="inlineStr">
         <is>
           <t>US</t>
@@ -77558,11 +77376,15 @@
       </c>
       <c r="C2417" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/31</t>
+          <t>Total Vehicle SalesJAN</t>
         </is>
       </c>
       <c r="D2417" t="inlineStr"/>
-      <c r="E2417" t="inlineStr"/>
+      <c r="E2417" t="inlineStr">
+        <is>
+          <t>16.8M</t>
+        </is>
+      </c>
       <c r="F2417" t="inlineStr"/>
       <c r="G2417" t="inlineStr"/>
       <c r="H2417" t="inlineStr">
@@ -77574,77 +77396,73 @@
     <row r="2418">
       <c r="A2418" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2418" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2418" t="inlineStr">
-        <is>
-          <t>Unemployment RateDEC</t>
-        </is>
-      </c>
+          <t>Thursday February 06 2025</t>
+        </is>
+      </c>
+      <c r="B2418" t="inlineStr"/>
+      <c r="C2418" t="inlineStr"/>
       <c r="D2418" t="inlineStr"/>
       <c r="E2418" t="inlineStr"/>
       <c r="F2418" t="inlineStr"/>
-      <c r="G2418" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
-      <c r="H2418" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G2418" t="inlineStr"/>
+      <c r="H2418" t="inlineStr"/>
     </row>
     <row r="2419">
       <c r="A2419" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2419" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2419" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>Factory Orders MoMDEC</t>
         </is>
       </c>
       <c r="D2419" t="inlineStr"/>
-      <c r="E2419" t="inlineStr"/>
+      <c r="E2419" t="inlineStr">
+        <is>
+          <t>-5.4%</t>
+        </is>
+      </c>
       <c r="F2419" t="inlineStr"/>
-      <c r="G2419" t="inlineStr"/>
+      <c r="G2419" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2419" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2420">
       <c r="A2420" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2420" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2420" t="inlineStr">
         <is>
-          <t>Corporate ProfitsNOV</t>
+          <t>HCOB Construction PMIJAN</t>
         </is>
       </c>
       <c r="D2420" t="inlineStr"/>
-      <c r="E2420" t="inlineStr"/>
+      <c r="E2420" t="inlineStr">
+        <is>
+          <t>42.9</t>
+        </is>
+      </c>
       <c r="F2420" t="inlineStr"/>
       <c r="G2420" t="inlineStr"/>
       <c r="H2420" t="inlineStr">
@@ -77656,31 +77474,27 @@
     <row r="2421">
       <c r="A2421" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2421" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2421" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>HCOB Construction PMIJAN</t>
         </is>
       </c>
       <c r="D2421" t="inlineStr"/>
       <c r="E2421" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>42.6</t>
         </is>
       </c>
       <c r="F2421" t="inlineStr"/>
-      <c r="G2421" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
+      <c r="G2421" t="inlineStr"/>
       <c r="H2421" t="inlineStr">
         <is>
           <t>3</t>
@@ -77690,53 +77504,57 @@
     <row r="2422">
       <c r="A2422" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2422" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2422" t="inlineStr">
         <is>
-          <t>Real Wage Growth YoYNOV</t>
+          <t>HCOB Construction PMIJAN</t>
         </is>
       </c>
       <c r="D2422" t="inlineStr"/>
-      <c r="E2422" t="inlineStr"/>
+      <c r="E2422" t="inlineStr">
+        <is>
+          <t>37.8</t>
+        </is>
+      </c>
       <c r="F2422" t="inlineStr"/>
       <c r="G2422" t="inlineStr"/>
       <c r="H2422" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2423">
       <c r="A2423" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2423" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2423" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>HCOB Construction PMIJAN</t>
         </is>
       </c>
       <c r="D2423" t="inlineStr"/>
-      <c r="E2423" t="inlineStr"/>
+      <c r="E2423" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
       <c r="F2423" t="inlineStr"/>
-      <c r="G2423" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
+      <c r="G2423" t="inlineStr"/>
       <c r="H2423" t="inlineStr">
         <is>
           <t>3</t>
@@ -77746,75 +77564,99 @@
     <row r="2424">
       <c r="A2424" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2424" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2424" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>S&amp;P Global Construction PMIJAN</t>
         </is>
       </c>
       <c r="D2424" t="inlineStr"/>
-      <c r="E2424" t="inlineStr"/>
+      <c r="E2424" t="inlineStr">
+        <is>
+          <t>53.3</t>
+        </is>
+      </c>
       <c r="F2424" t="inlineStr"/>
-      <c r="G2424" t="inlineStr"/>
+      <c r="G2424" t="inlineStr">
+        <is>
+          <t>53.5</t>
+        </is>
+      </c>
       <c r="H2424" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2425">
       <c r="A2425" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2425" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2425" t="inlineStr">
         <is>
-          <t>2-Year Bond Auction</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2425" t="inlineStr"/>
-      <c r="E2425" t="inlineStr"/>
+      <c r="E2425" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="F2425" t="inlineStr"/>
-      <c r="G2425" t="inlineStr"/>
+      <c r="G2425" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2425" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2426">
       <c r="A2426" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2426" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2426" t="inlineStr">
         <is>
-          <t>Fed Goolsbee Speech</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2426" t="inlineStr"/>
-      <c r="E2426" t="inlineStr"/>
+      <c r="E2426" t="inlineStr">
+        <is>
+          <t>1.2%</t>
+        </is>
+      </c>
       <c r="F2426" t="inlineStr"/>
-      <c r="G2426" t="inlineStr"/>
+      <c r="G2426" t="inlineStr">
+        <is>
+          <t>1.7%</t>
+        </is>
+      </c>
       <c r="H2426" t="inlineStr">
         <is>
           <t>2</t>
@@ -77824,65 +77666,49 @@
     <row r="2427">
       <c r="A2427" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2427" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2427" t="inlineStr">
         <is>
-          <t>Ai Group Industry IndexJAN</t>
+          <t>OAT Auction</t>
         </is>
       </c>
       <c r="D2427" t="inlineStr"/>
-      <c r="E2427" t="inlineStr">
-        <is>
-          <t>-10.8</t>
-        </is>
-      </c>
+      <c r="E2427" t="inlineStr"/>
       <c r="F2427" t="inlineStr"/>
-      <c r="G2427" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
+      <c r="G2427" t="inlineStr"/>
       <c r="H2427" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2428">
       <c r="A2428" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B2428" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2428" t="inlineStr">
         <is>
-          <t>Ai Group Construction IndexJAN</t>
+          <t>Foreign Exchange ReservesJAN/31</t>
         </is>
       </c>
       <c r="D2428" t="inlineStr"/>
-      <c r="E2428" t="inlineStr">
-        <is>
-          <t>-19.0</t>
-        </is>
-      </c>
+      <c r="E2428" t="inlineStr"/>
       <c r="F2428" t="inlineStr"/>
-      <c r="G2428" t="inlineStr">
-        <is>
-          <t>-25</t>
-        </is>
-      </c>
+      <c r="G2428" t="inlineStr"/>
       <c r="H2428" t="inlineStr">
         <is>
           <t>3</t>
@@ -77892,81 +77718,85 @@
     <row r="2429">
       <c r="A2429" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2429" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2429" t="inlineStr">
         <is>
-          <t>Ai Group Manufacturing IndexJAN</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2429" t="inlineStr"/>
       <c r="E2429" t="inlineStr">
         <is>
-          <t>-17.9</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="F2429" t="inlineStr"/>
-      <c r="G2429" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
+      <c r="G2429" t="inlineStr"/>
       <c r="H2429" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2430">
       <c r="A2430" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2430" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2430" t="inlineStr">
         <is>
-          <t>Current AccountDEC</t>
+          <t>BoE Interest Rate Decision</t>
         </is>
       </c>
       <c r="D2430" t="inlineStr"/>
-      <c r="E2430" t="inlineStr"/>
-      <c r="F2430" t="inlineStr"/>
+      <c r="E2430" t="inlineStr">
+        <is>
+          <t>4.75%</t>
+        </is>
+      </c>
+      <c r="F2430" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
       <c r="G2430" t="inlineStr">
         <is>
-          <t>$ 8.1B</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="H2430" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2431">
       <c r="A2431" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2431" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2431" t="inlineStr">
         <is>
-          <t>Overtime Pay YoYDEC</t>
+          <t>BoE Monetary Policy Report</t>
         </is>
       </c>
       <c r="D2431" t="inlineStr"/>
@@ -77975,24 +77805,24 @@
       <c r="G2431" t="inlineStr"/>
       <c r="H2431" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2432">
       <c r="A2432" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2432" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2432" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentFEB/01</t>
+          <t>BoE MPC Vote Cut</t>
         </is>
       </c>
       <c r="D2432" t="inlineStr"/>
@@ -78001,24 +77831,24 @@
       <c r="G2432" t="inlineStr"/>
       <c r="H2432" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2433">
       <c r="A2433" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2433" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2433" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersFEB/01</t>
+          <t>BoE MPC Vote Hike</t>
         </is>
       </c>
       <c r="D2433" t="inlineStr"/>
@@ -78027,94 +77857,82 @@
       <c r="G2433" t="inlineStr"/>
       <c r="H2433" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2434">
       <c r="A2434" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2434" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2434" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>BoE MPC Vote Unchanged</t>
         </is>
       </c>
       <c r="D2434" t="inlineStr"/>
-      <c r="E2434" t="inlineStr">
-        <is>
-          <t>A$7.079B</t>
-        </is>
-      </c>
+      <c r="E2434" t="inlineStr"/>
       <c r="F2434" t="inlineStr"/>
-      <c r="G2434" t="inlineStr">
-        <is>
-          <t>A$ 3.2B</t>
-        </is>
-      </c>
+      <c r="G2434" t="inlineStr"/>
       <c r="H2434" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2435">
       <c r="A2435" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2435" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2435" t="inlineStr">
         <is>
-          <t>Exports MoMDEC</t>
+          <t>MPC Meeting Minutes</t>
         </is>
       </c>
       <c r="D2435" t="inlineStr"/>
-      <c r="E2435" t="inlineStr">
-        <is>
-          <t>4.8%</t>
-        </is>
-      </c>
+      <c r="E2435" t="inlineStr"/>
       <c r="F2435" t="inlineStr"/>
       <c r="G2435" t="inlineStr"/>
       <c r="H2435" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2436">
       <c r="A2436" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2436" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2436" t="inlineStr">
         <is>
-          <t>Imports MoMDEC</t>
+          <t>Challenger Job CutsJAN</t>
         </is>
       </c>
       <c r="D2436" t="inlineStr"/>
       <c r="E2436" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>38.792K</t>
         </is>
       </c>
       <c r="F2436" t="inlineStr"/>
@@ -78128,65 +77946,65 @@
     <row r="2437">
       <c r="A2437" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2437" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2437" t="inlineStr">
         <is>
-          <t>30-Year JGB Auction</t>
+          <t>Initial Jobless ClaimsFEB/01</t>
         </is>
       </c>
       <c r="D2437" t="inlineStr"/>
-      <c r="E2437" t="inlineStr">
-        <is>
-          <t>2.304%</t>
-        </is>
-      </c>
+      <c r="E2437" t="inlineStr"/>
       <c r="F2437" t="inlineStr"/>
       <c r="G2437" t="inlineStr"/>
       <c r="H2437" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2438">
       <c r="A2438" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2438" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2438" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Nonfarm Productivity QoQ PrelQ4</t>
         </is>
       </c>
       <c r="D2438" t="inlineStr"/>
       <c r="E2438" t="inlineStr">
         <is>
-          <t>0.3535%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="F2438" t="inlineStr"/>
       <c r="G2438" t="inlineStr"/>
       <c r="H2438" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2439">
-      <c r="A2439" t="inlineStr"/>
+      <c r="A2439" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B2439" t="inlineStr">
         <is>
           <t>US</t>
@@ -78194,123 +78012,119 @@
       </c>
       <c r="C2439" t="inlineStr">
         <is>
-          <t>Total Vehicle SalesJAN</t>
+          <t>Unit Labour Costs QoQ PrelQ4</t>
         </is>
       </c>
       <c r="D2439" t="inlineStr"/>
       <c r="E2439" t="inlineStr">
         <is>
-          <t>16.8M</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F2439" t="inlineStr"/>
       <c r="G2439" t="inlineStr"/>
       <c r="H2439" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2440">
       <c r="A2440" t="inlineStr">
         <is>
-          <t>Thursday February 06 2025</t>
-        </is>
-      </c>
-      <c r="B2440" t="inlineStr"/>
-      <c r="C2440" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B2440" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2440" t="inlineStr">
+        <is>
+          <t>Continuing Jobless ClaimsJAN/25</t>
+        </is>
+      </c>
       <c r="D2440" t="inlineStr"/>
       <c r="E2440" t="inlineStr"/>
       <c r="F2440" t="inlineStr"/>
       <c r="G2440" t="inlineStr"/>
-      <c r="H2440" t="inlineStr"/>
+      <c r="H2440" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2441">
       <c r="A2441" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2441" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2441" t="inlineStr">
         <is>
-          <t>Factory Orders MoMDEC</t>
+          <t>Jobless Claims 4-week AverageFEB/01</t>
         </is>
       </c>
       <c r="D2441" t="inlineStr"/>
-      <c r="E2441" t="inlineStr">
-        <is>
-          <t>-5.4%</t>
-        </is>
-      </c>
+      <c r="E2441" t="inlineStr"/>
       <c r="F2441" t="inlineStr"/>
-      <c r="G2441" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G2441" t="inlineStr"/>
       <c r="H2441" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2442">
       <c r="A2442" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2442" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2442" t="inlineStr">
         <is>
-          <t>HCOB Construction PMIJAN</t>
+          <t>Ivey PMI s.aJAN</t>
         </is>
       </c>
       <c r="D2442" t="inlineStr"/>
-      <c r="E2442" t="inlineStr">
-        <is>
-          <t>42.9</t>
-        </is>
-      </c>
+      <c r="E2442" t="inlineStr"/>
       <c r="F2442" t="inlineStr"/>
       <c r="G2442" t="inlineStr"/>
       <c r="H2442" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2443">
       <c r="A2443" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2443" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2443" t="inlineStr">
         <is>
-          <t>HCOB Construction PMIJAN</t>
+          <t>EIA Natural Gas Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2443" t="inlineStr"/>
-      <c r="E2443" t="inlineStr">
-        <is>
-          <t>42.6</t>
-        </is>
-      </c>
+      <c r="E2443" t="inlineStr"/>
       <c r="F2443" t="inlineStr"/>
       <c r="G2443" t="inlineStr"/>
       <c r="H2443" t="inlineStr">
@@ -78320,11 +78134,7 @@
       </c>
     </row>
     <row r="2444">
-      <c r="A2444" t="inlineStr">
-        <is>
-          <t>03:30 AM</t>
-        </is>
-      </c>
+      <c r="A2444" t="inlineStr"/>
       <c r="B2444" t="inlineStr">
         <is>
           <t>DE</t>
@@ -78332,45 +78142,37 @@
       </c>
       <c r="C2444" t="inlineStr">
         <is>
-          <t>HCOB Construction PMIJAN</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D2444" t="inlineStr"/>
       <c r="E2444" t="inlineStr">
         <is>
-          <t>37.8</t>
+          <t>-7.1%</t>
         </is>
       </c>
       <c r="F2444" t="inlineStr"/>
       <c r="G2444" t="inlineStr"/>
       <c r="H2444" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2445">
-      <c r="A2445" t="inlineStr">
-        <is>
-          <t>03:30 AM</t>
-        </is>
-      </c>
+      <c r="A2445" t="inlineStr"/>
       <c r="B2445" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2445" t="inlineStr">
         <is>
-          <t>HCOB Construction PMIJAN</t>
+          <t>Vehicle Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2445" t="inlineStr"/>
-      <c r="E2445" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
+      <c r="E2445" t="inlineStr"/>
       <c r="F2445" t="inlineStr"/>
       <c r="G2445" t="inlineStr"/>
       <c r="H2445" t="inlineStr">
@@ -78380,618 +78182,94 @@
       </c>
     </row>
     <row r="2446">
-      <c r="A2446" t="inlineStr">
-        <is>
-          <t>04:30 AM</t>
-        </is>
-      </c>
+      <c r="A2446" t="inlineStr"/>
       <c r="B2446" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>WL</t>
         </is>
       </c>
       <c r="C2446" t="inlineStr">
         <is>
-          <t>S&amp;P Global Construction PMIJAN</t>
+          <t>Global Supply Chain Pressure IndexJAN</t>
         </is>
       </c>
       <c r="D2446" t="inlineStr"/>
-      <c r="E2446" t="inlineStr">
-        <is>
-          <t>53.3</t>
-        </is>
-      </c>
+      <c r="E2446" t="inlineStr"/>
       <c r="F2446" t="inlineStr"/>
-      <c r="G2446" t="inlineStr">
-        <is>
-          <t>53.5</t>
-        </is>
-      </c>
+      <c r="G2446" t="inlineStr"/>
       <c r="H2446" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2447">
-      <c r="A2447" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
+      <c r="A2447" t="inlineStr"/>
       <c r="B2447" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2447" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>10-Year NTN-F Auction</t>
         </is>
       </c>
       <c r="D2447" t="inlineStr"/>
-      <c r="E2447" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E2447" t="inlineStr"/>
       <c r="F2447" t="inlineStr"/>
-      <c r="G2447" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2447" t="inlineStr"/>
       <c r="H2447" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2448">
-      <c r="A2448" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
+      <c r="A2448" t="inlineStr"/>
       <c r="B2448" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2448" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>2-Year LTN Auction</t>
         </is>
       </c>
       <c r="D2448" t="inlineStr"/>
-      <c r="E2448" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
+      <c r="E2448" t="inlineStr"/>
       <c r="F2448" t="inlineStr"/>
-      <c r="G2448" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="G2448" t="inlineStr"/>
       <c r="H2448" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2449">
-      <c r="A2449" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
+      <c r="A2449" t="inlineStr"/>
       <c r="B2449" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2449" t="inlineStr">
         <is>
-          <t>OAT Auction</t>
+          <t>6-Month LTN Auction</t>
         </is>
       </c>
       <c r="D2449" t="inlineStr"/>
-      <c r="E2449" t="inlineStr"/>
+      <c r="E2449" t="inlineStr">
+        <is>
+          <t>14.5579%</t>
+        </is>
+      </c>
       <c r="F2449" t="inlineStr"/>
       <c r="G2449" t="inlineStr"/>
       <c r="H2449" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2450">
-      <c r="A2450" t="inlineStr">
-        <is>
-          <t>06:30 AM</t>
-        </is>
-      </c>
-      <c r="B2450" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2450" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN/31</t>
-        </is>
-      </c>
-      <c r="D2450" t="inlineStr"/>
-      <c r="E2450" t="inlineStr"/>
-      <c r="F2450" t="inlineStr"/>
-      <c r="G2450" t="inlineStr"/>
-      <c r="H2450" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2451">
-      <c r="A2451" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B2451" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C2451" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D2451" t="inlineStr"/>
-      <c r="E2451" t="inlineStr">
-        <is>
-          <t>47.1</t>
-        </is>
-      </c>
-      <c r="F2451" t="inlineStr"/>
-      <c r="G2451" t="inlineStr"/>
-      <c r="H2451" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2452">
-      <c r="A2452" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B2452" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C2452" t="inlineStr">
-        <is>
-          <t>BoE Interest Rate Decision</t>
-        </is>
-      </c>
-      <c r="D2452" t="inlineStr"/>
-      <c r="E2452" t="inlineStr">
-        <is>
-          <t>4.75%</t>
-        </is>
-      </c>
-      <c r="F2452" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="G2452" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="H2452" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2453">
-      <c r="A2453" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B2453" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C2453" t="inlineStr">
-        <is>
-          <t>BoE Monetary Policy Report</t>
-        </is>
-      </c>
-      <c r="D2453" t="inlineStr"/>
-      <c r="E2453" t="inlineStr"/>
-      <c r="F2453" t="inlineStr"/>
-      <c r="G2453" t="inlineStr"/>
-      <c r="H2453" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2454">
-      <c r="A2454" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B2454" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C2454" t="inlineStr">
-        <is>
-          <t>BoE MPC Vote Cut</t>
-        </is>
-      </c>
-      <c r="D2454" t="inlineStr"/>
-      <c r="E2454" t="inlineStr"/>
-      <c r="F2454" t="inlineStr"/>
-      <c r="G2454" t="inlineStr"/>
-      <c r="H2454" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2455">
-      <c r="A2455" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B2455" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C2455" t="inlineStr">
-        <is>
-          <t>BoE MPC Vote Hike</t>
-        </is>
-      </c>
-      <c r="D2455" t="inlineStr"/>
-      <c r="E2455" t="inlineStr"/>
-      <c r="F2455" t="inlineStr"/>
-      <c r="G2455" t="inlineStr"/>
-      <c r="H2455" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2456">
-      <c r="A2456" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B2456" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C2456" t="inlineStr">
-        <is>
-          <t>BoE MPC Vote Unchanged</t>
-        </is>
-      </c>
-      <c r="D2456" t="inlineStr"/>
-      <c r="E2456" t="inlineStr"/>
-      <c r="F2456" t="inlineStr"/>
-      <c r="G2456" t="inlineStr"/>
-      <c r="H2456" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2457">
-      <c r="A2457" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B2457" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C2457" t="inlineStr">
-        <is>
-          <t>MPC Meeting Minutes</t>
-        </is>
-      </c>
-      <c r="D2457" t="inlineStr"/>
-      <c r="E2457" t="inlineStr"/>
-      <c r="F2457" t="inlineStr"/>
-      <c r="G2457" t="inlineStr"/>
-      <c r="H2457" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2458">
-      <c r="A2458" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2458" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2458" t="inlineStr">
-        <is>
-          <t>Challenger Job CutsJAN</t>
-        </is>
-      </c>
-      <c r="D2458" t="inlineStr"/>
-      <c r="E2458" t="inlineStr">
-        <is>
-          <t>38.792K</t>
-        </is>
-      </c>
-      <c r="F2458" t="inlineStr"/>
-      <c r="G2458" t="inlineStr"/>
-      <c r="H2458" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2459">
-      <c r="A2459" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B2459" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2459" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsFEB/01</t>
-        </is>
-      </c>
-      <c r="D2459" t="inlineStr"/>
-      <c r="E2459" t="inlineStr"/>
-      <c r="F2459" t="inlineStr"/>
-      <c r="G2459" t="inlineStr"/>
-      <c r="H2459" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2460">
-      <c r="A2460" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B2460" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2460" t="inlineStr">
-        <is>
-          <t>Nonfarm Productivity QoQ PrelQ4</t>
-        </is>
-      </c>
-      <c r="D2460" t="inlineStr"/>
-      <c r="E2460" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F2460" t="inlineStr"/>
-      <c r="G2460" t="inlineStr"/>
-      <c r="H2460" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2461">
-      <c r="A2461" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B2461" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2461" t="inlineStr">
-        <is>
-          <t>Unit Labour Costs QoQ PrelQ4</t>
-        </is>
-      </c>
-      <c r="D2461" t="inlineStr"/>
-      <c r="E2461" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F2461" t="inlineStr"/>
-      <c r="G2461" t="inlineStr"/>
-      <c r="H2461" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2462">
-      <c r="A2462" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B2462" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2462" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsJAN/25</t>
-        </is>
-      </c>
-      <c r="D2462" t="inlineStr"/>
-      <c r="E2462" t="inlineStr"/>
-      <c r="F2462" t="inlineStr"/>
-      <c r="G2462" t="inlineStr"/>
-      <c r="H2462" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2463">
-      <c r="A2463" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B2463" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2463" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageFEB/01</t>
-        </is>
-      </c>
-      <c r="D2463" t="inlineStr"/>
-      <c r="E2463" t="inlineStr"/>
-      <c r="F2463" t="inlineStr"/>
-      <c r="G2463" t="inlineStr"/>
-      <c r="H2463" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2464">
-      <c r="A2464" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2464" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C2464" t="inlineStr">
-        <is>
-          <t>Ivey PMI s.aJAN</t>
-        </is>
-      </c>
-      <c r="D2464" t="inlineStr"/>
-      <c r="E2464" t="inlineStr"/>
-      <c r="F2464" t="inlineStr"/>
-      <c r="G2464" t="inlineStr"/>
-      <c r="H2464" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2465">
-      <c r="A2465" t="inlineStr"/>
-      <c r="B2465" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C2465" t="inlineStr">
-        <is>
-          <t>New Car Registrations YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2465" t="inlineStr"/>
-      <c r="E2465" t="inlineStr">
-        <is>
-          <t>-7.1%</t>
-        </is>
-      </c>
-      <c r="F2465" t="inlineStr"/>
-      <c r="G2465" t="inlineStr"/>
-      <c r="H2465" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2466">
-      <c r="A2466" t="inlineStr"/>
-      <c r="B2466" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2466" t="inlineStr">
-        <is>
-          <t>Vehicle Sales YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2466" t="inlineStr"/>
-      <c r="E2466" t="inlineStr"/>
-      <c r="F2466" t="inlineStr"/>
-      <c r="G2466" t="inlineStr"/>
-      <c r="H2466" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2467">
-      <c r="A2467" t="inlineStr"/>
-      <c r="B2467" t="inlineStr">
-        <is>
-          <t>WL</t>
-        </is>
-      </c>
-      <c r="C2467" t="inlineStr">
-        <is>
-          <t>Global Supply Chain Pressure IndexJAN</t>
-        </is>
-      </c>
-      <c r="D2467" t="inlineStr"/>
-      <c r="E2467" t="inlineStr"/>
-      <c r="F2467" t="inlineStr"/>
-      <c r="G2467" t="inlineStr"/>
-      <c r="H2467" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-06.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2449"/>
+  <dimension ref="A1:H2455"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72180,547 +72180,569 @@
     <row r="2245">
       <c r="A2245" t="inlineStr">
         <is>
-          <t>Sunday February 02 2025</t>
-        </is>
-      </c>
-      <c r="B2245" t="inlineStr"/>
-      <c r="C2245" t="inlineStr"/>
+          <t>12:30 AM</t>
+        </is>
+      </c>
+      <c r="B2245" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="C2245" t="inlineStr">
+        <is>
+          <t>Commodity Prices YoYJAN</t>
+        </is>
+      </c>
       <c r="D2245" t="inlineStr"/>
-      <c r="E2245" t="inlineStr"/>
+      <c r="E2245" t="inlineStr">
+        <is>
+          <t>-10.7%</t>
+        </is>
+      </c>
       <c r="F2245" t="inlineStr"/>
       <c r="G2245" t="inlineStr"/>
-      <c r="H2245" t="inlineStr"/>
+      <c r="H2245" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2246">
       <c r="A2246" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B2246" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2246" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2246" t="inlineStr"/>
       <c r="E2246" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="F2246" t="inlineStr"/>
       <c r="G2246" t="inlineStr"/>
-      <c r="H2246" t="n">
-        <v>2</v>
+      <c r="H2246" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2247">
       <c r="A2247" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2247" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2247" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2247" t="inlineStr"/>
       <c r="E2247" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>1.03%</t>
         </is>
       </c>
       <c r="F2247" t="inlineStr"/>
-      <c r="G2247" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="H2247" t="n">
-        <v>3</v>
+      <c r="G2247" t="inlineStr"/>
+      <c r="H2247" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2248">
       <c r="A2248" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2248" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2248" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2248" t="inlineStr"/>
       <c r="E2248" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>44.38%</t>
         </is>
       </c>
       <c r="F2248" t="inlineStr"/>
-      <c r="G2248" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="H2248" t="n">
-        <v>3</v>
+      <c r="G2248" t="inlineStr"/>
+      <c r="H2248" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2249">
       <c r="A2249" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2249" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2249" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2249" t="inlineStr"/>
       <c r="E2249" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="F2249" t="inlineStr"/>
-      <c r="G2249" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H2249" t="n">
-        <v>3</v>
+      <c r="G2249" t="inlineStr"/>
+      <c r="H2249" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2250">
       <c r="A2250" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2250" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2250" t="inlineStr">
         <is>
-          <t>BoJ Summary of Opinions</t>
+          <t>PPI MoMJAN</t>
         </is>
       </c>
       <c r="D2250" t="inlineStr"/>
-      <c r="E2250" t="inlineStr"/>
+      <c r="E2250" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F2250" t="inlineStr"/>
       <c r="G2250" t="inlineStr"/>
-      <c r="H2250" t="n">
-        <v>2</v>
+      <c r="H2250" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2251">
       <c r="A2251" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2251" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2251" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D2251" t="inlineStr"/>
       <c r="E2251" t="inlineStr">
         <is>
-          <t>-3.6%</t>
+          <t>28.52%</t>
         </is>
       </c>
       <c r="F2251" t="inlineStr"/>
-      <c r="G2251" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="H2251" t="n">
-        <v>2</v>
+      <c r="G2251" t="inlineStr"/>
+      <c r="H2251" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2252">
       <c r="A2252" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B2252" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2252" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D2252" t="inlineStr"/>
       <c r="E2252" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>-25.3K</t>
         </is>
       </c>
       <c r="F2252" t="inlineStr"/>
-      <c r="G2252" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H2252" t="n">
-        <v>2</v>
+      <c r="G2252" t="inlineStr"/>
+      <c r="H2252" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2253">
       <c r="A2253" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B2253" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2253" t="inlineStr">
         <is>
-          <t>ANZ-Indeed Job Ads MoMJAN</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2253" t="inlineStr"/>
-      <c r="E2253" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="E2253" t="inlineStr"/>
       <c r="F2253" t="inlineStr"/>
       <c r="G2253" t="inlineStr"/>
-      <c r="H2253" t="n">
-        <v>3</v>
+      <c r="H2253" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2254">
       <c r="A2254" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:15 AM</t>
         </is>
       </c>
       <c r="B2254" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2254" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM PrelDEC</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2254" t="inlineStr"/>
       <c r="E2254" t="inlineStr">
         <is>
-          <t>-1.7%</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="F2254" t="inlineStr"/>
       <c r="G2254" t="inlineStr"/>
-      <c r="H2254" t="n">
-        <v>3</v>
+      <c r="H2254" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2255">
       <c r="A2255" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:45 AM</t>
         </is>
       </c>
       <c r="B2255" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2255" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2255" t="inlineStr"/>
       <c r="E2255" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F2255" t="inlineStr"/>
-      <c r="G2255" t="inlineStr">
-        <is>
-          <t>51.6</t>
-        </is>
-      </c>
-      <c r="H2255" t="n">
-        <v>3</v>
+      <c r="G2255" t="inlineStr"/>
+      <c r="H2255" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2256">
       <c r="A2256" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:50 AM</t>
         </is>
       </c>
       <c r="B2256" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2256" t="inlineStr">
         <is>
-          <t>Jibun Bank Manufacturing PMI FinalJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2256" t="inlineStr"/>
       <c r="E2256" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>41.9</t>
         </is>
       </c>
       <c r="F2256" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="G2256" t="inlineStr">
         <is>
-          <t>48.8</t>
-        </is>
-      </c>
-      <c r="H2256" t="n">
-        <v>2</v>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="H2256" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2257">
       <c r="A2257" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:55 AM</t>
         </is>
       </c>
       <c r="B2257" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2257" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2257" t="inlineStr"/>
       <c r="E2257" t="inlineStr">
         <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="F2257" t="inlineStr"/>
+          <t>42.5</t>
+        </is>
+      </c>
+      <c r="F2257" t="inlineStr">
+        <is>
+          <t>44.1</t>
+        </is>
+      </c>
       <c r="G2257" t="inlineStr">
         <is>
-          <t>49.5</t>
-        </is>
-      </c>
-      <c r="H2257" t="n">
-        <v>2</v>
+          <t>44.1</t>
+        </is>
+      </c>
+      <c r="H2257" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2258">
       <c r="A2258" t="inlineStr">
         <is>
-          <t>08:45 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2258" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2258" t="inlineStr">
         <is>
-          <t>Caixin Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2258" t="inlineStr"/>
       <c r="E2258" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="F2258" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="G2258" t="inlineStr">
         <is>
-          <t>50.5</t>
-        </is>
-      </c>
-      <c r="H2258" t="n">
-        <v>1</v>
+          <t>46.1</t>
+        </is>
+      </c>
+      <c r="H2258" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2259">
       <c r="A2259" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2259" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2259" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>ABSA Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2259" t="inlineStr"/>
       <c r="E2259" t="inlineStr">
         <is>
-          <t>1.57%</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F2259" t="inlineStr"/>
       <c r="G2259" t="inlineStr">
         <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="H2259" t="n">
-        <v>2</v>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="H2259" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2260">
       <c r="A2260" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2260" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2260" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2260" t="inlineStr"/>
       <c r="E2260" t="inlineStr">
         <is>
-          <t>2.26%</t>
-        </is>
-      </c>
-      <c r="F2260" t="inlineStr"/>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F2260" t="inlineStr">
+        <is>
+          <t>48.2</t>
+        </is>
+      </c>
       <c r="G2260" t="inlineStr">
         <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="H2260" t="n">
-        <v>3</v>
+          <t>48.2</t>
+        </is>
+      </c>
+      <c r="H2260" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2261">
       <c r="A2261" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2261" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2261" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2261" t="inlineStr"/>
-      <c r="E2261" t="inlineStr">
-        <is>
-          <t>0.44%</t>
-        </is>
-      </c>
+      <c r="E2261" t="inlineStr"/>
       <c r="F2261" t="inlineStr"/>
-      <c r="G2261" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2261" t="n">
-        <v>3</v>
+      <c r="G2261" t="inlineStr"/>
+      <c r="H2261" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2262">
       <c r="A2262" t="inlineStr">
         <is>
-          <t>11:45 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2262" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2262" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>Core Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2262" t="inlineStr"/>
       <c r="E2262" t="inlineStr">
         <is>
-          <t>17.27%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="F2262" t="inlineStr"/>
-      <c r="G2262" t="inlineStr">
-        <is>
-          <t>18.0%</t>
-        </is>
-      </c>
-      <c r="H2262" t="n">
-        <v>3</v>
+      <c r="G2262" t="inlineStr"/>
+      <c r="H2262" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2263">
@@ -72736,20 +72758,16 @@
       </c>
       <c r="C2263" t="inlineStr">
         <is>
-          <t>CPI FlashJAN</t>
+          <t>Inflation Rate MoM FlashJAN</t>
         </is>
       </c>
       <c r="D2263" t="inlineStr"/>
-      <c r="E2263" t="inlineStr">
-        <is>
-          <t>127.07</t>
-        </is>
-      </c>
+      <c r="E2263" t="inlineStr"/>
       <c r="F2263" t="inlineStr"/>
       <c r="G2263" t="inlineStr"/>
       <c r="H2263" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -72761,25 +72779,25 @@
       </c>
       <c r="B2264" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2264" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>CPI FlashJAN</t>
         </is>
       </c>
       <c r="D2264" t="inlineStr"/>
       <c r="E2264" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>127.07</t>
         </is>
       </c>
       <c r="F2264" t="inlineStr"/>
       <c r="G2264" t="inlineStr"/>
       <c r="H2264" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -72796,20 +72814,20 @@
       </c>
       <c r="C2265" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2265" t="inlineStr"/>
       <c r="E2265" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F2265" t="inlineStr"/>
       <c r="G2265" t="inlineStr"/>
       <c r="H2265" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -72826,7 +72844,7 @@
       </c>
       <c r="C2266" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2266" t="inlineStr"/>
@@ -72839,7 +72857,7 @@
       <c r="G2266" t="inlineStr"/>
       <c r="H2266" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -72856,13 +72874,13 @@
       </c>
       <c r="C2267" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2267" t="inlineStr"/>
       <c r="E2267" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2267" t="inlineStr"/>
@@ -72881,26 +72899,22 @@
       </c>
       <c r="B2268" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2268" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2268" t="inlineStr"/>
       <c r="E2268" t="inlineStr">
         <is>
-          <t>$232.2B</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F2268" t="inlineStr"/>
-      <c r="G2268" t="inlineStr">
-        <is>
-          <t>$ 230B</t>
-        </is>
-      </c>
+      <c r="G2268" t="inlineStr"/>
       <c r="H2268" t="inlineStr">
         <is>
           <t>3</t>
@@ -72910,29 +72924,29 @@
     <row r="2269">
       <c r="A2269" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2269" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2269" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D2269" t="inlineStr"/>
       <c r="E2269" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>$232.2B</t>
         </is>
       </c>
       <c r="F2269" t="inlineStr"/>
       <c r="G2269" t="inlineStr">
         <is>
-          <t>49.8</t>
+          <t>$ 230B</t>
         </is>
       </c>
       <c r="H2269" t="inlineStr">
@@ -72949,24 +72963,24 @@
       </c>
       <c r="B2270" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2270" t="inlineStr">
         <is>
-          <t>SIPMM Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2270" t="inlineStr"/>
       <c r="E2270" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F2270" t="inlineStr"/>
       <c r="G2270" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>49.8</t>
         </is>
       </c>
       <c r="H2270" t="inlineStr">
@@ -72978,23 +72992,31 @@
     <row r="2271">
       <c r="A2271" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2271" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2271" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>SIPMM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2271" t="inlineStr"/>
-      <c r="E2271" t="inlineStr"/>
+      <c r="E2271" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
       <c r="F2271" t="inlineStr"/>
-      <c r="G2271" t="inlineStr"/>
+      <c r="G2271" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="H2271" t="inlineStr">
         <is>
           <t>3</t>
@@ -73014,7 +73036,7 @@
       </c>
       <c r="C2272" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2272" t="inlineStr"/>
@@ -73040,7 +73062,7 @@
       </c>
       <c r="C2273" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2273" t="inlineStr"/>
@@ -73056,65 +73078,53 @@
     <row r="2274">
       <c r="A2274" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2274" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2274" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2274" t="inlineStr"/>
-      <c r="E2274" t="inlineStr">
-        <is>
-          <t>52.2</t>
-        </is>
-      </c>
+      <c r="E2274" t="inlineStr"/>
       <c r="F2274" t="inlineStr"/>
       <c r="G2274" t="inlineStr"/>
       <c r="H2274" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2275">
       <c r="A2275" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2275" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2275" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2275" t="inlineStr"/>
       <c r="E2275" t="inlineStr">
         <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="F2275" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
-      <c r="G2275" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
+          <t>52.2</t>
+        </is>
+      </c>
+      <c r="F2275" t="inlineStr"/>
+      <c r="G2275" t="inlineStr"/>
       <c r="H2275" t="inlineStr">
         <is>
           <t>2</t>
@@ -73124,7 +73134,7 @@
     <row r="2276">
       <c r="A2276" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B2276" t="inlineStr">
@@ -73134,20 +73144,28 @@
       </c>
       <c r="C2276" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2276" t="inlineStr"/>
       <c r="E2276" t="inlineStr">
         <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F2276" t="inlineStr"/>
-      <c r="G2276" t="inlineStr"/>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="F2276" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
+      <c r="G2276" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
       <c r="H2276" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -73164,20 +73182,20 @@
       </c>
       <c r="C2277" t="inlineStr">
         <is>
-          <t>ISM Manufacturing EmploymentJAN</t>
+          <t>ISM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2277" t="inlineStr"/>
       <c r="E2277" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>49.3</t>
         </is>
       </c>
       <c r="F2277" t="inlineStr"/>
       <c r="G2277" t="inlineStr"/>
       <c r="H2277" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -73194,24 +73212,20 @@
       </c>
       <c r="C2278" t="inlineStr">
         <is>
-          <t>Construction Spending MoMDEC</t>
+          <t>ISM Manufacturing EmploymentJAN</t>
         </is>
       </c>
       <c r="D2278" t="inlineStr"/>
       <c r="E2278" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="F2278" t="inlineStr"/>
-      <c r="G2278" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2278" t="inlineStr"/>
       <c r="H2278" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -73228,13 +73242,21 @@
       </c>
       <c r="C2279" t="inlineStr">
         <is>
-          <t>ISM Manufacturing New OrdersJAN</t>
+          <t>Construction Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2279" t="inlineStr"/>
-      <c r="E2279" t="inlineStr"/>
+      <c r="E2279" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="F2279" t="inlineStr"/>
-      <c r="G2279" t="inlineStr"/>
+      <c r="G2279" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2279" t="inlineStr">
         <is>
           <t>3</t>
@@ -73254,7 +73276,7 @@
       </c>
       <c r="C2280" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PricesJAN</t>
+          <t>ISM Manufacturing New OrdersJAN</t>
         </is>
       </c>
       <c r="D2280" t="inlineStr"/>
@@ -73270,7 +73292,7 @@
     <row r="2281">
       <c r="A2281" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2281" t="inlineStr">
@@ -73280,7 +73302,7 @@
       </c>
       <c r="C2281" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>ISM Manufacturing PricesJAN</t>
         </is>
       </c>
       <c r="D2281" t="inlineStr"/>
@@ -73306,7 +73328,7 @@
       </c>
       <c r="C2282" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2282" t="inlineStr"/>
@@ -73322,7 +73344,7 @@
     <row r="2283">
       <c r="A2283" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2283" t="inlineStr">
@@ -73332,7 +73354,7 @@
       </c>
       <c r="C2283" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2283" t="inlineStr"/>
@@ -73341,14 +73363,14 @@
       <c r="G2283" t="inlineStr"/>
       <c r="H2283" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2284">
       <c r="A2284" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2284" t="inlineStr">
@@ -73358,7 +73380,7 @@
       </c>
       <c r="C2284" t="inlineStr">
         <is>
-          <t>Treasury Refunding Financing Estimates</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2284" t="inlineStr"/>
@@ -73367,32 +73389,28 @@
       <c r="G2284" t="inlineStr"/>
       <c r="H2284" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2285">
       <c r="A2285" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2285" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2285" t="inlineStr">
         <is>
-          <t>Tax RevenueJAN</t>
+          <t>Treasury Refunding Financing Estimates</t>
         </is>
       </c>
       <c r="D2285" t="inlineStr"/>
-      <c r="E2285" t="inlineStr">
-        <is>
-          <t>ARS13015B</t>
-        </is>
-      </c>
+      <c r="E2285" t="inlineStr"/>
       <c r="F2285" t="inlineStr"/>
       <c r="G2285" t="inlineStr"/>
       <c r="H2285" t="inlineStr">
@@ -73404,23 +73422,23 @@
     <row r="2286">
       <c r="A2286" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2286" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2286" t="inlineStr">
         <is>
-          <t>10-Year JGB Auction</t>
+          <t>Tax RevenueJAN</t>
         </is>
       </c>
       <c r="D2286" t="inlineStr"/>
       <c r="E2286" t="inlineStr">
         <is>
-          <t>1.140%</t>
+          <t>ARS13015B</t>
         </is>
       </c>
       <c r="F2286" t="inlineStr"/>
@@ -73434,31 +73452,27 @@
     <row r="2287">
       <c r="A2287" t="inlineStr">
         <is>
-          <t>11:15 PM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B2287" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2287" t="inlineStr">
         <is>
-          <t>Riyad Bank PMIJAN</t>
+          <t>10-Year JGB Auction</t>
         </is>
       </c>
       <c r="D2287" t="inlineStr"/>
       <c r="E2287" t="inlineStr">
         <is>
-          <t>58.4</t>
+          <t>1.140%</t>
         </is>
       </c>
       <c r="F2287" t="inlineStr"/>
-      <c r="G2287" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
+      <c r="G2287" t="inlineStr"/>
       <c r="H2287" t="inlineStr">
         <is>
           <t>3</t>
@@ -73466,78 +73480,82 @@
       </c>
     </row>
     <row r="2288">
-      <c r="A2288" t="inlineStr"/>
+      <c r="A2288" t="inlineStr">
+        <is>
+          <t>11:15 PM</t>
+        </is>
+      </c>
       <c r="B2288" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C2288" t="inlineStr">
         <is>
-          <t>Total New Vehicle SalesJAN</t>
+          <t>Riyad Bank PMIJAN</t>
         </is>
       </c>
       <c r="D2288" t="inlineStr"/>
       <c r="E2288" t="inlineStr">
         <is>
-          <t>41.27K</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="F2288" t="inlineStr"/>
       <c r="G2288" t="inlineStr">
         <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="H2288" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2289">
+      <c r="A2289" t="inlineStr"/>
+      <c r="B2289" t="inlineStr">
+        <is>
+          <t>ZA</t>
+        </is>
+      </c>
+      <c r="C2289" t="inlineStr">
+        <is>
+          <t>Total New Vehicle SalesJAN</t>
+        </is>
+      </c>
+      <c r="D2289" t="inlineStr"/>
+      <c r="E2289" t="inlineStr">
+        <is>
+          <t>41.27K</t>
+        </is>
+      </c>
+      <c r="F2289" t="inlineStr"/>
+      <c r="G2289" t="inlineStr">
+        <is>
           <t>43.0K</t>
         </is>
       </c>
-      <c r="H2288" t="inlineStr">
+      <c r="H2289" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-    </row>
-    <row r="2289">
-      <c r="A2289" t="inlineStr">
-        <is>
-          <t>Tuesday February 04 2025</t>
-        </is>
-      </c>
-      <c r="B2289" t="inlineStr"/>
-      <c r="C2289" t="inlineStr"/>
-      <c r="D2289" t="inlineStr"/>
-      <c r="E2289" t="inlineStr"/>
-      <c r="F2289" t="inlineStr"/>
-      <c r="G2289" t="inlineStr"/>
-      <c r="H2289" t="inlineStr"/>
     </row>
     <row r="2290">
       <c r="A2290" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B2290" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C2290" t="inlineStr">
-        <is>
-          <t>MAS 12-Week Bill Auction</t>
-        </is>
-      </c>
+          <t>Tuesday February 04 2025</t>
+        </is>
+      </c>
+      <c r="B2290" t="inlineStr"/>
+      <c r="C2290" t="inlineStr"/>
       <c r="D2290" t="inlineStr"/>
-      <c r="E2290" t="inlineStr">
-        <is>
-          <t>3.08%</t>
-        </is>
-      </c>
+      <c r="E2290" t="inlineStr"/>
       <c r="F2290" t="inlineStr"/>
       <c r="G2290" t="inlineStr"/>
-      <c r="H2290" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2290" t="inlineStr"/>
     </row>
     <row r="2291">
       <c r="A2291" t="inlineStr">
@@ -73552,13 +73570,13 @@
       </c>
       <c r="C2291" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2291" t="inlineStr"/>
       <c r="E2291" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>3.08%</t>
         </is>
       </c>
       <c r="F2291" t="inlineStr"/>
@@ -73577,18 +73595,18 @@
       </c>
       <c r="B2292" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2292" t="inlineStr">
         <is>
-          <t>30-Year KTB Auction</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2292" t="inlineStr"/>
       <c r="E2292" t="inlineStr">
         <is>
-          <t>2.705%</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F2292" t="inlineStr"/>
@@ -73602,23 +73620,23 @@
     <row r="2293">
       <c r="A2293" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2293" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2293" t="inlineStr">
         <is>
-          <t>Budget BalanceDEC</t>
+          <t>30-Year KTB Auction</t>
         </is>
       </c>
       <c r="D2293" t="inlineStr"/>
       <c r="E2293" t="inlineStr">
         <is>
-          <t>€-172.5B</t>
+          <t>2.705%</t>
         </is>
       </c>
       <c r="F2293" t="inlineStr"/>
@@ -73632,23 +73650,23 @@
     <row r="2294">
       <c r="A2294" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B2294" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2294" t="inlineStr">
         <is>
-          <t>IPC-Fipe Inflation MoMJAN</t>
+          <t>Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D2294" t="inlineStr"/>
       <c r="E2294" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>€-172.5B</t>
         </is>
       </c>
       <c r="F2294" t="inlineStr"/>
@@ -73662,21 +73680,25 @@
     <row r="2295">
       <c r="A2295" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B2295" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2295" t="inlineStr">
         <is>
-          <t>5-Year Treasury Gilt Auction</t>
+          <t>IPC-Fipe Inflation MoMJAN</t>
         </is>
       </c>
       <c r="D2295" t="inlineStr"/>
-      <c r="E2295" t="inlineStr"/>
+      <c r="E2295" t="inlineStr">
+        <is>
+          <t>0.34%</t>
+        </is>
+      </c>
       <c r="F2295" t="inlineStr"/>
       <c r="G2295" t="inlineStr"/>
       <c r="H2295" t="inlineStr">
@@ -73688,17 +73710,17 @@
     <row r="2296">
       <c r="A2296" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2296" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2296" t="inlineStr">
         <is>
-          <t>BCB Copom Meeting Minutes</t>
+          <t>5-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D2296" t="inlineStr"/>
@@ -73707,14 +73729,14 @@
       <c r="G2296" t="inlineStr"/>
       <c r="H2296" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2297">
       <c r="A2297" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2297" t="inlineStr">
@@ -73724,24 +73746,16 @@
       </c>
       <c r="C2297" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>BCB Copom Meeting Minutes</t>
         </is>
       </c>
       <c r="D2297" t="inlineStr"/>
-      <c r="E2297" t="inlineStr">
-        <is>
-          <t>1.23%</t>
-        </is>
-      </c>
+      <c r="E2297" t="inlineStr"/>
       <c r="F2297" t="inlineStr"/>
-      <c r="G2297" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2297" t="inlineStr"/>
       <c r="H2297" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -73758,19 +73772,19 @@
       </c>
       <c r="C2298" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2298" t="inlineStr"/>
       <c r="E2298" t="inlineStr">
         <is>
-          <t>7.59%</t>
+          <t>1.23%</t>
         </is>
       </c>
       <c r="F2298" t="inlineStr"/>
       <c r="G2298" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2298" t="inlineStr">
@@ -73787,76 +73801,80 @@
       </c>
       <c r="B2299" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2299" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2299" t="inlineStr"/>
       <c r="E2299" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>7.59%</t>
         </is>
       </c>
       <c r="F2299" t="inlineStr"/>
-      <c r="G2299" t="inlineStr"/>
+      <c r="G2299" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="H2299" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2300">
       <c r="A2300" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2300" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2300" t="inlineStr">
         <is>
-          <t>Redbook YoYFEB/01</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2300" t="inlineStr"/>
-      <c r="E2300" t="inlineStr"/>
+      <c r="E2300" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
       <c r="F2300" t="inlineStr"/>
       <c r="G2300" t="inlineStr"/>
       <c r="H2300" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2301">
       <c r="A2301" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B2301" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2301" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Redbook YoYFEB/01</t>
         </is>
       </c>
       <c r="D2301" t="inlineStr"/>
-      <c r="E2301" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
+      <c r="E2301" t="inlineStr"/>
       <c r="F2301" t="inlineStr"/>
       <c r="G2301" t="inlineStr"/>
       <c r="H2301" t="inlineStr">
@@ -73873,25 +73891,25 @@
       </c>
       <c r="B2302" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2302" t="inlineStr">
         <is>
-          <t>JOLTs Job OpeningsDEC</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2302" t="inlineStr"/>
-      <c r="E2302" t="inlineStr"/>
+      <c r="E2302" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="F2302" t="inlineStr"/>
-      <c r="G2302" t="inlineStr">
-        <is>
-          <t>7.6M</t>
-        </is>
-      </c>
+      <c r="G2302" t="inlineStr"/>
       <c r="H2302" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -73908,24 +73926,20 @@
       </c>
       <c r="C2303" t="inlineStr">
         <is>
-          <t>Factory Orders MoMDEC</t>
+          <t>JOLTs Job OpeningsDEC</t>
         </is>
       </c>
       <c r="D2303" t="inlineStr"/>
-      <c r="E2303" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
+      <c r="E2303" t="inlineStr"/>
       <c r="F2303" t="inlineStr"/>
       <c r="G2303" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>7.6M</t>
         </is>
       </c>
       <c r="H2303" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -73942,24 +73956,24 @@
       </c>
       <c r="C2304" t="inlineStr">
         <is>
-          <t>Factory Orders ex TransportationDEC</t>
+          <t>Factory Orders MoMDEC</t>
         </is>
       </c>
       <c r="D2304" t="inlineStr"/>
       <c r="E2304" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="F2304" t="inlineStr"/>
       <c r="G2304" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H2304" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -73976,13 +73990,21 @@
       </c>
       <c r="C2305" t="inlineStr">
         <is>
-          <t>JOLTs Job QuitsDEC</t>
+          <t>Factory Orders ex TransportationDEC</t>
         </is>
       </c>
       <c r="D2305" t="inlineStr"/>
-      <c r="E2305" t="inlineStr"/>
+      <c r="E2305" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F2305" t="inlineStr"/>
-      <c r="G2305" t="inlineStr"/>
+      <c r="G2305" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H2305" t="inlineStr">
         <is>
           <t>3</t>
@@ -73992,7 +74014,7 @@
     <row r="2306">
       <c r="A2306" t="inlineStr">
         <is>
-          <t>10:10 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2306" t="inlineStr">
@@ -74002,15 +74024,11 @@
       </c>
       <c r="C2306" t="inlineStr">
         <is>
-          <t>RCM/TIPP Economic Optimism IndexFEB</t>
+          <t>JOLTs Job QuitsDEC</t>
         </is>
       </c>
       <c r="D2306" t="inlineStr"/>
-      <c r="E2306" t="inlineStr">
-        <is>
-          <t>51.9</t>
-        </is>
-      </c>
+      <c r="E2306" t="inlineStr"/>
       <c r="F2306" t="inlineStr"/>
       <c r="G2306" t="inlineStr"/>
       <c r="H2306" t="inlineStr">
@@ -74022,7 +74040,7 @@
     <row r="2307">
       <c r="A2307" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>10:10 AM</t>
         </is>
       </c>
       <c r="B2307" t="inlineStr">
@@ -74032,23 +74050,27 @@
       </c>
       <c r="C2307" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>RCM/TIPP Economic Optimism IndexFEB</t>
         </is>
       </c>
       <c r="D2307" t="inlineStr"/>
-      <c r="E2307" t="inlineStr"/>
+      <c r="E2307" t="inlineStr">
+        <is>
+          <t>51.9</t>
+        </is>
+      </c>
       <c r="F2307" t="inlineStr"/>
       <c r="G2307" t="inlineStr"/>
       <c r="H2307" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2308">
       <c r="A2308" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2308" t="inlineStr">
@@ -74058,7 +74080,7 @@
       </c>
       <c r="C2308" t="inlineStr">
         <is>
-          <t>Fed Daly Speech</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2308" t="inlineStr"/>
@@ -74074,17 +74096,17 @@
     <row r="2309">
       <c r="A2309" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B2309" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2309" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Fed Daly Speech</t>
         </is>
       </c>
       <c r="D2309" t="inlineStr"/>
@@ -74093,24 +74115,24 @@
       <c r="G2309" t="inlineStr"/>
       <c r="H2309" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2310">
       <c r="A2310" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B2310" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2310" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/31</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2310" t="inlineStr"/>
@@ -74119,24 +74141,24 @@
       <c r="G2310" t="inlineStr"/>
       <c r="H2310" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2311">
       <c r="A2311" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B2311" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2311" t="inlineStr">
         <is>
-          <t>Judo Bank Services PMI FinalJAN</t>
+          <t>API Crude Oil Stock ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2311" t="inlineStr"/>
@@ -74162,7 +74184,7 @@
       </c>
       <c r="C2312" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Composite PMI FinalJAN</t>
+          <t>Judo Bank Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2312" t="inlineStr"/>
@@ -74171,37 +74193,33 @@
       <c r="G2312" t="inlineStr"/>
       <c r="H2312" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2313">
       <c r="A2313" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2313" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2313" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>S&amp;P Global Australia Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2313" t="inlineStr"/>
-      <c r="E2313" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="E2313" t="inlineStr"/>
       <c r="F2313" t="inlineStr"/>
       <c r="G2313" t="inlineStr"/>
       <c r="H2313" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -74218,47 +74236,47 @@
       </c>
       <c r="C2314" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2314" t="inlineStr"/>
       <c r="E2314" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F2314" t="inlineStr"/>
       <c r="G2314" t="inlineStr"/>
       <c r="H2314" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2315">
       <c r="A2315" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2315" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2315" t="inlineStr">
         <is>
-          <t>Average Cash Earnings YoYDEC</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2315" t="inlineStr"/>
-      <c r="E2315" t="inlineStr"/>
+      <c r="E2315" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F2315" t="inlineStr"/>
-      <c r="G2315" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
+      <c r="G2315" t="inlineStr"/>
       <c r="H2315" t="inlineStr">
         <is>
           <t>3</t>
@@ -74268,27 +74286,27 @@
     <row r="2316">
       <c r="A2316" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2316" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2316" t="inlineStr">
         <is>
-          <t>TD-MI Inflation Gauge MoMJAN</t>
+          <t>Average Cash Earnings YoYDEC</t>
         </is>
       </c>
       <c r="D2316" t="inlineStr"/>
-      <c r="E2316" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="E2316" t="inlineStr"/>
       <c r="F2316" t="inlineStr"/>
-      <c r="G2316" t="inlineStr"/>
+      <c r="G2316" t="inlineStr">
+        <is>
+          <t>2.1%</t>
+        </is>
+      </c>
       <c r="H2316" t="inlineStr">
         <is>
           <t>3</t>
@@ -74303,33 +74321,25 @@
       </c>
       <c r="B2317" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2317" t="inlineStr">
         <is>
-          <t>Jibun Bank Services PMI FinalJAN</t>
+          <t>TD-MI Inflation Gauge MoMJAN</t>
         </is>
       </c>
       <c r="D2317" t="inlineStr"/>
       <c r="E2317" t="inlineStr">
         <is>
-          <t>50.9</t>
-        </is>
-      </c>
-      <c r="F2317" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="G2317" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
+          <t>0.6%</t>
+        </is>
+      </c>
+      <c r="F2317" t="inlineStr"/>
+      <c r="G2317" t="inlineStr"/>
       <c r="H2317" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -74346,24 +74356,28 @@
       </c>
       <c r="C2318" t="inlineStr">
         <is>
-          <t>Jibun Bank Composite PMI FinalJAN</t>
+          <t>Jibun Bank Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2318" t="inlineStr"/>
       <c r="E2318" t="inlineStr">
         <is>
-          <t>50.5</t>
-        </is>
-      </c>
-      <c r="F2318" t="inlineStr"/>
+          <t>50.9</t>
+        </is>
+      </c>
+      <c r="F2318" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
       <c r="G2318" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>52.7</t>
         </is>
       </c>
       <c r="H2318" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -74375,22 +74389,26 @@
       </c>
       <c r="B2319" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2319" t="inlineStr">
         <is>
-          <t>S&amp;P Global PMIJAN</t>
+          <t>Jibun Bank Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2319" t="inlineStr"/>
       <c r="E2319" t="inlineStr">
         <is>
-          <t>51.5</t>
+          <t>50.5</t>
         </is>
       </c>
       <c r="F2319" t="inlineStr"/>
-      <c r="G2319" t="inlineStr"/>
+      <c r="G2319" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
       <c r="H2319" t="inlineStr">
         <is>
           <t>3</t>
@@ -74400,34 +74418,30 @@
     <row r="2320">
       <c r="A2320" t="inlineStr">
         <is>
-          <t>08:45 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2320" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2320" t="inlineStr">
         <is>
-          <t>Caixin Services PMIJAN</t>
+          <t>S&amp;P Global PMIJAN</t>
         </is>
       </c>
       <c r="D2320" t="inlineStr"/>
       <c r="E2320" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>51.5</t>
         </is>
       </c>
       <c r="F2320" t="inlineStr"/>
-      <c r="G2320" t="inlineStr">
-        <is>
-          <t>51.8</t>
-        </is>
-      </c>
+      <c r="G2320" t="inlineStr"/>
       <c r="H2320" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -74444,54 +74458,58 @@
       </c>
       <c r="C2321" t="inlineStr">
         <is>
-          <t>Caixin Composite PMIJAN</t>
+          <t>Caixin Services PMIJAN</t>
         </is>
       </c>
       <c r="D2321" t="inlineStr"/>
       <c r="E2321" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="F2321" t="inlineStr"/>
       <c r="G2321" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>51.8</t>
         </is>
       </c>
       <c r="H2321" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2322">
       <c r="A2322" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>08:45 PM</t>
         </is>
       </c>
       <c r="B2322" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2322" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoYQ4</t>
+          <t>Caixin Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2322" t="inlineStr"/>
-      <c r="E2322" t="inlineStr"/>
+      <c r="E2322" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="F2322" t="inlineStr"/>
       <c r="G2322" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="H2322" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -74508,7 +74526,7 @@
       </c>
       <c r="C2323" t="inlineStr">
         <is>
-          <t>Full Year GDP Growth2025</t>
+          <t>GDP Growth Rate YoYQ4</t>
         </is>
       </c>
       <c r="D2323" t="inlineStr"/>
@@ -74521,7 +74539,7 @@
       </c>
       <c r="H2323" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -74538,7 +74556,7 @@
       </c>
       <c r="C2324" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQQ4</t>
+          <t>Full Year GDP Growth2025</t>
         </is>
       </c>
       <c r="D2324" t="inlineStr"/>
@@ -74546,7 +74564,7 @@
       <c r="F2324" t="inlineStr"/>
       <c r="G2324" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="H2324" t="inlineStr">
@@ -74556,21 +74574,29 @@
       </c>
     </row>
     <row r="2325">
-      <c r="A2325" t="inlineStr"/>
+      <c r="A2325" t="inlineStr">
+        <is>
+          <t>11:00 PM</t>
+        </is>
+      </c>
       <c r="B2325" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2325" t="inlineStr">
         <is>
-          <t>Balance of Trade PrelJAN</t>
+          <t>GDP Growth Rate QoQQ4</t>
         </is>
       </c>
       <c r="D2325" t="inlineStr"/>
       <c r="E2325" t="inlineStr"/>
       <c r="F2325" t="inlineStr"/>
-      <c r="G2325" t="inlineStr"/>
+      <c r="G2325" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2325" t="inlineStr">
         <is>
           <t>3</t>
@@ -74586,7 +74612,7 @@
       </c>
       <c r="C2326" t="inlineStr">
         <is>
-          <t>Exports PrelJAN</t>
+          <t>Balance of Trade PrelJAN</t>
         </is>
       </c>
       <c r="D2326" t="inlineStr"/>
@@ -74608,7 +74634,7 @@
       </c>
       <c r="C2327" t="inlineStr">
         <is>
-          <t>Imports PrelJAN</t>
+          <t>Exports PrelJAN</t>
         </is>
       </c>
       <c r="D2327" t="inlineStr"/>
@@ -74625,20 +74651,16 @@
       <c r="A2328" t="inlineStr"/>
       <c r="B2328" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2328" t="inlineStr">
         <is>
-          <t>LMI Logistics Managers IndexJAN</t>
+          <t>Imports PrelJAN</t>
         </is>
       </c>
       <c r="D2328" t="inlineStr"/>
-      <c r="E2328" t="inlineStr">
-        <is>
-          <t>57.3</t>
-        </is>
-      </c>
+      <c r="E2328" t="inlineStr"/>
       <c r="F2328" t="inlineStr"/>
       <c r="G2328" t="inlineStr"/>
       <c r="H2328" t="inlineStr">
@@ -74648,56 +74670,44 @@
       </c>
     </row>
     <row r="2329">
-      <c r="A2329" t="inlineStr">
-        <is>
-          <t>Wednesday February 05 2025</t>
-        </is>
-      </c>
-      <c r="B2329" t="inlineStr"/>
-      <c r="C2329" t="inlineStr"/>
+      <c r="A2329" t="inlineStr"/>
+      <c r="B2329" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2329" t="inlineStr">
+        <is>
+          <t>LMI Logistics Managers IndexJAN</t>
+        </is>
+      </c>
       <c r="D2329" t="inlineStr"/>
-      <c r="E2329" t="inlineStr"/>
+      <c r="E2329" t="inlineStr">
+        <is>
+          <t>57.3</t>
+        </is>
+      </c>
       <c r="F2329" t="inlineStr"/>
       <c r="G2329" t="inlineStr"/>
-      <c r="H2329" t="inlineStr"/>
+      <c r="H2329" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2330">
       <c r="A2330" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B2330" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C2330" t="inlineStr">
-        <is>
-          <t>HSBC Composite PMI FinalJAN</t>
-        </is>
-      </c>
+          <t>Wednesday February 05 2025</t>
+        </is>
+      </c>
+      <c r="B2330" t="inlineStr"/>
+      <c r="C2330" t="inlineStr"/>
       <c r="D2330" t="inlineStr"/>
-      <c r="E2330" t="inlineStr">
-        <is>
-          <t>59.2</t>
-        </is>
-      </c>
-      <c r="F2330" t="inlineStr">
-        <is>
-          <t>57.9</t>
-        </is>
-      </c>
-      <c r="G2330" t="inlineStr">
-        <is>
-          <t>57.9</t>
-        </is>
-      </c>
-      <c r="H2330" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="E2330" t="inlineStr"/>
+      <c r="F2330" t="inlineStr"/>
+      <c r="G2330" t="inlineStr"/>
+      <c r="H2330" t="inlineStr"/>
     </row>
     <row r="2331">
       <c r="A2331" t="inlineStr">
@@ -74712,23 +74722,23 @@
       </c>
       <c r="C2331" t="inlineStr">
         <is>
-          <t>HSBC Services PMI FinalJAN</t>
+          <t>HSBC Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2331" t="inlineStr"/>
       <c r="E2331" t="inlineStr">
         <is>
-          <t>59.3</t>
+          <t>59.2</t>
         </is>
       </c>
       <c r="F2331" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>57.9</t>
         </is>
       </c>
       <c r="G2331" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>57.9</t>
         </is>
       </c>
       <c r="H2331" t="inlineStr">
@@ -74745,24 +74755,28 @@
       </c>
       <c r="B2332" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2332" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>HSBC Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2332" t="inlineStr"/>
       <c r="E2332" t="inlineStr">
         <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
-      <c r="F2332" t="inlineStr"/>
+          <t>59.3</t>
+        </is>
+      </c>
+      <c r="F2332" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
       <c r="G2332" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>56.8</t>
         </is>
       </c>
       <c r="H2332" t="inlineStr">
@@ -74784,19 +74798,19 @@
       </c>
       <c r="C2333" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2333" t="inlineStr"/>
       <c r="E2333" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="F2333" t="inlineStr"/>
       <c r="G2333" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H2333" t="inlineStr">
@@ -74808,27 +74822,31 @@
     <row r="2334">
       <c r="A2334" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2334" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2334" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMIJAN</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2334" t="inlineStr"/>
       <c r="E2334" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F2334" t="inlineStr"/>
-      <c r="G2334" t="inlineStr"/>
+      <c r="G2334" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H2334" t="inlineStr">
         <is>
           <t>3</t>
@@ -74848,13 +74866,13 @@
       </c>
       <c r="C2335" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMIJAN</t>
+          <t>S&amp;P Global Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2335" t="inlineStr"/>
       <c r="E2335" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F2335" t="inlineStr"/>
@@ -74868,23 +74886,23 @@
     <row r="2336">
       <c r="A2336" t="inlineStr">
         <is>
-          <t>02:15 AM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B2336" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2336" t="inlineStr">
         <is>
-          <t>S&amp;P Global PMIJAN</t>
+          <t>S&amp;P Global Services PMIJAN</t>
         </is>
       </c>
       <c r="D2336" t="inlineStr"/>
       <c r="E2336" t="inlineStr">
         <is>
-          <t>49.9</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F2336" t="inlineStr"/>
@@ -74898,61 +74916,61 @@
     <row r="2337">
       <c r="A2337" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>02:15 AM</t>
         </is>
       </c>
       <c r="B2337" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2337" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>S&amp;P Global PMIJAN</t>
         </is>
       </c>
       <c r="D2337" t="inlineStr"/>
       <c r="E2337" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>49.9</t>
         </is>
       </c>
       <c r="F2337" t="inlineStr"/>
-      <c r="G2337" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="G2337" t="inlineStr"/>
       <c r="H2337" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2338">
       <c r="A2338" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B2338" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2338" t="inlineStr">
         <is>
-          <t>HCOB Services PMIJAN</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D2338" t="inlineStr"/>
       <c r="E2338" t="inlineStr">
         <is>
-          <t>57.3</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F2338" t="inlineStr"/>
-      <c r="G2338" t="inlineStr"/>
+      <c r="G2338" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="H2338" t="inlineStr">
         <is>
           <t>2</t>
@@ -74972,32 +74990,32 @@
       </c>
       <c r="C2339" t="inlineStr">
         <is>
-          <t>HCOB Composite PMIJAN</t>
+          <t>HCOB Services PMIJAN</t>
         </is>
       </c>
       <c r="D2339" t="inlineStr"/>
       <c r="E2339" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>57.3</t>
         </is>
       </c>
       <c r="F2339" t="inlineStr"/>
       <c r="G2339" t="inlineStr"/>
       <c r="H2339" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2340">
       <c r="A2340" t="inlineStr">
         <is>
-          <t>03:45 AM</t>
+          <t>03:15 AM</t>
         </is>
       </c>
       <c r="B2340" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2340" t="inlineStr">
@@ -75008,14 +75026,14 @@
       <c r="D2340" t="inlineStr"/>
       <c r="E2340" t="inlineStr">
         <is>
-          <t>49.7</t>
+          <t>56.8</t>
         </is>
       </c>
       <c r="F2340" t="inlineStr"/>
       <c r="G2340" t="inlineStr"/>
       <c r="H2340" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -75032,13 +75050,13 @@
       </c>
       <c r="C2341" t="inlineStr">
         <is>
-          <t>HCOB Services PMIJAN</t>
+          <t>HCOB Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2341" t="inlineStr"/>
       <c r="E2341" t="inlineStr">
         <is>
-          <t>50.7</t>
+          <t>49.7</t>
         </is>
       </c>
       <c r="F2341" t="inlineStr"/>
@@ -75052,35 +75070,27 @@
     <row r="2342">
       <c r="A2342" t="inlineStr">
         <is>
-          <t>03:50 AM</t>
+          <t>03:45 AM</t>
         </is>
       </c>
       <c r="B2342" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2342" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FinalJAN</t>
+          <t>HCOB Services PMIJAN</t>
         </is>
       </c>
       <c r="D2342" t="inlineStr"/>
       <c r="E2342" t="inlineStr">
         <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F2342" t="inlineStr">
-        <is>
-          <t>48.9</t>
-        </is>
-      </c>
-      <c r="G2342" t="inlineStr">
-        <is>
-          <t>48.9</t>
-        </is>
-      </c>
+          <t>50.7</t>
+        </is>
+      </c>
+      <c r="F2342" t="inlineStr"/>
+      <c r="G2342" t="inlineStr"/>
       <c r="H2342" t="inlineStr">
         <is>
           <t>2</t>
@@ -75100,40 +75110,40 @@
       </c>
       <c r="C2343" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FinalJAN</t>
+          <t>HCOB Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2343" t="inlineStr"/>
       <c r="E2343" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>49.3</t>
         </is>
       </c>
       <c r="F2343" t="inlineStr">
         <is>
-          <t>48.3</t>
+          <t>48.9</t>
         </is>
       </c>
       <c r="G2343" t="inlineStr">
         <is>
-          <t>48.3</t>
+          <t>48.9</t>
         </is>
       </c>
       <c r="H2343" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2344">
       <c r="A2344" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>03:50 AM</t>
         </is>
       </c>
       <c r="B2344" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2344" t="inlineStr">
@@ -75144,22 +75154,22 @@
       <c r="D2344" t="inlineStr"/>
       <c r="E2344" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>47.5</t>
         </is>
       </c>
       <c r="F2344" t="inlineStr">
         <is>
-          <t>50.1</t>
+          <t>48.3</t>
         </is>
       </c>
       <c r="G2344" t="inlineStr">
         <is>
-          <t>50.1</t>
+          <t>48.3</t>
         </is>
       </c>
       <c r="H2344" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -75176,23 +75186,23 @@
       </c>
       <c r="C2345" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FinalJAN</t>
+          <t>HCOB Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2345" t="inlineStr"/>
       <c r="E2345" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F2345" t="inlineStr">
         <is>
-          <t>52.5</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="G2345" t="inlineStr">
         <is>
-          <t>52.5</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="H2345" t="inlineStr">
@@ -75204,33 +75214,33 @@
     <row r="2346">
       <c r="A2346" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>03:55 AM</t>
         </is>
       </c>
       <c r="B2346" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2346" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FinalJAN</t>
+          <t>HCOB Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2346" t="inlineStr"/>
       <c r="E2346" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F2346" t="inlineStr">
         <is>
-          <t>50.2</t>
+          <t>52.5</t>
         </is>
       </c>
       <c r="G2346" t="inlineStr">
         <is>
-          <t>50.2</t>
+          <t>52.5</t>
         </is>
       </c>
       <c r="H2346" t="inlineStr">
@@ -75252,23 +75262,23 @@
       </c>
       <c r="C2347" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FinalJAN</t>
+          <t>HCOB Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2347" t="inlineStr"/>
       <c r="E2347" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="F2347" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>50.2</t>
         </is>
       </c>
       <c r="G2347" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>50.2</t>
         </is>
       </c>
       <c r="H2347" t="inlineStr">
@@ -75285,24 +75295,28 @@
       </c>
       <c r="B2348" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2348" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>HCOB Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2348" t="inlineStr"/>
       <c r="E2348" t="inlineStr">
         <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="F2348" t="inlineStr"/>
+          <t>51.6</t>
+        </is>
+      </c>
+      <c r="F2348" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="G2348" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="H2348" t="inlineStr">
@@ -75324,24 +75338,24 @@
       </c>
       <c r="C2349" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2349" t="inlineStr"/>
       <c r="E2349" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="F2349" t="inlineStr"/>
       <c r="G2349" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H2349" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -75353,24 +75367,24 @@
       </c>
       <c r="B2350" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2350" t="inlineStr">
         <is>
-          <t>New Car Sales YoYJAN</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2350" t="inlineStr"/>
       <c r="E2350" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F2350" t="inlineStr"/>
       <c r="G2350" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="H2350" t="inlineStr">
@@ -75382,7 +75396,7 @@
     <row r="2351">
       <c r="A2351" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2351" t="inlineStr">
@@ -75392,28 +75406,24 @@
       </c>
       <c r="C2351" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FinalJAN</t>
+          <t>New Car Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2351" t="inlineStr"/>
       <c r="E2351" t="inlineStr">
         <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="F2351" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="F2351" t="inlineStr"/>
       <c r="G2351" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="H2351" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -75430,57 +75440,61 @@
       </c>
       <c r="C2352" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FinalJAN</t>
+          <t>S&amp;P Global Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2352" t="inlineStr"/>
       <c r="E2352" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F2352" t="inlineStr">
         <is>
-          <t>50.9</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="G2352" t="inlineStr">
         <is>
-          <t>50.9</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="H2352" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2353">
       <c r="A2353" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2353" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2353" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>S&amp;P Global Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2353" t="inlineStr"/>
       <c r="E2353" t="inlineStr">
         <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="F2353" t="inlineStr"/>
+          <t>50.4</t>
+        </is>
+      </c>
+      <c r="F2353" t="inlineStr">
+        <is>
+          <t>50.9</t>
+        </is>
+      </c>
       <c r="G2353" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>50.9</t>
         </is>
       </c>
       <c r="H2353" t="inlineStr">
@@ -75502,19 +75516,19 @@
       </c>
       <c r="C2354" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2354" t="inlineStr"/>
       <c r="E2354" t="inlineStr">
         <is>
-          <t>-1.2%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F2354" t="inlineStr"/>
       <c r="G2354" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2354" t="inlineStr">
@@ -75531,22 +75545,26 @@
       </c>
       <c r="B2355" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2355" t="inlineStr">
         <is>
-          <t>30-Year Green Gilt Auction</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2355" t="inlineStr"/>
       <c r="E2355" t="inlineStr">
         <is>
-          <t>4.831%</t>
+          <t>-1.2%</t>
         </is>
       </c>
       <c r="F2355" t="inlineStr"/>
-      <c r="G2355" t="inlineStr"/>
+      <c r="G2355" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
       <c r="H2355" t="inlineStr">
         <is>
           <t>3</t>
@@ -75556,23 +75574,23 @@
     <row r="2356">
       <c r="A2356" t="inlineStr">
         <is>
-          <t>06:10 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2356" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2356" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>30-Year Green Gilt Auction</t>
         </is>
       </c>
       <c r="D2356" t="inlineStr"/>
       <c r="E2356" t="inlineStr">
         <is>
-          <t>2.615%</t>
+          <t>4.831%</t>
         </is>
       </c>
       <c r="F2356" t="inlineStr"/>
@@ -75596,13 +75614,13 @@
       </c>
       <c r="C2357" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2357" t="inlineStr"/>
       <c r="E2357" t="inlineStr">
         <is>
-          <t>2.505%</t>
+          <t>2.615%</t>
         </is>
       </c>
       <c r="F2357" t="inlineStr"/>
@@ -75616,23 +75634,23 @@
     <row r="2358">
       <c r="A2358" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>06:10 AM</t>
         </is>
       </c>
       <c r="B2358" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C2358" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYJAN/24</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2358" t="inlineStr"/>
       <c r="E2358" t="inlineStr">
         <is>
-          <t>10.1%</t>
+          <t>2.505%</t>
         </is>
       </c>
       <c r="F2358" t="inlineStr"/>
@@ -75646,34 +75664,30 @@
     <row r="2359">
       <c r="A2359" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B2359" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2359" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>M3 Money Supply YoYJAN/24</t>
         </is>
       </c>
       <c r="D2359" t="inlineStr"/>
       <c r="E2359" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>10.1%</t>
         </is>
       </c>
       <c r="F2359" t="inlineStr"/>
-      <c r="G2359" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2359" t="inlineStr"/>
       <c r="H2359" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -75690,24 +75704,24 @@
       </c>
       <c r="C2360" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D2360" t="inlineStr"/>
       <c r="E2360" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F2360" t="inlineStr"/>
       <c r="G2360" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2360" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -75719,22 +75733,26 @@
       </c>
       <c r="B2361" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2361" t="inlineStr">
         <is>
-          <t>Gross Fixed Investment MoMNOV</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2361" t="inlineStr"/>
       <c r="E2361" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="F2361" t="inlineStr"/>
-      <c r="G2361" t="inlineStr"/>
+      <c r="G2361" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="H2361" t="inlineStr">
         <is>
           <t>3</t>
@@ -75754,13 +75772,13 @@
       </c>
       <c r="C2362" t="inlineStr">
         <is>
-          <t>Gross Fixed Investment YoYNOV</t>
+          <t>Gross Fixed Investment MoMNOV</t>
         </is>
       </c>
       <c r="D2362" t="inlineStr"/>
       <c r="E2362" t="inlineStr">
         <is>
-          <t>-2.6%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2362" t="inlineStr"/>
@@ -75779,21 +75797,25 @@
       </c>
       <c r="B2363" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2363" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/31</t>
+          <t>Gross Fixed Investment YoYNOV</t>
         </is>
       </c>
       <c r="D2363" t="inlineStr"/>
-      <c r="E2363" t="inlineStr"/>
+      <c r="E2363" t="inlineStr">
+        <is>
+          <t>-2.6%</t>
+        </is>
+      </c>
       <c r="F2363" t="inlineStr"/>
       <c r="G2363" t="inlineStr"/>
       <c r="H2363" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -75810,7 +75832,7 @@
       </c>
       <c r="C2364" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/31</t>
+          <t>MBA 30-Year Mortgage RateJAN/31</t>
         </is>
       </c>
       <c r="D2364" t="inlineStr"/>
@@ -75819,7 +75841,7 @@
       <c r="G2364" t="inlineStr"/>
       <c r="H2364" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -75836,7 +75858,7 @@
       </c>
       <c r="C2365" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/31</t>
+          <t>MBA Mortgage ApplicationsJAN/31</t>
         </is>
       </c>
       <c r="D2365" t="inlineStr"/>
@@ -75862,7 +75884,7 @@
       </c>
       <c r="C2366" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/31</t>
+          <t>MBA Mortgage Market IndexJAN/31</t>
         </is>
       </c>
       <c r="D2366" t="inlineStr"/>
@@ -75888,7 +75910,7 @@
       </c>
       <c r="C2367" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/31</t>
+          <t>MBA Mortgage Refinance IndexJAN/31</t>
         </is>
       </c>
       <c r="D2367" t="inlineStr"/>
@@ -75904,34 +75926,26 @@
     <row r="2368">
       <c r="A2368" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2368" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2368" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMIJAN</t>
+          <t>MBA Purchase IndexJAN/31</t>
         </is>
       </c>
       <c r="D2368" t="inlineStr"/>
-      <c r="E2368" t="inlineStr">
-        <is>
-          <t>51.6</t>
-        </is>
-      </c>
+      <c r="E2368" t="inlineStr"/>
       <c r="F2368" t="inlineStr"/>
-      <c r="G2368" t="inlineStr">
-        <is>
-          <t>50.2</t>
-        </is>
-      </c>
+      <c r="G2368" t="inlineStr"/>
       <c r="H2368" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -75948,88 +75962,88 @@
       </c>
       <c r="C2369" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMIJAN</t>
+          <t>S&amp;P Global Services PMIJAN</t>
         </is>
       </c>
       <c r="D2369" t="inlineStr"/>
       <c r="E2369" t="inlineStr">
         <is>
-          <t>51.5</t>
+          <t>51.6</t>
         </is>
       </c>
       <c r="F2369" t="inlineStr"/>
       <c r="G2369" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>50.2</t>
         </is>
       </c>
       <c r="H2369" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2370">
       <c r="A2370" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2370" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2370" t="inlineStr">
         <is>
-          <t>ADP Employment ChangeJAN</t>
+          <t>S&amp;P Global Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2370" t="inlineStr"/>
       <c r="E2370" t="inlineStr">
         <is>
-          <t>122K</t>
+          <t>51.5</t>
         </is>
       </c>
       <c r="F2370" t="inlineStr"/>
-      <c r="G2370" t="inlineStr"/>
+      <c r="G2370" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
       <c r="H2370" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2371">
       <c r="A2371" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B2371" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2371" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>ADP Employment ChangeJAN</t>
         </is>
       </c>
       <c r="D2371" t="inlineStr"/>
       <c r="E2371" t="inlineStr">
         <is>
-          <t>C$-0.32B</t>
+          <t>122K</t>
         </is>
       </c>
       <c r="F2371" t="inlineStr"/>
-      <c r="G2371" t="inlineStr">
-        <is>
-          <t>C$ -1.6B</t>
-        </is>
-      </c>
+      <c r="G2371" t="inlineStr"/>
       <c r="H2371" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -76046,24 +76060,24 @@
       </c>
       <c r="C2372" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2372" t="inlineStr"/>
       <c r="E2372" t="inlineStr">
         <is>
-          <t>C$66.11B</t>
+          <t>C$-0.32B</t>
         </is>
       </c>
       <c r="F2372" t="inlineStr"/>
       <c r="G2372" t="inlineStr">
         <is>
-          <t>C$ 65.8B</t>
+          <t>C$ -1.6B</t>
         </is>
       </c>
       <c r="H2372" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -76080,19 +76094,19 @@
       </c>
       <c r="C2373" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>ExportsDEC</t>
         </is>
       </c>
       <c r="D2373" t="inlineStr"/>
       <c r="E2373" t="inlineStr">
         <is>
-          <t>C$66.43B</t>
+          <t>C$66.11B</t>
         </is>
       </c>
       <c r="F2373" t="inlineStr"/>
       <c r="G2373" t="inlineStr">
         <is>
-          <t>C$ 64.5B</t>
+          <t>C$ 65.8B</t>
         </is>
       </c>
       <c r="H2373" t="inlineStr">
@@ -76109,29 +76123,29 @@
       </c>
       <c r="B2374" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2374" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>ImportsDEC</t>
         </is>
       </c>
       <c r="D2374" t="inlineStr"/>
       <c r="E2374" t="inlineStr">
         <is>
-          <t>$-78.2B</t>
+          <t>C$66.43B</t>
         </is>
       </c>
       <c r="F2374" t="inlineStr"/>
       <c r="G2374" t="inlineStr">
         <is>
-          <t>$ -68B</t>
+          <t>C$ 64.5B</t>
         </is>
       </c>
       <c r="H2374" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -76148,19 +76162,19 @@
       </c>
       <c r="C2375" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2375" t="inlineStr"/>
       <c r="E2375" t="inlineStr">
         <is>
-          <t>$273.4B</t>
+          <t>$-78.2B</t>
         </is>
       </c>
       <c r="F2375" t="inlineStr"/>
       <c r="G2375" t="inlineStr">
         <is>
-          <t>$ 275.0B</t>
+          <t>$ -68B</t>
         </is>
       </c>
       <c r="H2375" t="inlineStr">
@@ -76182,19 +76196,19 @@
       </c>
       <c r="C2376" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>ExportsDEC</t>
         </is>
       </c>
       <c r="D2376" t="inlineStr"/>
       <c r="E2376" t="inlineStr">
         <is>
-          <t>$351.6B</t>
+          <t>$273.4B</t>
         </is>
       </c>
       <c r="F2376" t="inlineStr"/>
       <c r="G2376" t="inlineStr">
         <is>
-          <t>$ 338B</t>
+          <t>$ 275.0B</t>
         </is>
       </c>
       <c r="H2376" t="inlineStr">
@@ -76216,47 +76230,47 @@
       </c>
       <c r="C2377" t="inlineStr">
         <is>
-          <t>Treasury Refunding Announcement</t>
+          <t>ImportsDEC</t>
         </is>
       </c>
       <c r="D2377" t="inlineStr"/>
-      <c r="E2377" t="inlineStr"/>
+      <c r="E2377" t="inlineStr">
+        <is>
+          <t>$351.6B</t>
+        </is>
+      </c>
       <c r="F2377" t="inlineStr"/>
-      <c r="G2377" t="inlineStr"/>
+      <c r="G2377" t="inlineStr">
+        <is>
+          <t>$ 338B</t>
+        </is>
+      </c>
       <c r="H2377" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2378">
       <c r="A2378" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2378" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2378" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMIJAN</t>
+          <t>Treasury Refunding Announcement</t>
         </is>
       </c>
       <c r="D2378" t="inlineStr"/>
-      <c r="E2378" t="inlineStr">
-        <is>
-          <t>49.0</t>
-        </is>
-      </c>
+      <c r="E2378" t="inlineStr"/>
       <c r="F2378" t="inlineStr"/>
-      <c r="G2378" t="inlineStr">
-        <is>
-          <t>48.5</t>
-        </is>
-      </c>
+      <c r="G2378" t="inlineStr"/>
       <c r="H2378" t="inlineStr">
         <is>
           <t>3</t>
@@ -76276,19 +76290,19 @@
       </c>
       <c r="C2379" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMIJAN</t>
+          <t>S&amp;P Global Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2379" t="inlineStr"/>
       <c r="E2379" t="inlineStr">
         <is>
-          <t>48.2</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="F2379" t="inlineStr"/>
       <c r="G2379" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>48.5</t>
         </is>
       </c>
       <c r="H2379" t="inlineStr">
@@ -76300,38 +76314,34 @@
     <row r="2380">
       <c r="A2380" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2380" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2380" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FinalJAN</t>
+          <t>S&amp;P Global Services PMIJAN</t>
         </is>
       </c>
       <c r="D2380" t="inlineStr"/>
       <c r="E2380" t="inlineStr">
         <is>
-          <t>55.4</t>
-        </is>
-      </c>
-      <c r="F2380" t="inlineStr">
-        <is>
-          <t>52.4</t>
-        </is>
-      </c>
+          <t>48.2</t>
+        </is>
+      </c>
+      <c r="F2380" t="inlineStr"/>
       <c r="G2380" t="inlineStr">
         <is>
-          <t>52.4</t>
+          <t>49</t>
         </is>
       </c>
       <c r="H2380" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -76348,23 +76358,23 @@
       </c>
       <c r="C2381" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FinalJAN</t>
+          <t>S&amp;P Global Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2381" t="inlineStr"/>
       <c r="E2381" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>55.4</t>
         </is>
       </c>
       <c r="F2381" t="inlineStr">
         <is>
-          <t>52.8</t>
+          <t>52.4</t>
         </is>
       </c>
       <c r="G2381" t="inlineStr">
         <is>
-          <t>52.8</t>
+          <t>52.4</t>
         </is>
       </c>
       <c r="H2381" t="inlineStr">
@@ -76376,7 +76386,7 @@
     <row r="2382">
       <c r="A2382" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B2382" t="inlineStr">
@@ -76386,16 +76396,28 @@
       </c>
       <c r="C2382" t="inlineStr">
         <is>
-          <t>ISM Services PMIJAN</t>
+          <t>S&amp;P Global Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2382" t="inlineStr"/>
-      <c r="E2382" t="inlineStr"/>
-      <c r="F2382" t="inlineStr"/>
-      <c r="G2382" t="inlineStr"/>
+      <c r="E2382" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
+      <c r="F2382" t="inlineStr">
+        <is>
+          <t>52.8</t>
+        </is>
+      </c>
+      <c r="G2382" t="inlineStr">
+        <is>
+          <t>52.8</t>
+        </is>
+      </c>
       <c r="H2382" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -76412,20 +76434,16 @@
       </c>
       <c r="C2383" t="inlineStr">
         <is>
-          <t>ISM Services Business ActivityJAN</t>
+          <t>ISM Services PMIJAN</t>
         </is>
       </c>
       <c r="D2383" t="inlineStr"/>
-      <c r="E2383" t="inlineStr">
-        <is>
-          <t>58.2</t>
-        </is>
-      </c>
+      <c r="E2383" t="inlineStr"/>
       <c r="F2383" t="inlineStr"/>
       <c r="G2383" t="inlineStr"/>
       <c r="H2383" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -76442,13 +76460,13 @@
       </c>
       <c r="C2384" t="inlineStr">
         <is>
-          <t>ISM Services EmploymentJAN</t>
+          <t>ISM Services Business ActivityJAN</t>
         </is>
       </c>
       <c r="D2384" t="inlineStr"/>
       <c r="E2384" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>58.2</t>
         </is>
       </c>
       <c r="F2384" t="inlineStr"/>
@@ -76472,13 +76490,13 @@
       </c>
       <c r="C2385" t="inlineStr">
         <is>
-          <t>ISM Services New OrdersJAN</t>
+          <t>ISM Services EmploymentJAN</t>
         </is>
       </c>
       <c r="D2385" t="inlineStr"/>
       <c r="E2385" t="inlineStr">
         <is>
-          <t>54.2</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="F2385" t="inlineStr"/>
@@ -76502,13 +76520,13 @@
       </c>
       <c r="C2386" t="inlineStr">
         <is>
-          <t>ISM Services PricesJAN</t>
+          <t>ISM Services New OrdersJAN</t>
         </is>
       </c>
       <c r="D2386" t="inlineStr"/>
       <c r="E2386" t="inlineStr">
         <is>
-          <t>64.4</t>
+          <t>54.2</t>
         </is>
       </c>
       <c r="F2386" t="inlineStr"/>
@@ -76522,7 +76540,7 @@
     <row r="2387">
       <c r="A2387" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2387" t="inlineStr">
@@ -76532,16 +76550,20 @@
       </c>
       <c r="C2387" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/31</t>
+          <t>ISM Services PricesJAN</t>
         </is>
       </c>
       <c r="D2387" t="inlineStr"/>
-      <c r="E2387" t="inlineStr"/>
+      <c r="E2387" t="inlineStr">
+        <is>
+          <t>64.4</t>
+        </is>
+      </c>
       <c r="F2387" t="inlineStr"/>
       <c r="G2387" t="inlineStr"/>
       <c r="H2387" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -76558,7 +76580,7 @@
       </c>
       <c r="C2388" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJAN/31</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2388" t="inlineStr"/>
@@ -76584,7 +76606,7 @@
       </c>
       <c r="C2389" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJAN/31</t>
+          <t>EIA Gasoline Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2389" t="inlineStr"/>
@@ -76593,7 +76615,7 @@
       <c r="G2389" t="inlineStr"/>
       <c r="H2389" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -76610,7 +76632,7 @@
       </c>
       <c r="C2390" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/31</t>
+          <t>EIA Crude Oil Imports ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2390" t="inlineStr"/>
@@ -76636,7 +76658,7 @@
       </c>
       <c r="C2391" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/31</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2391" t="inlineStr"/>
@@ -76662,7 +76684,7 @@
       </c>
       <c r="C2392" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJAN/31</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2392" t="inlineStr"/>
@@ -76688,7 +76710,7 @@
       </c>
       <c r="C2393" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJAN/31</t>
+          <t>EIA Distillate Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2393" t="inlineStr"/>
@@ -76714,7 +76736,7 @@
       </c>
       <c r="C2394" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/31</t>
+          <t>EIA Gasoline Production ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2394" t="inlineStr"/>
@@ -76740,7 +76762,7 @@
       </c>
       <c r="C2395" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/31</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2395" t="inlineStr"/>
@@ -76756,30 +76778,26 @@
     <row r="2396">
       <c r="A2396" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2396" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2396" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2396" t="inlineStr"/>
       <c r="E2396" t="inlineStr"/>
       <c r="F2396" t="inlineStr"/>
-      <c r="G2396" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
+      <c r="G2396" t="inlineStr"/>
       <c r="H2396" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -76796,16 +76814,20 @@
       </c>
       <c r="C2397" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D2397" t="inlineStr"/>
       <c r="E2397" t="inlineStr"/>
       <c r="F2397" t="inlineStr"/>
-      <c r="G2397" t="inlineStr"/>
+      <c r="G2397" t="inlineStr">
+        <is>
+          <t>2.40%</t>
+        </is>
+      </c>
       <c r="H2397" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -76822,7 +76844,7 @@
       </c>
       <c r="C2398" t="inlineStr">
         <is>
-          <t>Corporate ProfitsNOV</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2398" t="inlineStr"/>
@@ -76848,21 +76870,13 @@
       </c>
       <c r="C2399" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Corporate ProfitsNOV</t>
         </is>
       </c>
       <c r="D2399" t="inlineStr"/>
-      <c r="E2399" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
+      <c r="E2399" t="inlineStr"/>
       <c r="F2399" t="inlineStr"/>
-      <c r="G2399" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
+      <c r="G2399" t="inlineStr"/>
       <c r="H2399" t="inlineStr">
         <is>
           <t>3</t>
@@ -76882,13 +76896,21 @@
       </c>
       <c r="C2400" t="inlineStr">
         <is>
-          <t>Real Wage Growth YoYNOV</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2400" t="inlineStr"/>
-      <c r="E2400" t="inlineStr"/>
+      <c r="E2400" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="F2400" t="inlineStr"/>
-      <c r="G2400" t="inlineStr"/>
+      <c r="G2400" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
       <c r="H2400" t="inlineStr">
         <is>
           <t>3</t>
@@ -76908,17 +76930,13 @@
       </c>
       <c r="C2401" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Real Wage Growth YoYNOV</t>
         </is>
       </c>
       <c r="D2401" t="inlineStr"/>
       <c r="E2401" t="inlineStr"/>
       <c r="F2401" t="inlineStr"/>
-      <c r="G2401" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
+      <c r="G2401" t="inlineStr"/>
       <c r="H2401" t="inlineStr">
         <is>
           <t>3</t>
@@ -76928,23 +76946,27 @@
     <row r="2402">
       <c r="A2402" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2402" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2402" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2402" t="inlineStr"/>
       <c r="E2402" t="inlineStr"/>
       <c r="F2402" t="inlineStr"/>
-      <c r="G2402" t="inlineStr"/>
+      <c r="G2402" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
       <c r="H2402" t="inlineStr">
         <is>
           <t>3</t>
@@ -76954,17 +76976,17 @@
     <row r="2403">
       <c r="A2403" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2403" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2403" t="inlineStr">
         <is>
-          <t>2-Year Bond Auction</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2403" t="inlineStr"/>
@@ -76980,17 +77002,17 @@
     <row r="2404">
       <c r="A2404" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B2404" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2404" t="inlineStr">
         <is>
-          <t>Fed Goolsbee Speech</t>
+          <t>2-Year Bond Auction</t>
         </is>
       </c>
       <c r="D2404" t="inlineStr"/>
@@ -76999,38 +77021,30 @@
       <c r="G2404" t="inlineStr"/>
       <c r="H2404" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2405">
       <c r="A2405" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2405" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2405" t="inlineStr">
         <is>
-          <t>Ai Group Industry IndexJAN</t>
+          <t>Fed Goolsbee Speech</t>
         </is>
       </c>
       <c r="D2405" t="inlineStr"/>
-      <c r="E2405" t="inlineStr">
-        <is>
-          <t>-10.8</t>
-        </is>
-      </c>
+      <c r="E2405" t="inlineStr"/>
       <c r="F2405" t="inlineStr"/>
-      <c r="G2405" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
+      <c r="G2405" t="inlineStr"/>
       <c r="H2405" t="inlineStr">
         <is>
           <t>2</t>
@@ -77050,24 +77064,24 @@
       </c>
       <c r="C2406" t="inlineStr">
         <is>
-          <t>Ai Group Construction IndexJAN</t>
+          <t>Ai Group Industry IndexJAN</t>
         </is>
       </c>
       <c r="D2406" t="inlineStr"/>
       <c r="E2406" t="inlineStr">
         <is>
-          <t>-19.0</t>
+          <t>-10.8</t>
         </is>
       </c>
       <c r="F2406" t="inlineStr"/>
       <c r="G2406" t="inlineStr">
         <is>
-          <t>-25</t>
+          <t>-15</t>
         </is>
       </c>
       <c r="H2406" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -77084,19 +77098,19 @@
       </c>
       <c r="C2407" t="inlineStr">
         <is>
-          <t>Ai Group Manufacturing IndexJAN</t>
+          <t>Ai Group Construction IndexJAN</t>
         </is>
       </c>
       <c r="D2407" t="inlineStr"/>
       <c r="E2407" t="inlineStr">
         <is>
-          <t>-17.9</t>
+          <t>-19.0</t>
         </is>
       </c>
       <c r="F2407" t="inlineStr"/>
       <c r="G2407" t="inlineStr">
         <is>
-          <t>-13</t>
+          <t>-25</t>
         </is>
       </c>
       <c r="H2407" t="inlineStr">
@@ -77108,25 +77122,29 @@
     <row r="2408">
       <c r="A2408" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2408" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2408" t="inlineStr">
         <is>
-          <t>Current AccountDEC</t>
+          <t>Ai Group Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D2408" t="inlineStr"/>
-      <c r="E2408" t="inlineStr"/>
+      <c r="E2408" t="inlineStr">
+        <is>
+          <t>-17.9</t>
+        </is>
+      </c>
       <c r="F2408" t="inlineStr"/>
       <c r="G2408" t="inlineStr">
         <is>
-          <t>$ 8.1B</t>
+          <t>-13</t>
         </is>
       </c>
       <c r="H2408" t="inlineStr">
@@ -77138,23 +77156,27 @@
     <row r="2409">
       <c r="A2409" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2409" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2409" t="inlineStr">
         <is>
-          <t>Overtime Pay YoYDEC</t>
+          <t>Current AccountDEC</t>
         </is>
       </c>
       <c r="D2409" t="inlineStr"/>
       <c r="E2409" t="inlineStr"/>
       <c r="F2409" t="inlineStr"/>
-      <c r="G2409" t="inlineStr"/>
+      <c r="G2409" t="inlineStr">
+        <is>
+          <t>$ 8.1B</t>
+        </is>
+      </c>
       <c r="H2409" t="inlineStr">
         <is>
           <t>3</t>
@@ -77164,7 +77186,7 @@
     <row r="2410">
       <c r="A2410" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2410" t="inlineStr">
@@ -77174,7 +77196,7 @@
       </c>
       <c r="C2410" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentFEB/01</t>
+          <t>Overtime Pay YoYDEC</t>
         </is>
       </c>
       <c r="D2410" t="inlineStr"/>
@@ -77200,7 +77222,7 @@
       </c>
       <c r="C2411" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersFEB/01</t>
+          <t>Foreign Bond InvestmentFEB/01</t>
         </is>
       </c>
       <c r="D2411" t="inlineStr"/>
@@ -77216,34 +77238,26 @@
     <row r="2412">
       <c r="A2412" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B2412" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2412" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Stock Investment by ForeignersFEB/01</t>
         </is>
       </c>
       <c r="D2412" t="inlineStr"/>
-      <c r="E2412" t="inlineStr">
-        <is>
-          <t>A$7.079B</t>
-        </is>
-      </c>
+      <c r="E2412" t="inlineStr"/>
       <c r="F2412" t="inlineStr"/>
-      <c r="G2412" t="inlineStr">
-        <is>
-          <t>A$ 3.2B</t>
-        </is>
-      </c>
+      <c r="G2412" t="inlineStr"/>
       <c r="H2412" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -77260,20 +77274,24 @@
       </c>
       <c r="C2413" t="inlineStr">
         <is>
-          <t>Exports MoMDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2413" t="inlineStr"/>
       <c r="E2413" t="inlineStr">
         <is>
-          <t>4.8%</t>
+          <t>A$7.079B</t>
         </is>
       </c>
       <c r="F2413" t="inlineStr"/>
-      <c r="G2413" t="inlineStr"/>
+      <c r="G2413" t="inlineStr">
+        <is>
+          <t>A$ 3.2B</t>
+        </is>
+      </c>
       <c r="H2413" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -77290,13 +77308,13 @@
       </c>
       <c r="C2414" t="inlineStr">
         <is>
-          <t>Imports MoMDEC</t>
+          <t>Exports MoMDEC</t>
         </is>
       </c>
       <c r="D2414" t="inlineStr"/>
       <c r="E2414" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="F2414" t="inlineStr"/>
@@ -77310,23 +77328,23 @@
     <row r="2415">
       <c r="A2415" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2415" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2415" t="inlineStr">
         <is>
-          <t>30-Year JGB Auction</t>
+          <t>Imports MoMDEC</t>
         </is>
       </c>
       <c r="D2415" t="inlineStr"/>
       <c r="E2415" t="inlineStr">
         <is>
-          <t>2.304%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="F2415" t="inlineStr"/>
@@ -77350,13 +77368,13 @@
       </c>
       <c r="C2416" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>30-Year JGB Auction</t>
         </is>
       </c>
       <c r="D2416" t="inlineStr"/>
       <c r="E2416" t="inlineStr">
         <is>
-          <t>0.3535%</t>
+          <t>2.304%</t>
         </is>
       </c>
       <c r="F2416" t="inlineStr"/>
@@ -77368,21 +77386,25 @@
       </c>
     </row>
     <row r="2417">
-      <c r="A2417" t="inlineStr"/>
+      <c r="A2417" t="inlineStr">
+        <is>
+          <t>10:35 PM</t>
+        </is>
+      </c>
       <c r="B2417" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2417" t="inlineStr">
         <is>
-          <t>Total Vehicle SalesJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2417" t="inlineStr"/>
       <c r="E2417" t="inlineStr">
         <is>
-          <t>16.8M</t>
+          <t>0.3535%</t>
         </is>
       </c>
       <c r="F2417" t="inlineStr"/>
@@ -77394,80 +77416,76 @@
       </c>
     </row>
     <row r="2418">
-      <c r="A2418" t="inlineStr">
-        <is>
-          <t>Thursday February 06 2025</t>
-        </is>
-      </c>
-      <c r="B2418" t="inlineStr"/>
-      <c r="C2418" t="inlineStr"/>
+      <c r="A2418" t="inlineStr"/>
+      <c r="B2418" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2418" t="inlineStr">
+        <is>
+          <t>Total Vehicle SalesJAN</t>
+        </is>
+      </c>
       <c r="D2418" t="inlineStr"/>
-      <c r="E2418" t="inlineStr"/>
+      <c r="E2418" t="inlineStr">
+        <is>
+          <t>16.8M</t>
+        </is>
+      </c>
       <c r="F2418" t="inlineStr"/>
       <c r="G2418" t="inlineStr"/>
-      <c r="H2418" t="inlineStr"/>
+      <c r="H2418" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2419">
       <c r="A2419" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B2419" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C2419" t="inlineStr">
-        <is>
-          <t>Factory Orders MoMDEC</t>
-        </is>
-      </c>
+          <t>Thursday February 06 2025</t>
+        </is>
+      </c>
+      <c r="B2419" t="inlineStr"/>
+      <c r="C2419" t="inlineStr"/>
       <c r="D2419" t="inlineStr"/>
-      <c r="E2419" t="inlineStr">
-        <is>
-          <t>-5.4%</t>
-        </is>
-      </c>
+      <c r="E2419" t="inlineStr"/>
       <c r="F2419" t="inlineStr"/>
-      <c r="G2419" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H2419" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G2419" t="inlineStr"/>
+      <c r="H2419" t="inlineStr"/>
     </row>
     <row r="2420">
       <c r="A2420" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2420" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2420" t="inlineStr">
         <is>
-          <t>HCOB Construction PMIJAN</t>
+          <t>Factory Orders MoMDEC</t>
         </is>
       </c>
       <c r="D2420" t="inlineStr"/>
       <c r="E2420" t="inlineStr">
         <is>
-          <t>42.9</t>
+          <t>-5.4%</t>
         </is>
       </c>
       <c r="F2420" t="inlineStr"/>
-      <c r="G2420" t="inlineStr"/>
+      <c r="G2420" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2420" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -77479,7 +77497,7 @@
       </c>
       <c r="B2421" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2421" t="inlineStr">
@@ -77490,7 +77508,7 @@
       <c r="D2421" t="inlineStr"/>
       <c r="E2421" t="inlineStr">
         <is>
-          <t>42.6</t>
+          <t>42.9</t>
         </is>
       </c>
       <c r="F2421" t="inlineStr"/>
@@ -77509,7 +77527,7 @@
       </c>
       <c r="B2422" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2422" t="inlineStr">
@@ -77520,14 +77538,14 @@
       <c r="D2422" t="inlineStr"/>
       <c r="E2422" t="inlineStr">
         <is>
-          <t>37.8</t>
+          <t>42.6</t>
         </is>
       </c>
       <c r="F2422" t="inlineStr"/>
       <c r="G2422" t="inlineStr"/>
       <c r="H2422" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -77539,7 +77557,7 @@
       </c>
       <c r="B2423" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2423" t="inlineStr">
@@ -77550,77 +77568,73 @@
       <c r="D2423" t="inlineStr"/>
       <c r="E2423" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>37.8</t>
         </is>
       </c>
       <c r="F2423" t="inlineStr"/>
       <c r="G2423" t="inlineStr"/>
       <c r="H2423" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2424">
       <c r="A2424" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2424" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2424" t="inlineStr">
         <is>
-          <t>S&amp;P Global Construction PMIJAN</t>
+          <t>HCOB Construction PMIJAN</t>
         </is>
       </c>
       <c r="D2424" t="inlineStr"/>
       <c r="E2424" t="inlineStr">
         <is>
-          <t>53.3</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F2424" t="inlineStr"/>
-      <c r="G2424" t="inlineStr">
-        <is>
-          <t>53.5</t>
-        </is>
-      </c>
+      <c r="G2424" t="inlineStr"/>
       <c r="H2424" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2425">
       <c r="A2425" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2425" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2425" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>S&amp;P Global Construction PMIJAN</t>
         </is>
       </c>
       <c r="D2425" t="inlineStr"/>
       <c r="E2425" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="F2425" t="inlineStr"/>
       <c r="G2425" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>53.5</t>
         </is>
       </c>
       <c r="H2425" t="inlineStr">
@@ -77642,19 +77656,19 @@
       </c>
       <c r="C2426" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2426" t="inlineStr"/>
       <c r="E2426" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2426" t="inlineStr"/>
       <c r="G2426" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2426" t="inlineStr">
@@ -77671,38 +77685,46 @@
       </c>
       <c r="B2427" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2427" t="inlineStr">
         <is>
-          <t>OAT Auction</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2427" t="inlineStr"/>
-      <c r="E2427" t="inlineStr"/>
+      <c r="E2427" t="inlineStr">
+        <is>
+          <t>1.2%</t>
+        </is>
+      </c>
       <c r="F2427" t="inlineStr"/>
-      <c r="G2427" t="inlineStr"/>
+      <c r="G2427" t="inlineStr">
+        <is>
+          <t>1.7%</t>
+        </is>
+      </c>
       <c r="H2427" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2428">
       <c r="A2428" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2428" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2428" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/31</t>
+          <t>OAT Auction</t>
         </is>
       </c>
       <c r="D2428" t="inlineStr"/>
@@ -77718,30 +77740,26 @@
     <row r="2429">
       <c r="A2429" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B2429" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2429" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>Foreign Exchange ReservesJAN/31</t>
         </is>
       </c>
       <c r="D2429" t="inlineStr"/>
-      <c r="E2429" t="inlineStr">
-        <is>
-          <t>47.1</t>
-        </is>
-      </c>
+      <c r="E2429" t="inlineStr"/>
       <c r="F2429" t="inlineStr"/>
       <c r="G2429" t="inlineStr"/>
       <c r="H2429" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -77753,33 +77771,25 @@
       </c>
       <c r="B2430" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2430" t="inlineStr">
         <is>
-          <t>BoE Interest Rate Decision</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2430" t="inlineStr"/>
       <c r="E2430" t="inlineStr">
         <is>
-          <t>4.75%</t>
-        </is>
-      </c>
-      <c r="F2430" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="G2430" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
+          <t>47.1</t>
+        </is>
+      </c>
+      <c r="F2430" t="inlineStr"/>
+      <c r="G2430" t="inlineStr"/>
       <c r="H2430" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -77796,16 +77806,28 @@
       </c>
       <c r="C2431" t="inlineStr">
         <is>
-          <t>BoE Monetary Policy Report</t>
+          <t>BoE Interest Rate Decision</t>
         </is>
       </c>
       <c r="D2431" t="inlineStr"/>
-      <c r="E2431" t="inlineStr"/>
-      <c r="F2431" t="inlineStr"/>
-      <c r="G2431" t="inlineStr"/>
+      <c r="E2431" t="inlineStr">
+        <is>
+          <t>4.75%</t>
+        </is>
+      </c>
+      <c r="F2431" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
+      <c r="G2431" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
       <c r="H2431" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -77822,7 +77844,7 @@
       </c>
       <c r="C2432" t="inlineStr">
         <is>
-          <t>BoE MPC Vote Cut</t>
+          <t>BoE Monetary Policy Report</t>
         </is>
       </c>
       <c r="D2432" t="inlineStr"/>
@@ -77848,7 +77870,7 @@
       </c>
       <c r="C2433" t="inlineStr">
         <is>
-          <t>BoE MPC Vote Hike</t>
+          <t>BoE MPC Vote Cut</t>
         </is>
       </c>
       <c r="D2433" t="inlineStr"/>
@@ -77874,7 +77896,7 @@
       </c>
       <c r="C2434" t="inlineStr">
         <is>
-          <t>BoE MPC Vote Unchanged</t>
+          <t>BoE MPC Vote Hike</t>
         </is>
       </c>
       <c r="D2434" t="inlineStr"/>
@@ -77900,7 +77922,7 @@
       </c>
       <c r="C2435" t="inlineStr">
         <is>
-          <t>MPC Meeting Minutes</t>
+          <t>BoE MPC Vote Unchanged</t>
         </is>
       </c>
       <c r="D2435" t="inlineStr"/>
@@ -77916,37 +77938,33 @@
     <row r="2436">
       <c r="A2436" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2436" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2436" t="inlineStr">
         <is>
-          <t>Challenger Job CutsJAN</t>
+          <t>MPC Meeting Minutes</t>
         </is>
       </c>
       <c r="D2436" t="inlineStr"/>
-      <c r="E2436" t="inlineStr">
-        <is>
-          <t>38.792K</t>
-        </is>
-      </c>
+      <c r="E2436" t="inlineStr"/>
       <c r="F2436" t="inlineStr"/>
       <c r="G2436" t="inlineStr"/>
       <c r="H2436" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2437">
       <c r="A2437" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2437" t="inlineStr">
@@ -77956,16 +77974,20 @@
       </c>
       <c r="C2437" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsFEB/01</t>
+          <t>Challenger Job CutsJAN</t>
         </is>
       </c>
       <c r="D2437" t="inlineStr"/>
-      <c r="E2437" t="inlineStr"/>
+      <c r="E2437" t="inlineStr">
+        <is>
+          <t>38.792K</t>
+        </is>
+      </c>
       <c r="F2437" t="inlineStr"/>
       <c r="G2437" t="inlineStr"/>
       <c r="H2437" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -77982,15 +78004,11 @@
       </c>
       <c r="C2438" t="inlineStr">
         <is>
-          <t>Nonfarm Productivity QoQ PrelQ4</t>
+          <t>Initial Jobless ClaimsFEB/01</t>
         </is>
       </c>
       <c r="D2438" t="inlineStr"/>
-      <c r="E2438" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
+      <c r="E2438" t="inlineStr"/>
       <c r="F2438" t="inlineStr"/>
       <c r="G2438" t="inlineStr"/>
       <c r="H2438" t="inlineStr">
@@ -78012,13 +78030,13 @@
       </c>
       <c r="C2439" t="inlineStr">
         <is>
-          <t>Unit Labour Costs QoQ PrelQ4</t>
+          <t>Nonfarm Productivity QoQ PrelQ4</t>
         </is>
       </c>
       <c r="D2439" t="inlineStr"/>
       <c r="E2439" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="F2439" t="inlineStr"/>
@@ -78042,16 +78060,20 @@
       </c>
       <c r="C2440" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsJAN/25</t>
+          <t>Unit Labour Costs QoQ PrelQ4</t>
         </is>
       </c>
       <c r="D2440" t="inlineStr"/>
-      <c r="E2440" t="inlineStr"/>
+      <c r="E2440" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="F2440" t="inlineStr"/>
       <c r="G2440" t="inlineStr"/>
       <c r="H2440" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -78068,7 +78090,7 @@
       </c>
       <c r="C2441" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageFEB/01</t>
+          <t>Continuing Jobless ClaimsJAN/25</t>
         </is>
       </c>
       <c r="D2441" t="inlineStr"/>
@@ -78084,17 +78106,17 @@
     <row r="2442">
       <c r="A2442" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2442" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2442" t="inlineStr">
         <is>
-          <t>Ivey PMI s.aJAN</t>
+          <t>Jobless Claims 4-week AverageFEB/01</t>
         </is>
       </c>
       <c r="D2442" t="inlineStr"/>
@@ -78103,24 +78125,24 @@
       <c r="G2442" t="inlineStr"/>
       <c r="H2442" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2443">
       <c r="A2443" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2443" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2443" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeJAN/31</t>
+          <t>Ivey PMI s.aJAN</t>
         </is>
       </c>
       <c r="D2443" t="inlineStr"/>
@@ -78129,28 +78151,28 @@
       <c r="G2443" t="inlineStr"/>
       <c r="H2443" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2444">
-      <c r="A2444" t="inlineStr"/>
+      <c r="A2444" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
       <c r="B2444" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2444" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYJAN</t>
+          <t>EIA Natural Gas Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2444" t="inlineStr"/>
-      <c r="E2444" t="inlineStr">
-        <is>
-          <t>-7.1%</t>
-        </is>
-      </c>
+      <c r="E2444" t="inlineStr"/>
       <c r="F2444" t="inlineStr"/>
       <c r="G2444" t="inlineStr"/>
       <c r="H2444" t="inlineStr">
@@ -78160,15 +78182,19 @@
       </c>
     </row>
     <row r="2445">
-      <c r="A2445" t="inlineStr"/>
+      <c r="A2445" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
       <c r="B2445" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2445" t="inlineStr">
         <is>
-          <t>Vehicle Sales YoYJAN</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2445" t="inlineStr"/>
@@ -78182,15 +78208,19 @@
       </c>
     </row>
     <row r="2446">
-      <c r="A2446" t="inlineStr"/>
+      <c r="A2446" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
       <c r="B2446" t="inlineStr">
         <is>
-          <t>WL</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2446" t="inlineStr">
         <is>
-          <t>Global Supply Chain Pressure IndexJAN</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2446" t="inlineStr"/>
@@ -78204,19 +78234,27 @@
       </c>
     </row>
     <row r="2447">
-      <c r="A2447" t="inlineStr"/>
+      <c r="A2447" t="inlineStr">
+        <is>
+          <t>12:00 PM</t>
+        </is>
+      </c>
       <c r="B2447" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2447" t="inlineStr">
         <is>
-          <t>10-Year NTN-F Auction</t>
+          <t>10-Year Bond Auction</t>
         </is>
       </c>
       <c r="D2447" t="inlineStr"/>
-      <c r="E2447" t="inlineStr"/>
+      <c r="E2447" t="inlineStr">
+        <is>
+          <t>3.358%</t>
+        </is>
+      </c>
       <c r="F2447" t="inlineStr"/>
       <c r="G2447" t="inlineStr"/>
       <c r="H2447" t="inlineStr">
@@ -78226,15 +78264,19 @@
       </c>
     </row>
     <row r="2448">
-      <c r="A2448" t="inlineStr"/>
+      <c r="A2448" t="inlineStr">
+        <is>
+          <t>12:00 PM</t>
+        </is>
+      </c>
       <c r="B2448" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2448" t="inlineStr">
         <is>
-          <t>2-Year LTN Auction</t>
+          <t>15-Year Mortgage RateFEB/06</t>
         </is>
       </c>
       <c r="D2448" t="inlineStr"/>
@@ -78248,26 +78290,166 @@
       </c>
     </row>
     <row r="2449">
-      <c r="A2449" t="inlineStr"/>
+      <c r="A2449" t="inlineStr">
+        <is>
+          <t>12:00 PM</t>
+        </is>
+      </c>
       <c r="B2449" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2449" t="inlineStr">
         <is>
-          <t>6-Month LTN Auction</t>
+          <t>30-Year Mortgage RateFEB/06</t>
         </is>
       </c>
       <c r="D2449" t="inlineStr"/>
-      <c r="E2449" t="inlineStr">
-        <is>
-          <t>14.5579%</t>
-        </is>
-      </c>
+      <c r="E2449" t="inlineStr"/>
       <c r="F2449" t="inlineStr"/>
       <c r="G2449" t="inlineStr"/>
       <c r="H2449" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2450">
+      <c r="A2450" t="inlineStr"/>
+      <c r="B2450" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C2450" t="inlineStr">
+        <is>
+          <t>New Car Registrations YoYJAN</t>
+        </is>
+      </c>
+      <c r="D2450" t="inlineStr"/>
+      <c r="E2450" t="inlineStr">
+        <is>
+          <t>-7.1%</t>
+        </is>
+      </c>
+      <c r="F2450" t="inlineStr"/>
+      <c r="G2450" t="inlineStr"/>
+      <c r="H2450" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2451">
+      <c r="A2451" t="inlineStr"/>
+      <c r="B2451" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+      <c r="C2451" t="inlineStr">
+        <is>
+          <t>Vehicle Sales YoYJAN</t>
+        </is>
+      </c>
+      <c r="D2451" t="inlineStr"/>
+      <c r="E2451" t="inlineStr"/>
+      <c r="F2451" t="inlineStr"/>
+      <c r="G2451" t="inlineStr"/>
+      <c r="H2451" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2452">
+      <c r="A2452" t="inlineStr"/>
+      <c r="B2452" t="inlineStr">
+        <is>
+          <t>WL</t>
+        </is>
+      </c>
+      <c r="C2452" t="inlineStr">
+        <is>
+          <t>Global Supply Chain Pressure IndexJAN</t>
+        </is>
+      </c>
+      <c r="D2452" t="inlineStr"/>
+      <c r="E2452" t="inlineStr"/>
+      <c r="F2452" t="inlineStr"/>
+      <c r="G2452" t="inlineStr"/>
+      <c r="H2452" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2453">
+      <c r="A2453" t="inlineStr"/>
+      <c r="B2453" t="inlineStr">
+        <is>
+          <t>BR</t>
+        </is>
+      </c>
+      <c r="C2453" t="inlineStr">
+        <is>
+          <t>10-Year NTN-F Auction</t>
+        </is>
+      </c>
+      <c r="D2453" t="inlineStr"/>
+      <c r="E2453" t="inlineStr"/>
+      <c r="F2453" t="inlineStr"/>
+      <c r="G2453" t="inlineStr"/>
+      <c r="H2453" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2454">
+      <c r="A2454" t="inlineStr"/>
+      <c r="B2454" t="inlineStr">
+        <is>
+          <t>BR</t>
+        </is>
+      </c>
+      <c r="C2454" t="inlineStr">
+        <is>
+          <t>2-Year LTN Auction</t>
+        </is>
+      </c>
+      <c r="D2454" t="inlineStr"/>
+      <c r="E2454" t="inlineStr"/>
+      <c r="F2454" t="inlineStr"/>
+      <c r="G2454" t="inlineStr"/>
+      <c r="H2454" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2455">
+      <c r="A2455" t="inlineStr"/>
+      <c r="B2455" t="inlineStr">
+        <is>
+          <t>BR</t>
+        </is>
+      </c>
+      <c r="C2455" t="inlineStr">
+        <is>
+          <t>6-Month LTN Auction</t>
+        </is>
+      </c>
+      <c r="D2455" t="inlineStr"/>
+      <c r="E2455" t="inlineStr">
+        <is>
+          <t>14.5579%</t>
+        </is>
+      </c>
+      <c r="F2455" t="inlineStr"/>
+      <c r="G2455" t="inlineStr"/>
+      <c r="H2455" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-06.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2486"/>
+  <dimension ref="A1:H2464"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70629,10 +70629,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2194" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2194" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2195">
@@ -70659,10 +70657,8 @@
       </c>
       <c r="F2195" t="inlineStr"/>
       <c r="G2195" t="inlineStr"/>
-      <c r="H2195" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2195" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2196">
@@ -70697,10 +70693,8 @@
           <t>7.0K</t>
         </is>
       </c>
-      <c r="H2196" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2196" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2197">
@@ -70731,10 +70725,8 @@
           <t>2.876M</t>
         </is>
       </c>
-      <c r="H2197" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2197" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2198">
@@ -70769,10 +70761,8 @@
           <t>6.2%</t>
         </is>
       </c>
-      <c r="H2198" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2198" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2199">
@@ -70795,10 +70785,8 @@
       <c r="E2199" t="inlineStr"/>
       <c r="F2199" t="inlineStr"/>
       <c r="G2199" t="inlineStr"/>
-      <c r="H2199" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2199" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2200">
@@ -70825,10 +70813,8 @@
       </c>
       <c r="F2200" t="inlineStr"/>
       <c r="G2200" t="inlineStr"/>
-      <c r="H2200" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2200" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2201">
@@ -70855,10 +70841,8 @@
       </c>
       <c r="F2201" t="inlineStr"/>
       <c r="G2201" t="inlineStr"/>
-      <c r="H2201" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2201" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2202">
@@ -70885,10 +70869,8 @@
       </c>
       <c r="F2202" t="inlineStr"/>
       <c r="G2202" t="inlineStr"/>
-      <c r="H2202" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2202" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2203">
@@ -70915,10 +70897,8 @@
       </c>
       <c r="F2203" t="inlineStr"/>
       <c r="G2203" t="inlineStr"/>
-      <c r="H2203" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2203" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2204">
@@ -70945,10 +70925,8 @@
       </c>
       <c r="F2204" t="inlineStr"/>
       <c r="G2204" t="inlineStr"/>
-      <c r="H2204" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2204" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2205">
@@ -70975,10 +70953,8 @@
       </c>
       <c r="F2205" t="inlineStr"/>
       <c r="G2205" t="inlineStr"/>
-      <c r="H2205" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2205" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2206">
@@ -71005,10 +70981,8 @@
       </c>
       <c r="F2206" t="inlineStr"/>
       <c r="G2206" t="inlineStr"/>
-      <c r="H2206" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2206" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2207">
@@ -71035,10 +71009,8 @@
       </c>
       <c r="F2207" t="inlineStr"/>
       <c r="G2207" t="inlineStr"/>
-      <c r="H2207" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2207" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2208">
@@ -71065,10 +71037,8 @@
       </c>
       <c r="F2208" t="inlineStr"/>
       <c r="G2208" t="inlineStr"/>
-      <c r="H2208" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2208" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2209">
@@ -71095,10 +71065,8 @@
       </c>
       <c r="F2209" t="inlineStr"/>
       <c r="G2209" t="inlineStr"/>
-      <c r="H2209" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2209" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2210">
@@ -71125,10 +71093,8 @@
       </c>
       <c r="F2210" t="inlineStr"/>
       <c r="G2210" t="inlineStr"/>
-      <c r="H2210" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2210" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2211">
@@ -71155,10 +71121,8 @@
       </c>
       <c r="F2211" t="inlineStr"/>
       <c r="G2211" t="inlineStr"/>
-      <c r="H2211" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2211" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2212">
@@ -71189,10 +71153,8 @@
           <t>€5.0B</t>
         </is>
       </c>
-      <c r="H2212" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2212" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2213">
@@ -71223,10 +71185,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2213" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2213" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2214">
@@ -71257,10 +71217,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2214" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2214" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2215">
@@ -71291,10 +71249,8 @@
           <t>INR-9700.0B</t>
         </is>
       </c>
-      <c r="H2215" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2215" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2216">
@@ -71325,10 +71281,8 @@
           <t>77.9%</t>
         </is>
       </c>
-      <c r="H2216" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2216" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2217">
@@ -71363,10 +71317,8 @@
           <t>BRL-75.0B</t>
         </is>
       </c>
-      <c r="H2217" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2217" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2218">
@@ -71393,10 +71345,8 @@
       </c>
       <c r="F2218" t="inlineStr"/>
       <c r="G2218" t="inlineStr"/>
-      <c r="H2218" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2218" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2219">
@@ -71423,10 +71373,8 @@
       </c>
       <c r="F2219" t="inlineStr"/>
       <c r="G2219" t="inlineStr"/>
-      <c r="H2219" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2219" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2220">
@@ -71453,10 +71401,8 @@
       </c>
       <c r="F2220" t="inlineStr"/>
       <c r="G2220" t="inlineStr"/>
-      <c r="H2220" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2220" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2221">
@@ -71487,10 +71433,8 @@
           <t>4.8%</t>
         </is>
       </c>
-      <c r="H2221" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2221" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2222">
@@ -71525,10 +71469,8 @@
           <t>6.1%</t>
         </is>
       </c>
-      <c r="H2222" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2222" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2223">
@@ -71559,10 +71501,8 @@
           <t>ZAR 27.0B</t>
         </is>
       </c>
-      <c r="H2223" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2223" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2224">
@@ -71597,10 +71537,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2224" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2224" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2225">
@@ -71635,10 +71573,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2225" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2225" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2226">
@@ -71673,10 +71609,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2226" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2226" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2227">
@@ -71711,10 +71645,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2227" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2227" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2228">
@@ -71749,10 +71681,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2228" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2228" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2229">
@@ -71783,10 +71713,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2229" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2229" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2230">
@@ -71821,10 +71749,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2230" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2230" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2231">
@@ -71859,10 +71785,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2231" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2231" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2232">
@@ -71897,10 +71821,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2232" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2232" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2233">
@@ -71931,10 +71853,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2233" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2233" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2234">
@@ -71965,10 +71885,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2234" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2234" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2235">
@@ -72003,10 +71921,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2235" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2235" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2236">
@@ -72029,10 +71945,8 @@
       <c r="E2236" t="inlineStr"/>
       <c r="F2236" t="inlineStr"/>
       <c r="G2236" t="inlineStr"/>
-      <c r="H2236" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2236" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2237">
@@ -72067,10 +71981,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2237" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2237" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2238">
@@ -72105,10 +72017,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2238" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2238" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2239">
@@ -72143,10 +72053,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H2239" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2239" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2240">
@@ -72181,10 +72089,8 @@
           <t>37.2</t>
         </is>
       </c>
-      <c r="H2240" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2240" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2241">
@@ -72215,10 +72121,8 @@
           <t>C$-1.9B</t>
         </is>
       </c>
-      <c r="H2241" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2241" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2242">
@@ -72245,10 +72149,8 @@
       </c>
       <c r="F2242" t="inlineStr"/>
       <c r="G2242" t="inlineStr"/>
-      <c r="H2242" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2242" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2243">
@@ -72275,10 +72177,8 @@
       </c>
       <c r="F2243" t="inlineStr"/>
       <c r="G2243" t="inlineStr"/>
-      <c r="H2243" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2243" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2244">
@@ -72309,10 +72209,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2244" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2244" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2245">
@@ -72343,10 +72241,8 @@
           <t>$0.9B</t>
         </is>
       </c>
-      <c r="H2245" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2245" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2246">
@@ -72377,10 +72273,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H2246" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2246" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2247">
@@ -72407,10 +72301,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2247" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2247" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2248">
@@ -72437,10 +72329,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2248" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2248" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2249">
@@ -72467,10 +72357,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H2249" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2249" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2250">
@@ -72497,10 +72385,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H2250" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2250" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2251">
@@ -72527,10 +72413,8 @@
           <t>20.7%</t>
         </is>
       </c>
-      <c r="H2251" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2251" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2252">
@@ -72571,10 +72455,8 @@
       </c>
       <c r="F2253" t="inlineStr"/>
       <c r="G2253" t="inlineStr"/>
-      <c r="H2253" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2253" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2254">
@@ -72605,10 +72487,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2254" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2254" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2255">
@@ -72639,10 +72519,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H2255" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2255" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2256">
@@ -72673,10 +72551,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2256" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2256" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2257">
@@ -72699,10 +72575,8 @@
       <c r="E2257" t="inlineStr"/>
       <c r="F2257" t="inlineStr"/>
       <c r="G2257" t="inlineStr"/>
-      <c r="H2257" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2257" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2258">
@@ -72733,10 +72607,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H2258" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2258" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2259">
@@ -72767,10 +72639,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2259" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2259" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2260">
@@ -72797,10 +72667,8 @@
       </c>
       <c r="F2260" t="inlineStr"/>
       <c r="G2260" t="inlineStr"/>
-      <c r="H2260" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2260" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2261">
@@ -72827,10 +72695,8 @@
       </c>
       <c r="F2261" t="inlineStr"/>
       <c r="G2261" t="inlineStr"/>
-      <c r="H2261" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2261" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2262">
@@ -72861,10 +72727,8 @@
           <t>51.6</t>
         </is>
       </c>
-      <c r="H2262" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2262" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2263">
@@ -72899,10 +72763,8 @@
           <t>48.8</t>
         </is>
       </c>
-      <c r="H2263" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2263" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2264">
@@ -72933,10 +72795,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H2264" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2264" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2265">
@@ -72971,10 +72831,8 @@
           <t>50.5</t>
         </is>
       </c>
-      <c r="H2265" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2265" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2266">
@@ -73005,10 +72863,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H2266" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2266" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2267">
@@ -73039,10 +72895,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H2267" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2267" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2268">
@@ -73073,10 +72927,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2268" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2268" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2269">
@@ -73107,114 +72959,120 @@
           <t>18.0%</t>
         </is>
       </c>
-      <c r="H2269" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2269" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2270">
       <c r="A2270" t="inlineStr">
         <is>
-          <t>Monday February 03 2025</t>
-        </is>
-      </c>
-      <c r="B2270" t="inlineStr"/>
-      <c r="C2270" t="inlineStr"/>
+          <t>05:00 AM</t>
+        </is>
+      </c>
+      <c r="B2270" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C2270" t="inlineStr">
+        <is>
+          <t>CPI FlashJAN</t>
+        </is>
+      </c>
       <c r="D2270" t="inlineStr"/>
-      <c r="E2270" t="inlineStr"/>
+      <c r="E2270" t="inlineStr">
+        <is>
+          <t>127.07</t>
+        </is>
+      </c>
       <c r="F2270" t="inlineStr"/>
       <c r="G2270" t="inlineStr"/>
-      <c r="H2270" t="inlineStr"/>
+      <c r="H2270" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2271">
       <c r="A2271" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2271" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2271" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2271" t="inlineStr"/>
       <c r="E2271" t="inlineStr">
         <is>
-          <t>56.4</t>
-        </is>
-      </c>
-      <c r="F2271" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="G2271" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="F2271" t="inlineStr"/>
+      <c r="G2271" t="inlineStr"/>
       <c r="H2271" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2272">
       <c r="A2272" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2272" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2272" t="inlineStr">
         <is>
-          <t>2-Year KTB Auction</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2272" t="inlineStr"/>
       <c r="E2272" t="inlineStr">
         <is>
-          <t>2.670%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2272" t="inlineStr"/>
       <c r="G2272" t="inlineStr"/>
       <c r="H2272" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2273">
       <c r="A2273" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2273" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2273" t="inlineStr">
         <is>
-          <t>Commodity Prices YoYJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2273" t="inlineStr"/>
       <c r="E2273" t="inlineStr">
         <is>
-          <t>-10.7%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2273" t="inlineStr"/>
@@ -73228,117 +73086,129 @@
     <row r="2274">
       <c r="A2274" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2274" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2274" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2274" t="inlineStr"/>
       <c r="E2274" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F2274" t="inlineStr"/>
       <c r="G2274" t="inlineStr"/>
       <c r="H2274" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2275">
       <c r="A2275" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2275" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2275" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D2275" t="inlineStr"/>
       <c r="E2275" t="inlineStr">
         <is>
-          <t>1.03%</t>
+          <t>$232.2B</t>
         </is>
       </c>
       <c r="F2275" t="inlineStr"/>
-      <c r="G2275" t="inlineStr"/>
+      <c r="G2275" t="inlineStr">
+        <is>
+          <t>$ 230B</t>
+        </is>
+      </c>
       <c r="H2275" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2276">
       <c r="A2276" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2276" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2276" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2276" t="inlineStr"/>
       <c r="E2276" t="inlineStr">
         <is>
-          <t>44.38%</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F2276" t="inlineStr"/>
-      <c r="G2276" t="inlineStr"/>
+      <c r="G2276" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="H2276" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2277">
       <c r="A2277" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2277" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2277" t="inlineStr">
         <is>
-          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
+          <t>SIPMM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2277" t="inlineStr"/>
       <c r="E2277" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F2277" t="inlineStr"/>
-      <c r="G2277" t="inlineStr"/>
+      <c r="G2277" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="H2277" t="inlineStr">
         <is>
           <t>3</t>
@@ -73348,25 +73218,21 @@
     <row r="2278">
       <c r="A2278" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2278" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2278" t="inlineStr">
         <is>
-          <t>PPI MoMJAN</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2278" t="inlineStr"/>
-      <c r="E2278" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="E2278" t="inlineStr"/>
       <c r="F2278" t="inlineStr"/>
       <c r="G2278" t="inlineStr"/>
       <c r="H2278" t="inlineStr">
@@ -73378,25 +73244,21 @@
     <row r="2279">
       <c r="A2279" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2279" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2279" t="inlineStr">
         <is>
-          <t>PPI YoYJAN</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2279" t="inlineStr"/>
-      <c r="E2279" t="inlineStr">
-        <is>
-          <t>28.52%</t>
-        </is>
-      </c>
+      <c r="E2279" t="inlineStr"/>
       <c r="F2279" t="inlineStr"/>
       <c r="G2279" t="inlineStr"/>
       <c r="H2279" t="inlineStr">
@@ -73408,83 +73270,91 @@
     <row r="2280">
       <c r="A2280" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2280" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2280" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2280" t="inlineStr"/>
-      <c r="E2280" t="inlineStr">
-        <is>
-          <t>-25.3K</t>
-        </is>
-      </c>
+      <c r="E2280" t="inlineStr"/>
       <c r="F2280" t="inlineStr"/>
       <c r="G2280" t="inlineStr"/>
       <c r="H2280" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2281">
       <c r="A2281" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2281" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2281" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2281" t="inlineStr"/>
-      <c r="E2281" t="inlineStr"/>
+      <c r="E2281" t="inlineStr">
+        <is>
+          <t>52.2</t>
+        </is>
+      </c>
       <c r="F2281" t="inlineStr"/>
       <c r="G2281" t="inlineStr"/>
       <c r="H2281" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2282">
       <c r="A2282" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B2282" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2282" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2282" t="inlineStr"/>
       <c r="E2282" t="inlineStr">
         <is>
-          <t>53.3</t>
-        </is>
-      </c>
-      <c r="F2282" t="inlineStr"/>
-      <c r="G2282" t="inlineStr"/>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="F2282" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
+      <c r="G2282" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
       <c r="H2282" t="inlineStr">
         <is>
           <t>2</t>
@@ -73494,65 +73364,57 @@
     <row r="2283">
       <c r="A2283" t="inlineStr">
         <is>
-          <t>03:45 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2283" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2283" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>ISM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2283" t="inlineStr"/>
       <c r="E2283" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>49.3</t>
         </is>
       </c>
       <c r="F2283" t="inlineStr"/>
       <c r="G2283" t="inlineStr"/>
       <c r="H2283" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2284">
       <c r="A2284" t="inlineStr">
         <is>
-          <t>03:50 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2284" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2284" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing EmploymentJAN</t>
         </is>
       </c>
       <c r="D2284" t="inlineStr"/>
       <c r="E2284" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F2284" t="inlineStr">
-        <is>
           <t>45.3</t>
         </is>
       </c>
-      <c r="G2284" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+      <c r="F2284" t="inlineStr"/>
+      <c r="G2284" t="inlineStr"/>
       <c r="H2284" t="inlineStr">
         <is>
           <t>2</t>
@@ -73562,107 +73424,83 @@
     <row r="2285">
       <c r="A2285" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2285" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2285" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>Construction Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2285" t="inlineStr"/>
       <c r="E2285" t="inlineStr">
         <is>
-          <t>42.5</t>
-        </is>
-      </c>
-      <c r="F2285" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F2285" t="inlineStr"/>
       <c r="G2285" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2285" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2286">
       <c r="A2286" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2286" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2286" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing New OrdersJAN</t>
         </is>
       </c>
       <c r="D2286" t="inlineStr"/>
-      <c r="E2286" t="inlineStr">
-        <is>
-          <t>45.1</t>
-        </is>
-      </c>
-      <c r="F2286" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
-      <c r="G2286" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
+      <c r="E2286" t="inlineStr"/>
+      <c r="F2286" t="inlineStr"/>
+      <c r="G2286" t="inlineStr"/>
       <c r="H2286" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2287">
       <c r="A2287" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2287" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2287" t="inlineStr">
         <is>
-          <t>ABSA Manufacturing PMIJAN</t>
+          <t>ISM Manufacturing PricesJAN</t>
         </is>
       </c>
       <c r="D2287" t="inlineStr"/>
-      <c r="E2287" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="E2287" t="inlineStr"/>
       <c r="F2287" t="inlineStr"/>
-      <c r="G2287" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
+      <c r="G2287" t="inlineStr"/>
       <c r="H2287" t="inlineStr">
         <is>
           <t>3</t>
@@ -73672,55 +73510,43 @@
     <row r="2288">
       <c r="A2288" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2288" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2288" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2288" t="inlineStr"/>
-      <c r="E2288" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F2288" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
-      <c r="G2288" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
+      <c r="E2288" t="inlineStr"/>
+      <c r="F2288" t="inlineStr"/>
+      <c r="G2288" t="inlineStr"/>
       <c r="H2288" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2289">
       <c r="A2289" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2289" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2289" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FlashJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2289" t="inlineStr"/>
@@ -73729,32 +73555,28 @@
       <c r="G2289" t="inlineStr"/>
       <c r="H2289" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2290">
       <c r="A2290" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2290" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2290" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FlashJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2290" t="inlineStr"/>
-      <c r="E2290" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E2290" t="inlineStr"/>
       <c r="F2290" t="inlineStr"/>
       <c r="G2290" t="inlineStr"/>
       <c r="H2290" t="inlineStr">
@@ -73766,17 +73588,17 @@
     <row r="2291">
       <c r="A2291" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2291" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2291" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FlashJAN</t>
+          <t>Treasury Refunding Financing Estimates</t>
         </is>
       </c>
       <c r="D2291" t="inlineStr"/>
@@ -73785,30 +73607,30 @@
       <c r="G2291" t="inlineStr"/>
       <c r="H2291" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2292">
       <c r="A2292" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2292" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2292" t="inlineStr">
         <is>
-          <t>CPI FlashJAN</t>
+          <t>Tax RevenueJAN</t>
         </is>
       </c>
       <c r="D2292" t="inlineStr"/>
       <c r="E2292" t="inlineStr">
         <is>
-          <t>127.07</t>
+          <t>ARS13015B</t>
         </is>
       </c>
       <c r="F2292" t="inlineStr"/>
@@ -73822,87 +73644,91 @@
     <row r="2293">
       <c r="A2293" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B2293" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2293" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>10-Year JGB Auction</t>
         </is>
       </c>
       <c r="D2293" t="inlineStr"/>
       <c r="E2293" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>1.140%</t>
         </is>
       </c>
       <c r="F2293" t="inlineStr"/>
       <c r="G2293" t="inlineStr"/>
       <c r="H2293" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2294">
       <c r="A2294" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:15 PM</t>
         </is>
       </c>
       <c r="B2294" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C2294" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Riyad Bank PMIJAN</t>
         </is>
       </c>
       <c r="D2294" t="inlineStr"/>
       <c r="E2294" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="F2294" t="inlineStr"/>
-      <c r="G2294" t="inlineStr"/>
+      <c r="G2294" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
       <c r="H2294" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2295">
-      <c r="A2295" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
+      <c r="A2295" t="inlineStr"/>
       <c r="B2295" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2295" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>Total New Vehicle SalesJAN</t>
         </is>
       </c>
       <c r="D2295" t="inlineStr"/>
       <c r="E2295" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>41.27K</t>
         </is>
       </c>
       <c r="F2295" t="inlineStr"/>
-      <c r="G2295" t="inlineStr"/>
+      <c r="G2295" t="inlineStr">
+        <is>
+          <t>43.0K</t>
+        </is>
+      </c>
       <c r="H2295" t="inlineStr">
         <is>
           <t>3</t>
@@ -73912,61 +73738,41 @@
     <row r="2296">
       <c r="A2296" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B2296" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C2296" t="inlineStr">
-        <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
-        </is>
-      </c>
+          <t>Tuesday February 04 2025</t>
+        </is>
+      </c>
+      <c r="B2296" t="inlineStr"/>
+      <c r="C2296" t="inlineStr"/>
       <c r="D2296" t="inlineStr"/>
-      <c r="E2296" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
+      <c r="E2296" t="inlineStr"/>
       <c r="F2296" t="inlineStr"/>
       <c r="G2296" t="inlineStr"/>
-      <c r="H2296" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2296" t="inlineStr"/>
     </row>
     <row r="2297">
       <c r="A2297" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2297" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2297" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2297" t="inlineStr"/>
       <c r="E2297" t="inlineStr">
         <is>
-          <t>$232.2B</t>
+          <t>3.08%</t>
         </is>
       </c>
       <c r="F2297" t="inlineStr"/>
-      <c r="G2297" t="inlineStr">
-        <is>
-          <t>$ 230B</t>
-        </is>
-      </c>
+      <c r="G2297" t="inlineStr"/>
       <c r="H2297" t="inlineStr">
         <is>
           <t>3</t>
@@ -73976,31 +73782,27 @@
     <row r="2298">
       <c r="A2298" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2298" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2298" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2298" t="inlineStr"/>
       <c r="E2298" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F2298" t="inlineStr"/>
-      <c r="G2298" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
+      <c r="G2298" t="inlineStr"/>
       <c r="H2298" t="inlineStr">
         <is>
           <t>3</t>
@@ -74010,31 +73812,27 @@
     <row r="2299">
       <c r="A2299" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2299" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2299" t="inlineStr">
         <is>
-          <t>SIPMM Manufacturing PMIJAN</t>
+          <t>30-Year KTB Auction</t>
         </is>
       </c>
       <c r="D2299" t="inlineStr"/>
       <c r="E2299" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>2.705%</t>
         </is>
       </c>
       <c r="F2299" t="inlineStr"/>
-      <c r="G2299" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+      <c r="G2299" t="inlineStr"/>
       <c r="H2299" t="inlineStr">
         <is>
           <t>3</t>
@@ -74044,7 +73842,7 @@
     <row r="2300">
       <c r="A2300" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B2300" t="inlineStr">
@@ -74054,11 +73852,15 @@
       </c>
       <c r="C2300" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D2300" t="inlineStr"/>
-      <c r="E2300" t="inlineStr"/>
+      <c r="E2300" t="inlineStr">
+        <is>
+          <t>€-172.5B</t>
+        </is>
+      </c>
       <c r="F2300" t="inlineStr"/>
       <c r="G2300" t="inlineStr"/>
       <c r="H2300" t="inlineStr">
@@ -74070,21 +73872,25 @@
     <row r="2301">
       <c r="A2301" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B2301" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2301" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>IPC-Fipe Inflation MoMJAN</t>
         </is>
       </c>
       <c r="D2301" t="inlineStr"/>
-      <c r="E2301" t="inlineStr"/>
+      <c r="E2301" t="inlineStr">
+        <is>
+          <t>0.34%</t>
+        </is>
+      </c>
       <c r="F2301" t="inlineStr"/>
       <c r="G2301" t="inlineStr"/>
       <c r="H2301" t="inlineStr">
@@ -74096,17 +73902,17 @@
     <row r="2302">
       <c r="A2302" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2302" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2302" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>5-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D2302" t="inlineStr"/>
@@ -74122,25 +73928,21 @@
     <row r="2303">
       <c r="A2303" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2303" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2303" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>BCB Copom Meeting Minutes</t>
         </is>
       </c>
       <c r="D2303" t="inlineStr"/>
-      <c r="E2303" t="inlineStr">
-        <is>
-          <t>52.2</t>
-        </is>
-      </c>
+      <c r="E2303" t="inlineStr"/>
       <c r="F2303" t="inlineStr"/>
       <c r="G2303" t="inlineStr"/>
       <c r="H2303" t="inlineStr">
@@ -74152,91 +73954,91 @@
     <row r="2304">
       <c r="A2304" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2304" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2304" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2304" t="inlineStr"/>
       <c r="E2304" t="inlineStr">
         <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="F2304" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
+          <t>1.23%</t>
+        </is>
+      </c>
+      <c r="F2304" t="inlineStr"/>
       <c r="G2304" t="inlineStr">
         <is>
-          <t>50.1</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2304" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2305">
       <c r="A2305" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2305" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2305" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PMIJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2305" t="inlineStr"/>
       <c r="E2305" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>7.59%</t>
         </is>
       </c>
       <c r="F2305" t="inlineStr"/>
-      <c r="G2305" t="inlineStr"/>
+      <c r="G2305" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="H2305" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2306">
       <c r="A2306" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2306" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2306" t="inlineStr">
         <is>
-          <t>ISM Manufacturing EmploymentJAN</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2306" t="inlineStr"/>
       <c r="E2306" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F2306" t="inlineStr"/>
@@ -74250,7 +74052,7 @@
     <row r="2307">
       <c r="A2307" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B2307" t="inlineStr">
@@ -74260,21 +74062,13 @@
       </c>
       <c r="C2307" t="inlineStr">
         <is>
-          <t>Construction Spending MoMDEC</t>
+          <t>Redbook YoYFEB/01</t>
         </is>
       </c>
       <c r="D2307" t="inlineStr"/>
-      <c r="E2307" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E2307" t="inlineStr"/>
       <c r="F2307" t="inlineStr"/>
-      <c r="G2307" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2307" t="inlineStr"/>
       <c r="H2307" t="inlineStr">
         <is>
           <t>3</t>
@@ -74289,16 +74083,20 @@
       </c>
       <c r="B2308" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2308" t="inlineStr">
         <is>
-          <t>ISM Manufacturing New OrdersJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2308" t="inlineStr"/>
-      <c r="E2308" t="inlineStr"/>
+      <c r="E2308" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="F2308" t="inlineStr"/>
       <c r="G2308" t="inlineStr"/>
       <c r="H2308" t="inlineStr">
@@ -74320,23 +74118,27 @@
       </c>
       <c r="C2309" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PricesJAN</t>
+          <t>JOLTs Job OpeningsDEC</t>
         </is>
       </c>
       <c r="D2309" t="inlineStr"/>
       <c r="E2309" t="inlineStr"/>
       <c r="F2309" t="inlineStr"/>
-      <c r="G2309" t="inlineStr"/>
+      <c r="G2309" t="inlineStr">
+        <is>
+          <t>7.6M</t>
+        </is>
+      </c>
       <c r="H2309" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2310">
       <c r="A2310" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2310" t="inlineStr">
@@ -74346,23 +74148,31 @@
       </c>
       <c r="C2310" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Factory Orders MoMDEC</t>
         </is>
       </c>
       <c r="D2310" t="inlineStr"/>
-      <c r="E2310" t="inlineStr"/>
+      <c r="E2310" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
       <c r="F2310" t="inlineStr"/>
-      <c r="G2310" t="inlineStr"/>
+      <c r="G2310" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="H2310" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2311">
       <c r="A2311" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2311" t="inlineStr">
@@ -74372,13 +74182,21 @@
       </c>
       <c r="C2311" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Factory Orders ex TransportationDEC</t>
         </is>
       </c>
       <c r="D2311" t="inlineStr"/>
-      <c r="E2311" t="inlineStr"/>
+      <c r="E2311" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F2311" t="inlineStr"/>
-      <c r="G2311" t="inlineStr"/>
+      <c r="G2311" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H2311" t="inlineStr">
         <is>
           <t>3</t>
@@ -74388,7 +74206,7 @@
     <row r="2312">
       <c r="A2312" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2312" t="inlineStr">
@@ -74398,7 +74216,7 @@
       </c>
       <c r="C2312" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>JOLTs Job QuitsDEC</t>
         </is>
       </c>
       <c r="D2312" t="inlineStr"/>
@@ -74407,14 +74225,14 @@
       <c r="G2312" t="inlineStr"/>
       <c r="H2312" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2313">
       <c r="A2313" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>10:10 AM</t>
         </is>
       </c>
       <c r="B2313" t="inlineStr">
@@ -74424,11 +74242,15 @@
       </c>
       <c r="C2313" t="inlineStr">
         <is>
-          <t>Treasury Refunding Financing Estimates</t>
+          <t>RCM/TIPP Economic Optimism IndexFEB</t>
         </is>
       </c>
       <c r="D2313" t="inlineStr"/>
-      <c r="E2313" t="inlineStr"/>
+      <c r="E2313" t="inlineStr">
+        <is>
+          <t>51.9</t>
+        </is>
+      </c>
       <c r="F2313" t="inlineStr"/>
       <c r="G2313" t="inlineStr"/>
       <c r="H2313" t="inlineStr">
@@ -74440,91 +74262,75 @@
     <row r="2314">
       <c r="A2314" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2314" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2314" t="inlineStr">
         <is>
-          <t>Tax RevenueJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2314" t="inlineStr"/>
-      <c r="E2314" t="inlineStr">
-        <is>
-          <t>ARS13015B</t>
-        </is>
-      </c>
+      <c r="E2314" t="inlineStr"/>
       <c r="F2314" t="inlineStr"/>
       <c r="G2314" t="inlineStr"/>
       <c r="H2314" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2315">
       <c r="A2315" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B2315" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2315" t="inlineStr">
         <is>
-          <t>10-Year JGB Auction</t>
+          <t>Fed Daly Speech</t>
         </is>
       </c>
       <c r="D2315" t="inlineStr"/>
-      <c r="E2315" t="inlineStr">
-        <is>
-          <t>1.140%</t>
-        </is>
-      </c>
+      <c r="E2315" t="inlineStr"/>
       <c r="F2315" t="inlineStr"/>
       <c r="G2315" t="inlineStr"/>
       <c r="H2315" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2316">
       <c r="A2316" t="inlineStr">
         <is>
-          <t>11:15 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B2316" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2316" t="inlineStr">
         <is>
-          <t>Riyad Bank PMIJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2316" t="inlineStr"/>
-      <c r="E2316" t="inlineStr">
-        <is>
-          <t>58.4</t>
-        </is>
-      </c>
+      <c r="E2316" t="inlineStr"/>
       <c r="F2316" t="inlineStr"/>
-      <c r="G2316" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
+      <c r="G2316" t="inlineStr"/>
       <c r="H2316" t="inlineStr">
         <is>
           <t>3</t>
@@ -74532,71 +74338,75 @@
       </c>
     </row>
     <row r="2317">
-      <c r="A2317" t="inlineStr"/>
+      <c r="A2317" t="inlineStr">
+        <is>
+          <t>04:30 PM</t>
+        </is>
+      </c>
       <c r="B2317" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2317" t="inlineStr">
         <is>
-          <t>Total New Vehicle SalesJAN</t>
+          <t>API Crude Oil Stock ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2317" t="inlineStr"/>
-      <c r="E2317" t="inlineStr">
-        <is>
-          <t>41.27K</t>
-        </is>
-      </c>
+      <c r="E2317" t="inlineStr"/>
       <c r="F2317" t="inlineStr"/>
-      <c r="G2317" t="inlineStr">
-        <is>
-          <t>43.0K</t>
-        </is>
-      </c>
+      <c r="G2317" t="inlineStr"/>
       <c r="H2317" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2318">
       <c r="A2318" t="inlineStr">
         <is>
-          <t>Tuesday February 04 2025</t>
-        </is>
-      </c>
-      <c r="B2318" t="inlineStr"/>
-      <c r="C2318" t="inlineStr"/>
+          <t>05:00 PM</t>
+        </is>
+      </c>
+      <c r="B2318" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="C2318" t="inlineStr">
+        <is>
+          <t>Judo Bank Services PMI FinalJAN</t>
+        </is>
+      </c>
       <c r="D2318" t="inlineStr"/>
       <c r="E2318" t="inlineStr"/>
       <c r="F2318" t="inlineStr"/>
       <c r="G2318" t="inlineStr"/>
-      <c r="H2318" t="inlineStr"/>
+      <c r="H2318" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2319">
       <c r="A2319" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2319" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2319" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>S&amp;P Global Australia Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2319" t="inlineStr"/>
-      <c r="E2319" t="inlineStr">
-        <is>
-          <t>3.08%</t>
-        </is>
-      </c>
+      <c r="E2319" t="inlineStr"/>
       <c r="F2319" t="inlineStr"/>
       <c r="G2319" t="inlineStr"/>
       <c r="H2319" t="inlineStr">
@@ -74608,37 +74418,37 @@
     <row r="2320">
       <c r="A2320" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2320" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2320" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2320" t="inlineStr"/>
       <c r="E2320" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F2320" t="inlineStr"/>
       <c r="G2320" t="inlineStr"/>
       <c r="H2320" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2321">
       <c r="A2321" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2321" t="inlineStr">
@@ -74648,13 +74458,13 @@
       </c>
       <c r="C2321" t="inlineStr">
         <is>
-          <t>30-Year KTB Auction</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2321" t="inlineStr"/>
       <c r="E2321" t="inlineStr">
         <is>
-          <t>2.705%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2321" t="inlineStr"/>
@@ -74668,27 +74478,27 @@
     <row r="2322">
       <c r="A2322" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2322" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2322" t="inlineStr">
         <is>
-          <t>Budget BalanceDEC</t>
+          <t>Average Cash Earnings YoYDEC</t>
         </is>
       </c>
       <c r="D2322" t="inlineStr"/>
-      <c r="E2322" t="inlineStr">
-        <is>
-          <t>€-172.5B</t>
-        </is>
-      </c>
+      <c r="E2322" t="inlineStr"/>
       <c r="F2322" t="inlineStr"/>
-      <c r="G2322" t="inlineStr"/>
+      <c r="G2322" t="inlineStr">
+        <is>
+          <t>2.1%</t>
+        </is>
+      </c>
       <c r="H2322" t="inlineStr">
         <is>
           <t>3</t>
@@ -74698,23 +74508,23 @@
     <row r="2323">
       <c r="A2323" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2323" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2323" t="inlineStr">
         <is>
-          <t>IPC-Fipe Inflation MoMJAN</t>
+          <t>TD-MI Inflation Gauge MoMJAN</t>
         </is>
       </c>
       <c r="D2323" t="inlineStr"/>
       <c r="E2323" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="F2323" t="inlineStr"/>
@@ -74728,83 +74538,99 @@
     <row r="2324">
       <c r="A2324" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2324" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2324" t="inlineStr">
         <is>
-          <t>5-Year Treasury Gilt Auction</t>
+          <t>Jibun Bank Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2324" t="inlineStr"/>
-      <c r="E2324" t="inlineStr"/>
-      <c r="F2324" t="inlineStr"/>
-      <c r="G2324" t="inlineStr"/>
+      <c r="E2324" t="inlineStr">
+        <is>
+          <t>50.9</t>
+        </is>
+      </c>
+      <c r="F2324" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
+      <c r="G2324" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
       <c r="H2324" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2325">
       <c r="A2325" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2325" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2325" t="inlineStr">
         <is>
-          <t>BCB Copom Meeting Minutes</t>
+          <t>Jibun Bank Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2325" t="inlineStr"/>
-      <c r="E2325" t="inlineStr"/>
+      <c r="E2325" t="inlineStr">
+        <is>
+          <t>50.5</t>
+        </is>
+      </c>
       <c r="F2325" t="inlineStr"/>
-      <c r="G2325" t="inlineStr"/>
+      <c r="G2325" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
       <c r="H2325" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2326">
       <c r="A2326" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2326" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2326" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>S&amp;P Global PMIJAN</t>
         </is>
       </c>
       <c r="D2326" t="inlineStr"/>
       <c r="E2326" t="inlineStr">
         <is>
-          <t>1.23%</t>
+          <t>51.5</t>
         </is>
       </c>
       <c r="F2326" t="inlineStr"/>
-      <c r="G2326" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2326" t="inlineStr"/>
       <c r="H2326" t="inlineStr">
         <is>
           <t>3</t>
@@ -74814,117 +74640,125 @@
     <row r="2327">
       <c r="A2327" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>08:45 PM</t>
         </is>
       </c>
       <c r="B2327" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2327" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Caixin Services PMIJAN</t>
         </is>
       </c>
       <c r="D2327" t="inlineStr"/>
       <c r="E2327" t="inlineStr">
         <is>
-          <t>7.59%</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="F2327" t="inlineStr"/>
       <c r="G2327" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>51.8</t>
         </is>
       </c>
       <c r="H2327" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2328">
       <c r="A2328" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>08:45 PM</t>
         </is>
       </c>
       <c r="B2328" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2328" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>Caixin Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2328" t="inlineStr"/>
       <c r="E2328" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="F2328" t="inlineStr"/>
-      <c r="G2328" t="inlineStr"/>
+      <c r="G2328" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
       <c r="H2328" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2329">
       <c r="A2329" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>11:00 PM</t>
         </is>
       </c>
       <c r="B2329" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2329" t="inlineStr">
         <is>
-          <t>Redbook YoYFEB/01</t>
+          <t>GDP Growth Rate YoYQ4</t>
         </is>
       </c>
       <c r="D2329" t="inlineStr"/>
       <c r="E2329" t="inlineStr"/>
       <c r="F2329" t="inlineStr"/>
-      <c r="G2329" t="inlineStr"/>
+      <c r="G2329" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="H2329" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2330">
       <c r="A2330" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>11:00 PM</t>
         </is>
       </c>
       <c r="B2330" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2330" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Full Year GDP Growth2025</t>
         </is>
       </c>
       <c r="D2330" t="inlineStr"/>
-      <c r="E2330" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
+      <c r="E2330" t="inlineStr"/>
       <c r="F2330" t="inlineStr"/>
-      <c r="G2330" t="inlineStr"/>
+      <c r="G2330" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="H2330" t="inlineStr">
         <is>
           <t>3</t>
@@ -74934,17 +74768,17 @@
     <row r="2331">
       <c r="A2331" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>11:00 PM</t>
         </is>
       </c>
       <c r="B2331" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2331" t="inlineStr">
         <is>
-          <t>JOLTs Job OpeningsDEC</t>
+          <t>GDP Growth Rate QoQQ4</t>
         </is>
       </c>
       <c r="D2331" t="inlineStr"/>
@@ -74952,77 +74786,53 @@
       <c r="F2331" t="inlineStr"/>
       <c r="G2331" t="inlineStr">
         <is>
-          <t>7.6M</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H2331" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2332">
-      <c r="A2332" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A2332" t="inlineStr"/>
       <c r="B2332" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2332" t="inlineStr">
         <is>
-          <t>Factory Orders MoMDEC</t>
+          <t>Balance of Trade PrelJAN</t>
         </is>
       </c>
       <c r="D2332" t="inlineStr"/>
-      <c r="E2332" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
+      <c r="E2332" t="inlineStr"/>
       <c r="F2332" t="inlineStr"/>
-      <c r="G2332" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="G2332" t="inlineStr"/>
       <c r="H2332" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2333">
-      <c r="A2333" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A2333" t="inlineStr"/>
       <c r="B2333" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2333" t="inlineStr">
         <is>
-          <t>Factory Orders ex TransportationDEC</t>
+          <t>Exports PrelJAN</t>
         </is>
       </c>
       <c r="D2333" t="inlineStr"/>
-      <c r="E2333" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E2333" t="inlineStr"/>
       <c r="F2333" t="inlineStr"/>
-      <c r="G2333" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G2333" t="inlineStr"/>
       <c r="H2333" t="inlineStr">
         <is>
           <t>3</t>
@@ -75030,19 +74840,15 @@
       </c>
     </row>
     <row r="2334">
-      <c r="A2334" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A2334" t="inlineStr"/>
       <c r="B2334" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2334" t="inlineStr">
         <is>
-          <t>JOLTs Job QuitsDEC</t>
+          <t>Imports PrelJAN</t>
         </is>
       </c>
       <c r="D2334" t="inlineStr"/>
@@ -75056,11 +74862,7 @@
       </c>
     </row>
     <row r="2335">
-      <c r="A2335" t="inlineStr">
-        <is>
-          <t>10:10 AM</t>
-        </is>
-      </c>
+      <c r="A2335" t="inlineStr"/>
       <c r="B2335" t="inlineStr">
         <is>
           <t>US</t>
@@ -75068,13 +74870,13 @@
       </c>
       <c r="C2335" t="inlineStr">
         <is>
-          <t>RCM/TIPP Economic Optimism IndexFEB</t>
+          <t>LMI Logistics Managers IndexJAN</t>
         </is>
       </c>
       <c r="D2335" t="inlineStr"/>
       <c r="E2335" t="inlineStr">
         <is>
-          <t>51.9</t>
+          <t>57.3</t>
         </is>
       </c>
       <c r="F2335" t="inlineStr"/>
@@ -75088,75 +74890,87 @@
     <row r="2336">
       <c r="A2336" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2336" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2336" t="inlineStr">
-        <is>
-          <t>Fed Bostic Speech</t>
-        </is>
-      </c>
+          <t>Wednesday February 05 2025</t>
+        </is>
+      </c>
+      <c r="B2336" t="inlineStr"/>
+      <c r="C2336" t="inlineStr"/>
       <c r="D2336" t="inlineStr"/>
       <c r="E2336" t="inlineStr"/>
       <c r="F2336" t="inlineStr"/>
       <c r="G2336" t="inlineStr"/>
-      <c r="H2336" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="H2336" t="inlineStr"/>
     </row>
     <row r="2337">
       <c r="A2337" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2337" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2337" t="inlineStr">
         <is>
-          <t>Fed Daly Speech</t>
+          <t>HSBC Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2337" t="inlineStr"/>
-      <c r="E2337" t="inlineStr"/>
-      <c r="F2337" t="inlineStr"/>
-      <c r="G2337" t="inlineStr"/>
+      <c r="E2337" t="inlineStr">
+        <is>
+          <t>59.2</t>
+        </is>
+      </c>
+      <c r="F2337" t="inlineStr">
+        <is>
+          <t>57.9</t>
+        </is>
+      </c>
+      <c r="G2337" t="inlineStr">
+        <is>
+          <t>57.9</t>
+        </is>
+      </c>
       <c r="H2337" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2338">
       <c r="A2338" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2338" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2338" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>HSBC Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2338" t="inlineStr"/>
-      <c r="E2338" t="inlineStr"/>
-      <c r="F2338" t="inlineStr"/>
-      <c r="G2338" t="inlineStr"/>
+      <c r="E2338" t="inlineStr">
+        <is>
+          <t>59.3</t>
+        </is>
+      </c>
+      <c r="F2338" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
+      <c r="G2338" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
       <c r="H2338" t="inlineStr">
         <is>
           <t>3</t>
@@ -75166,73 +74980,93 @@
     <row r="2339">
       <c r="A2339" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2339" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2339" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/31</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2339" t="inlineStr"/>
-      <c r="E2339" t="inlineStr"/>
+      <c r="E2339" t="inlineStr">
+        <is>
+          <t>-2.8%</t>
+        </is>
+      </c>
       <c r="F2339" t="inlineStr"/>
-      <c r="G2339" t="inlineStr"/>
+      <c r="G2339" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2339" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2340">
       <c r="A2340" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2340" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2340" t="inlineStr">
         <is>
-          <t>Judo Bank Services PMI FinalJAN</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2340" t="inlineStr"/>
-      <c r="E2340" t="inlineStr"/>
+      <c r="E2340" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="F2340" t="inlineStr"/>
-      <c r="G2340" t="inlineStr"/>
+      <c r="G2340" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H2340" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2341">
       <c r="A2341" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B2341" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2341" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Composite PMI FinalJAN</t>
+          <t>S&amp;P Global Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2341" t="inlineStr"/>
-      <c r="E2341" t="inlineStr"/>
+      <c r="E2341" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
       <c r="F2341" t="inlineStr"/>
       <c r="G2341" t="inlineStr"/>
       <c r="H2341" t="inlineStr">
@@ -75244,53 +75078,53 @@
     <row r="2342">
       <c r="A2342" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B2342" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2342" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>S&amp;P Global Services PMIJAN</t>
         </is>
       </c>
       <c r="D2342" t="inlineStr"/>
       <c r="E2342" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F2342" t="inlineStr"/>
       <c r="G2342" t="inlineStr"/>
       <c r="H2342" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2343">
       <c r="A2343" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:15 AM</t>
         </is>
       </c>
       <c r="B2343" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2343" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>S&amp;P Global PMIJAN</t>
         </is>
       </c>
       <c r="D2343" t="inlineStr"/>
       <c r="E2343" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>49.9</t>
         </is>
       </c>
       <c r="F2343" t="inlineStr"/>
@@ -75304,191 +75138,187 @@
     <row r="2344">
       <c r="A2344" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B2344" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2344" t="inlineStr">
         <is>
-          <t>Average Cash Earnings YoYDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D2344" t="inlineStr"/>
-      <c r="E2344" t="inlineStr"/>
+      <c r="E2344" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F2344" t="inlineStr"/>
       <c r="G2344" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H2344" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2345">
       <c r="A2345" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:15 AM</t>
         </is>
       </c>
       <c r="B2345" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2345" t="inlineStr">
         <is>
-          <t>TD-MI Inflation Gauge MoMJAN</t>
+          <t>HCOB Services PMIJAN</t>
         </is>
       </c>
       <c r="D2345" t="inlineStr"/>
       <c r="E2345" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>57.3</t>
         </is>
       </c>
       <c r="F2345" t="inlineStr"/>
       <c r="G2345" t="inlineStr"/>
       <c r="H2345" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2346">
       <c r="A2346" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:15 AM</t>
         </is>
       </c>
       <c r="B2346" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2346" t="inlineStr">
         <is>
-          <t>Jibun Bank Services PMI FinalJAN</t>
+          <t>HCOB Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2346" t="inlineStr"/>
       <c r="E2346" t="inlineStr">
         <is>
-          <t>50.9</t>
-        </is>
-      </c>
-      <c r="F2346" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="G2346" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
+          <t>56.8</t>
+        </is>
+      </c>
+      <c r="F2346" t="inlineStr"/>
+      <c r="G2346" t="inlineStr"/>
       <c r="H2346" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2347">
       <c r="A2347" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:45 AM</t>
         </is>
       </c>
       <c r="B2347" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2347" t="inlineStr">
         <is>
-          <t>Jibun Bank Composite PMI FinalJAN</t>
+          <t>HCOB Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2347" t="inlineStr"/>
       <c r="E2347" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>49.7</t>
         </is>
       </c>
       <c r="F2347" t="inlineStr"/>
-      <c r="G2347" t="inlineStr">
-        <is>
-          <t>51.1</t>
-        </is>
-      </c>
+      <c r="G2347" t="inlineStr"/>
       <c r="H2347" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2348">
       <c r="A2348" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:45 AM</t>
         </is>
       </c>
       <c r="B2348" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2348" t="inlineStr">
         <is>
-          <t>S&amp;P Global PMIJAN</t>
+          <t>HCOB Services PMIJAN</t>
         </is>
       </c>
       <c r="D2348" t="inlineStr"/>
       <c r="E2348" t="inlineStr">
         <is>
-          <t>51.5</t>
+          <t>50.7</t>
         </is>
       </c>
       <c r="F2348" t="inlineStr"/>
       <c r="G2348" t="inlineStr"/>
       <c r="H2348" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2349">
       <c r="A2349" t="inlineStr">
         <is>
-          <t>08:45 PM</t>
+          <t>03:50 AM</t>
         </is>
       </c>
       <c r="B2349" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2349" t="inlineStr">
         <is>
-          <t>Caixin Services PMIJAN</t>
+          <t>HCOB Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2349" t="inlineStr"/>
       <c r="E2349" t="inlineStr">
         <is>
-          <t>52.2</t>
-        </is>
-      </c>
-      <c r="F2349" t="inlineStr"/>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F2349" t="inlineStr">
+        <is>
+          <t>48.9</t>
+        </is>
+      </c>
       <c r="G2349" t="inlineStr">
         <is>
-          <t>51.8</t>
+          <t>48.9</t>
         </is>
       </c>
       <c r="H2349" t="inlineStr">
@@ -75500,29 +75330,33 @@
     <row r="2350">
       <c r="A2350" t="inlineStr">
         <is>
-          <t>08:45 PM</t>
+          <t>03:50 AM</t>
         </is>
       </c>
       <c r="B2350" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2350" t="inlineStr">
         <is>
-          <t>Caixin Composite PMIJAN</t>
+          <t>HCOB Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2350" t="inlineStr"/>
       <c r="E2350" t="inlineStr">
         <is>
-          <t>51.4</t>
-        </is>
-      </c>
-      <c r="F2350" t="inlineStr"/>
+          <t>47.5</t>
+        </is>
+      </c>
+      <c r="F2350" t="inlineStr">
+        <is>
+          <t>48.3</t>
+        </is>
+      </c>
       <c r="G2350" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>48.3</t>
         </is>
       </c>
       <c r="H2350" t="inlineStr">
@@ -75534,25 +75368,33 @@
     <row r="2351">
       <c r="A2351" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>03:55 AM</t>
         </is>
       </c>
       <c r="B2351" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2351" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoYQ4</t>
+          <t>HCOB Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2351" t="inlineStr"/>
-      <c r="E2351" t="inlineStr"/>
-      <c r="F2351" t="inlineStr"/>
+      <c r="E2351" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="F2351" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
       <c r="G2351" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="H2351" t="inlineStr">
@@ -75564,149 +75406,213 @@
     <row r="2352">
       <c r="A2352" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>03:55 AM</t>
         </is>
       </c>
       <c r="B2352" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2352" t="inlineStr">
         <is>
-          <t>Full Year GDP Growth2025</t>
+          <t>HCOB Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2352" t="inlineStr"/>
-      <c r="E2352" t="inlineStr"/>
-      <c r="F2352" t="inlineStr"/>
+      <c r="E2352" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="F2352" t="inlineStr">
+        <is>
+          <t>52.5</t>
+        </is>
+      </c>
       <c r="G2352" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>52.5</t>
         </is>
       </c>
       <c r="H2352" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2353">
       <c r="A2353" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2353" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2353" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQQ4</t>
+          <t>HCOB Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2353" t="inlineStr"/>
-      <c r="E2353" t="inlineStr"/>
-      <c r="F2353" t="inlineStr"/>
+      <c r="E2353" t="inlineStr">
+        <is>
+          <t>49.6</t>
+        </is>
+      </c>
+      <c r="F2353" t="inlineStr">
+        <is>
+          <t>50.2</t>
+        </is>
+      </c>
       <c r="G2353" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>50.2</t>
         </is>
       </c>
       <c r="H2353" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2354">
+      <c r="A2354" t="inlineStr">
+        <is>
+          <t>04:00 AM</t>
+        </is>
+      </c>
+      <c r="B2354" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C2354" t="inlineStr">
+        <is>
+          <t>HCOB Services PMI FinalJAN</t>
+        </is>
+      </c>
+      <c r="D2354" t="inlineStr"/>
+      <c r="E2354" t="inlineStr">
+        <is>
+          <t>51.6</t>
+        </is>
+      </c>
+      <c r="F2354" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
+      <c r="G2354" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
+      <c r="H2354" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2355">
+      <c r="A2355" t="inlineStr">
+        <is>
+          <t>04:00 AM</t>
+        </is>
+      </c>
+      <c r="B2355" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="C2355" t="inlineStr">
+        <is>
+          <t>Retail Sales MoMDEC</t>
+        </is>
+      </c>
+      <c r="D2355" t="inlineStr"/>
+      <c r="E2355" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
+      <c r="F2355" t="inlineStr"/>
+      <c r="G2355" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H2355" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2356">
+      <c r="A2356" t="inlineStr">
+        <is>
+          <t>04:00 AM</t>
+        </is>
+      </c>
+      <c r="B2356" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="C2356" t="inlineStr">
+        <is>
+          <t>Retail Sales YoYDEC</t>
+        </is>
+      </c>
+      <c r="D2356" t="inlineStr"/>
+      <c r="E2356" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
+      <c r="F2356" t="inlineStr"/>
+      <c r="G2356" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="H2356" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="2354">
-      <c r="A2354" t="inlineStr"/>
-      <c r="B2354" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2354" t="inlineStr">
-        <is>
-          <t>Balance of Trade PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2354" t="inlineStr"/>
-      <c r="E2354" t="inlineStr"/>
-      <c r="F2354" t="inlineStr"/>
-      <c r="G2354" t="inlineStr"/>
-      <c r="H2354" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2355">
-      <c r="A2355" t="inlineStr"/>
-      <c r="B2355" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2355" t="inlineStr">
-        <is>
-          <t>Exports PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2355" t="inlineStr"/>
-      <c r="E2355" t="inlineStr"/>
-      <c r="F2355" t="inlineStr"/>
-      <c r="G2355" t="inlineStr"/>
-      <c r="H2355" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2356">
-      <c r="A2356" t="inlineStr"/>
-      <c r="B2356" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2356" t="inlineStr">
-        <is>
-          <t>Imports PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2356" t="inlineStr"/>
-      <c r="E2356" t="inlineStr"/>
-      <c r="F2356" t="inlineStr"/>
-      <c r="G2356" t="inlineStr"/>
-      <c r="H2356" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
     <row r="2357">
-      <c r="A2357" t="inlineStr"/>
+      <c r="A2357" t="inlineStr">
+        <is>
+          <t>04:00 AM</t>
+        </is>
+      </c>
       <c r="B2357" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2357" t="inlineStr">
         <is>
-          <t>LMI Logistics Managers IndexJAN</t>
+          <t>New Car Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2357" t="inlineStr"/>
       <c r="E2357" t="inlineStr">
         <is>
-          <t>57.3</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F2357" t="inlineStr"/>
-      <c r="G2357" t="inlineStr"/>
+      <c r="G2357" t="inlineStr">
+        <is>
+          <t>4.0%</t>
+        </is>
+      </c>
       <c r="H2357" t="inlineStr">
         <is>
           <t>3</t>
@@ -75716,47 +75622,71 @@
     <row r="2358">
       <c r="A2358" t="inlineStr">
         <is>
-          <t>Wednesday February 05 2025</t>
-        </is>
-      </c>
-      <c r="B2358" t="inlineStr"/>
-      <c r="C2358" t="inlineStr"/>
+          <t>04:30 AM</t>
+        </is>
+      </c>
+      <c r="B2358" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C2358" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Services PMI FinalJAN</t>
+        </is>
+      </c>
       <c r="D2358" t="inlineStr"/>
-      <c r="E2358" t="inlineStr"/>
-      <c r="F2358" t="inlineStr"/>
-      <c r="G2358" t="inlineStr"/>
-      <c r="H2358" t="inlineStr"/>
+      <c r="E2358" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
+      <c r="F2358" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="G2358" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="H2358" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2359">
       <c r="A2359" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2359" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2359" t="inlineStr">
         <is>
-          <t>HSBC Composite PMI FinalJAN</t>
+          <t>S&amp;P Global Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2359" t="inlineStr"/>
       <c r="E2359" t="inlineStr">
         <is>
-          <t>59.2</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F2359" t="inlineStr">
         <is>
-          <t>57.9</t>
+          <t>50.9</t>
         </is>
       </c>
       <c r="G2359" t="inlineStr">
         <is>
-          <t>57.9</t>
+          <t>50.9</t>
         </is>
       </c>
       <c r="H2359" t="inlineStr">
@@ -75768,33 +75698,29 @@
     <row r="2360">
       <c r="A2360" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2360" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2360" t="inlineStr">
         <is>
-          <t>HSBC Services PMI FinalJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2360" t="inlineStr"/>
       <c r="E2360" t="inlineStr">
         <is>
-          <t>59.3</t>
-        </is>
-      </c>
-      <c r="F2360" t="inlineStr">
-        <is>
-          <t>56.8</t>
-        </is>
-      </c>
+          <t>1.6%</t>
+        </is>
+      </c>
+      <c r="F2360" t="inlineStr"/>
       <c r="G2360" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2360" t="inlineStr">
@@ -75806,29 +75732,29 @@
     <row r="2361">
       <c r="A2361" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2361" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2361" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2361" t="inlineStr"/>
       <c r="E2361" t="inlineStr">
         <is>
-          <t>-2.8%</t>
+          <t>-1.2%</t>
         </is>
       </c>
       <c r="F2361" t="inlineStr"/>
       <c r="G2361" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="H2361" t="inlineStr">
@@ -75840,31 +75766,27 @@
     <row r="2362">
       <c r="A2362" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2362" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2362" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>30-Year Green Gilt Auction</t>
         </is>
       </c>
       <c r="D2362" t="inlineStr"/>
       <c r="E2362" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>4.831%</t>
         </is>
       </c>
       <c r="F2362" t="inlineStr"/>
-      <c r="G2362" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
+      <c r="G2362" t="inlineStr"/>
       <c r="H2362" t="inlineStr">
         <is>
           <t>3</t>
@@ -75874,23 +75796,23 @@
     <row r="2363">
       <c r="A2363" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>06:10 AM</t>
         </is>
       </c>
       <c r="B2363" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C2363" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMIJAN</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2363" t="inlineStr"/>
       <c r="E2363" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>2.615%</t>
         </is>
       </c>
       <c r="F2363" t="inlineStr"/>
@@ -75904,23 +75826,23 @@
     <row r="2364">
       <c r="A2364" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>06:10 AM</t>
         </is>
       </c>
       <c r="B2364" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C2364" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMIJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2364" t="inlineStr"/>
       <c r="E2364" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>2.505%</t>
         </is>
       </c>
       <c r="F2364" t="inlineStr"/>
@@ -75934,23 +75856,23 @@
     <row r="2365">
       <c r="A2365" t="inlineStr">
         <is>
-          <t>02:15 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B2365" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2365" t="inlineStr">
         <is>
-          <t>S&amp;P Global PMIJAN</t>
+          <t>M3 Money Supply YoYJAN/24</t>
         </is>
       </c>
       <c r="D2365" t="inlineStr"/>
       <c r="E2365" t="inlineStr">
         <is>
-          <t>49.9</t>
+          <t>10.1%</t>
         </is>
       </c>
       <c r="F2365" t="inlineStr"/>
@@ -75964,12 +75886,12 @@
     <row r="2366">
       <c r="A2366" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2366" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2366" t="inlineStr">
@@ -75980,13 +75902,13 @@
       <c r="D2366" t="inlineStr"/>
       <c r="E2366" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F2366" t="inlineStr"/>
       <c r="G2366" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2366" t="inlineStr">
@@ -75998,53 +75920,57 @@
     <row r="2367">
       <c r="A2367" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2367" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2367" t="inlineStr">
         <is>
-          <t>HCOB Services PMIJAN</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2367" t="inlineStr"/>
       <c r="E2367" t="inlineStr">
         <is>
-          <t>57.3</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="F2367" t="inlineStr"/>
-      <c r="G2367" t="inlineStr"/>
+      <c r="G2367" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="H2367" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2368">
       <c r="A2368" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2368" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2368" t="inlineStr">
         <is>
-          <t>HCOB Composite PMIJAN</t>
+          <t>Gross Fixed Investment MoMNOV</t>
         </is>
       </c>
       <c r="D2368" t="inlineStr"/>
       <c r="E2368" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2368" t="inlineStr"/>
@@ -76058,55 +75984,51 @@
     <row r="2369">
       <c r="A2369" t="inlineStr">
         <is>
-          <t>03:45 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2369" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2369" t="inlineStr">
         <is>
-          <t>HCOB Composite PMIJAN</t>
+          <t>Gross Fixed Investment YoYNOV</t>
         </is>
       </c>
       <c r="D2369" t="inlineStr"/>
       <c r="E2369" t="inlineStr">
         <is>
-          <t>49.7</t>
+          <t>-2.6%</t>
         </is>
       </c>
       <c r="F2369" t="inlineStr"/>
       <c r="G2369" t="inlineStr"/>
       <c r="H2369" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2370">
       <c r="A2370" t="inlineStr">
         <is>
-          <t>03:45 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2370" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2370" t="inlineStr">
         <is>
-          <t>HCOB Services PMIJAN</t>
+          <t>MBA 30-Year Mortgage RateJAN/31</t>
         </is>
       </c>
       <c r="D2370" t="inlineStr"/>
-      <c r="E2370" t="inlineStr">
-        <is>
-          <t>50.7</t>
-        </is>
-      </c>
+      <c r="E2370" t="inlineStr"/>
       <c r="F2370" t="inlineStr"/>
       <c r="G2370" t="inlineStr"/>
       <c r="H2370" t="inlineStr">
@@ -76118,73 +76040,49 @@
     <row r="2371">
       <c r="A2371" t="inlineStr">
         <is>
-          <t>03:50 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2371" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2371" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FinalJAN</t>
+          <t>MBA Mortgage ApplicationsJAN/31</t>
         </is>
       </c>
       <c r="D2371" t="inlineStr"/>
-      <c r="E2371" t="inlineStr">
-        <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F2371" t="inlineStr">
-        <is>
-          <t>48.9</t>
-        </is>
-      </c>
-      <c r="G2371" t="inlineStr">
-        <is>
-          <t>48.9</t>
-        </is>
-      </c>
+      <c r="E2371" t="inlineStr"/>
+      <c r="F2371" t="inlineStr"/>
+      <c r="G2371" t="inlineStr"/>
       <c r="H2371" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2372">
       <c r="A2372" t="inlineStr">
         <is>
-          <t>03:50 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2372" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2372" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FinalJAN</t>
+          <t>MBA Mortgage Market IndexJAN/31</t>
         </is>
       </c>
       <c r="D2372" t="inlineStr"/>
-      <c r="E2372" t="inlineStr">
-        <is>
-          <t>47.5</t>
-        </is>
-      </c>
-      <c r="F2372" t="inlineStr">
-        <is>
-          <t>48.3</t>
-        </is>
-      </c>
-      <c r="G2372" t="inlineStr">
-        <is>
-          <t>48.3</t>
-        </is>
-      </c>
+      <c r="E2372" t="inlineStr"/>
+      <c r="F2372" t="inlineStr"/>
+      <c r="G2372" t="inlineStr"/>
       <c r="H2372" t="inlineStr">
         <is>
           <t>3</t>
@@ -76194,106 +76092,78 @@
     <row r="2373">
       <c r="A2373" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2373" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2373" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FinalJAN</t>
+          <t>MBA Mortgage Refinance IndexJAN/31</t>
         </is>
       </c>
       <c r="D2373" t="inlineStr"/>
-      <c r="E2373" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="F2373" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
-      <c r="G2373" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
+      <c r="E2373" t="inlineStr"/>
+      <c r="F2373" t="inlineStr"/>
+      <c r="G2373" t="inlineStr"/>
       <c r="H2373" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2374">
       <c r="A2374" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2374" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2374" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FinalJAN</t>
+          <t>MBA Purchase IndexJAN/31</t>
         </is>
       </c>
       <c r="D2374" t="inlineStr"/>
-      <c r="E2374" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2374" t="inlineStr">
-        <is>
-          <t>52.5</t>
-        </is>
-      </c>
-      <c r="G2374" t="inlineStr">
-        <is>
-          <t>52.5</t>
-        </is>
-      </c>
+      <c r="E2374" t="inlineStr"/>
+      <c r="F2374" t="inlineStr"/>
+      <c r="G2374" t="inlineStr"/>
       <c r="H2374" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2375">
       <c r="A2375" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2375" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2375" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FinalJAN</t>
+          <t>S&amp;P Global Services PMIJAN</t>
         </is>
       </c>
       <c r="D2375" t="inlineStr"/>
       <c r="E2375" t="inlineStr">
         <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F2375" t="inlineStr">
-        <is>
-          <t>50.2</t>
-        </is>
-      </c>
+          <t>51.6</t>
+        </is>
+      </c>
+      <c r="F2375" t="inlineStr"/>
       <c r="G2375" t="inlineStr">
         <is>
           <t>50.2</t>
@@ -76308,69 +76178,61 @@
     <row r="2376">
       <c r="A2376" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2376" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2376" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FinalJAN</t>
+          <t>S&amp;P Global Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2376" t="inlineStr"/>
       <c r="E2376" t="inlineStr">
         <is>
-          <t>51.6</t>
-        </is>
-      </c>
-      <c r="F2376" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+          <t>51.5</t>
+        </is>
+      </c>
+      <c r="F2376" t="inlineStr"/>
       <c r="G2376" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H2376" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2377">
       <c r="A2377" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B2377" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2377" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>ADP Employment ChangeJAN</t>
         </is>
       </c>
       <c r="D2377" t="inlineStr"/>
       <c r="E2377" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>122K</t>
         </is>
       </c>
       <c r="F2377" t="inlineStr"/>
-      <c r="G2377" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G2377" t="inlineStr"/>
       <c r="H2377" t="inlineStr">
         <is>
           <t>2</t>
@@ -76380,63 +76242,63 @@
     <row r="2378">
       <c r="A2378" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2378" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2378" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2378" t="inlineStr"/>
       <c r="E2378" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>C$-0.32B</t>
         </is>
       </c>
       <c r="F2378" t="inlineStr"/>
       <c r="G2378" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>C$ -1.6B</t>
         </is>
       </c>
       <c r="H2378" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2379">
       <c r="A2379" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2379" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2379" t="inlineStr">
         <is>
-          <t>New Car Sales YoYJAN</t>
+          <t>ExportsDEC</t>
         </is>
       </c>
       <c r="D2379" t="inlineStr"/>
       <c r="E2379" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>C$66.11B</t>
         </is>
       </c>
       <c r="F2379" t="inlineStr"/>
       <c r="G2379" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>C$ 65.8B</t>
         </is>
       </c>
       <c r="H2379" t="inlineStr">
@@ -76448,169 +76310,157 @@
     <row r="2380">
       <c r="A2380" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2380" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2380" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FinalJAN</t>
+          <t>ImportsDEC</t>
         </is>
       </c>
       <c r="D2380" t="inlineStr"/>
       <c r="E2380" t="inlineStr">
         <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="F2380" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
+          <t>C$66.43B</t>
+        </is>
+      </c>
+      <c r="F2380" t="inlineStr"/>
       <c r="G2380" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>C$ 64.5B</t>
         </is>
       </c>
       <c r="H2380" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2381">
       <c r="A2381" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2381" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2381" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FinalJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2381" t="inlineStr"/>
       <c r="E2381" t="inlineStr">
         <is>
-          <t>50.4</t>
-        </is>
-      </c>
-      <c r="F2381" t="inlineStr">
-        <is>
-          <t>50.9</t>
-        </is>
-      </c>
+          <t>$-78.2B</t>
+        </is>
+      </c>
+      <c r="F2381" t="inlineStr"/>
       <c r="G2381" t="inlineStr">
         <is>
-          <t>50.9</t>
+          <t>$ -68B</t>
         </is>
       </c>
       <c r="H2381" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2382">
       <c r="A2382" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2382" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2382" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>ExportsDEC</t>
         </is>
       </c>
       <c r="D2382" t="inlineStr"/>
       <c r="E2382" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>$273.4B</t>
         </is>
       </c>
       <c r="F2382" t="inlineStr"/>
       <c r="G2382" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>$ 275.0B</t>
         </is>
       </c>
       <c r="H2382" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2383">
       <c r="A2383" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2383" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2383" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>ImportsDEC</t>
         </is>
       </c>
       <c r="D2383" t="inlineStr"/>
       <c r="E2383" t="inlineStr">
         <is>
-          <t>-1.2%</t>
+          <t>$351.6B</t>
         </is>
       </c>
       <c r="F2383" t="inlineStr"/>
       <c r="G2383" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>$ 338B</t>
         </is>
       </c>
       <c r="H2383" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2384">
       <c r="A2384" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2384" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2384" t="inlineStr">
         <is>
-          <t>30-Year Green Gilt Auction</t>
+          <t>Treasury Refunding Announcement</t>
         </is>
       </c>
       <c r="D2384" t="inlineStr"/>
-      <c r="E2384" t="inlineStr">
-        <is>
-          <t>4.831%</t>
-        </is>
-      </c>
+      <c r="E2384" t="inlineStr"/>
       <c r="F2384" t="inlineStr"/>
       <c r="G2384" t="inlineStr"/>
       <c r="H2384" t="inlineStr">
@@ -76622,27 +76472,31 @@
     <row r="2385">
       <c r="A2385" t="inlineStr">
         <is>
-          <t>06:10 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2385" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2385" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>S&amp;P Global Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2385" t="inlineStr"/>
       <c r="E2385" t="inlineStr">
         <is>
-          <t>2.615%</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="F2385" t="inlineStr"/>
-      <c r="G2385" t="inlineStr"/>
+      <c r="G2385" t="inlineStr">
+        <is>
+          <t>48.5</t>
+        </is>
+      </c>
       <c r="H2385" t="inlineStr">
         <is>
           <t>3</t>
@@ -76652,27 +76506,31 @@
     <row r="2386">
       <c r="A2386" t="inlineStr">
         <is>
-          <t>06:10 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2386" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2386" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>S&amp;P Global Services PMIJAN</t>
         </is>
       </c>
       <c r="D2386" t="inlineStr"/>
       <c r="E2386" t="inlineStr">
         <is>
-          <t>2.505%</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="F2386" t="inlineStr"/>
-      <c r="G2386" t="inlineStr"/>
+      <c r="G2386" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
       <c r="H2386" t="inlineStr">
         <is>
           <t>3</t>
@@ -76682,59 +76540,71 @@
     <row r="2387">
       <c r="A2387" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B2387" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2387" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYJAN/24</t>
+          <t>S&amp;P Global Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2387" t="inlineStr"/>
       <c r="E2387" t="inlineStr">
         <is>
-          <t>10.1%</t>
-        </is>
-      </c>
-      <c r="F2387" t="inlineStr"/>
-      <c r="G2387" t="inlineStr"/>
+          <t>55.4</t>
+        </is>
+      </c>
+      <c r="F2387" t="inlineStr">
+        <is>
+          <t>52.4</t>
+        </is>
+      </c>
+      <c r="G2387" t="inlineStr">
+        <is>
+          <t>52.4</t>
+        </is>
+      </c>
       <c r="H2387" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2388">
       <c r="A2388" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B2388" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2388" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>S&amp;P Global Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2388" t="inlineStr"/>
       <c r="E2388" t="inlineStr">
         <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
-      <c r="F2388" t="inlineStr"/>
+          <t>56.8</t>
+        </is>
+      </c>
+      <c r="F2388" t="inlineStr">
+        <is>
+          <t>52.8</t>
+        </is>
+      </c>
       <c r="G2388" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>52.8</t>
         </is>
       </c>
       <c r="H2388" t="inlineStr">
@@ -76746,57 +76616,49 @@
     <row r="2389">
       <c r="A2389" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2389" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2389" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>ISM Services PMIJAN</t>
         </is>
       </c>
       <c r="D2389" t="inlineStr"/>
-      <c r="E2389" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="E2389" t="inlineStr"/>
       <c r="F2389" t="inlineStr"/>
-      <c r="G2389" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
+      <c r="G2389" t="inlineStr"/>
       <c r="H2389" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2390">
       <c r="A2390" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2390" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2390" t="inlineStr">
         <is>
-          <t>Gross Fixed Investment MoMNOV</t>
+          <t>ISM Services Business ActivityJAN</t>
         </is>
       </c>
       <c r="D2390" t="inlineStr"/>
       <c r="E2390" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>58.2</t>
         </is>
       </c>
       <c r="F2390" t="inlineStr"/>
@@ -76810,23 +76672,23 @@
     <row r="2391">
       <c r="A2391" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2391" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2391" t="inlineStr">
         <is>
-          <t>Gross Fixed Investment YoYNOV</t>
+          <t>ISM Services EmploymentJAN</t>
         </is>
       </c>
       <c r="D2391" t="inlineStr"/>
       <c r="E2391" t="inlineStr">
         <is>
-          <t>-2.6%</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="F2391" t="inlineStr"/>
@@ -76840,7 +76702,7 @@
     <row r="2392">
       <c r="A2392" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2392" t="inlineStr">
@@ -76850,23 +76712,27 @@
       </c>
       <c r="C2392" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/31</t>
+          <t>ISM Services New OrdersJAN</t>
         </is>
       </c>
       <c r="D2392" t="inlineStr"/>
-      <c r="E2392" t="inlineStr"/>
+      <c r="E2392" t="inlineStr">
+        <is>
+          <t>54.2</t>
+        </is>
+      </c>
       <c r="F2392" t="inlineStr"/>
       <c r="G2392" t="inlineStr"/>
       <c r="H2392" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2393">
       <c r="A2393" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2393" t="inlineStr">
@@ -76876,11 +76742,15 @@
       </c>
       <c r="C2393" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/31</t>
+          <t>ISM Services PricesJAN</t>
         </is>
       </c>
       <c r="D2393" t="inlineStr"/>
-      <c r="E2393" t="inlineStr"/>
+      <c r="E2393" t="inlineStr">
+        <is>
+          <t>64.4</t>
+        </is>
+      </c>
       <c r="F2393" t="inlineStr"/>
       <c r="G2393" t="inlineStr"/>
       <c r="H2393" t="inlineStr">
@@ -76892,7 +76762,7 @@
     <row r="2394">
       <c r="A2394" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2394" t="inlineStr">
@@ -76902,7 +76772,7 @@
       </c>
       <c r="C2394" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/31</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2394" t="inlineStr"/>
@@ -76911,14 +76781,14 @@
       <c r="G2394" t="inlineStr"/>
       <c r="H2394" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2395">
       <c r="A2395" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2395" t="inlineStr">
@@ -76928,7 +76798,7 @@
       </c>
       <c r="C2395" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/31</t>
+          <t>EIA Gasoline Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2395" t="inlineStr"/>
@@ -76937,14 +76807,14 @@
       <c r="G2395" t="inlineStr"/>
       <c r="H2395" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2396">
       <c r="A2396" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2396" t="inlineStr">
@@ -76954,7 +76824,7 @@
       </c>
       <c r="C2396" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/31</t>
+          <t>EIA Crude Oil Imports ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2396" t="inlineStr"/>
@@ -76970,65 +76840,49 @@
     <row r="2397">
       <c r="A2397" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2397" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2397" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMIJAN</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2397" t="inlineStr"/>
-      <c r="E2397" t="inlineStr">
-        <is>
-          <t>51.6</t>
-        </is>
-      </c>
+      <c r="E2397" t="inlineStr"/>
       <c r="F2397" t="inlineStr"/>
-      <c r="G2397" t="inlineStr">
-        <is>
-          <t>50.2</t>
-        </is>
-      </c>
+      <c r="G2397" t="inlineStr"/>
       <c r="H2397" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2398">
       <c r="A2398" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2398" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2398" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMIJAN</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2398" t="inlineStr"/>
-      <c r="E2398" t="inlineStr">
-        <is>
-          <t>51.5</t>
-        </is>
-      </c>
+      <c r="E2398" t="inlineStr"/>
       <c r="F2398" t="inlineStr"/>
-      <c r="G2398" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
+      <c r="G2398" t="inlineStr"/>
       <c r="H2398" t="inlineStr">
         <is>
           <t>3</t>
@@ -77038,7 +76892,7 @@
     <row r="2399">
       <c r="A2399" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2399" t="inlineStr">
@@ -77048,85 +76902,65 @@
       </c>
       <c r="C2399" t="inlineStr">
         <is>
-          <t>ADP Employment ChangeJAN</t>
+          <t>EIA Distillate Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2399" t="inlineStr"/>
-      <c r="E2399" t="inlineStr">
-        <is>
-          <t>122K</t>
-        </is>
-      </c>
+      <c r="E2399" t="inlineStr"/>
       <c r="F2399" t="inlineStr"/>
       <c r="G2399" t="inlineStr"/>
       <c r="H2399" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2400">
       <c r="A2400" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2400" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2400" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>EIA Gasoline Production ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2400" t="inlineStr"/>
-      <c r="E2400" t="inlineStr">
-        <is>
-          <t>C$-0.32B</t>
-        </is>
-      </c>
+      <c r="E2400" t="inlineStr"/>
       <c r="F2400" t="inlineStr"/>
-      <c r="G2400" t="inlineStr">
-        <is>
-          <t>C$ -1.6B</t>
-        </is>
-      </c>
+      <c r="G2400" t="inlineStr"/>
       <c r="H2400" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2401">
       <c r="A2401" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2401" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2401" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2401" t="inlineStr"/>
-      <c r="E2401" t="inlineStr">
-        <is>
-          <t>C$66.11B</t>
-        </is>
-      </c>
+      <c r="E2401" t="inlineStr"/>
       <c r="F2401" t="inlineStr"/>
-      <c r="G2401" t="inlineStr">
-        <is>
-          <t>C$ 65.8B</t>
-        </is>
-      </c>
+      <c r="G2401" t="inlineStr"/>
       <c r="H2401" t="inlineStr">
         <is>
           <t>3</t>
@@ -77136,31 +76970,23 @@
     <row r="2402">
       <c r="A2402" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2402" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2402" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2402" t="inlineStr"/>
-      <c r="E2402" t="inlineStr">
-        <is>
-          <t>C$66.43B</t>
-        </is>
-      </c>
+      <c r="E2402" t="inlineStr"/>
       <c r="F2402" t="inlineStr"/>
-      <c r="G2402" t="inlineStr">
-        <is>
-          <t>C$ 64.5B</t>
-        </is>
-      </c>
+      <c r="G2402" t="inlineStr"/>
       <c r="H2402" t="inlineStr">
         <is>
           <t>3</t>
@@ -77170,29 +76996,25 @@
     <row r="2403">
       <c r="A2403" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2403" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2403" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D2403" t="inlineStr"/>
-      <c r="E2403" t="inlineStr">
-        <is>
-          <t>$-78.2B</t>
-        </is>
-      </c>
+      <c r="E2403" t="inlineStr"/>
       <c r="F2403" t="inlineStr"/>
       <c r="G2403" t="inlineStr">
         <is>
-          <t>$ -68B</t>
+          <t>2.40%</t>
         </is>
       </c>
       <c r="H2403" t="inlineStr">
@@ -77204,91 +77026,83 @@
     <row r="2404">
       <c r="A2404" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2404" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2404" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2404" t="inlineStr"/>
-      <c r="E2404" t="inlineStr">
-        <is>
-          <t>$273.4B</t>
-        </is>
-      </c>
+      <c r="E2404" t="inlineStr"/>
       <c r="F2404" t="inlineStr"/>
-      <c r="G2404" t="inlineStr">
-        <is>
-          <t>$ 275.0B</t>
-        </is>
-      </c>
+      <c r="G2404" t="inlineStr"/>
       <c r="H2404" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2405">
       <c r="A2405" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2405" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2405" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>Corporate ProfitsNOV</t>
         </is>
       </c>
       <c r="D2405" t="inlineStr"/>
-      <c r="E2405" t="inlineStr">
-        <is>
-          <t>$351.6B</t>
-        </is>
-      </c>
+      <c r="E2405" t="inlineStr"/>
       <c r="F2405" t="inlineStr"/>
-      <c r="G2405" t="inlineStr">
-        <is>
-          <t>$ 338B</t>
-        </is>
-      </c>
+      <c r="G2405" t="inlineStr"/>
       <c r="H2405" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2406">
       <c r="A2406" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2406" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2406" t="inlineStr">
         <is>
-          <t>Treasury Refunding Announcement</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2406" t="inlineStr"/>
-      <c r="E2406" t="inlineStr"/>
+      <c r="E2406" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="F2406" t="inlineStr"/>
-      <c r="G2406" t="inlineStr"/>
+      <c r="G2406" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
       <c r="H2406" t="inlineStr">
         <is>
           <t>3</t>
@@ -77298,31 +77112,23 @@
     <row r="2407">
       <c r="A2407" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2407" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2407" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMIJAN</t>
+          <t>Real Wage Growth YoYNOV</t>
         </is>
       </c>
       <c r="D2407" t="inlineStr"/>
-      <c r="E2407" t="inlineStr">
-        <is>
-          <t>49.0</t>
-        </is>
-      </c>
+      <c r="E2407" t="inlineStr"/>
       <c r="F2407" t="inlineStr"/>
-      <c r="G2407" t="inlineStr">
-        <is>
-          <t>48.5</t>
-        </is>
-      </c>
+      <c r="G2407" t="inlineStr"/>
       <c r="H2407" t="inlineStr">
         <is>
           <t>3</t>
@@ -77332,29 +77138,25 @@
     <row r="2408">
       <c r="A2408" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2408" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2408" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMIJAN</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2408" t="inlineStr"/>
-      <c r="E2408" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
+      <c r="E2408" t="inlineStr"/>
       <c r="F2408" t="inlineStr"/>
       <c r="G2408" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="H2408" t="inlineStr">
@@ -77366,7 +77168,7 @@
     <row r="2409">
       <c r="A2409" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2409" t="inlineStr">
@@ -77376,73 +77178,49 @@
       </c>
       <c r="C2409" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FinalJAN</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2409" t="inlineStr"/>
-      <c r="E2409" t="inlineStr">
-        <is>
-          <t>55.4</t>
-        </is>
-      </c>
-      <c r="F2409" t="inlineStr">
-        <is>
-          <t>52.4</t>
-        </is>
-      </c>
-      <c r="G2409" t="inlineStr">
-        <is>
-          <t>52.4</t>
-        </is>
-      </c>
+      <c r="E2409" t="inlineStr"/>
+      <c r="F2409" t="inlineStr"/>
+      <c r="G2409" t="inlineStr"/>
       <c r="H2409" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2410">
       <c r="A2410" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B2410" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2410" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FinalJAN</t>
+          <t>2-Year Bond Auction</t>
         </is>
       </c>
       <c r="D2410" t="inlineStr"/>
-      <c r="E2410" t="inlineStr">
-        <is>
-          <t>56.8</t>
-        </is>
-      </c>
-      <c r="F2410" t="inlineStr">
-        <is>
-          <t>52.8</t>
-        </is>
-      </c>
-      <c r="G2410" t="inlineStr">
-        <is>
-          <t>52.8</t>
-        </is>
-      </c>
+      <c r="E2410" t="inlineStr"/>
+      <c r="F2410" t="inlineStr"/>
+      <c r="G2410" t="inlineStr"/>
       <c r="H2410" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2411">
       <c r="A2411" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2411" t="inlineStr">
@@ -77452,7 +77230,7 @@
       </c>
       <c r="C2411" t="inlineStr">
         <is>
-          <t>ISM Services PMIJAN</t>
+          <t>Fed Goolsbee Speech</t>
         </is>
       </c>
       <c r="D2411" t="inlineStr"/>
@@ -77461,64 +77239,72 @@
       <c r="G2411" t="inlineStr"/>
       <c r="H2411" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2412">
       <c r="A2412" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2412" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2412" t="inlineStr">
         <is>
-          <t>ISM Services Business ActivityJAN</t>
+          <t>Ai Group Industry IndexJAN</t>
         </is>
       </c>
       <c r="D2412" t="inlineStr"/>
       <c r="E2412" t="inlineStr">
         <is>
-          <t>58.2</t>
+          <t>-10.8</t>
         </is>
       </c>
       <c r="F2412" t="inlineStr"/>
-      <c r="G2412" t="inlineStr"/>
+      <c r="G2412" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
       <c r="H2412" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2413">
       <c r="A2413" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2413" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2413" t="inlineStr">
         <is>
-          <t>ISM Services EmploymentJAN</t>
+          <t>Ai Group Construction IndexJAN</t>
         </is>
       </c>
       <c r="D2413" t="inlineStr"/>
       <c r="E2413" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>-19.0</t>
         </is>
       </c>
       <c r="F2413" t="inlineStr"/>
-      <c r="G2413" t="inlineStr"/>
+      <c r="G2413" t="inlineStr">
+        <is>
+          <t>-25</t>
+        </is>
+      </c>
       <c r="H2413" t="inlineStr">
         <is>
           <t>3</t>
@@ -77528,27 +77314,31 @@
     <row r="2414">
       <c r="A2414" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2414" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2414" t="inlineStr">
         <is>
-          <t>ISM Services New OrdersJAN</t>
+          <t>Ai Group Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D2414" t="inlineStr"/>
       <c r="E2414" t="inlineStr">
         <is>
-          <t>54.2</t>
+          <t>-17.9</t>
         </is>
       </c>
       <c r="F2414" t="inlineStr"/>
-      <c r="G2414" t="inlineStr"/>
+      <c r="G2414" t="inlineStr">
+        <is>
+          <t>-13</t>
+        </is>
+      </c>
       <c r="H2414" t="inlineStr">
         <is>
           <t>3</t>
@@ -77558,27 +77348,27 @@
     <row r="2415">
       <c r="A2415" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2415" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2415" t="inlineStr">
         <is>
-          <t>ISM Services PricesJAN</t>
+          <t>Current AccountDEC</t>
         </is>
       </c>
       <c r="D2415" t="inlineStr"/>
-      <c r="E2415" t="inlineStr">
-        <is>
-          <t>64.4</t>
-        </is>
-      </c>
+      <c r="E2415" t="inlineStr"/>
       <c r="F2415" t="inlineStr"/>
-      <c r="G2415" t="inlineStr"/>
+      <c r="G2415" t="inlineStr">
+        <is>
+          <t>$ 8.1B</t>
+        </is>
+      </c>
       <c r="H2415" t="inlineStr">
         <is>
           <t>3</t>
@@ -77588,17 +77378,17 @@
     <row r="2416">
       <c r="A2416" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2416" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2416" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/31</t>
+          <t>Overtime Pay YoYDEC</t>
         </is>
       </c>
       <c r="D2416" t="inlineStr"/>
@@ -77607,24 +77397,24 @@
       <c r="G2416" t="inlineStr"/>
       <c r="H2416" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2417">
       <c r="A2417" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B2417" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2417" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJAN/31</t>
+          <t>Foreign Bond InvestmentFEB/01</t>
         </is>
       </c>
       <c r="D2417" t="inlineStr"/>
@@ -77633,24 +77423,24 @@
       <c r="G2417" t="inlineStr"/>
       <c r="H2417" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2418">
       <c r="A2418" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B2418" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2418" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJAN/31</t>
+          <t>Stock Investment by ForeignersFEB/01</t>
         </is>
       </c>
       <c r="D2418" t="inlineStr"/>
@@ -77666,47 +77456,59 @@
     <row r="2419">
       <c r="A2419" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2419" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2419" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/31</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2419" t="inlineStr"/>
-      <c r="E2419" t="inlineStr"/>
+      <c r="E2419" t="inlineStr">
+        <is>
+          <t>A$7.079B</t>
+        </is>
+      </c>
       <c r="F2419" t="inlineStr"/>
-      <c r="G2419" t="inlineStr"/>
+      <c r="G2419" t="inlineStr">
+        <is>
+          <t>A$ 3.2B</t>
+        </is>
+      </c>
       <c r="H2419" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2420">
       <c r="A2420" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2420" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2420" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/31</t>
+          <t>Exports MoMDEC</t>
         </is>
       </c>
       <c r="D2420" t="inlineStr"/>
-      <c r="E2420" t="inlineStr"/>
+      <c r="E2420" t="inlineStr">
+        <is>
+          <t>4.8%</t>
+        </is>
+      </c>
       <c r="F2420" t="inlineStr"/>
       <c r="G2420" t="inlineStr"/>
       <c r="H2420" t="inlineStr">
@@ -77718,21 +77520,25 @@
     <row r="2421">
       <c r="A2421" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2421" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2421" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJAN/31</t>
+          <t>Imports MoMDEC</t>
         </is>
       </c>
       <c r="D2421" t="inlineStr"/>
-      <c r="E2421" t="inlineStr"/>
+      <c r="E2421" t="inlineStr">
+        <is>
+          <t>1.7%</t>
+        </is>
+      </c>
       <c r="F2421" t="inlineStr"/>
       <c r="G2421" t="inlineStr"/>
       <c r="H2421" t="inlineStr">
@@ -77744,21 +77550,25 @@
     <row r="2422">
       <c r="A2422" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B2422" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2422" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJAN/31</t>
+          <t>30-Year JGB Auction</t>
         </is>
       </c>
       <c r="D2422" t="inlineStr"/>
-      <c r="E2422" t="inlineStr"/>
+      <c r="E2422" t="inlineStr">
+        <is>
+          <t>2.304%</t>
+        </is>
+      </c>
       <c r="F2422" t="inlineStr"/>
       <c r="G2422" t="inlineStr"/>
       <c r="H2422" t="inlineStr">
@@ -77770,21 +77580,25 @@
     <row r="2423">
       <c r="A2423" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B2423" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2423" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/31</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2423" t="inlineStr"/>
-      <c r="E2423" t="inlineStr"/>
+      <c r="E2423" t="inlineStr">
+        <is>
+          <t>0.3535%</t>
+        </is>
+      </c>
       <c r="F2423" t="inlineStr"/>
       <c r="G2423" t="inlineStr"/>
       <c r="H2423" t="inlineStr">
@@ -77794,11 +77608,7 @@
       </c>
     </row>
     <row r="2424">
-      <c r="A2424" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
+      <c r="A2424" t="inlineStr"/>
       <c r="B2424" t="inlineStr">
         <is>
           <t>US</t>
@@ -77806,11 +77616,15 @@
       </c>
       <c r="C2424" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/31</t>
+          <t>Total Vehicle SalesJAN</t>
         </is>
       </c>
       <c r="D2424" t="inlineStr"/>
-      <c r="E2424" t="inlineStr"/>
+      <c r="E2424" t="inlineStr">
+        <is>
+          <t>16.8M</t>
+        </is>
+      </c>
       <c r="F2424" t="inlineStr"/>
       <c r="G2424" t="inlineStr"/>
       <c r="H2424" t="inlineStr">
@@ -77822,77 +77636,73 @@
     <row r="2425">
       <c r="A2425" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2425" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2425" t="inlineStr">
-        <is>
-          <t>Unemployment RateDEC</t>
-        </is>
-      </c>
+          <t>Thursday February 06 2025</t>
+        </is>
+      </c>
+      <c r="B2425" t="inlineStr"/>
+      <c r="C2425" t="inlineStr"/>
       <c r="D2425" t="inlineStr"/>
       <c r="E2425" t="inlineStr"/>
       <c r="F2425" t="inlineStr"/>
-      <c r="G2425" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
-      <c r="H2425" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G2425" t="inlineStr"/>
+      <c r="H2425" t="inlineStr"/>
     </row>
     <row r="2426">
       <c r="A2426" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2426" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2426" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>Factory Orders MoMDEC</t>
         </is>
       </c>
       <c r="D2426" t="inlineStr"/>
-      <c r="E2426" t="inlineStr"/>
+      <c r="E2426" t="inlineStr">
+        <is>
+          <t>-5.4%</t>
+        </is>
+      </c>
       <c r="F2426" t="inlineStr"/>
-      <c r="G2426" t="inlineStr"/>
+      <c r="G2426" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2426" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2427">
       <c r="A2427" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2427" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2427" t="inlineStr">
         <is>
-          <t>Corporate ProfitsNOV</t>
+          <t>HCOB Construction PMIJAN</t>
         </is>
       </c>
       <c r="D2427" t="inlineStr"/>
-      <c r="E2427" t="inlineStr"/>
+      <c r="E2427" t="inlineStr">
+        <is>
+          <t>42.9</t>
+        </is>
+      </c>
       <c r="F2427" t="inlineStr"/>
       <c r="G2427" t="inlineStr"/>
       <c r="H2427" t="inlineStr">
@@ -77904,31 +77714,27 @@
     <row r="2428">
       <c r="A2428" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2428" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2428" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>HCOB Construction PMIJAN</t>
         </is>
       </c>
       <c r="D2428" t="inlineStr"/>
       <c r="E2428" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>42.6</t>
         </is>
       </c>
       <c r="F2428" t="inlineStr"/>
-      <c r="G2428" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
+      <c r="G2428" t="inlineStr"/>
       <c r="H2428" t="inlineStr">
         <is>
           <t>3</t>
@@ -77938,53 +77744,57 @@
     <row r="2429">
       <c r="A2429" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2429" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2429" t="inlineStr">
         <is>
-          <t>Real Wage Growth YoYNOV</t>
+          <t>HCOB Construction PMIJAN</t>
         </is>
       </c>
       <c r="D2429" t="inlineStr"/>
-      <c r="E2429" t="inlineStr"/>
+      <c r="E2429" t="inlineStr">
+        <is>
+          <t>37.8</t>
+        </is>
+      </c>
       <c r="F2429" t="inlineStr"/>
       <c r="G2429" t="inlineStr"/>
       <c r="H2429" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2430">
       <c r="A2430" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2430" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2430" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>HCOB Construction PMIJAN</t>
         </is>
       </c>
       <c r="D2430" t="inlineStr"/>
-      <c r="E2430" t="inlineStr"/>
+      <c r="E2430" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
       <c r="F2430" t="inlineStr"/>
-      <c r="G2430" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
+      <c r="G2430" t="inlineStr"/>
       <c r="H2430" t="inlineStr">
         <is>
           <t>3</t>
@@ -77994,75 +77804,99 @@
     <row r="2431">
       <c r="A2431" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2431" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2431" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>S&amp;P Global Construction PMIJAN</t>
         </is>
       </c>
       <c r="D2431" t="inlineStr"/>
-      <c r="E2431" t="inlineStr"/>
+      <c r="E2431" t="inlineStr">
+        <is>
+          <t>53.3</t>
+        </is>
+      </c>
       <c r="F2431" t="inlineStr"/>
-      <c r="G2431" t="inlineStr"/>
+      <c r="G2431" t="inlineStr">
+        <is>
+          <t>53.5</t>
+        </is>
+      </c>
       <c r="H2431" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2432">
       <c r="A2432" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2432" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2432" t="inlineStr">
         <is>
-          <t>2-Year Bond Auction</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2432" t="inlineStr"/>
-      <c r="E2432" t="inlineStr"/>
+      <c r="E2432" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="F2432" t="inlineStr"/>
-      <c r="G2432" t="inlineStr"/>
+      <c r="G2432" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2432" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2433">
       <c r="A2433" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2433" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2433" t="inlineStr">
         <is>
-          <t>Fed Goolsbee Speech</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2433" t="inlineStr"/>
-      <c r="E2433" t="inlineStr"/>
+      <c r="E2433" t="inlineStr">
+        <is>
+          <t>1.2%</t>
+        </is>
+      </c>
       <c r="F2433" t="inlineStr"/>
-      <c r="G2433" t="inlineStr"/>
+      <c r="G2433" t="inlineStr">
+        <is>
+          <t>1.7%</t>
+        </is>
+      </c>
       <c r="H2433" t="inlineStr">
         <is>
           <t>2</t>
@@ -78072,65 +77906,49 @@
     <row r="2434">
       <c r="A2434" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2434" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2434" t="inlineStr">
         <is>
-          <t>Ai Group Industry IndexJAN</t>
+          <t>OAT Auction</t>
         </is>
       </c>
       <c r="D2434" t="inlineStr"/>
-      <c r="E2434" t="inlineStr">
-        <is>
-          <t>-10.8</t>
-        </is>
-      </c>
+      <c r="E2434" t="inlineStr"/>
       <c r="F2434" t="inlineStr"/>
-      <c r="G2434" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
+      <c r="G2434" t="inlineStr"/>
       <c r="H2434" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2435">
       <c r="A2435" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B2435" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2435" t="inlineStr">
         <is>
-          <t>Ai Group Construction IndexJAN</t>
+          <t>Foreign Exchange ReservesJAN/31</t>
         </is>
       </c>
       <c r="D2435" t="inlineStr"/>
-      <c r="E2435" t="inlineStr">
-        <is>
-          <t>-19.0</t>
-        </is>
-      </c>
+      <c r="E2435" t="inlineStr"/>
       <c r="F2435" t="inlineStr"/>
-      <c r="G2435" t="inlineStr">
-        <is>
-          <t>-25</t>
-        </is>
-      </c>
+      <c r="G2435" t="inlineStr"/>
       <c r="H2435" t="inlineStr">
         <is>
           <t>3</t>
@@ -78140,81 +77958,85 @@
     <row r="2436">
       <c r="A2436" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2436" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2436" t="inlineStr">
         <is>
-          <t>Ai Group Manufacturing IndexJAN</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2436" t="inlineStr"/>
       <c r="E2436" t="inlineStr">
         <is>
-          <t>-17.9</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="F2436" t="inlineStr"/>
-      <c r="G2436" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
+      <c r="G2436" t="inlineStr"/>
       <c r="H2436" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2437">
       <c r="A2437" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2437" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2437" t="inlineStr">
         <is>
-          <t>Current AccountDEC</t>
+          <t>BoE Interest Rate Decision</t>
         </is>
       </c>
       <c r="D2437" t="inlineStr"/>
-      <c r="E2437" t="inlineStr"/>
-      <c r="F2437" t="inlineStr"/>
+      <c r="E2437" t="inlineStr">
+        <is>
+          <t>4.75%</t>
+        </is>
+      </c>
+      <c r="F2437" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
       <c r="G2437" t="inlineStr">
         <is>
-          <t>$ 8.1B</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="H2437" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2438">
       <c r="A2438" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2438" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2438" t="inlineStr">
         <is>
-          <t>Overtime Pay YoYDEC</t>
+          <t>BoE Monetary Policy Report</t>
         </is>
       </c>
       <c r="D2438" t="inlineStr"/>
@@ -78223,24 +78045,24 @@
       <c r="G2438" t="inlineStr"/>
       <c r="H2438" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2439">
       <c r="A2439" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2439" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2439" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentFEB/01</t>
+          <t>BoE MPC Vote Cut</t>
         </is>
       </c>
       <c r="D2439" t="inlineStr"/>
@@ -78249,24 +78071,24 @@
       <c r="G2439" t="inlineStr"/>
       <c r="H2439" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2440">
       <c r="A2440" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2440" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2440" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersFEB/01</t>
+          <t>BoE MPC Vote Hike</t>
         </is>
       </c>
       <c r="D2440" t="inlineStr"/>
@@ -78275,94 +78097,82 @@
       <c r="G2440" t="inlineStr"/>
       <c r="H2440" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2441">
       <c r="A2441" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2441" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2441" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>BoE MPC Vote Unchanged</t>
         </is>
       </c>
       <c r="D2441" t="inlineStr"/>
-      <c r="E2441" t="inlineStr">
-        <is>
-          <t>A$7.079B</t>
-        </is>
-      </c>
+      <c r="E2441" t="inlineStr"/>
       <c r="F2441" t="inlineStr"/>
-      <c r="G2441" t="inlineStr">
-        <is>
-          <t>A$ 3.2B</t>
-        </is>
-      </c>
+      <c r="G2441" t="inlineStr"/>
       <c r="H2441" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2442">
       <c r="A2442" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2442" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2442" t="inlineStr">
         <is>
-          <t>Exports MoMDEC</t>
+          <t>MPC Meeting Minutes</t>
         </is>
       </c>
       <c r="D2442" t="inlineStr"/>
-      <c r="E2442" t="inlineStr">
-        <is>
-          <t>4.8%</t>
-        </is>
-      </c>
+      <c r="E2442" t="inlineStr"/>
       <c r="F2442" t="inlineStr"/>
       <c r="G2442" t="inlineStr"/>
       <c r="H2442" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2443">
       <c r="A2443" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2443" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2443" t="inlineStr">
         <is>
-          <t>Imports MoMDEC</t>
+          <t>Challenger Job CutsJAN</t>
         </is>
       </c>
       <c r="D2443" t="inlineStr"/>
       <c r="E2443" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>38.792K</t>
         </is>
       </c>
       <c r="F2443" t="inlineStr"/>
@@ -78376,65 +78186,65 @@
     <row r="2444">
       <c r="A2444" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2444" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2444" t="inlineStr">
         <is>
-          <t>30-Year JGB Auction</t>
+          <t>Initial Jobless ClaimsFEB/01</t>
         </is>
       </c>
       <c r="D2444" t="inlineStr"/>
-      <c r="E2444" t="inlineStr">
-        <is>
-          <t>2.304%</t>
-        </is>
-      </c>
+      <c r="E2444" t="inlineStr"/>
       <c r="F2444" t="inlineStr"/>
       <c r="G2444" t="inlineStr"/>
       <c r="H2444" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2445">
       <c r="A2445" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2445" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2445" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Nonfarm Productivity QoQ PrelQ4</t>
         </is>
       </c>
       <c r="D2445" t="inlineStr"/>
       <c r="E2445" t="inlineStr">
         <is>
-          <t>0.3535%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="F2445" t="inlineStr"/>
       <c r="G2445" t="inlineStr"/>
       <c r="H2445" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2446">
-      <c r="A2446" t="inlineStr"/>
+      <c r="A2446" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B2446" t="inlineStr">
         <is>
           <t>US</t>
@@ -78442,123 +78252,119 @@
       </c>
       <c r="C2446" t="inlineStr">
         <is>
-          <t>Total Vehicle SalesJAN</t>
+          <t>Unit Labour Costs QoQ PrelQ4</t>
         </is>
       </c>
       <c r="D2446" t="inlineStr"/>
       <c r="E2446" t="inlineStr">
         <is>
-          <t>16.8M</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F2446" t="inlineStr"/>
       <c r="G2446" t="inlineStr"/>
       <c r="H2446" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2447">
       <c r="A2447" t="inlineStr">
         <is>
-          <t>Thursday February 06 2025</t>
-        </is>
-      </c>
-      <c r="B2447" t="inlineStr"/>
-      <c r="C2447" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B2447" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2447" t="inlineStr">
+        <is>
+          <t>Continuing Jobless ClaimsJAN/25</t>
+        </is>
+      </c>
       <c r="D2447" t="inlineStr"/>
       <c r="E2447" t="inlineStr"/>
       <c r="F2447" t="inlineStr"/>
       <c r="G2447" t="inlineStr"/>
-      <c r="H2447" t="inlineStr"/>
+      <c r="H2447" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2448">
       <c r="A2448" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2448" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2448" t="inlineStr">
         <is>
-          <t>Factory Orders MoMDEC</t>
+          <t>Jobless Claims 4-week AverageFEB/01</t>
         </is>
       </c>
       <c r="D2448" t="inlineStr"/>
-      <c r="E2448" t="inlineStr">
-        <is>
-          <t>-5.4%</t>
-        </is>
-      </c>
+      <c r="E2448" t="inlineStr"/>
       <c r="F2448" t="inlineStr"/>
-      <c r="G2448" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G2448" t="inlineStr"/>
       <c r="H2448" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2449">
       <c r="A2449" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2449" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2449" t="inlineStr">
         <is>
-          <t>HCOB Construction PMIJAN</t>
+          <t>Ivey PMI s.aJAN</t>
         </is>
       </c>
       <c r="D2449" t="inlineStr"/>
-      <c r="E2449" t="inlineStr">
-        <is>
-          <t>42.9</t>
-        </is>
-      </c>
+      <c r="E2449" t="inlineStr"/>
       <c r="F2449" t="inlineStr"/>
       <c r="G2449" t="inlineStr"/>
       <c r="H2449" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2450">
       <c r="A2450" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2450" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2450" t="inlineStr">
         <is>
-          <t>HCOB Construction PMIJAN</t>
+          <t>EIA Natural Gas Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2450" t="inlineStr"/>
-      <c r="E2450" t="inlineStr">
-        <is>
-          <t>42.6</t>
-        </is>
-      </c>
+      <c r="E2450" t="inlineStr"/>
       <c r="F2450" t="inlineStr"/>
       <c r="G2450" t="inlineStr"/>
       <c r="H2450" t="inlineStr">
@@ -78570,55 +78376,47 @@
     <row r="2451">
       <c r="A2451" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2451" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2451" t="inlineStr">
         <is>
-          <t>HCOB Construction PMIJAN</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2451" t="inlineStr"/>
-      <c r="E2451" t="inlineStr">
-        <is>
-          <t>37.8</t>
-        </is>
-      </c>
+      <c r="E2451" t="inlineStr"/>
       <c r="F2451" t="inlineStr"/>
       <c r="G2451" t="inlineStr"/>
       <c r="H2451" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2452">
       <c r="A2452" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2452" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2452" t="inlineStr">
         <is>
-          <t>HCOB Construction PMIJAN</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2452" t="inlineStr"/>
-      <c r="E2452" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
+      <c r="E2452" t="inlineStr"/>
       <c r="F2452" t="inlineStr"/>
       <c r="G2452" t="inlineStr"/>
       <c r="H2452" t="inlineStr">
@@ -78630,145 +78428,133 @@
     <row r="2453">
       <c r="A2453" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B2453" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2453" t="inlineStr">
         <is>
-          <t>S&amp;P Global Construction PMIJAN</t>
+          <t>10-Year Bond Auction</t>
         </is>
       </c>
       <c r="D2453" t="inlineStr"/>
       <c r="E2453" t="inlineStr">
         <is>
-          <t>53.3</t>
+          <t>3.358%</t>
         </is>
       </c>
       <c r="F2453" t="inlineStr"/>
-      <c r="G2453" t="inlineStr">
-        <is>
-          <t>53.5</t>
-        </is>
-      </c>
+      <c r="G2453" t="inlineStr"/>
       <c r="H2453" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2454">
       <c r="A2454" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B2454" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2454" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>15-Year Mortgage RateFEB/06</t>
         </is>
       </c>
       <c r="D2454" t="inlineStr"/>
-      <c r="E2454" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E2454" t="inlineStr"/>
       <c r="F2454" t="inlineStr"/>
-      <c r="G2454" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2454" t="inlineStr"/>
       <c r="H2454" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2455">
       <c r="A2455" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B2455" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2455" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>30-Year Mortgage RateFEB/06</t>
         </is>
       </c>
       <c r="D2455" t="inlineStr"/>
-      <c r="E2455" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
+      <c r="E2455" t="inlineStr"/>
       <c r="F2455" t="inlineStr"/>
-      <c r="G2455" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="G2455" t="inlineStr"/>
       <c r="H2455" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2456">
       <c r="A2456" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B2456" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2456" t="inlineStr">
         <is>
-          <t>OAT Auction</t>
+          <t>Interest Rate Decision</t>
         </is>
       </c>
       <c r="D2456" t="inlineStr"/>
-      <c r="E2456" t="inlineStr"/>
+      <c r="E2456" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
       <c r="F2456" t="inlineStr"/>
-      <c r="G2456" t="inlineStr"/>
+      <c r="G2456" t="inlineStr">
+        <is>
+          <t>9.75%</t>
+        </is>
+      </c>
       <c r="H2456" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2457">
       <c r="A2457" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2457" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2457" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/31</t>
+          <t>Fed Daly Speech</t>
         </is>
       </c>
       <c r="D2457" t="inlineStr"/>
@@ -78777,92 +78563,72 @@
       <c r="G2457" t="inlineStr"/>
       <c r="H2457" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2458">
       <c r="A2458" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B2458" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2458" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>Fed Balance SheetFEB/05</t>
         </is>
       </c>
       <c r="D2458" t="inlineStr"/>
-      <c r="E2458" t="inlineStr">
-        <is>
-          <t>47.1</t>
-        </is>
-      </c>
+      <c r="E2458" t="inlineStr"/>
       <c r="F2458" t="inlineStr"/>
       <c r="G2458" t="inlineStr"/>
       <c r="H2458" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2459">
-      <c r="A2459" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
+      <c r="A2459" t="inlineStr"/>
       <c r="B2459" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2459" t="inlineStr">
         <is>
-          <t>BoE Interest Rate Decision</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D2459" t="inlineStr"/>
       <c r="E2459" t="inlineStr">
         <is>
-          <t>4.75%</t>
-        </is>
-      </c>
-      <c r="F2459" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="G2459" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
+          <t>-7.1%</t>
+        </is>
+      </c>
+      <c r="F2459" t="inlineStr"/>
+      <c r="G2459" t="inlineStr"/>
       <c r="H2459" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2460">
-      <c r="A2460" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
+      <c r="A2460" t="inlineStr"/>
       <c r="B2460" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2460" t="inlineStr">
         <is>
-          <t>BoE Monetary Policy Report</t>
+          <t>Vehicle Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2460" t="inlineStr"/>
@@ -78871,24 +78637,20 @@
       <c r="G2460" t="inlineStr"/>
       <c r="H2460" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2461">
-      <c r="A2461" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
+      <c r="A2461" t="inlineStr"/>
       <c r="B2461" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>WL</t>
         </is>
       </c>
       <c r="C2461" t="inlineStr">
         <is>
-          <t>BoE MPC Vote Cut</t>
+          <t>Global Supply Chain Pressure IndexJAN</t>
         </is>
       </c>
       <c r="D2461" t="inlineStr"/>
@@ -78897,24 +78659,20 @@
       <c r="G2461" t="inlineStr"/>
       <c r="H2461" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2462">
-      <c r="A2462" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
+      <c r="A2462" t="inlineStr"/>
       <c r="B2462" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2462" t="inlineStr">
         <is>
-          <t>BoE MPC Vote Hike</t>
+          <t>10-Year NTN-F Auction</t>
         </is>
       </c>
       <c r="D2462" t="inlineStr"/>
@@ -78923,24 +78681,20 @@
       <c r="G2462" t="inlineStr"/>
       <c r="H2462" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2463">
-      <c r="A2463" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
+      <c r="A2463" t="inlineStr"/>
       <c r="B2463" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2463" t="inlineStr">
         <is>
-          <t>BoE MPC Vote Unchanged</t>
+          <t>2-Year LTN Auction</t>
         </is>
       </c>
       <c r="D2463" t="inlineStr"/>
@@ -78949,611 +78703,31 @@
       <c r="G2463" t="inlineStr"/>
       <c r="H2463" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2464">
-      <c r="A2464" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
+      <c r="A2464" t="inlineStr"/>
       <c r="B2464" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2464" t="inlineStr">
         <is>
-          <t>MPC Meeting Minutes</t>
+          <t>6-Month LTN Auction</t>
         </is>
       </c>
       <c r="D2464" t="inlineStr"/>
-      <c r="E2464" t="inlineStr"/>
+      <c r="E2464" t="inlineStr">
+        <is>
+          <t>14.5579%</t>
+        </is>
+      </c>
       <c r="F2464" t="inlineStr"/>
       <c r="G2464" t="inlineStr"/>
       <c r="H2464" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2465">
-      <c r="A2465" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2465" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2465" t="inlineStr">
-        <is>
-          <t>Challenger Job CutsJAN</t>
-        </is>
-      </c>
-      <c r="D2465" t="inlineStr"/>
-      <c r="E2465" t="inlineStr">
-        <is>
-          <t>38.792K</t>
-        </is>
-      </c>
-      <c r="F2465" t="inlineStr"/>
-      <c r="G2465" t="inlineStr"/>
-      <c r="H2465" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2466">
-      <c r="A2466" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B2466" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2466" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsFEB/01</t>
-        </is>
-      </c>
-      <c r="D2466" t="inlineStr"/>
-      <c r="E2466" t="inlineStr"/>
-      <c r="F2466" t="inlineStr"/>
-      <c r="G2466" t="inlineStr"/>
-      <c r="H2466" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2467">
-      <c r="A2467" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B2467" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2467" t="inlineStr">
-        <is>
-          <t>Nonfarm Productivity QoQ PrelQ4</t>
-        </is>
-      </c>
-      <c r="D2467" t="inlineStr"/>
-      <c r="E2467" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F2467" t="inlineStr"/>
-      <c r="G2467" t="inlineStr"/>
-      <c r="H2467" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2468">
-      <c r="A2468" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B2468" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2468" t="inlineStr">
-        <is>
-          <t>Unit Labour Costs QoQ PrelQ4</t>
-        </is>
-      </c>
-      <c r="D2468" t="inlineStr"/>
-      <c r="E2468" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F2468" t="inlineStr"/>
-      <c r="G2468" t="inlineStr"/>
-      <c r="H2468" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2469">
-      <c r="A2469" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B2469" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2469" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsJAN/25</t>
-        </is>
-      </c>
-      <c r="D2469" t="inlineStr"/>
-      <c r="E2469" t="inlineStr"/>
-      <c r="F2469" t="inlineStr"/>
-      <c r="G2469" t="inlineStr"/>
-      <c r="H2469" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2470">
-      <c r="A2470" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B2470" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2470" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageFEB/01</t>
-        </is>
-      </c>
-      <c r="D2470" t="inlineStr"/>
-      <c r="E2470" t="inlineStr"/>
-      <c r="F2470" t="inlineStr"/>
-      <c r="G2470" t="inlineStr"/>
-      <c r="H2470" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2471">
-      <c r="A2471" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2471" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C2471" t="inlineStr">
-        <is>
-          <t>Ivey PMI s.aJAN</t>
-        </is>
-      </c>
-      <c r="D2471" t="inlineStr"/>
-      <c r="E2471" t="inlineStr"/>
-      <c r="F2471" t="inlineStr"/>
-      <c r="G2471" t="inlineStr"/>
-      <c r="H2471" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2472">
-      <c r="A2472" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2472" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2472" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeJAN/31</t>
-        </is>
-      </c>
-      <c r="D2472" t="inlineStr"/>
-      <c r="E2472" t="inlineStr"/>
-      <c r="F2472" t="inlineStr"/>
-      <c r="G2472" t="inlineStr"/>
-      <c r="H2472" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2473">
-      <c r="A2473" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B2473" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2473" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2473" t="inlineStr"/>
-      <c r="E2473" t="inlineStr"/>
-      <c r="F2473" t="inlineStr"/>
-      <c r="G2473" t="inlineStr"/>
-      <c r="H2473" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2474">
-      <c r="A2474" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B2474" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2474" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2474" t="inlineStr"/>
-      <c r="E2474" t="inlineStr"/>
-      <c r="F2474" t="inlineStr"/>
-      <c r="G2474" t="inlineStr"/>
-      <c r="H2474" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2475">
-      <c r="A2475" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B2475" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C2475" t="inlineStr">
-        <is>
-          <t>10-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="D2475" t="inlineStr"/>
-      <c r="E2475" t="inlineStr">
-        <is>
-          <t>3.358%</t>
-        </is>
-      </c>
-      <c r="F2475" t="inlineStr"/>
-      <c r="G2475" t="inlineStr"/>
-      <c r="H2475" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2476">
-      <c r="A2476" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B2476" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2476" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateFEB/06</t>
-        </is>
-      </c>
-      <c r="D2476" t="inlineStr"/>
-      <c r="E2476" t="inlineStr"/>
-      <c r="F2476" t="inlineStr"/>
-      <c r="G2476" t="inlineStr"/>
-      <c r="H2476" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2477">
-      <c r="A2477" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B2477" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2477" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateFEB/06</t>
-        </is>
-      </c>
-      <c r="D2477" t="inlineStr"/>
-      <c r="E2477" t="inlineStr"/>
-      <c r="F2477" t="inlineStr"/>
-      <c r="G2477" t="inlineStr"/>
-      <c r="H2477" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2478">
-      <c r="A2478" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B2478" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C2478" t="inlineStr">
-        <is>
-          <t>Interest Rate Decision</t>
-        </is>
-      </c>
-      <c r="D2478" t="inlineStr"/>
-      <c r="E2478" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
-      </c>
-      <c r="F2478" t="inlineStr"/>
-      <c r="G2478" t="inlineStr">
-        <is>
-          <t>9.75%</t>
-        </is>
-      </c>
-      <c r="H2478" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2479">
-      <c r="A2479" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2479" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2479" t="inlineStr">
-        <is>
-          <t>Fed Daly Speech</t>
-        </is>
-      </c>
-      <c r="D2479" t="inlineStr"/>
-      <c r="E2479" t="inlineStr"/>
-      <c r="F2479" t="inlineStr"/>
-      <c r="G2479" t="inlineStr"/>
-      <c r="H2479" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2480">
-      <c r="A2480" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B2480" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2480" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetFEB/05</t>
-        </is>
-      </c>
-      <c r="D2480" t="inlineStr"/>
-      <c r="E2480" t="inlineStr"/>
-      <c r="F2480" t="inlineStr"/>
-      <c r="G2480" t="inlineStr"/>
-      <c r="H2480" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2481">
-      <c r="A2481" t="inlineStr"/>
-      <c r="B2481" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C2481" t="inlineStr">
-        <is>
-          <t>New Car Registrations YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2481" t="inlineStr"/>
-      <c r="E2481" t="inlineStr">
-        <is>
-          <t>-7.1%</t>
-        </is>
-      </c>
-      <c r="F2481" t="inlineStr"/>
-      <c r="G2481" t="inlineStr"/>
-      <c r="H2481" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2482">
-      <c r="A2482" t="inlineStr"/>
-      <c r="B2482" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2482" t="inlineStr">
-        <is>
-          <t>Vehicle Sales YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2482" t="inlineStr"/>
-      <c r="E2482" t="inlineStr"/>
-      <c r="F2482" t="inlineStr"/>
-      <c r="G2482" t="inlineStr"/>
-      <c r="H2482" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2483">
-      <c r="A2483" t="inlineStr"/>
-      <c r="B2483" t="inlineStr">
-        <is>
-          <t>WL</t>
-        </is>
-      </c>
-      <c r="C2483" t="inlineStr">
-        <is>
-          <t>Global Supply Chain Pressure IndexJAN</t>
-        </is>
-      </c>
-      <c r="D2483" t="inlineStr"/>
-      <c r="E2483" t="inlineStr"/>
-      <c r="F2483" t="inlineStr"/>
-      <c r="G2483" t="inlineStr"/>
-      <c r="H2483" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2484">
-      <c r="A2484" t="inlineStr"/>
-      <c r="B2484" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2484" t="inlineStr">
-        <is>
-          <t>10-Year NTN-F Auction</t>
-        </is>
-      </c>
-      <c r="D2484" t="inlineStr"/>
-      <c r="E2484" t="inlineStr"/>
-      <c r="F2484" t="inlineStr"/>
-      <c r="G2484" t="inlineStr"/>
-      <c r="H2484" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2485">
-      <c r="A2485" t="inlineStr"/>
-      <c r="B2485" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2485" t="inlineStr">
-        <is>
-          <t>2-Year LTN Auction</t>
-        </is>
-      </c>
-      <c r="D2485" t="inlineStr"/>
-      <c r="E2485" t="inlineStr"/>
-      <c r="F2485" t="inlineStr"/>
-      <c r="G2485" t="inlineStr"/>
-      <c r="H2485" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2486">
-      <c r="A2486" t="inlineStr"/>
-      <c r="B2486" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2486" t="inlineStr">
-        <is>
-          <t>6-Month LTN Auction</t>
-        </is>
-      </c>
-      <c r="D2486" t="inlineStr"/>
-      <c r="E2486" t="inlineStr">
-        <is>
-          <t>14.5579%</t>
-        </is>
-      </c>
-      <c r="F2486" t="inlineStr"/>
-      <c r="G2486" t="inlineStr"/>
-      <c r="H2486" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-06.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2464"/>
+  <dimension ref="A1:H2468"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72420,547 +72420,569 @@
     <row r="2252">
       <c r="A2252" t="inlineStr">
         <is>
-          <t>Sunday February 02 2025</t>
-        </is>
-      </c>
-      <c r="B2252" t="inlineStr"/>
-      <c r="C2252" t="inlineStr"/>
+          <t>12:30 AM</t>
+        </is>
+      </c>
+      <c r="B2252" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="C2252" t="inlineStr">
+        <is>
+          <t>Commodity Prices YoYJAN</t>
+        </is>
+      </c>
       <c r="D2252" t="inlineStr"/>
-      <c r="E2252" t="inlineStr"/>
+      <c r="E2252" t="inlineStr">
+        <is>
+          <t>-10.7%</t>
+        </is>
+      </c>
       <c r="F2252" t="inlineStr"/>
       <c r="G2252" t="inlineStr"/>
-      <c r="H2252" t="inlineStr"/>
+      <c r="H2252" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2253">
       <c r="A2253" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B2253" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2253" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2253" t="inlineStr"/>
       <c r="E2253" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="F2253" t="inlineStr"/>
       <c r="G2253" t="inlineStr"/>
-      <c r="H2253" t="n">
-        <v>2</v>
+      <c r="H2253" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2254">
       <c r="A2254" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2254" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2254" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2254" t="inlineStr"/>
       <c r="E2254" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>1.03%</t>
         </is>
       </c>
       <c r="F2254" t="inlineStr"/>
-      <c r="G2254" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="H2254" t="n">
-        <v>3</v>
+      <c r="G2254" t="inlineStr"/>
+      <c r="H2254" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2255">
       <c r="A2255" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2255" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2255" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2255" t="inlineStr"/>
       <c r="E2255" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>44.38%</t>
         </is>
       </c>
       <c r="F2255" t="inlineStr"/>
-      <c r="G2255" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="H2255" t="n">
-        <v>3</v>
+      <c r="G2255" t="inlineStr"/>
+      <c r="H2255" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2256">
       <c r="A2256" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2256" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2256" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2256" t="inlineStr"/>
       <c r="E2256" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="F2256" t="inlineStr"/>
-      <c r="G2256" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H2256" t="n">
-        <v>3</v>
+      <c r="G2256" t="inlineStr"/>
+      <c r="H2256" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2257">
       <c r="A2257" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2257" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2257" t="inlineStr">
         <is>
-          <t>BoJ Summary of Opinions</t>
+          <t>PPI MoMJAN</t>
         </is>
       </c>
       <c r="D2257" t="inlineStr"/>
-      <c r="E2257" t="inlineStr"/>
+      <c r="E2257" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F2257" t="inlineStr"/>
       <c r="G2257" t="inlineStr"/>
-      <c r="H2257" t="n">
-        <v>2</v>
+      <c r="H2257" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2258">
       <c r="A2258" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2258" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2258" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D2258" t="inlineStr"/>
       <c r="E2258" t="inlineStr">
         <is>
-          <t>-3.6%</t>
+          <t>28.52%</t>
         </is>
       </c>
       <c r="F2258" t="inlineStr"/>
-      <c r="G2258" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="H2258" t="n">
-        <v>2</v>
+      <c r="G2258" t="inlineStr"/>
+      <c r="H2258" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2259">
       <c r="A2259" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B2259" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2259" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D2259" t="inlineStr"/>
       <c r="E2259" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>-25.3K</t>
         </is>
       </c>
       <c r="F2259" t="inlineStr"/>
-      <c r="G2259" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H2259" t="n">
-        <v>2</v>
+      <c r="G2259" t="inlineStr"/>
+      <c r="H2259" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2260">
       <c r="A2260" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B2260" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2260" t="inlineStr">
         <is>
-          <t>ANZ-Indeed Job Ads MoMJAN</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2260" t="inlineStr"/>
-      <c r="E2260" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="E2260" t="inlineStr"/>
       <c r="F2260" t="inlineStr"/>
       <c r="G2260" t="inlineStr"/>
-      <c r="H2260" t="n">
-        <v>3</v>
+      <c r="H2260" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2261">
       <c r="A2261" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:15 AM</t>
         </is>
       </c>
       <c r="B2261" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2261" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM PrelDEC</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2261" t="inlineStr"/>
       <c r="E2261" t="inlineStr">
         <is>
-          <t>-1.7%</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="F2261" t="inlineStr"/>
       <c r="G2261" t="inlineStr"/>
-      <c r="H2261" t="n">
-        <v>3</v>
+      <c r="H2261" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2262">
       <c r="A2262" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:45 AM</t>
         </is>
       </c>
       <c r="B2262" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2262" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2262" t="inlineStr"/>
       <c r="E2262" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F2262" t="inlineStr"/>
-      <c r="G2262" t="inlineStr">
-        <is>
-          <t>51.6</t>
-        </is>
-      </c>
-      <c r="H2262" t="n">
-        <v>3</v>
+      <c r="G2262" t="inlineStr"/>
+      <c r="H2262" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2263">
       <c r="A2263" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:50 AM</t>
         </is>
       </c>
       <c r="B2263" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2263" t="inlineStr">
         <is>
-          <t>Jibun Bank Manufacturing PMI FinalJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2263" t="inlineStr"/>
       <c r="E2263" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>41.9</t>
         </is>
       </c>
       <c r="F2263" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="G2263" t="inlineStr">
         <is>
-          <t>48.8</t>
-        </is>
-      </c>
-      <c r="H2263" t="n">
-        <v>2</v>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="H2263" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2264">
       <c r="A2264" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:55 AM</t>
         </is>
       </c>
       <c r="B2264" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2264" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2264" t="inlineStr"/>
       <c r="E2264" t="inlineStr">
         <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="F2264" t="inlineStr"/>
+          <t>42.5</t>
+        </is>
+      </c>
+      <c r="F2264" t="inlineStr">
+        <is>
+          <t>44.1</t>
+        </is>
+      </c>
       <c r="G2264" t="inlineStr">
         <is>
-          <t>49.5</t>
-        </is>
-      </c>
-      <c r="H2264" t="n">
-        <v>2</v>
+          <t>44.1</t>
+        </is>
+      </c>
+      <c r="H2264" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2265">
       <c r="A2265" t="inlineStr">
         <is>
-          <t>08:45 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2265" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2265" t="inlineStr">
         <is>
-          <t>Caixin Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2265" t="inlineStr"/>
       <c r="E2265" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="F2265" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="G2265" t="inlineStr">
         <is>
-          <t>50.5</t>
-        </is>
-      </c>
-      <c r="H2265" t="n">
-        <v>1</v>
+          <t>46.1</t>
+        </is>
+      </c>
+      <c r="H2265" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2266">
       <c r="A2266" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2266" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2266" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>ABSA Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2266" t="inlineStr"/>
       <c r="E2266" t="inlineStr">
         <is>
-          <t>1.57%</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F2266" t="inlineStr"/>
       <c r="G2266" t="inlineStr">
         <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="H2266" t="n">
-        <v>2</v>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="H2266" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2267">
       <c r="A2267" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2267" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2267" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2267" t="inlineStr"/>
       <c r="E2267" t="inlineStr">
         <is>
-          <t>2.26%</t>
-        </is>
-      </c>
-      <c r="F2267" t="inlineStr"/>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F2267" t="inlineStr">
+        <is>
+          <t>48.2</t>
+        </is>
+      </c>
       <c r="G2267" t="inlineStr">
         <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="H2267" t="n">
-        <v>3</v>
+          <t>48.2</t>
+        </is>
+      </c>
+      <c r="H2267" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2268">
       <c r="A2268" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2268" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2268" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2268" t="inlineStr"/>
-      <c r="E2268" t="inlineStr">
-        <is>
-          <t>0.44%</t>
-        </is>
-      </c>
+      <c r="E2268" t="inlineStr"/>
       <c r="F2268" t="inlineStr"/>
-      <c r="G2268" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2268" t="n">
-        <v>3</v>
+      <c r="G2268" t="inlineStr"/>
+      <c r="H2268" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2269">
       <c r="A2269" t="inlineStr">
         <is>
-          <t>11:45 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2269" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2269" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>Core Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2269" t="inlineStr"/>
       <c r="E2269" t="inlineStr">
         <is>
-          <t>17.27%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="F2269" t="inlineStr"/>
-      <c r="G2269" t="inlineStr">
-        <is>
-          <t>18.0%</t>
-        </is>
-      </c>
-      <c r="H2269" t="n">
-        <v>3</v>
+      <c r="G2269" t="inlineStr"/>
+      <c r="H2269" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2270">
@@ -72976,20 +72998,16 @@
       </c>
       <c r="C2270" t="inlineStr">
         <is>
-          <t>CPI FlashJAN</t>
+          <t>Inflation Rate MoM FlashJAN</t>
         </is>
       </c>
       <c r="D2270" t="inlineStr"/>
-      <c r="E2270" t="inlineStr">
-        <is>
-          <t>127.07</t>
-        </is>
-      </c>
+      <c r="E2270" t="inlineStr"/>
       <c r="F2270" t="inlineStr"/>
       <c r="G2270" t="inlineStr"/>
       <c r="H2270" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -73001,25 +73019,25 @@
       </c>
       <c r="B2271" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2271" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>CPI FlashJAN</t>
         </is>
       </c>
       <c r="D2271" t="inlineStr"/>
       <c r="E2271" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>127.07</t>
         </is>
       </c>
       <c r="F2271" t="inlineStr"/>
       <c r="G2271" t="inlineStr"/>
       <c r="H2271" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -73036,20 +73054,20 @@
       </c>
       <c r="C2272" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2272" t="inlineStr"/>
       <c r="E2272" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F2272" t="inlineStr"/>
       <c r="G2272" t="inlineStr"/>
       <c r="H2272" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -73066,7 +73084,7 @@
       </c>
       <c r="C2273" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2273" t="inlineStr"/>
@@ -73079,7 +73097,7 @@
       <c r="G2273" t="inlineStr"/>
       <c r="H2273" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -73096,13 +73114,13 @@
       </c>
       <c r="C2274" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2274" t="inlineStr"/>
       <c r="E2274" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2274" t="inlineStr"/>
@@ -73121,26 +73139,22 @@
       </c>
       <c r="B2275" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2275" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2275" t="inlineStr"/>
       <c r="E2275" t="inlineStr">
         <is>
-          <t>$232.2B</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F2275" t="inlineStr"/>
-      <c r="G2275" t="inlineStr">
-        <is>
-          <t>$ 230B</t>
-        </is>
-      </c>
+      <c r="G2275" t="inlineStr"/>
       <c r="H2275" t="inlineStr">
         <is>
           <t>3</t>
@@ -73150,29 +73164,29 @@
     <row r="2276">
       <c r="A2276" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2276" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2276" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D2276" t="inlineStr"/>
       <c r="E2276" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>$232.2B</t>
         </is>
       </c>
       <c r="F2276" t="inlineStr"/>
       <c r="G2276" t="inlineStr">
         <is>
-          <t>49.8</t>
+          <t>$ 230B</t>
         </is>
       </c>
       <c r="H2276" t="inlineStr">
@@ -73189,24 +73203,24 @@
       </c>
       <c r="B2277" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2277" t="inlineStr">
         <is>
-          <t>SIPMM Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2277" t="inlineStr"/>
       <c r="E2277" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F2277" t="inlineStr"/>
       <c r="G2277" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>49.8</t>
         </is>
       </c>
       <c r="H2277" t="inlineStr">
@@ -73218,23 +73232,31 @@
     <row r="2278">
       <c r="A2278" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2278" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2278" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>SIPMM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2278" t="inlineStr"/>
-      <c r="E2278" t="inlineStr"/>
+      <c r="E2278" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
       <c r="F2278" t="inlineStr"/>
-      <c r="G2278" t="inlineStr"/>
+      <c r="G2278" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="H2278" t="inlineStr">
         <is>
           <t>3</t>
@@ -73254,7 +73276,7 @@
       </c>
       <c r="C2279" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2279" t="inlineStr"/>
@@ -73280,7 +73302,7 @@
       </c>
       <c r="C2280" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2280" t="inlineStr"/>
@@ -73296,65 +73318,53 @@
     <row r="2281">
       <c r="A2281" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2281" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2281" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2281" t="inlineStr"/>
-      <c r="E2281" t="inlineStr">
-        <is>
-          <t>52.2</t>
-        </is>
-      </c>
+      <c r="E2281" t="inlineStr"/>
       <c r="F2281" t="inlineStr"/>
       <c r="G2281" t="inlineStr"/>
       <c r="H2281" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2282">
       <c r="A2282" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2282" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2282" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2282" t="inlineStr"/>
       <c r="E2282" t="inlineStr">
         <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="F2282" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
-      <c r="G2282" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
+          <t>52.2</t>
+        </is>
+      </c>
+      <c r="F2282" t="inlineStr"/>
+      <c r="G2282" t="inlineStr"/>
       <c r="H2282" t="inlineStr">
         <is>
           <t>2</t>
@@ -73364,7 +73374,7 @@
     <row r="2283">
       <c r="A2283" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B2283" t="inlineStr">
@@ -73374,20 +73384,28 @@
       </c>
       <c r="C2283" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2283" t="inlineStr"/>
       <c r="E2283" t="inlineStr">
         <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F2283" t="inlineStr"/>
-      <c r="G2283" t="inlineStr"/>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="F2283" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
+      <c r="G2283" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
       <c r="H2283" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -73404,20 +73422,20 @@
       </c>
       <c r="C2284" t="inlineStr">
         <is>
-          <t>ISM Manufacturing EmploymentJAN</t>
+          <t>ISM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2284" t="inlineStr"/>
       <c r="E2284" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>49.3</t>
         </is>
       </c>
       <c r="F2284" t="inlineStr"/>
       <c r="G2284" t="inlineStr"/>
       <c r="H2284" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -73434,24 +73452,20 @@
       </c>
       <c r="C2285" t="inlineStr">
         <is>
-          <t>Construction Spending MoMDEC</t>
+          <t>ISM Manufacturing EmploymentJAN</t>
         </is>
       </c>
       <c r="D2285" t="inlineStr"/>
       <c r="E2285" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="F2285" t="inlineStr"/>
-      <c r="G2285" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2285" t="inlineStr"/>
       <c r="H2285" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -73468,13 +73482,21 @@
       </c>
       <c r="C2286" t="inlineStr">
         <is>
-          <t>ISM Manufacturing New OrdersJAN</t>
+          <t>Construction Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2286" t="inlineStr"/>
-      <c r="E2286" t="inlineStr"/>
+      <c r="E2286" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="F2286" t="inlineStr"/>
-      <c r="G2286" t="inlineStr"/>
+      <c r="G2286" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2286" t="inlineStr">
         <is>
           <t>3</t>
@@ -73494,7 +73516,7 @@
       </c>
       <c r="C2287" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PricesJAN</t>
+          <t>ISM Manufacturing New OrdersJAN</t>
         </is>
       </c>
       <c r="D2287" t="inlineStr"/>
@@ -73510,7 +73532,7 @@
     <row r="2288">
       <c r="A2288" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2288" t="inlineStr">
@@ -73520,7 +73542,7 @@
       </c>
       <c r="C2288" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>ISM Manufacturing PricesJAN</t>
         </is>
       </c>
       <c r="D2288" t="inlineStr"/>
@@ -73546,7 +73568,7 @@
       </c>
       <c r="C2289" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2289" t="inlineStr"/>
@@ -73562,7 +73584,7 @@
     <row r="2290">
       <c r="A2290" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2290" t="inlineStr">
@@ -73572,7 +73594,7 @@
       </c>
       <c r="C2290" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2290" t="inlineStr"/>
@@ -73581,14 +73603,14 @@
       <c r="G2290" t="inlineStr"/>
       <c r="H2290" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2291">
       <c r="A2291" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2291" t="inlineStr">
@@ -73598,7 +73620,7 @@
       </c>
       <c r="C2291" t="inlineStr">
         <is>
-          <t>Treasury Refunding Financing Estimates</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2291" t="inlineStr"/>
@@ -73607,32 +73629,28 @@
       <c r="G2291" t="inlineStr"/>
       <c r="H2291" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2292">
       <c r="A2292" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2292" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2292" t="inlineStr">
         <is>
-          <t>Tax RevenueJAN</t>
+          <t>Treasury Refunding Financing Estimates</t>
         </is>
       </c>
       <c r="D2292" t="inlineStr"/>
-      <c r="E2292" t="inlineStr">
-        <is>
-          <t>ARS13015B</t>
-        </is>
-      </c>
+      <c r="E2292" t="inlineStr"/>
       <c r="F2292" t="inlineStr"/>
       <c r="G2292" t="inlineStr"/>
       <c r="H2292" t="inlineStr">
@@ -73644,23 +73662,23 @@
     <row r="2293">
       <c r="A2293" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2293" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2293" t="inlineStr">
         <is>
-          <t>10-Year JGB Auction</t>
+          <t>Tax RevenueJAN</t>
         </is>
       </c>
       <c r="D2293" t="inlineStr"/>
       <c r="E2293" t="inlineStr">
         <is>
-          <t>1.140%</t>
+          <t>ARS13015B</t>
         </is>
       </c>
       <c r="F2293" t="inlineStr"/>
@@ -73674,31 +73692,27 @@
     <row r="2294">
       <c r="A2294" t="inlineStr">
         <is>
-          <t>11:15 PM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B2294" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2294" t="inlineStr">
         <is>
-          <t>Riyad Bank PMIJAN</t>
+          <t>10-Year JGB Auction</t>
         </is>
       </c>
       <c r="D2294" t="inlineStr"/>
       <c r="E2294" t="inlineStr">
         <is>
-          <t>58.4</t>
+          <t>1.140%</t>
         </is>
       </c>
       <c r="F2294" t="inlineStr"/>
-      <c r="G2294" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
+      <c r="G2294" t="inlineStr"/>
       <c r="H2294" t="inlineStr">
         <is>
           <t>3</t>
@@ -73706,78 +73720,82 @@
       </c>
     </row>
     <row r="2295">
-      <c r="A2295" t="inlineStr"/>
+      <c r="A2295" t="inlineStr">
+        <is>
+          <t>11:15 PM</t>
+        </is>
+      </c>
       <c r="B2295" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C2295" t="inlineStr">
         <is>
-          <t>Total New Vehicle SalesJAN</t>
+          <t>Riyad Bank PMIJAN</t>
         </is>
       </c>
       <c r="D2295" t="inlineStr"/>
       <c r="E2295" t="inlineStr">
         <is>
-          <t>41.27K</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="F2295" t="inlineStr"/>
       <c r="G2295" t="inlineStr">
         <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="H2295" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2296">
+      <c r="A2296" t="inlineStr"/>
+      <c r="B2296" t="inlineStr">
+        <is>
+          <t>ZA</t>
+        </is>
+      </c>
+      <c r="C2296" t="inlineStr">
+        <is>
+          <t>Total New Vehicle SalesJAN</t>
+        </is>
+      </c>
+      <c r="D2296" t="inlineStr"/>
+      <c r="E2296" t="inlineStr">
+        <is>
+          <t>41.27K</t>
+        </is>
+      </c>
+      <c r="F2296" t="inlineStr"/>
+      <c r="G2296" t="inlineStr">
+        <is>
           <t>43.0K</t>
         </is>
       </c>
-      <c r="H2295" t="inlineStr">
+      <c r="H2296" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-    </row>
-    <row r="2296">
-      <c r="A2296" t="inlineStr">
-        <is>
-          <t>Tuesday February 04 2025</t>
-        </is>
-      </c>
-      <c r="B2296" t="inlineStr"/>
-      <c r="C2296" t="inlineStr"/>
-      <c r="D2296" t="inlineStr"/>
-      <c r="E2296" t="inlineStr"/>
-      <c r="F2296" t="inlineStr"/>
-      <c r="G2296" t="inlineStr"/>
-      <c r="H2296" t="inlineStr"/>
     </row>
     <row r="2297">
       <c r="A2297" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B2297" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C2297" t="inlineStr">
-        <is>
-          <t>MAS 12-Week Bill Auction</t>
-        </is>
-      </c>
+          <t>Tuesday February 04 2025</t>
+        </is>
+      </c>
+      <c r="B2297" t="inlineStr"/>
+      <c r="C2297" t="inlineStr"/>
       <c r="D2297" t="inlineStr"/>
-      <c r="E2297" t="inlineStr">
-        <is>
-          <t>3.08%</t>
-        </is>
-      </c>
+      <c r="E2297" t="inlineStr"/>
       <c r="F2297" t="inlineStr"/>
       <c r="G2297" t="inlineStr"/>
-      <c r="H2297" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2297" t="inlineStr"/>
     </row>
     <row r="2298">
       <c r="A2298" t="inlineStr">
@@ -73792,13 +73810,13 @@
       </c>
       <c r="C2298" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2298" t="inlineStr"/>
       <c r="E2298" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>3.08%</t>
         </is>
       </c>
       <c r="F2298" t="inlineStr"/>
@@ -73817,18 +73835,18 @@
       </c>
       <c r="B2299" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2299" t="inlineStr">
         <is>
-          <t>30-Year KTB Auction</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2299" t="inlineStr"/>
       <c r="E2299" t="inlineStr">
         <is>
-          <t>2.705%</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F2299" t="inlineStr"/>
@@ -73842,23 +73860,23 @@
     <row r="2300">
       <c r="A2300" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2300" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2300" t="inlineStr">
         <is>
-          <t>Budget BalanceDEC</t>
+          <t>30-Year KTB Auction</t>
         </is>
       </c>
       <c r="D2300" t="inlineStr"/>
       <c r="E2300" t="inlineStr">
         <is>
-          <t>€-172.5B</t>
+          <t>2.705%</t>
         </is>
       </c>
       <c r="F2300" t="inlineStr"/>
@@ -73872,23 +73890,23 @@
     <row r="2301">
       <c r="A2301" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B2301" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2301" t="inlineStr">
         <is>
-          <t>IPC-Fipe Inflation MoMJAN</t>
+          <t>Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D2301" t="inlineStr"/>
       <c r="E2301" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>€-172.5B</t>
         </is>
       </c>
       <c r="F2301" t="inlineStr"/>
@@ -73902,21 +73920,25 @@
     <row r="2302">
       <c r="A2302" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B2302" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2302" t="inlineStr">
         <is>
-          <t>5-Year Treasury Gilt Auction</t>
+          <t>IPC-Fipe Inflation MoMJAN</t>
         </is>
       </c>
       <c r="D2302" t="inlineStr"/>
-      <c r="E2302" t="inlineStr"/>
+      <c r="E2302" t="inlineStr">
+        <is>
+          <t>0.34%</t>
+        </is>
+      </c>
       <c r="F2302" t="inlineStr"/>
       <c r="G2302" t="inlineStr"/>
       <c r="H2302" t="inlineStr">
@@ -73928,17 +73950,17 @@
     <row r="2303">
       <c r="A2303" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2303" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2303" t="inlineStr">
         <is>
-          <t>BCB Copom Meeting Minutes</t>
+          <t>5-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D2303" t="inlineStr"/>
@@ -73947,14 +73969,14 @@
       <c r="G2303" t="inlineStr"/>
       <c r="H2303" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2304">
       <c r="A2304" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2304" t="inlineStr">
@@ -73964,24 +73986,16 @@
       </c>
       <c r="C2304" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>BCB Copom Meeting Minutes</t>
         </is>
       </c>
       <c r="D2304" t="inlineStr"/>
-      <c r="E2304" t="inlineStr">
-        <is>
-          <t>1.23%</t>
-        </is>
-      </c>
+      <c r="E2304" t="inlineStr"/>
       <c r="F2304" t="inlineStr"/>
-      <c r="G2304" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2304" t="inlineStr"/>
       <c r="H2304" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -73998,19 +74012,19 @@
       </c>
       <c r="C2305" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2305" t="inlineStr"/>
       <c r="E2305" t="inlineStr">
         <is>
-          <t>7.59%</t>
+          <t>1.23%</t>
         </is>
       </c>
       <c r="F2305" t="inlineStr"/>
       <c r="G2305" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2305" t="inlineStr">
@@ -74027,76 +74041,80 @@
       </c>
       <c r="B2306" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2306" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2306" t="inlineStr"/>
       <c r="E2306" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>7.59%</t>
         </is>
       </c>
       <c r="F2306" t="inlineStr"/>
-      <c r="G2306" t="inlineStr"/>
+      <c r="G2306" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="H2306" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2307">
       <c r="A2307" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2307" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2307" t="inlineStr">
         <is>
-          <t>Redbook YoYFEB/01</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2307" t="inlineStr"/>
-      <c r="E2307" t="inlineStr"/>
+      <c r="E2307" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
       <c r="F2307" t="inlineStr"/>
       <c r="G2307" t="inlineStr"/>
       <c r="H2307" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2308">
       <c r="A2308" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B2308" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2308" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Redbook YoYFEB/01</t>
         </is>
       </c>
       <c r="D2308" t="inlineStr"/>
-      <c r="E2308" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
+      <c r="E2308" t="inlineStr"/>
       <c r="F2308" t="inlineStr"/>
       <c r="G2308" t="inlineStr"/>
       <c r="H2308" t="inlineStr">
@@ -74113,25 +74131,25 @@
       </c>
       <c r="B2309" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2309" t="inlineStr">
         <is>
-          <t>JOLTs Job OpeningsDEC</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2309" t="inlineStr"/>
-      <c r="E2309" t="inlineStr"/>
+      <c r="E2309" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="F2309" t="inlineStr"/>
-      <c r="G2309" t="inlineStr">
-        <is>
-          <t>7.6M</t>
-        </is>
-      </c>
+      <c r="G2309" t="inlineStr"/>
       <c r="H2309" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -74148,24 +74166,20 @@
       </c>
       <c r="C2310" t="inlineStr">
         <is>
-          <t>Factory Orders MoMDEC</t>
+          <t>JOLTs Job OpeningsDEC</t>
         </is>
       </c>
       <c r="D2310" t="inlineStr"/>
-      <c r="E2310" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
+      <c r="E2310" t="inlineStr"/>
       <c r="F2310" t="inlineStr"/>
       <c r="G2310" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>7.6M</t>
         </is>
       </c>
       <c r="H2310" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -74182,24 +74196,24 @@
       </c>
       <c r="C2311" t="inlineStr">
         <is>
-          <t>Factory Orders ex TransportationDEC</t>
+          <t>Factory Orders MoMDEC</t>
         </is>
       </c>
       <c r="D2311" t="inlineStr"/>
       <c r="E2311" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="F2311" t="inlineStr"/>
       <c r="G2311" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H2311" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -74216,13 +74230,21 @@
       </c>
       <c r="C2312" t="inlineStr">
         <is>
-          <t>JOLTs Job QuitsDEC</t>
+          <t>Factory Orders ex TransportationDEC</t>
         </is>
       </c>
       <c r="D2312" t="inlineStr"/>
-      <c r="E2312" t="inlineStr"/>
+      <c r="E2312" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F2312" t="inlineStr"/>
-      <c r="G2312" t="inlineStr"/>
+      <c r="G2312" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H2312" t="inlineStr">
         <is>
           <t>3</t>
@@ -74232,7 +74254,7 @@
     <row r="2313">
       <c r="A2313" t="inlineStr">
         <is>
-          <t>10:10 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2313" t="inlineStr">
@@ -74242,15 +74264,11 @@
       </c>
       <c r="C2313" t="inlineStr">
         <is>
-          <t>RCM/TIPP Economic Optimism IndexFEB</t>
+          <t>JOLTs Job QuitsDEC</t>
         </is>
       </c>
       <c r="D2313" t="inlineStr"/>
-      <c r="E2313" t="inlineStr">
-        <is>
-          <t>51.9</t>
-        </is>
-      </c>
+      <c r="E2313" t="inlineStr"/>
       <c r="F2313" t="inlineStr"/>
       <c r="G2313" t="inlineStr"/>
       <c r="H2313" t="inlineStr">
@@ -74262,7 +74280,7 @@
     <row r="2314">
       <c r="A2314" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>10:10 AM</t>
         </is>
       </c>
       <c r="B2314" t="inlineStr">
@@ -74272,23 +74290,27 @@
       </c>
       <c r="C2314" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>RCM/TIPP Economic Optimism IndexFEB</t>
         </is>
       </c>
       <c r="D2314" t="inlineStr"/>
-      <c r="E2314" t="inlineStr"/>
+      <c r="E2314" t="inlineStr">
+        <is>
+          <t>51.9</t>
+        </is>
+      </c>
       <c r="F2314" t="inlineStr"/>
       <c r="G2314" t="inlineStr"/>
       <c r="H2314" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2315">
       <c r="A2315" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2315" t="inlineStr">
@@ -74298,7 +74320,7 @@
       </c>
       <c r="C2315" t="inlineStr">
         <is>
-          <t>Fed Daly Speech</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2315" t="inlineStr"/>
@@ -74314,17 +74336,17 @@
     <row r="2316">
       <c r="A2316" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B2316" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2316" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Fed Daly Speech</t>
         </is>
       </c>
       <c r="D2316" t="inlineStr"/>
@@ -74333,24 +74355,24 @@
       <c r="G2316" t="inlineStr"/>
       <c r="H2316" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2317">
       <c r="A2317" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B2317" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2317" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/31</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2317" t="inlineStr"/>
@@ -74359,24 +74381,24 @@
       <c r="G2317" t="inlineStr"/>
       <c r="H2317" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2318">
       <c r="A2318" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B2318" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2318" t="inlineStr">
         <is>
-          <t>Judo Bank Services PMI FinalJAN</t>
+          <t>API Crude Oil Stock ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2318" t="inlineStr"/>
@@ -74402,7 +74424,7 @@
       </c>
       <c r="C2319" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Composite PMI FinalJAN</t>
+          <t>Judo Bank Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2319" t="inlineStr"/>
@@ -74411,37 +74433,33 @@
       <c r="G2319" t="inlineStr"/>
       <c r="H2319" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2320">
       <c r="A2320" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2320" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2320" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>S&amp;P Global Australia Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2320" t="inlineStr"/>
-      <c r="E2320" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="E2320" t="inlineStr"/>
       <c r="F2320" t="inlineStr"/>
       <c r="G2320" t="inlineStr"/>
       <c r="H2320" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -74458,47 +74476,47 @@
       </c>
       <c r="C2321" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2321" t="inlineStr"/>
       <c r="E2321" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F2321" t="inlineStr"/>
       <c r="G2321" t="inlineStr"/>
       <c r="H2321" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2322">
       <c r="A2322" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2322" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2322" t="inlineStr">
         <is>
-          <t>Average Cash Earnings YoYDEC</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2322" t="inlineStr"/>
-      <c r="E2322" t="inlineStr"/>
+      <c r="E2322" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F2322" t="inlineStr"/>
-      <c r="G2322" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
+      <c r="G2322" t="inlineStr"/>
       <c r="H2322" t="inlineStr">
         <is>
           <t>3</t>
@@ -74508,27 +74526,27 @@
     <row r="2323">
       <c r="A2323" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2323" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2323" t="inlineStr">
         <is>
-          <t>TD-MI Inflation Gauge MoMJAN</t>
+          <t>Average Cash Earnings YoYDEC</t>
         </is>
       </c>
       <c r="D2323" t="inlineStr"/>
-      <c r="E2323" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="E2323" t="inlineStr"/>
       <c r="F2323" t="inlineStr"/>
-      <c r="G2323" t="inlineStr"/>
+      <c r="G2323" t="inlineStr">
+        <is>
+          <t>2.1%</t>
+        </is>
+      </c>
       <c r="H2323" t="inlineStr">
         <is>
           <t>3</t>
@@ -74543,33 +74561,25 @@
       </c>
       <c r="B2324" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2324" t="inlineStr">
         <is>
-          <t>Jibun Bank Services PMI FinalJAN</t>
+          <t>TD-MI Inflation Gauge MoMJAN</t>
         </is>
       </c>
       <c r="D2324" t="inlineStr"/>
       <c r="E2324" t="inlineStr">
         <is>
-          <t>50.9</t>
-        </is>
-      </c>
-      <c r="F2324" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="G2324" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
+          <t>0.6%</t>
+        </is>
+      </c>
+      <c r="F2324" t="inlineStr"/>
+      <c r="G2324" t="inlineStr"/>
       <c r="H2324" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -74586,24 +74596,28 @@
       </c>
       <c r="C2325" t="inlineStr">
         <is>
-          <t>Jibun Bank Composite PMI FinalJAN</t>
+          <t>Jibun Bank Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2325" t="inlineStr"/>
       <c r="E2325" t="inlineStr">
         <is>
-          <t>50.5</t>
-        </is>
-      </c>
-      <c r="F2325" t="inlineStr"/>
+          <t>50.9</t>
+        </is>
+      </c>
+      <c r="F2325" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
       <c r="G2325" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>52.7</t>
         </is>
       </c>
       <c r="H2325" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -74615,22 +74629,26 @@
       </c>
       <c r="B2326" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2326" t="inlineStr">
         <is>
-          <t>S&amp;P Global PMIJAN</t>
+          <t>Jibun Bank Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2326" t="inlineStr"/>
       <c r="E2326" t="inlineStr">
         <is>
-          <t>51.5</t>
+          <t>50.5</t>
         </is>
       </c>
       <c r="F2326" t="inlineStr"/>
-      <c r="G2326" t="inlineStr"/>
+      <c r="G2326" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
       <c r="H2326" t="inlineStr">
         <is>
           <t>3</t>
@@ -74640,34 +74658,30 @@
     <row r="2327">
       <c r="A2327" t="inlineStr">
         <is>
-          <t>08:45 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2327" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2327" t="inlineStr">
         <is>
-          <t>Caixin Services PMIJAN</t>
+          <t>S&amp;P Global PMIJAN</t>
         </is>
       </c>
       <c r="D2327" t="inlineStr"/>
       <c r="E2327" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>51.5</t>
         </is>
       </c>
       <c r="F2327" t="inlineStr"/>
-      <c r="G2327" t="inlineStr">
-        <is>
-          <t>51.8</t>
-        </is>
-      </c>
+      <c r="G2327" t="inlineStr"/>
       <c r="H2327" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -74684,54 +74698,58 @@
       </c>
       <c r="C2328" t="inlineStr">
         <is>
-          <t>Caixin Composite PMIJAN</t>
+          <t>Caixin Services PMIJAN</t>
         </is>
       </c>
       <c r="D2328" t="inlineStr"/>
       <c r="E2328" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="F2328" t="inlineStr"/>
       <c r="G2328" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>51.8</t>
         </is>
       </c>
       <c r="H2328" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2329">
       <c r="A2329" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>08:45 PM</t>
         </is>
       </c>
       <c r="B2329" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2329" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoYQ4</t>
+          <t>Caixin Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2329" t="inlineStr"/>
-      <c r="E2329" t="inlineStr"/>
+      <c r="E2329" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="F2329" t="inlineStr"/>
       <c r="G2329" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="H2329" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -74748,7 +74766,7 @@
       </c>
       <c r="C2330" t="inlineStr">
         <is>
-          <t>Full Year GDP Growth2025</t>
+          <t>GDP Growth Rate YoYQ4</t>
         </is>
       </c>
       <c r="D2330" t="inlineStr"/>
@@ -74761,7 +74779,7 @@
       </c>
       <c r="H2330" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -74778,7 +74796,7 @@
       </c>
       <c r="C2331" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQQ4</t>
+          <t>Full Year GDP Growth2025</t>
         </is>
       </c>
       <c r="D2331" t="inlineStr"/>
@@ -74786,7 +74804,7 @@
       <c r="F2331" t="inlineStr"/>
       <c r="G2331" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="H2331" t="inlineStr">
@@ -74796,21 +74814,29 @@
       </c>
     </row>
     <row r="2332">
-      <c r="A2332" t="inlineStr"/>
+      <c r="A2332" t="inlineStr">
+        <is>
+          <t>11:00 PM</t>
+        </is>
+      </c>
       <c r="B2332" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2332" t="inlineStr">
         <is>
-          <t>Balance of Trade PrelJAN</t>
+          <t>GDP Growth Rate QoQQ4</t>
         </is>
       </c>
       <c r="D2332" t="inlineStr"/>
       <c r="E2332" t="inlineStr"/>
       <c r="F2332" t="inlineStr"/>
-      <c r="G2332" t="inlineStr"/>
+      <c r="G2332" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2332" t="inlineStr">
         <is>
           <t>3</t>
@@ -74826,7 +74852,7 @@
       </c>
       <c r="C2333" t="inlineStr">
         <is>
-          <t>Exports PrelJAN</t>
+          <t>Balance of Trade PrelJAN</t>
         </is>
       </c>
       <c r="D2333" t="inlineStr"/>
@@ -74848,7 +74874,7 @@
       </c>
       <c r="C2334" t="inlineStr">
         <is>
-          <t>Imports PrelJAN</t>
+          <t>Exports PrelJAN</t>
         </is>
       </c>
       <c r="D2334" t="inlineStr"/>
@@ -74865,20 +74891,16 @@
       <c r="A2335" t="inlineStr"/>
       <c r="B2335" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2335" t="inlineStr">
         <is>
-          <t>LMI Logistics Managers IndexJAN</t>
+          <t>Imports PrelJAN</t>
         </is>
       </c>
       <c r="D2335" t="inlineStr"/>
-      <c r="E2335" t="inlineStr">
-        <is>
-          <t>57.3</t>
-        </is>
-      </c>
+      <c r="E2335" t="inlineStr"/>
       <c r="F2335" t="inlineStr"/>
       <c r="G2335" t="inlineStr"/>
       <c r="H2335" t="inlineStr">
@@ -74888,56 +74910,44 @@
       </c>
     </row>
     <row r="2336">
-      <c r="A2336" t="inlineStr">
-        <is>
-          <t>Wednesday February 05 2025</t>
-        </is>
-      </c>
-      <c r="B2336" t="inlineStr"/>
-      <c r="C2336" t="inlineStr"/>
+      <c r="A2336" t="inlineStr"/>
+      <c r="B2336" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2336" t="inlineStr">
+        <is>
+          <t>LMI Logistics Managers IndexJAN</t>
+        </is>
+      </c>
       <c r="D2336" t="inlineStr"/>
-      <c r="E2336" t="inlineStr"/>
+      <c r="E2336" t="inlineStr">
+        <is>
+          <t>57.3</t>
+        </is>
+      </c>
       <c r="F2336" t="inlineStr"/>
       <c r="G2336" t="inlineStr"/>
-      <c r="H2336" t="inlineStr"/>
+      <c r="H2336" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2337">
       <c r="A2337" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B2337" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C2337" t="inlineStr">
-        <is>
-          <t>HSBC Composite PMI FinalJAN</t>
-        </is>
-      </c>
+          <t>Wednesday February 05 2025</t>
+        </is>
+      </c>
+      <c r="B2337" t="inlineStr"/>
+      <c r="C2337" t="inlineStr"/>
       <c r="D2337" t="inlineStr"/>
-      <c r="E2337" t="inlineStr">
-        <is>
-          <t>59.2</t>
-        </is>
-      </c>
-      <c r="F2337" t="inlineStr">
-        <is>
-          <t>57.9</t>
-        </is>
-      </c>
-      <c r="G2337" t="inlineStr">
-        <is>
-          <t>57.9</t>
-        </is>
-      </c>
-      <c r="H2337" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="E2337" t="inlineStr"/>
+      <c r="F2337" t="inlineStr"/>
+      <c r="G2337" t="inlineStr"/>
+      <c r="H2337" t="inlineStr"/>
     </row>
     <row r="2338">
       <c r="A2338" t="inlineStr">
@@ -74952,23 +74962,23 @@
       </c>
       <c r="C2338" t="inlineStr">
         <is>
-          <t>HSBC Services PMI FinalJAN</t>
+          <t>HSBC Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2338" t="inlineStr"/>
       <c r="E2338" t="inlineStr">
         <is>
-          <t>59.3</t>
+          <t>59.2</t>
         </is>
       </c>
       <c r="F2338" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>57.9</t>
         </is>
       </c>
       <c r="G2338" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>57.9</t>
         </is>
       </c>
       <c r="H2338" t="inlineStr">
@@ -74985,24 +74995,28 @@
       </c>
       <c r="B2339" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2339" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>HSBC Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2339" t="inlineStr"/>
       <c r="E2339" t="inlineStr">
         <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
-      <c r="F2339" t="inlineStr"/>
+          <t>59.3</t>
+        </is>
+      </c>
+      <c r="F2339" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
       <c r="G2339" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>56.8</t>
         </is>
       </c>
       <c r="H2339" t="inlineStr">
@@ -75024,19 +75038,19 @@
       </c>
       <c r="C2340" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2340" t="inlineStr"/>
       <c r="E2340" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="F2340" t="inlineStr"/>
       <c r="G2340" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H2340" t="inlineStr">
@@ -75048,27 +75062,31 @@
     <row r="2341">
       <c r="A2341" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2341" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2341" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMIJAN</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2341" t="inlineStr"/>
       <c r="E2341" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F2341" t="inlineStr"/>
-      <c r="G2341" t="inlineStr"/>
+      <c r="G2341" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H2341" t="inlineStr">
         <is>
           <t>3</t>
@@ -75088,13 +75106,13 @@
       </c>
       <c r="C2342" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMIJAN</t>
+          <t>S&amp;P Global Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2342" t="inlineStr"/>
       <c r="E2342" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F2342" t="inlineStr"/>
@@ -75108,23 +75126,23 @@
     <row r="2343">
       <c r="A2343" t="inlineStr">
         <is>
-          <t>02:15 AM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B2343" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2343" t="inlineStr">
         <is>
-          <t>S&amp;P Global PMIJAN</t>
+          <t>S&amp;P Global Services PMIJAN</t>
         </is>
       </c>
       <c r="D2343" t="inlineStr"/>
       <c r="E2343" t="inlineStr">
         <is>
-          <t>49.9</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F2343" t="inlineStr"/>
@@ -75138,61 +75156,61 @@
     <row r="2344">
       <c r="A2344" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>02:15 AM</t>
         </is>
       </c>
       <c r="B2344" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2344" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>S&amp;P Global PMIJAN</t>
         </is>
       </c>
       <c r="D2344" t="inlineStr"/>
       <c r="E2344" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>49.9</t>
         </is>
       </c>
       <c r="F2344" t="inlineStr"/>
-      <c r="G2344" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="G2344" t="inlineStr"/>
       <c r="H2344" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2345">
       <c r="A2345" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B2345" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2345" t="inlineStr">
         <is>
-          <t>HCOB Services PMIJAN</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D2345" t="inlineStr"/>
       <c r="E2345" t="inlineStr">
         <is>
-          <t>57.3</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F2345" t="inlineStr"/>
-      <c r="G2345" t="inlineStr"/>
+      <c r="G2345" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="H2345" t="inlineStr">
         <is>
           <t>2</t>
@@ -75212,32 +75230,32 @@
       </c>
       <c r="C2346" t="inlineStr">
         <is>
-          <t>HCOB Composite PMIJAN</t>
+          <t>HCOB Services PMIJAN</t>
         </is>
       </c>
       <c r="D2346" t="inlineStr"/>
       <c r="E2346" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>57.3</t>
         </is>
       </c>
       <c r="F2346" t="inlineStr"/>
       <c r="G2346" t="inlineStr"/>
       <c r="H2346" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2347">
       <c r="A2347" t="inlineStr">
         <is>
-          <t>03:45 AM</t>
+          <t>03:15 AM</t>
         </is>
       </c>
       <c r="B2347" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2347" t="inlineStr">
@@ -75248,14 +75266,14 @@
       <c r="D2347" t="inlineStr"/>
       <c r="E2347" t="inlineStr">
         <is>
-          <t>49.7</t>
+          <t>56.8</t>
         </is>
       </c>
       <c r="F2347" t="inlineStr"/>
       <c r="G2347" t="inlineStr"/>
       <c r="H2347" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -75272,13 +75290,13 @@
       </c>
       <c r="C2348" t="inlineStr">
         <is>
-          <t>HCOB Services PMIJAN</t>
+          <t>HCOB Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2348" t="inlineStr"/>
       <c r="E2348" t="inlineStr">
         <is>
-          <t>50.7</t>
+          <t>49.7</t>
         </is>
       </c>
       <c r="F2348" t="inlineStr"/>
@@ -75292,35 +75310,27 @@
     <row r="2349">
       <c r="A2349" t="inlineStr">
         <is>
-          <t>03:50 AM</t>
+          <t>03:45 AM</t>
         </is>
       </c>
       <c r="B2349" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2349" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FinalJAN</t>
+          <t>HCOB Services PMIJAN</t>
         </is>
       </c>
       <c r="D2349" t="inlineStr"/>
       <c r="E2349" t="inlineStr">
         <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F2349" t="inlineStr">
-        <is>
-          <t>48.9</t>
-        </is>
-      </c>
-      <c r="G2349" t="inlineStr">
-        <is>
-          <t>48.9</t>
-        </is>
-      </c>
+          <t>50.7</t>
+        </is>
+      </c>
+      <c r="F2349" t="inlineStr"/>
+      <c r="G2349" t="inlineStr"/>
       <c r="H2349" t="inlineStr">
         <is>
           <t>2</t>
@@ -75340,40 +75350,40 @@
       </c>
       <c r="C2350" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FinalJAN</t>
+          <t>HCOB Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2350" t="inlineStr"/>
       <c r="E2350" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>49.3</t>
         </is>
       </c>
       <c r="F2350" t="inlineStr">
         <is>
-          <t>48.3</t>
+          <t>48.9</t>
         </is>
       </c>
       <c r="G2350" t="inlineStr">
         <is>
-          <t>48.3</t>
+          <t>48.9</t>
         </is>
       </c>
       <c r="H2350" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2351">
       <c r="A2351" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>03:50 AM</t>
         </is>
       </c>
       <c r="B2351" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2351" t="inlineStr">
@@ -75384,22 +75394,22 @@
       <c r="D2351" t="inlineStr"/>
       <c r="E2351" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>47.5</t>
         </is>
       </c>
       <c r="F2351" t="inlineStr">
         <is>
-          <t>50.1</t>
+          <t>48.3</t>
         </is>
       </c>
       <c r="G2351" t="inlineStr">
         <is>
-          <t>50.1</t>
+          <t>48.3</t>
         </is>
       </c>
       <c r="H2351" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -75416,23 +75426,23 @@
       </c>
       <c r="C2352" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FinalJAN</t>
+          <t>HCOB Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2352" t="inlineStr"/>
       <c r="E2352" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F2352" t="inlineStr">
         <is>
-          <t>52.5</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="G2352" t="inlineStr">
         <is>
-          <t>52.5</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="H2352" t="inlineStr">
@@ -75444,33 +75454,33 @@
     <row r="2353">
       <c r="A2353" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>03:55 AM</t>
         </is>
       </c>
       <c r="B2353" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2353" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FinalJAN</t>
+          <t>HCOB Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2353" t="inlineStr"/>
       <c r="E2353" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F2353" t="inlineStr">
         <is>
-          <t>50.2</t>
+          <t>52.5</t>
         </is>
       </c>
       <c r="G2353" t="inlineStr">
         <is>
-          <t>50.2</t>
+          <t>52.5</t>
         </is>
       </c>
       <c r="H2353" t="inlineStr">
@@ -75492,23 +75502,23 @@
       </c>
       <c r="C2354" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FinalJAN</t>
+          <t>HCOB Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2354" t="inlineStr"/>
       <c r="E2354" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="F2354" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>50.2</t>
         </is>
       </c>
       <c r="G2354" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>50.2</t>
         </is>
       </c>
       <c r="H2354" t="inlineStr">
@@ -75525,24 +75535,28 @@
       </c>
       <c r="B2355" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2355" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>HCOB Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2355" t="inlineStr"/>
       <c r="E2355" t="inlineStr">
         <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="F2355" t="inlineStr"/>
+          <t>51.6</t>
+        </is>
+      </c>
+      <c r="F2355" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="G2355" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="H2355" t="inlineStr">
@@ -75564,24 +75578,24 @@
       </c>
       <c r="C2356" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2356" t="inlineStr"/>
       <c r="E2356" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="F2356" t="inlineStr"/>
       <c r="G2356" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H2356" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -75593,24 +75607,24 @@
       </c>
       <c r="B2357" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2357" t="inlineStr">
         <is>
-          <t>New Car Sales YoYJAN</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2357" t="inlineStr"/>
       <c r="E2357" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F2357" t="inlineStr"/>
       <c r="G2357" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="H2357" t="inlineStr">
@@ -75622,7 +75636,7 @@
     <row r="2358">
       <c r="A2358" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2358" t="inlineStr">
@@ -75632,28 +75646,24 @@
       </c>
       <c r="C2358" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FinalJAN</t>
+          <t>New Car Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2358" t="inlineStr"/>
       <c r="E2358" t="inlineStr">
         <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="F2358" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="F2358" t="inlineStr"/>
       <c r="G2358" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="H2358" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -75670,57 +75680,61 @@
       </c>
       <c r="C2359" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FinalJAN</t>
+          <t>S&amp;P Global Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2359" t="inlineStr"/>
       <c r="E2359" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F2359" t="inlineStr">
         <is>
-          <t>50.9</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="G2359" t="inlineStr">
         <is>
-          <t>50.9</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="H2359" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2360">
       <c r="A2360" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2360" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2360" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>S&amp;P Global Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2360" t="inlineStr"/>
       <c r="E2360" t="inlineStr">
         <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="F2360" t="inlineStr"/>
+          <t>50.4</t>
+        </is>
+      </c>
+      <c r="F2360" t="inlineStr">
+        <is>
+          <t>50.9</t>
+        </is>
+      </c>
       <c r="G2360" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>50.9</t>
         </is>
       </c>
       <c r="H2360" t="inlineStr">
@@ -75742,19 +75756,19 @@
       </c>
       <c r="C2361" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2361" t="inlineStr"/>
       <c r="E2361" t="inlineStr">
         <is>
-          <t>-1.2%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F2361" t="inlineStr"/>
       <c r="G2361" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2361" t="inlineStr">
@@ -75771,22 +75785,26 @@
       </c>
       <c r="B2362" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2362" t="inlineStr">
         <is>
-          <t>30-Year Green Gilt Auction</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2362" t="inlineStr"/>
       <c r="E2362" t="inlineStr">
         <is>
-          <t>4.831%</t>
+          <t>-1.2%</t>
         </is>
       </c>
       <c r="F2362" t="inlineStr"/>
-      <c r="G2362" t="inlineStr"/>
+      <c r="G2362" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
       <c r="H2362" t="inlineStr">
         <is>
           <t>3</t>
@@ -75796,23 +75814,23 @@
     <row r="2363">
       <c r="A2363" t="inlineStr">
         <is>
-          <t>06:10 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2363" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2363" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>30-Year Green Gilt Auction</t>
         </is>
       </c>
       <c r="D2363" t="inlineStr"/>
       <c r="E2363" t="inlineStr">
         <is>
-          <t>2.615%</t>
+          <t>4.831%</t>
         </is>
       </c>
       <c r="F2363" t="inlineStr"/>
@@ -75836,13 +75854,13 @@
       </c>
       <c r="C2364" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2364" t="inlineStr"/>
       <c r="E2364" t="inlineStr">
         <is>
-          <t>2.505%</t>
+          <t>2.615%</t>
         </is>
       </c>
       <c r="F2364" t="inlineStr"/>
@@ -75856,23 +75874,23 @@
     <row r="2365">
       <c r="A2365" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>06:10 AM</t>
         </is>
       </c>
       <c r="B2365" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C2365" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYJAN/24</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2365" t="inlineStr"/>
       <c r="E2365" t="inlineStr">
         <is>
-          <t>10.1%</t>
+          <t>2.505%</t>
         </is>
       </c>
       <c r="F2365" t="inlineStr"/>
@@ -75886,34 +75904,30 @@
     <row r="2366">
       <c r="A2366" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B2366" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2366" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>M3 Money Supply YoYJAN/24</t>
         </is>
       </c>
       <c r="D2366" t="inlineStr"/>
       <c r="E2366" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>10.1%</t>
         </is>
       </c>
       <c r="F2366" t="inlineStr"/>
-      <c r="G2366" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2366" t="inlineStr"/>
       <c r="H2366" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -75930,24 +75944,24 @@
       </c>
       <c r="C2367" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D2367" t="inlineStr"/>
       <c r="E2367" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F2367" t="inlineStr"/>
       <c r="G2367" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2367" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -75959,22 +75973,26 @@
       </c>
       <c r="B2368" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2368" t="inlineStr">
         <is>
-          <t>Gross Fixed Investment MoMNOV</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2368" t="inlineStr"/>
       <c r="E2368" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="F2368" t="inlineStr"/>
-      <c r="G2368" t="inlineStr"/>
+      <c r="G2368" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="H2368" t="inlineStr">
         <is>
           <t>3</t>
@@ -75994,13 +76012,13 @@
       </c>
       <c r="C2369" t="inlineStr">
         <is>
-          <t>Gross Fixed Investment YoYNOV</t>
+          <t>Gross Fixed Investment MoMNOV</t>
         </is>
       </c>
       <c r="D2369" t="inlineStr"/>
       <c r="E2369" t="inlineStr">
         <is>
-          <t>-2.6%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2369" t="inlineStr"/>
@@ -76019,21 +76037,25 @@
       </c>
       <c r="B2370" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2370" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/31</t>
+          <t>Gross Fixed Investment YoYNOV</t>
         </is>
       </c>
       <c r="D2370" t="inlineStr"/>
-      <c r="E2370" t="inlineStr"/>
+      <c r="E2370" t="inlineStr">
+        <is>
+          <t>-2.6%</t>
+        </is>
+      </c>
       <c r="F2370" t="inlineStr"/>
       <c r="G2370" t="inlineStr"/>
       <c r="H2370" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -76050,7 +76072,7 @@
       </c>
       <c r="C2371" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/31</t>
+          <t>MBA 30-Year Mortgage RateJAN/31</t>
         </is>
       </c>
       <c r="D2371" t="inlineStr"/>
@@ -76059,7 +76081,7 @@
       <c r="G2371" t="inlineStr"/>
       <c r="H2371" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -76076,7 +76098,7 @@
       </c>
       <c r="C2372" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/31</t>
+          <t>MBA Mortgage ApplicationsJAN/31</t>
         </is>
       </c>
       <c r="D2372" t="inlineStr"/>
@@ -76102,7 +76124,7 @@
       </c>
       <c r="C2373" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/31</t>
+          <t>MBA Mortgage Market IndexJAN/31</t>
         </is>
       </c>
       <c r="D2373" t="inlineStr"/>
@@ -76128,7 +76150,7 @@
       </c>
       <c r="C2374" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/31</t>
+          <t>MBA Mortgage Refinance IndexJAN/31</t>
         </is>
       </c>
       <c r="D2374" t="inlineStr"/>
@@ -76144,34 +76166,26 @@
     <row r="2375">
       <c r="A2375" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2375" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2375" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMIJAN</t>
+          <t>MBA Purchase IndexJAN/31</t>
         </is>
       </c>
       <c r="D2375" t="inlineStr"/>
-      <c r="E2375" t="inlineStr">
-        <is>
-          <t>51.6</t>
-        </is>
-      </c>
+      <c r="E2375" t="inlineStr"/>
       <c r="F2375" t="inlineStr"/>
-      <c r="G2375" t="inlineStr">
-        <is>
-          <t>50.2</t>
-        </is>
-      </c>
+      <c r="G2375" t="inlineStr"/>
       <c r="H2375" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -76188,88 +76202,88 @@
       </c>
       <c r="C2376" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMIJAN</t>
+          <t>S&amp;P Global Services PMIJAN</t>
         </is>
       </c>
       <c r="D2376" t="inlineStr"/>
       <c r="E2376" t="inlineStr">
         <is>
-          <t>51.5</t>
+          <t>51.6</t>
         </is>
       </c>
       <c r="F2376" t="inlineStr"/>
       <c r="G2376" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>50.2</t>
         </is>
       </c>
       <c r="H2376" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2377">
       <c r="A2377" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2377" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2377" t="inlineStr">
         <is>
-          <t>ADP Employment ChangeJAN</t>
+          <t>S&amp;P Global Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2377" t="inlineStr"/>
       <c r="E2377" t="inlineStr">
         <is>
-          <t>122K</t>
+          <t>51.5</t>
         </is>
       </c>
       <c r="F2377" t="inlineStr"/>
-      <c r="G2377" t="inlineStr"/>
+      <c r="G2377" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
       <c r="H2377" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2378">
       <c r="A2378" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B2378" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2378" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>ADP Employment ChangeJAN</t>
         </is>
       </c>
       <c r="D2378" t="inlineStr"/>
       <c r="E2378" t="inlineStr">
         <is>
-          <t>C$-0.32B</t>
+          <t>122K</t>
         </is>
       </c>
       <c r="F2378" t="inlineStr"/>
-      <c r="G2378" t="inlineStr">
-        <is>
-          <t>C$ -1.6B</t>
-        </is>
-      </c>
+      <c r="G2378" t="inlineStr"/>
       <c r="H2378" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -76286,24 +76300,24 @@
       </c>
       <c r="C2379" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2379" t="inlineStr"/>
       <c r="E2379" t="inlineStr">
         <is>
-          <t>C$66.11B</t>
+          <t>C$-0.32B</t>
         </is>
       </c>
       <c r="F2379" t="inlineStr"/>
       <c r="G2379" t="inlineStr">
         <is>
-          <t>C$ 65.8B</t>
+          <t>C$ -1.6B</t>
         </is>
       </c>
       <c r="H2379" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -76320,19 +76334,19 @@
       </c>
       <c r="C2380" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>ExportsDEC</t>
         </is>
       </c>
       <c r="D2380" t="inlineStr"/>
       <c r="E2380" t="inlineStr">
         <is>
-          <t>C$66.43B</t>
+          <t>C$66.11B</t>
         </is>
       </c>
       <c r="F2380" t="inlineStr"/>
       <c r="G2380" t="inlineStr">
         <is>
-          <t>C$ 64.5B</t>
+          <t>C$ 65.8B</t>
         </is>
       </c>
       <c r="H2380" t="inlineStr">
@@ -76349,29 +76363,29 @@
       </c>
       <c r="B2381" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2381" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>ImportsDEC</t>
         </is>
       </c>
       <c r="D2381" t="inlineStr"/>
       <c r="E2381" t="inlineStr">
         <is>
-          <t>$-78.2B</t>
+          <t>C$66.43B</t>
         </is>
       </c>
       <c r="F2381" t="inlineStr"/>
       <c r="G2381" t="inlineStr">
         <is>
-          <t>$ -68B</t>
+          <t>C$ 64.5B</t>
         </is>
       </c>
       <c r="H2381" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -76388,19 +76402,19 @@
       </c>
       <c r="C2382" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2382" t="inlineStr"/>
       <c r="E2382" t="inlineStr">
         <is>
-          <t>$273.4B</t>
+          <t>$-78.2B</t>
         </is>
       </c>
       <c r="F2382" t="inlineStr"/>
       <c r="G2382" t="inlineStr">
         <is>
-          <t>$ 275.0B</t>
+          <t>$ -68B</t>
         </is>
       </c>
       <c r="H2382" t="inlineStr">
@@ -76422,19 +76436,19 @@
       </c>
       <c r="C2383" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>ExportsDEC</t>
         </is>
       </c>
       <c r="D2383" t="inlineStr"/>
       <c r="E2383" t="inlineStr">
         <is>
-          <t>$351.6B</t>
+          <t>$273.4B</t>
         </is>
       </c>
       <c r="F2383" t="inlineStr"/>
       <c r="G2383" t="inlineStr">
         <is>
-          <t>$ 338B</t>
+          <t>$ 275.0B</t>
         </is>
       </c>
       <c r="H2383" t="inlineStr">
@@ -76456,47 +76470,47 @@
       </c>
       <c r="C2384" t="inlineStr">
         <is>
-          <t>Treasury Refunding Announcement</t>
+          <t>ImportsDEC</t>
         </is>
       </c>
       <c r="D2384" t="inlineStr"/>
-      <c r="E2384" t="inlineStr"/>
+      <c r="E2384" t="inlineStr">
+        <is>
+          <t>$351.6B</t>
+        </is>
+      </c>
       <c r="F2384" t="inlineStr"/>
-      <c r="G2384" t="inlineStr"/>
+      <c r="G2384" t="inlineStr">
+        <is>
+          <t>$ 338B</t>
+        </is>
+      </c>
       <c r="H2384" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2385">
       <c r="A2385" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2385" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2385" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMIJAN</t>
+          <t>Treasury Refunding Announcement</t>
         </is>
       </c>
       <c r="D2385" t="inlineStr"/>
-      <c r="E2385" t="inlineStr">
-        <is>
-          <t>49.0</t>
-        </is>
-      </c>
+      <c r="E2385" t="inlineStr"/>
       <c r="F2385" t="inlineStr"/>
-      <c r="G2385" t="inlineStr">
-        <is>
-          <t>48.5</t>
-        </is>
-      </c>
+      <c r="G2385" t="inlineStr"/>
       <c r="H2385" t="inlineStr">
         <is>
           <t>3</t>
@@ -76516,19 +76530,19 @@
       </c>
       <c r="C2386" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMIJAN</t>
+          <t>S&amp;P Global Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2386" t="inlineStr"/>
       <c r="E2386" t="inlineStr">
         <is>
-          <t>48.2</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="F2386" t="inlineStr"/>
       <c r="G2386" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>48.5</t>
         </is>
       </c>
       <c r="H2386" t="inlineStr">
@@ -76540,38 +76554,34 @@
     <row r="2387">
       <c r="A2387" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2387" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2387" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FinalJAN</t>
+          <t>S&amp;P Global Services PMIJAN</t>
         </is>
       </c>
       <c r="D2387" t="inlineStr"/>
       <c r="E2387" t="inlineStr">
         <is>
-          <t>55.4</t>
-        </is>
-      </c>
-      <c r="F2387" t="inlineStr">
-        <is>
-          <t>52.4</t>
-        </is>
-      </c>
+          <t>48.2</t>
+        </is>
+      </c>
+      <c r="F2387" t="inlineStr"/>
       <c r="G2387" t="inlineStr">
         <is>
-          <t>52.4</t>
+          <t>49</t>
         </is>
       </c>
       <c r="H2387" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -76588,23 +76598,23 @@
       </c>
       <c r="C2388" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FinalJAN</t>
+          <t>S&amp;P Global Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2388" t="inlineStr"/>
       <c r="E2388" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>55.4</t>
         </is>
       </c>
       <c r="F2388" t="inlineStr">
         <is>
-          <t>52.8</t>
+          <t>52.4</t>
         </is>
       </c>
       <c r="G2388" t="inlineStr">
         <is>
-          <t>52.8</t>
+          <t>52.4</t>
         </is>
       </c>
       <c r="H2388" t="inlineStr">
@@ -76616,7 +76626,7 @@
     <row r="2389">
       <c r="A2389" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B2389" t="inlineStr">
@@ -76626,16 +76636,28 @@
       </c>
       <c r="C2389" t="inlineStr">
         <is>
-          <t>ISM Services PMIJAN</t>
+          <t>S&amp;P Global Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2389" t="inlineStr"/>
-      <c r="E2389" t="inlineStr"/>
-      <c r="F2389" t="inlineStr"/>
-      <c r="G2389" t="inlineStr"/>
+      <c r="E2389" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
+      <c r="F2389" t="inlineStr">
+        <is>
+          <t>52.8</t>
+        </is>
+      </c>
+      <c r="G2389" t="inlineStr">
+        <is>
+          <t>52.8</t>
+        </is>
+      </c>
       <c r="H2389" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -76652,20 +76674,16 @@
       </c>
       <c r="C2390" t="inlineStr">
         <is>
-          <t>ISM Services Business ActivityJAN</t>
+          <t>ISM Services PMIJAN</t>
         </is>
       </c>
       <c r="D2390" t="inlineStr"/>
-      <c r="E2390" t="inlineStr">
-        <is>
-          <t>58.2</t>
-        </is>
-      </c>
+      <c r="E2390" t="inlineStr"/>
       <c r="F2390" t="inlineStr"/>
       <c r="G2390" t="inlineStr"/>
       <c r="H2390" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -76682,13 +76700,13 @@
       </c>
       <c r="C2391" t="inlineStr">
         <is>
-          <t>ISM Services EmploymentJAN</t>
+          <t>ISM Services Business ActivityJAN</t>
         </is>
       </c>
       <c r="D2391" t="inlineStr"/>
       <c r="E2391" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>58.2</t>
         </is>
       </c>
       <c r="F2391" t="inlineStr"/>
@@ -76712,13 +76730,13 @@
       </c>
       <c r="C2392" t="inlineStr">
         <is>
-          <t>ISM Services New OrdersJAN</t>
+          <t>ISM Services EmploymentJAN</t>
         </is>
       </c>
       <c r="D2392" t="inlineStr"/>
       <c r="E2392" t="inlineStr">
         <is>
-          <t>54.2</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="F2392" t="inlineStr"/>
@@ -76742,13 +76760,13 @@
       </c>
       <c r="C2393" t="inlineStr">
         <is>
-          <t>ISM Services PricesJAN</t>
+          <t>ISM Services New OrdersJAN</t>
         </is>
       </c>
       <c r="D2393" t="inlineStr"/>
       <c r="E2393" t="inlineStr">
         <is>
-          <t>64.4</t>
+          <t>54.2</t>
         </is>
       </c>
       <c r="F2393" t="inlineStr"/>
@@ -76762,7 +76780,7 @@
     <row r="2394">
       <c r="A2394" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2394" t="inlineStr">
@@ -76772,16 +76790,20 @@
       </c>
       <c r="C2394" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/31</t>
+          <t>ISM Services PricesJAN</t>
         </is>
       </c>
       <c r="D2394" t="inlineStr"/>
-      <c r="E2394" t="inlineStr"/>
+      <c r="E2394" t="inlineStr">
+        <is>
+          <t>64.4</t>
+        </is>
+      </c>
       <c r="F2394" t="inlineStr"/>
       <c r="G2394" t="inlineStr"/>
       <c r="H2394" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -76798,7 +76820,7 @@
       </c>
       <c r="C2395" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJAN/31</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2395" t="inlineStr"/>
@@ -76824,7 +76846,7 @@
       </c>
       <c r="C2396" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJAN/31</t>
+          <t>EIA Gasoline Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2396" t="inlineStr"/>
@@ -76833,7 +76855,7 @@
       <c r="G2396" t="inlineStr"/>
       <c r="H2396" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -76850,7 +76872,7 @@
       </c>
       <c r="C2397" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/31</t>
+          <t>EIA Crude Oil Imports ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2397" t="inlineStr"/>
@@ -76876,7 +76898,7 @@
       </c>
       <c r="C2398" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/31</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2398" t="inlineStr"/>
@@ -76902,7 +76924,7 @@
       </c>
       <c r="C2399" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJAN/31</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2399" t="inlineStr"/>
@@ -76928,7 +76950,7 @@
       </c>
       <c r="C2400" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJAN/31</t>
+          <t>EIA Distillate Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2400" t="inlineStr"/>
@@ -76954,7 +76976,7 @@
       </c>
       <c r="C2401" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/31</t>
+          <t>EIA Gasoline Production ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2401" t="inlineStr"/>
@@ -76980,7 +77002,7 @@
       </c>
       <c r="C2402" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/31</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2402" t="inlineStr"/>
@@ -76996,30 +77018,26 @@
     <row r="2403">
       <c r="A2403" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2403" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2403" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2403" t="inlineStr"/>
       <c r="E2403" t="inlineStr"/>
       <c r="F2403" t="inlineStr"/>
-      <c r="G2403" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
+      <c r="G2403" t="inlineStr"/>
       <c r="H2403" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -77036,16 +77054,20 @@
       </c>
       <c r="C2404" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D2404" t="inlineStr"/>
       <c r="E2404" t="inlineStr"/>
       <c r="F2404" t="inlineStr"/>
-      <c r="G2404" t="inlineStr"/>
+      <c r="G2404" t="inlineStr">
+        <is>
+          <t>2.40%</t>
+        </is>
+      </c>
       <c r="H2404" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -77062,7 +77084,7 @@
       </c>
       <c r="C2405" t="inlineStr">
         <is>
-          <t>Corporate ProfitsNOV</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2405" t="inlineStr"/>
@@ -77088,21 +77110,13 @@
       </c>
       <c r="C2406" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Corporate ProfitsNOV</t>
         </is>
       </c>
       <c r="D2406" t="inlineStr"/>
-      <c r="E2406" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
+      <c r="E2406" t="inlineStr"/>
       <c r="F2406" t="inlineStr"/>
-      <c r="G2406" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
+      <c r="G2406" t="inlineStr"/>
       <c r="H2406" t="inlineStr">
         <is>
           <t>3</t>
@@ -77122,13 +77136,21 @@
       </c>
       <c r="C2407" t="inlineStr">
         <is>
-          <t>Real Wage Growth YoYNOV</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2407" t="inlineStr"/>
-      <c r="E2407" t="inlineStr"/>
+      <c r="E2407" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="F2407" t="inlineStr"/>
-      <c r="G2407" t="inlineStr"/>
+      <c r="G2407" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
       <c r="H2407" t="inlineStr">
         <is>
           <t>3</t>
@@ -77148,17 +77170,13 @@
       </c>
       <c r="C2408" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Real Wage Growth YoYNOV</t>
         </is>
       </c>
       <c r="D2408" t="inlineStr"/>
       <c r="E2408" t="inlineStr"/>
       <c r="F2408" t="inlineStr"/>
-      <c r="G2408" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
+      <c r="G2408" t="inlineStr"/>
       <c r="H2408" t="inlineStr">
         <is>
           <t>3</t>
@@ -77168,23 +77186,27 @@
     <row r="2409">
       <c r="A2409" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2409" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2409" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2409" t="inlineStr"/>
       <c r="E2409" t="inlineStr"/>
       <c r="F2409" t="inlineStr"/>
-      <c r="G2409" t="inlineStr"/>
+      <c r="G2409" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
       <c r="H2409" t="inlineStr">
         <is>
           <t>3</t>
@@ -77194,17 +77216,17 @@
     <row r="2410">
       <c r="A2410" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2410" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2410" t="inlineStr">
         <is>
-          <t>2-Year Bond Auction</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2410" t="inlineStr"/>
@@ -77220,17 +77242,17 @@
     <row r="2411">
       <c r="A2411" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B2411" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2411" t="inlineStr">
         <is>
-          <t>Fed Goolsbee Speech</t>
+          <t>2-Year Bond Auction</t>
         </is>
       </c>
       <c r="D2411" t="inlineStr"/>
@@ -77239,38 +77261,30 @@
       <c r="G2411" t="inlineStr"/>
       <c r="H2411" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2412">
       <c r="A2412" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2412" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2412" t="inlineStr">
         <is>
-          <t>Ai Group Industry IndexJAN</t>
+          <t>Fed Goolsbee Speech</t>
         </is>
       </c>
       <c r="D2412" t="inlineStr"/>
-      <c r="E2412" t="inlineStr">
-        <is>
-          <t>-10.8</t>
-        </is>
-      </c>
+      <c r="E2412" t="inlineStr"/>
       <c r="F2412" t="inlineStr"/>
-      <c r="G2412" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
+      <c r="G2412" t="inlineStr"/>
       <c r="H2412" t="inlineStr">
         <is>
           <t>2</t>
@@ -77290,24 +77304,24 @@
       </c>
       <c r="C2413" t="inlineStr">
         <is>
-          <t>Ai Group Construction IndexJAN</t>
+          <t>Ai Group Industry IndexJAN</t>
         </is>
       </c>
       <c r="D2413" t="inlineStr"/>
       <c r="E2413" t="inlineStr">
         <is>
-          <t>-19.0</t>
+          <t>-10.8</t>
         </is>
       </c>
       <c r="F2413" t="inlineStr"/>
       <c r="G2413" t="inlineStr">
         <is>
-          <t>-25</t>
+          <t>-15</t>
         </is>
       </c>
       <c r="H2413" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -77324,19 +77338,19 @@
       </c>
       <c r="C2414" t="inlineStr">
         <is>
-          <t>Ai Group Manufacturing IndexJAN</t>
+          <t>Ai Group Construction IndexJAN</t>
         </is>
       </c>
       <c r="D2414" t="inlineStr"/>
       <c r="E2414" t="inlineStr">
         <is>
-          <t>-17.9</t>
+          <t>-19.0</t>
         </is>
       </c>
       <c r="F2414" t="inlineStr"/>
       <c r="G2414" t="inlineStr">
         <is>
-          <t>-13</t>
+          <t>-25</t>
         </is>
       </c>
       <c r="H2414" t="inlineStr">
@@ -77348,25 +77362,29 @@
     <row r="2415">
       <c r="A2415" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2415" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2415" t="inlineStr">
         <is>
-          <t>Current AccountDEC</t>
+          <t>Ai Group Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D2415" t="inlineStr"/>
-      <c r="E2415" t="inlineStr"/>
+      <c r="E2415" t="inlineStr">
+        <is>
+          <t>-17.9</t>
+        </is>
+      </c>
       <c r="F2415" t="inlineStr"/>
       <c r="G2415" t="inlineStr">
         <is>
-          <t>$ 8.1B</t>
+          <t>-13</t>
         </is>
       </c>
       <c r="H2415" t="inlineStr">
@@ -77378,23 +77396,27 @@
     <row r="2416">
       <c r="A2416" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2416" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2416" t="inlineStr">
         <is>
-          <t>Overtime Pay YoYDEC</t>
+          <t>Current AccountDEC</t>
         </is>
       </c>
       <c r="D2416" t="inlineStr"/>
       <c r="E2416" t="inlineStr"/>
       <c r="F2416" t="inlineStr"/>
-      <c r="G2416" t="inlineStr"/>
+      <c r="G2416" t="inlineStr">
+        <is>
+          <t>$ 8.1B</t>
+        </is>
+      </c>
       <c r="H2416" t="inlineStr">
         <is>
           <t>3</t>
@@ -77404,7 +77426,7 @@
     <row r="2417">
       <c r="A2417" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2417" t="inlineStr">
@@ -77414,7 +77436,7 @@
       </c>
       <c r="C2417" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentFEB/01</t>
+          <t>Overtime Pay YoYDEC</t>
         </is>
       </c>
       <c r="D2417" t="inlineStr"/>
@@ -77440,7 +77462,7 @@
       </c>
       <c r="C2418" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersFEB/01</t>
+          <t>Foreign Bond InvestmentFEB/01</t>
         </is>
       </c>
       <c r="D2418" t="inlineStr"/>
@@ -77456,34 +77478,26 @@
     <row r="2419">
       <c r="A2419" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B2419" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2419" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Stock Investment by ForeignersFEB/01</t>
         </is>
       </c>
       <c r="D2419" t="inlineStr"/>
-      <c r="E2419" t="inlineStr">
-        <is>
-          <t>A$7.079B</t>
-        </is>
-      </c>
+      <c r="E2419" t="inlineStr"/>
       <c r="F2419" t="inlineStr"/>
-      <c r="G2419" t="inlineStr">
-        <is>
-          <t>A$ 3.2B</t>
-        </is>
-      </c>
+      <c r="G2419" t="inlineStr"/>
       <c r="H2419" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -77500,20 +77514,24 @@
       </c>
       <c r="C2420" t="inlineStr">
         <is>
-          <t>Exports MoMDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2420" t="inlineStr"/>
       <c r="E2420" t="inlineStr">
         <is>
-          <t>4.8%</t>
+          <t>A$7.079B</t>
         </is>
       </c>
       <c r="F2420" t="inlineStr"/>
-      <c r="G2420" t="inlineStr"/>
+      <c r="G2420" t="inlineStr">
+        <is>
+          <t>A$ 3.2B</t>
+        </is>
+      </c>
       <c r="H2420" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -77530,13 +77548,13 @@
       </c>
       <c r="C2421" t="inlineStr">
         <is>
-          <t>Imports MoMDEC</t>
+          <t>Exports MoMDEC</t>
         </is>
       </c>
       <c r="D2421" t="inlineStr"/>
       <c r="E2421" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="F2421" t="inlineStr"/>
@@ -77550,23 +77568,23 @@
     <row r="2422">
       <c r="A2422" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2422" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2422" t="inlineStr">
         <is>
-          <t>30-Year JGB Auction</t>
+          <t>Imports MoMDEC</t>
         </is>
       </c>
       <c r="D2422" t="inlineStr"/>
       <c r="E2422" t="inlineStr">
         <is>
-          <t>2.304%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="F2422" t="inlineStr"/>
@@ -77590,13 +77608,13 @@
       </c>
       <c r="C2423" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>30-Year JGB Auction</t>
         </is>
       </c>
       <c r="D2423" t="inlineStr"/>
       <c r="E2423" t="inlineStr">
         <is>
-          <t>0.3535%</t>
+          <t>2.304%</t>
         </is>
       </c>
       <c r="F2423" t="inlineStr"/>
@@ -77608,21 +77626,25 @@
       </c>
     </row>
     <row r="2424">
-      <c r="A2424" t="inlineStr"/>
+      <c r="A2424" t="inlineStr">
+        <is>
+          <t>10:35 PM</t>
+        </is>
+      </c>
       <c r="B2424" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2424" t="inlineStr">
         <is>
-          <t>Total Vehicle SalesJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2424" t="inlineStr"/>
       <c r="E2424" t="inlineStr">
         <is>
-          <t>16.8M</t>
+          <t>0.3535%</t>
         </is>
       </c>
       <c r="F2424" t="inlineStr"/>
@@ -77634,80 +77656,76 @@
       </c>
     </row>
     <row r="2425">
-      <c r="A2425" t="inlineStr">
-        <is>
-          <t>Thursday February 06 2025</t>
-        </is>
-      </c>
-      <c r="B2425" t="inlineStr"/>
-      <c r="C2425" t="inlineStr"/>
+      <c r="A2425" t="inlineStr"/>
+      <c r="B2425" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2425" t="inlineStr">
+        <is>
+          <t>Total Vehicle SalesJAN</t>
+        </is>
+      </c>
       <c r="D2425" t="inlineStr"/>
-      <c r="E2425" t="inlineStr"/>
+      <c r="E2425" t="inlineStr">
+        <is>
+          <t>16.8M</t>
+        </is>
+      </c>
       <c r="F2425" t="inlineStr"/>
       <c r="G2425" t="inlineStr"/>
-      <c r="H2425" t="inlineStr"/>
+      <c r="H2425" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2426">
       <c r="A2426" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B2426" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C2426" t="inlineStr">
-        <is>
-          <t>Factory Orders MoMDEC</t>
-        </is>
-      </c>
+          <t>Thursday February 06 2025</t>
+        </is>
+      </c>
+      <c r="B2426" t="inlineStr"/>
+      <c r="C2426" t="inlineStr"/>
       <c r="D2426" t="inlineStr"/>
-      <c r="E2426" t="inlineStr">
-        <is>
-          <t>-5.4%</t>
-        </is>
-      </c>
+      <c r="E2426" t="inlineStr"/>
       <c r="F2426" t="inlineStr"/>
-      <c r="G2426" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H2426" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G2426" t="inlineStr"/>
+      <c r="H2426" t="inlineStr"/>
     </row>
     <row r="2427">
       <c r="A2427" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2427" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2427" t="inlineStr">
         <is>
-          <t>HCOB Construction PMIJAN</t>
+          <t>Factory Orders MoMDEC</t>
         </is>
       </c>
       <c r="D2427" t="inlineStr"/>
       <c r="E2427" t="inlineStr">
         <is>
-          <t>42.9</t>
+          <t>-5.4%</t>
         </is>
       </c>
       <c r="F2427" t="inlineStr"/>
-      <c r="G2427" t="inlineStr"/>
+      <c r="G2427" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2427" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -77719,7 +77737,7 @@
       </c>
       <c r="B2428" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2428" t="inlineStr">
@@ -77730,7 +77748,7 @@
       <c r="D2428" t="inlineStr"/>
       <c r="E2428" t="inlineStr">
         <is>
-          <t>42.6</t>
+          <t>42.9</t>
         </is>
       </c>
       <c r="F2428" t="inlineStr"/>
@@ -77749,7 +77767,7 @@
       </c>
       <c r="B2429" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2429" t="inlineStr">
@@ -77760,14 +77778,14 @@
       <c r="D2429" t="inlineStr"/>
       <c r="E2429" t="inlineStr">
         <is>
-          <t>37.8</t>
+          <t>42.6</t>
         </is>
       </c>
       <c r="F2429" t="inlineStr"/>
       <c r="G2429" t="inlineStr"/>
       <c r="H2429" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -77779,7 +77797,7 @@
       </c>
       <c r="B2430" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2430" t="inlineStr">
@@ -77790,77 +77808,73 @@
       <c r="D2430" t="inlineStr"/>
       <c r="E2430" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>37.8</t>
         </is>
       </c>
       <c r="F2430" t="inlineStr"/>
       <c r="G2430" t="inlineStr"/>
       <c r="H2430" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2431">
       <c r="A2431" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2431" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2431" t="inlineStr">
         <is>
-          <t>S&amp;P Global Construction PMIJAN</t>
+          <t>HCOB Construction PMIJAN</t>
         </is>
       </c>
       <c r="D2431" t="inlineStr"/>
       <c r="E2431" t="inlineStr">
         <is>
-          <t>53.3</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F2431" t="inlineStr"/>
-      <c r="G2431" t="inlineStr">
-        <is>
-          <t>53.5</t>
-        </is>
-      </c>
+      <c r="G2431" t="inlineStr"/>
       <c r="H2431" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2432">
       <c r="A2432" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2432" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2432" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>S&amp;P Global Construction PMIJAN</t>
         </is>
       </c>
       <c r="D2432" t="inlineStr"/>
       <c r="E2432" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="F2432" t="inlineStr"/>
       <c r="G2432" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>53.5</t>
         </is>
       </c>
       <c r="H2432" t="inlineStr">
@@ -77882,19 +77896,19 @@
       </c>
       <c r="C2433" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2433" t="inlineStr"/>
       <c r="E2433" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2433" t="inlineStr"/>
       <c r="G2433" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2433" t="inlineStr">
@@ -77911,38 +77925,46 @@
       </c>
       <c r="B2434" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2434" t="inlineStr">
         <is>
-          <t>OAT Auction</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2434" t="inlineStr"/>
-      <c r="E2434" t="inlineStr"/>
+      <c r="E2434" t="inlineStr">
+        <is>
+          <t>1.2%</t>
+        </is>
+      </c>
       <c r="F2434" t="inlineStr"/>
-      <c r="G2434" t="inlineStr"/>
+      <c r="G2434" t="inlineStr">
+        <is>
+          <t>1.7%</t>
+        </is>
+      </c>
       <c r="H2434" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2435">
       <c r="A2435" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2435" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2435" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/31</t>
+          <t>OAT Auction</t>
         </is>
       </c>
       <c r="D2435" t="inlineStr"/>
@@ -77958,30 +77980,26 @@
     <row r="2436">
       <c r="A2436" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B2436" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2436" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>Foreign Exchange ReservesJAN/31</t>
         </is>
       </c>
       <c r="D2436" t="inlineStr"/>
-      <c r="E2436" t="inlineStr">
-        <is>
-          <t>47.1</t>
-        </is>
-      </c>
+      <c r="E2436" t="inlineStr"/>
       <c r="F2436" t="inlineStr"/>
       <c r="G2436" t="inlineStr"/>
       <c r="H2436" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -77993,33 +78011,25 @@
       </c>
       <c r="B2437" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2437" t="inlineStr">
         <is>
-          <t>BoE Interest Rate Decision</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2437" t="inlineStr"/>
       <c r="E2437" t="inlineStr">
         <is>
-          <t>4.75%</t>
-        </is>
-      </c>
-      <c r="F2437" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="G2437" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
+          <t>47.1</t>
+        </is>
+      </c>
+      <c r="F2437" t="inlineStr"/>
+      <c r="G2437" t="inlineStr"/>
       <c r="H2437" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -78036,16 +78046,28 @@
       </c>
       <c r="C2438" t="inlineStr">
         <is>
-          <t>BoE Monetary Policy Report</t>
+          <t>BoE Interest Rate Decision</t>
         </is>
       </c>
       <c r="D2438" t="inlineStr"/>
-      <c r="E2438" t="inlineStr"/>
-      <c r="F2438" t="inlineStr"/>
-      <c r="G2438" t="inlineStr"/>
+      <c r="E2438" t="inlineStr">
+        <is>
+          <t>4.75%</t>
+        </is>
+      </c>
+      <c r="F2438" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
+      <c r="G2438" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
       <c r="H2438" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -78062,7 +78084,7 @@
       </c>
       <c r="C2439" t="inlineStr">
         <is>
-          <t>BoE MPC Vote Cut</t>
+          <t>BoE Monetary Policy Report</t>
         </is>
       </c>
       <c r="D2439" t="inlineStr"/>
@@ -78088,7 +78110,7 @@
       </c>
       <c r="C2440" t="inlineStr">
         <is>
-          <t>BoE MPC Vote Hike</t>
+          <t>BoE MPC Vote Cut</t>
         </is>
       </c>
       <c r="D2440" t="inlineStr"/>
@@ -78114,7 +78136,7 @@
       </c>
       <c r="C2441" t="inlineStr">
         <is>
-          <t>BoE MPC Vote Unchanged</t>
+          <t>BoE MPC Vote Hike</t>
         </is>
       </c>
       <c r="D2441" t="inlineStr"/>
@@ -78140,7 +78162,7 @@
       </c>
       <c r="C2442" t="inlineStr">
         <is>
-          <t>MPC Meeting Minutes</t>
+          <t>BoE MPC Vote Unchanged</t>
         </is>
       </c>
       <c r="D2442" t="inlineStr"/>
@@ -78156,37 +78178,33 @@
     <row r="2443">
       <c r="A2443" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2443" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2443" t="inlineStr">
         <is>
-          <t>Challenger Job CutsJAN</t>
+          <t>MPC Meeting Minutes</t>
         </is>
       </c>
       <c r="D2443" t="inlineStr"/>
-      <c r="E2443" t="inlineStr">
-        <is>
-          <t>38.792K</t>
-        </is>
-      </c>
+      <c r="E2443" t="inlineStr"/>
       <c r="F2443" t="inlineStr"/>
       <c r="G2443" t="inlineStr"/>
       <c r="H2443" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2444">
       <c r="A2444" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2444" t="inlineStr">
@@ -78196,16 +78214,20 @@
       </c>
       <c r="C2444" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsFEB/01</t>
+          <t>Challenger Job CutsJAN</t>
         </is>
       </c>
       <c r="D2444" t="inlineStr"/>
-      <c r="E2444" t="inlineStr"/>
+      <c r="E2444" t="inlineStr">
+        <is>
+          <t>38.792K</t>
+        </is>
+      </c>
       <c r="F2444" t="inlineStr"/>
       <c r="G2444" t="inlineStr"/>
       <c r="H2444" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -78222,15 +78244,11 @@
       </c>
       <c r="C2445" t="inlineStr">
         <is>
-          <t>Nonfarm Productivity QoQ PrelQ4</t>
+          <t>Initial Jobless ClaimsFEB/01</t>
         </is>
       </c>
       <c r="D2445" t="inlineStr"/>
-      <c r="E2445" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
+      <c r="E2445" t="inlineStr"/>
       <c r="F2445" t="inlineStr"/>
       <c r="G2445" t="inlineStr"/>
       <c r="H2445" t="inlineStr">
@@ -78252,13 +78270,13 @@
       </c>
       <c r="C2446" t="inlineStr">
         <is>
-          <t>Unit Labour Costs QoQ PrelQ4</t>
+          <t>Nonfarm Productivity QoQ PrelQ4</t>
         </is>
       </c>
       <c r="D2446" t="inlineStr"/>
       <c r="E2446" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="F2446" t="inlineStr"/>
@@ -78282,16 +78300,20 @@
       </c>
       <c r="C2447" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsJAN/25</t>
+          <t>Unit Labour Costs QoQ PrelQ4</t>
         </is>
       </c>
       <c r="D2447" t="inlineStr"/>
-      <c r="E2447" t="inlineStr"/>
+      <c r="E2447" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="F2447" t="inlineStr"/>
       <c r="G2447" t="inlineStr"/>
       <c r="H2447" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -78308,7 +78330,7 @@
       </c>
       <c r="C2448" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageFEB/01</t>
+          <t>Continuing Jobless ClaimsJAN/25</t>
         </is>
       </c>
       <c r="D2448" t="inlineStr"/>
@@ -78324,17 +78346,17 @@
     <row r="2449">
       <c r="A2449" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2449" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2449" t="inlineStr">
         <is>
-          <t>Ivey PMI s.aJAN</t>
+          <t>Jobless Claims 4-week AverageFEB/01</t>
         </is>
       </c>
       <c r="D2449" t="inlineStr"/>
@@ -78343,24 +78365,24 @@
       <c r="G2449" t="inlineStr"/>
       <c r="H2449" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2450">
       <c r="A2450" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2450" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2450" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeJAN/31</t>
+          <t>Ivey PMI s.aJAN</t>
         </is>
       </c>
       <c r="D2450" t="inlineStr"/>
@@ -78369,14 +78391,14 @@
       <c r="G2450" t="inlineStr"/>
       <c r="H2450" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2451">
       <c r="A2451" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2451" t="inlineStr">
@@ -78386,7 +78408,7 @@
       </c>
       <c r="C2451" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>EIA Natural Gas Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2451" t="inlineStr"/>
@@ -78412,7 +78434,7 @@
       </c>
       <c r="C2452" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2452" t="inlineStr"/>
@@ -78428,25 +78450,21 @@
     <row r="2453">
       <c r="A2453" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2453" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2453" t="inlineStr">
         <is>
-          <t>10-Year Bond Auction</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2453" t="inlineStr"/>
-      <c r="E2453" t="inlineStr">
-        <is>
-          <t>3.358%</t>
-        </is>
-      </c>
+      <c r="E2453" t="inlineStr"/>
       <c r="F2453" t="inlineStr"/>
       <c r="G2453" t="inlineStr"/>
       <c r="H2453" t="inlineStr">
@@ -78463,16 +78481,20 @@
       </c>
       <c r="B2454" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2454" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateFEB/06</t>
+          <t>10-Year Bond Auction</t>
         </is>
       </c>
       <c r="D2454" t="inlineStr"/>
-      <c r="E2454" t="inlineStr"/>
+      <c r="E2454" t="inlineStr">
+        <is>
+          <t>3.358%</t>
+        </is>
+      </c>
       <c r="F2454" t="inlineStr"/>
       <c r="G2454" t="inlineStr"/>
       <c r="H2454" t="inlineStr">
@@ -78494,7 +78516,7 @@
       </c>
       <c r="C2455" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateFEB/06</t>
+          <t>15-Year Mortgage RateFEB/06</t>
         </is>
       </c>
       <c r="D2455" t="inlineStr"/>
@@ -78510,57 +78532,57 @@
     <row r="2456">
       <c r="A2456" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B2456" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2456" t="inlineStr">
         <is>
-          <t>Interest Rate Decision</t>
+          <t>30-Year Mortgage RateFEB/06</t>
         </is>
       </c>
       <c r="D2456" t="inlineStr"/>
-      <c r="E2456" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
-      </c>
+      <c r="E2456" t="inlineStr"/>
       <c r="F2456" t="inlineStr"/>
-      <c r="G2456" t="inlineStr">
-        <is>
-          <t>9.75%</t>
-        </is>
-      </c>
+      <c r="G2456" t="inlineStr"/>
       <c r="H2456" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2457">
       <c r="A2457" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B2457" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2457" t="inlineStr">
         <is>
-          <t>Fed Daly Speech</t>
+          <t>Interest Rate Decision</t>
         </is>
       </c>
       <c r="D2457" t="inlineStr"/>
-      <c r="E2457" t="inlineStr"/>
+      <c r="E2457" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
       <c r="F2457" t="inlineStr"/>
-      <c r="G2457" t="inlineStr"/>
+      <c r="G2457" t="inlineStr">
+        <is>
+          <t>9.75%</t>
+        </is>
+      </c>
       <c r="H2457" t="inlineStr">
         <is>
           <t>2</t>
@@ -78570,7 +78592,7 @@
     <row r="2458">
       <c r="A2458" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2458" t="inlineStr">
@@ -78580,7 +78602,7 @@
       </c>
       <c r="C2458" t="inlineStr">
         <is>
-          <t>Fed Balance SheetFEB/05</t>
+          <t>Fed Daly Speech</t>
         </is>
       </c>
       <c r="D2458" t="inlineStr"/>
@@ -78589,28 +78611,28 @@
       <c r="G2458" t="inlineStr"/>
       <c r="H2458" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2459">
-      <c r="A2459" t="inlineStr"/>
+      <c r="A2459" t="inlineStr">
+        <is>
+          <t>04:30 PM</t>
+        </is>
+      </c>
       <c r="B2459" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2459" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYJAN</t>
+          <t>Fed Balance SheetFEB/05</t>
         </is>
       </c>
       <c r="D2459" t="inlineStr"/>
-      <c r="E2459" t="inlineStr">
-        <is>
-          <t>-7.1%</t>
-        </is>
-      </c>
+      <c r="E2459" t="inlineStr"/>
       <c r="F2459" t="inlineStr"/>
       <c r="G2459" t="inlineStr"/>
       <c r="H2459" t="inlineStr">
@@ -78620,46 +78642,66 @@
       </c>
     </row>
     <row r="2460">
-      <c r="A2460" t="inlineStr"/>
+      <c r="A2460" t="inlineStr">
+        <is>
+          <t>06:30 PM</t>
+        </is>
+      </c>
       <c r="B2460" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2460" t="inlineStr">
         <is>
-          <t>Vehicle Sales YoYJAN</t>
+          <t>Household Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2460" t="inlineStr"/>
-      <c r="E2460" t="inlineStr"/>
+      <c r="E2460" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F2460" t="inlineStr"/>
       <c r="G2460" t="inlineStr"/>
       <c r="H2460" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2461">
-      <c r="A2461" t="inlineStr"/>
+      <c r="A2461" t="inlineStr">
+        <is>
+          <t>06:30 PM</t>
+        </is>
+      </c>
       <c r="B2461" t="inlineStr">
         <is>
-          <t>WL</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2461" t="inlineStr">
         <is>
-          <t>Global Supply Chain Pressure IndexJAN</t>
+          <t>Household Spending YoYDEC</t>
         </is>
       </c>
       <c r="D2461" t="inlineStr"/>
-      <c r="E2461" t="inlineStr"/>
+      <c r="E2461" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
       <c r="F2461" t="inlineStr"/>
-      <c r="G2461" t="inlineStr"/>
+      <c r="G2461" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
       <c r="H2461" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -78667,21 +78709,25 @@
       <c r="A2462" t="inlineStr"/>
       <c r="B2462" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2462" t="inlineStr">
         <is>
-          <t>10-Year NTN-F Auction</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D2462" t="inlineStr"/>
-      <c r="E2462" t="inlineStr"/>
+      <c r="E2462" t="inlineStr">
+        <is>
+          <t>-7.1%</t>
+        </is>
+      </c>
       <c r="F2462" t="inlineStr"/>
       <c r="G2462" t="inlineStr"/>
       <c r="H2462" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -78689,12 +78735,12 @@
       <c r="A2463" t="inlineStr"/>
       <c r="B2463" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2463" t="inlineStr">
         <is>
-          <t>2-Year LTN Auction</t>
+          <t>Vehicle Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2463" t="inlineStr"/>
@@ -78703,7 +78749,7 @@
       <c r="G2463" t="inlineStr"/>
       <c r="H2463" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -78711,25 +78757,113 @@
       <c r="A2464" t="inlineStr"/>
       <c r="B2464" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>WL</t>
         </is>
       </c>
       <c r="C2464" t="inlineStr">
         <is>
-          <t>6-Month LTN Auction</t>
+          <t>Global Supply Chain Pressure IndexJAN</t>
         </is>
       </c>
       <c r="D2464" t="inlineStr"/>
-      <c r="E2464" t="inlineStr">
-        <is>
-          <t>14.5579%</t>
-        </is>
-      </c>
+      <c r="E2464" t="inlineStr"/>
       <c r="F2464" t="inlineStr"/>
       <c r="G2464" t="inlineStr"/>
       <c r="H2464" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2465">
+      <c r="A2465" t="inlineStr"/>
+      <c r="B2465" t="inlineStr">
+        <is>
+          <t>BR</t>
+        </is>
+      </c>
+      <c r="C2465" t="inlineStr">
+        <is>
+          <t>10-Year NTN-F Auction</t>
+        </is>
+      </c>
+      <c r="D2465" t="inlineStr"/>
+      <c r="E2465" t="inlineStr"/>
+      <c r="F2465" t="inlineStr"/>
+      <c r="G2465" t="inlineStr"/>
+      <c r="H2465" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2466">
+      <c r="A2466" t="inlineStr"/>
+      <c r="B2466" t="inlineStr">
+        <is>
+          <t>BR</t>
+        </is>
+      </c>
+      <c r="C2466" t="inlineStr">
+        <is>
+          <t>2-Year LTN Auction</t>
+        </is>
+      </c>
+      <c r="D2466" t="inlineStr"/>
+      <c r="E2466" t="inlineStr"/>
+      <c r="F2466" t="inlineStr"/>
+      <c r="G2466" t="inlineStr"/>
+      <c r="H2466" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2467">
+      <c r="A2467" t="inlineStr"/>
+      <c r="B2467" t="inlineStr">
+        <is>
+          <t>BR</t>
+        </is>
+      </c>
+      <c r="C2467" t="inlineStr">
+        <is>
+          <t>6-Month LTN Auction</t>
+        </is>
+      </c>
+      <c r="D2467" t="inlineStr"/>
+      <c r="E2467" t="inlineStr">
+        <is>
+          <t>14.5579%</t>
+        </is>
+      </c>
+      <c r="F2467" t="inlineStr"/>
+      <c r="G2467" t="inlineStr"/>
+      <c r="H2467" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2468">
+      <c r="A2468" t="inlineStr"/>
+      <c r="B2468" t="inlineStr">
+        <is>
+          <t>JP</t>
+        </is>
+      </c>
+      <c r="C2468" t="inlineStr">
+        <is>
+          <t>Foreign Exchange ReservesJAN</t>
+        </is>
+      </c>
+      <c r="D2468" t="inlineStr"/>
+      <c r="E2468" t="inlineStr"/>
+      <c r="F2468" t="inlineStr"/>
+      <c r="G2468" t="inlineStr"/>
+      <c r="H2468" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
